--- a/descargas/Indicadores ODS Asturias.xlsx
+++ b/descargas/Indicadores ODS Asturias.xlsx
@@ -39,7 +39,7 @@
     <t>Descripción</t>
   </si>
   <si>
-    <t>Unidad</t>
+    <t>Unidades</t>
   </si>
   <si>
     <t>Fuente</t>
@@ -648,19 +648,19 @@
     <t>Porcentaje</t>
   </si>
   <si>
-    <t>Por 100,000 habitantes</t>
-  </si>
-  <si>
-    <t>Por 100,000 nacidos vivos</t>
-  </si>
-  <si>
-    <t>Por 1,000 nacidos vivos</t>
-  </si>
-  <si>
-    <t>Por 1,000 habitantes</t>
-  </si>
-  <si>
-    <t>Por 10,000 habitantes</t>
+    <t>Por 100.000 habitantes</t>
+  </si>
+  <si>
+    <t>Por 100.000 nacidos vivos</t>
+  </si>
+  <si>
+    <t>Por 1.000 nacidos vivos</t>
+  </si>
+  <si>
+    <t>Por 1.000 habitantes</t>
+  </si>
+  <si>
+    <t>Por 10.000 habitantes</t>
   </si>
   <si>
     <t>Índice</t>

--- a/descargas/Indicadores ODS Asturias.xlsx
+++ b/descargas/Indicadores ODS Asturias.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="648">
   <si>
     <t>sadei</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Asturias</t>
   </si>
   <si>
-    <t>Última actualización: 04/02/2021</t>
+    <t>Última actualización: 24/02/2021</t>
   </si>
   <si>
     <t>Indicador</t>
@@ -672,16 +672,19 @@
     <t>Euros</t>
   </si>
   <si>
-    <t>Kilogramos</t>
+    <t>Kg de CO2 equivalente por euro de PIB</t>
   </si>
   <si>
     <t>Por millón de habitantes</t>
   </si>
   <si>
-    <t>Kilogramos de CO2 equivalente</t>
-  </si>
-  <si>
-    <t>Toneladas de CO2 equivalente</t>
+    <t>Kg per cápita</t>
+  </si>
+  <si>
+    <t>Kg per cápita diario</t>
+  </si>
+  <si>
+    <t>Toneladas de CO2 equivalente per cápita</t>
   </si>
   <si>
     <t>-</t>
@@ -2730,40 +2733,40 @@
         <v>208</v>
       </c>
       <c r="D9" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E9" t="s" s="25">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F9" t="s" s="25">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G9" t="s" s="25">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H9" t="s" s="25">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I9" t="s" s="25">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J9" t="s" s="25">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K9" t="s" s="25">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L9" t="s" s="25">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M9" t="s" s="25">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="N9" t="s" s="25">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O9" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="true">
@@ -2777,40 +2780,40 @@
         <v>208</v>
       </c>
       <c r="D10" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E10" t="s" s="25">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F10" t="s" s="25">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G10" t="s" s="25">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H10" t="s" s="25">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I10" t="s" s="25">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="J10" t="s" s="25">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K10" t="s" s="25">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L10" t="s" s="25">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M10" t="s" s="25">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N10" t="s" s="25">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O10" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" ht="15.0" customHeight="true">
@@ -2824,40 +2827,40 @@
         <v>208</v>
       </c>
       <c r="D11" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E11" t="s" s="25">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F11" t="s" s="25">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G11" t="s" s="25">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H11" t="s" s="25">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I11" t="s" s="25">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="J11" t="s" s="25">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K11" t="s" s="25">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L11" t="s" s="25">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M11" t="s" s="25">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N11" t="s" s="25">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="O11" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" ht="15.0" customHeight="true">
@@ -2871,40 +2874,40 @@
         <v>208</v>
       </c>
       <c r="D12" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E12" t="s" s="25">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F12" t="s" s="25">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G12" t="s" s="25">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H12" t="s" s="25">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I12" t="s" s="25">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J12" t="s" s="25">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K12" t="s" s="25">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L12" t="s" s="25">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M12" t="s" s="25">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="N12" t="s" s="25">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O12" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" ht="15.0" customHeight="true">
@@ -2918,40 +2921,40 @@
         <v>208</v>
       </c>
       <c r="D13" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E13" t="s" s="25">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F13" t="s" s="25">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G13" t="s" s="25">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H13" t="s" s="25">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I13" t="s" s="25">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="J13" t="s" s="25">
+        <v>478</v>
+      </c>
+      <c r="K13" t="s" s="25">
+        <v>519</v>
+      </c>
+      <c r="L13" t="s" s="25">
+        <v>332</v>
+      </c>
+      <c r="M13" t="s" s="25">
         <v>477</v>
       </c>
-      <c r="K13" t="s" s="25">
-        <v>518</v>
-      </c>
-      <c r="L13" t="s" s="25">
-        <v>331</v>
-      </c>
-      <c r="M13" t="s" s="25">
-        <v>476</v>
-      </c>
       <c r="N13" t="s" s="25">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="O13" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" ht="15.0" customHeight="true">
@@ -2965,40 +2968,40 @@
         <v>208</v>
       </c>
       <c r="D14" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E14" t="s" s="25">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F14" t="s" s="25">
+        <v>300</v>
+      </c>
+      <c r="G14" t="s" s="25">
+        <v>348</v>
+      </c>
+      <c r="H14" t="s" s="25">
+        <v>389</v>
+      </c>
+      <c r="I14" t="s" s="25">
+        <v>437</v>
+      </c>
+      <c r="J14" t="s" s="25">
+        <v>479</v>
+      </c>
+      <c r="K14" t="s" s="25">
+        <v>520</v>
+      </c>
+      <c r="L14" t="s" s="25">
         <v>299</v>
       </c>
-      <c r="G14" t="s" s="25">
-        <v>347</v>
-      </c>
-      <c r="H14" t="s" s="25">
-        <v>388</v>
-      </c>
-      <c r="I14" t="s" s="25">
-        <v>436</v>
-      </c>
-      <c r="J14" t="s" s="25">
-        <v>478</v>
-      </c>
-      <c r="K14" t="s" s="25">
-        <v>519</v>
-      </c>
-      <c r="L14" t="s" s="25">
-        <v>298</v>
-      </c>
       <c r="M14" t="s" s="25">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N14" t="s" s="25">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="O14" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" ht="15.0" customHeight="true">
@@ -3012,40 +3015,40 @@
         <v>208</v>
       </c>
       <c r="D15" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E15" t="s" s="25">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F15" t="s" s="25">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G15" t="s" s="25">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H15" t="s" s="25">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I15" t="s" s="25">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J15" t="s" s="25">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K15" t="s" s="25">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L15" t="s" s="25">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M15" t="s" s="25">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="N15" t="s" s="25">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O15" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" ht="15.0" customHeight="true">
@@ -3059,40 +3062,40 @@
         <v>208</v>
       </c>
       <c r="D16" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E16" t="s" s="25">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F16" t="s" s="25">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G16" t="s" s="25">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H16" t="s" s="25">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I16" t="s" s="25">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="J16" t="s" s="25">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K16" t="s" s="25">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L16" t="s" s="25">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M16" t="s" s="25">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N16" t="s" s="25">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O16" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" ht="15.0" customHeight="true">
@@ -3106,40 +3109,40 @@
         <v>209</v>
       </c>
       <c r="D17" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E17" t="s" s="25">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F17" t="s" s="25">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G17" t="s" s="25">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H17" t="s" s="25">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I17" t="s" s="25">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J17" t="s" s="25">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K17" t="s" s="25">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L17" t="s" s="25">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M17" t="s" s="25">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N17" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O17" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" ht="15.0" customHeight="true">
@@ -3153,40 +3156,40 @@
         <v>208</v>
       </c>
       <c r="D18" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E18" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F18" t="s" s="25">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G18" t="s" s="25">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H18" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I18" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J18" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K18" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L18" t="s" s="25">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M18" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N18" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O18" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" ht="15.0" customHeight="true">
@@ -3200,40 +3203,40 @@
         <v>208</v>
       </c>
       <c r="D19" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E19" t="s" s="25">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F19" t="s" s="25">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G19" t="s" s="25">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H19" t="s" s="25">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I19" t="s" s="25">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="J19" t="s" s="25">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K19" t="s" s="25">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L19" t="s" s="25">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M19" t="s" s="25">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N19" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O19" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" ht="15.0" customHeight="true">
@@ -3247,40 +3250,40 @@
         <v>210</v>
       </c>
       <c r="D20" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E20" t="s" s="25">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F20" t="s" s="25">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G20" t="s" s="25">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H20" t="s" s="25">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I20" t="s" s="25">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J20" t="s" s="25">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K20" t="s" s="25">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L20" t="s" s="25">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M20" t="s" s="25">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N20" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O20" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" ht="15.0" customHeight="true">
@@ -3294,40 +3297,40 @@
         <v>208</v>
       </c>
       <c r="D21" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E21" t="s" s="25">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F21" t="s" s="25">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G21" t="s" s="25">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H21" t="s" s="25">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I21" t="s" s="25">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J21" t="s" s="25">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K21" t="s" s="25">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L21" t="s" s="25">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M21" t="s" s="25">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N21" t="s" s="25">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O21" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" ht="15.0" customHeight="true">
@@ -3341,40 +3344,40 @@
         <v>211</v>
       </c>
       <c r="D22" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E22" t="s" s="25">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F22" t="s" s="25">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G22" t="s" s="25">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H22" t="s" s="25">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I22" t="s" s="25">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="J22" t="s" s="25">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="K22" t="s" s="25">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L22" t="s" s="25">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M22" t="s" s="25">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N22" t="s" s="25">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O22" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" ht="15.0" customHeight="true">
@@ -3388,40 +3391,40 @@
         <v>211</v>
       </c>
       <c r="D23" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E23" t="s" s="25">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F23" t="s" s="25">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G23" t="s" s="25">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H23" t="s" s="25">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I23" t="s" s="25">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="J23" t="s" s="25">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K23" t="s" s="25">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L23" t="s" s="25">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M23" t="s" s="25">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N23" t="s" s="25">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="O23" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" ht="15.0" customHeight="true">
@@ -3435,40 +3438,40 @@
         <v>209</v>
       </c>
       <c r="D24" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E24" t="s" s="25">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F24" t="s" s="25">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G24" t="s" s="25">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H24" t="s" s="25">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I24" t="s" s="25">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J24" t="s" s="25">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K24" t="s" s="25">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L24" t="s" s="25">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M24" t="s" s="25">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="N24" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O24" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" ht="15.0" customHeight="true">
@@ -3482,40 +3485,40 @@
         <v>209</v>
       </c>
       <c r="D25" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E25" t="s" s="25">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F25" t="s" s="25">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G25" t="s" s="25">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H25" t="s" s="25">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I25" t="s" s="25">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="J25" t="s" s="25">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K25" t="s" s="25">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L25" t="s" s="25">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M25" t="s" s="25">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N25" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O25" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" ht="15.0" customHeight="true">
@@ -3529,40 +3532,40 @@
         <v>209</v>
       </c>
       <c r="D26" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E26" t="s" s="25">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F26" t="s" s="25">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G26" t="s" s="25">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H26" t="s" s="25">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I26" t="s" s="25">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="J26" t="s" s="25">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K26" t="s" s="25">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L26" t="s" s="25">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M26" t="s" s="25">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="N26" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O26" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" ht="15.0" customHeight="true">
@@ -3576,40 +3579,40 @@
         <v>209</v>
       </c>
       <c r="D27" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E27" t="s" s="25">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F27" t="s" s="25">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G27" t="s" s="25">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H27" t="s" s="25">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I27" t="s" s="25">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="J27" t="s" s="25">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K27" t="s" s="25">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L27" t="s" s="25">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M27" t="s" s="25">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="N27" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O27" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" ht="15.0" customHeight="true">
@@ -3623,40 +3626,40 @@
         <v>209</v>
       </c>
       <c r="D28" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E28" t="s" s="25">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F28" t="s" s="25">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G28" t="s" s="25">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H28" t="s" s="25">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I28" t="s" s="25">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J28" t="s" s="25">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="K28" t="s" s="25">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L28" t="s" s="25">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M28" t="s" s="25">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N28" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O28" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" ht="15.0" customHeight="true">
@@ -3670,40 +3673,40 @@
         <v>209</v>
       </c>
       <c r="D29" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E29" t="s" s="25">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F29" t="s" s="25">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G29" t="s" s="25">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H29" t="s" s="25">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I29" t="s" s="25">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="J29" t="s" s="25">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="K29" t="s" s="25">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L29" t="s" s="25">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M29" t="s" s="25">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N29" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O29" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" ht="15.0" customHeight="true">
@@ -3717,40 +3720,40 @@
         <v>212</v>
       </c>
       <c r="D30" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E30" t="s" s="25">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F30" t="s" s="25">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G30" t="s" s="25">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H30" t="s" s="25">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I30" t="s" s="25">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J30" t="s" s="25">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K30" t="s" s="25">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L30" t="s" s="25">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M30" t="s" s="25">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N30" t="s" s="25">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O30" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" ht="15.0" customHeight="true">
@@ -3764,40 +3767,40 @@
         <v>212</v>
       </c>
       <c r="D31" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E31" t="s" s="25">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F31" t="s" s="25">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G31" t="s" s="25">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H31" t="s" s="25">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I31" t="s" s="25">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J31" t="s" s="25">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K31" t="s" s="25">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L31" t="s" s="25">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M31" t="s" s="25">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N31" t="s" s="25">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="O31" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" ht="15.0" customHeight="true">
@@ -3811,40 +3814,40 @@
         <v>208</v>
       </c>
       <c r="D32" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E32" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F32" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G32" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H32" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I32" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J32" t="s" s="25">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K32" t="s" s="25">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L32" t="s" s="25">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M32" t="s" s="25">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N32" t="s" s="25">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O32" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" ht="15.0" customHeight="true">
@@ -3858,40 +3861,40 @@
         <v>209</v>
       </c>
       <c r="D33" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E33" t="s" s="25">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F33" t="s" s="25">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G33" t="s" s="25">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H33" t="s" s="25">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I33" t="s" s="25">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J33" t="s" s="25">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K33" t="s" s="25">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L33" t="s" s="25">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M33" t="s" s="25">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N33" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O33" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" ht="15.0" customHeight="true">
@@ -3905,40 +3908,40 @@
         <v>208</v>
       </c>
       <c r="D34" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E34" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F34" t="s" s="25">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G34" t="s" s="25">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H34" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I34" t="s" s="25">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="J34" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K34" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L34" t="s" s="25">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M34" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N34" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O34" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" ht="15.0" customHeight="true">
@@ -3952,40 +3955,40 @@
         <v>213</v>
       </c>
       <c r="D35" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E35" t="s" s="25">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F35" t="s" s="25">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G35" t="s" s="25">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H35" t="s" s="25">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I35" t="s" s="25">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="J35" t="s" s="25">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K35" t="s" s="25">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L35" t="s" s="25">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M35" t="s" s="25">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="N35" t="s" s="25">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="O35" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" ht="15.0" customHeight="true">
@@ -3999,40 +4002,40 @@
         <v>213</v>
       </c>
       <c r="D36" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E36" t="s" s="25">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F36" t="s" s="25">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G36" t="s" s="25">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H36" t="s" s="25">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I36" t="s" s="25">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="J36" t="s" s="25">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K36" t="s" s="25">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L36" t="s" s="25">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M36" t="s" s="25">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="N36" t="s" s="25">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="O36" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" ht="15.0" customHeight="true">
@@ -4046,40 +4049,40 @@
         <v>213</v>
       </c>
       <c r="D37" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E37" t="s" s="25">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F37" t="s" s="25">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G37" t="s" s="25">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H37" t="s" s="25">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I37" t="s" s="25">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="J37" t="s" s="25">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="K37" t="s" s="25">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L37" t="s" s="25">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M37" t="s" s="25">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N37" t="s" s="25">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="O37" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38" ht="15.0" customHeight="true">
@@ -4093,40 +4096,40 @@
         <v>213</v>
       </c>
       <c r="D38" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E38" t="s" s="25">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F38" t="s" s="25">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G38" t="s" s="25">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H38" t="s" s="25">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I38" t="s" s="25">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="J38" t="s" s="25">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K38" t="s" s="25">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L38" t="s" s="25">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M38" t="s" s="25">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N38" t="s" s="25">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O38" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" ht="15.0" customHeight="true">
@@ -4140,40 +4143,40 @@
         <v>208</v>
       </c>
       <c r="D39" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E39" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F39" t="s" s="25">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G39" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H39" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I39" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J39" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K39" t="s" s="25">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L39" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M39" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N39" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O39" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" ht="15.0" customHeight="true">
@@ -4187,40 +4190,40 @@
         <v>208</v>
       </c>
       <c r="D40" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E40" t="s" s="25">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F40" t="s" s="25">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G40" t="s" s="25">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H40" t="s" s="25">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I40" t="s" s="25">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="J40" t="s" s="25">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="K40" t="s" s="25">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L40" t="s" s="25">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M40" t="s" s="25">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N40" t="s" s="25">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O40" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" ht="15.0" customHeight="true">
@@ -4234,40 +4237,40 @@
         <v>208</v>
       </c>
       <c r="D41" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E41" t="s" s="25">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F41" t="s" s="25">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G41" t="s" s="25">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H41" t="s" s="25">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I41" t="s" s="25">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="J41" t="s" s="25">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K41" t="s" s="25">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L41" t="s" s="25">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M41" t="s" s="25">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="N41" t="s" s="25">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="O41" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="42" ht="15.0" customHeight="true">
@@ -4281,40 +4284,40 @@
         <v>208</v>
       </c>
       <c r="D42" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E42" t="s" s="25">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F42" t="s" s="25">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G42" t="s" s="25">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H42" t="s" s="25">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I42" t="s" s="25">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J42" t="s" s="25">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K42" t="s" s="25">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="L42" t="s" s="25">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M42" t="s" s="25">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N42" t="s" s="25">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="O42" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" ht="15.0" customHeight="true">
@@ -4328,40 +4331,40 @@
         <v>208</v>
       </c>
       <c r="D43" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E43" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F43" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G43" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H43" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I43" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J43" t="s" s="25">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K43" t="s" s="25">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L43" t="s" s="25">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M43" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N43" t="s" s="25">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="O43" t="s" s="25">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="44" ht="15.0" customHeight="true">
@@ -4375,40 +4378,40 @@
         <v>208</v>
       </c>
       <c r="D44" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E44" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F44" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G44" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H44" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I44" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J44" t="s" s="25">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K44" t="s" s="25">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L44" t="s" s="25">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M44" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N44" t="s" s="25">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O44" t="s" s="25">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="45" ht="15.0" customHeight="true">
@@ -4422,40 +4425,40 @@
         <v>208</v>
       </c>
       <c r="D45" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E45" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F45" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G45" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H45" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I45" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J45" t="s" s="25">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K45" t="s" s="25">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L45" t="s" s="25">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="M45" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N45" t="s" s="25">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O45" t="s" s="25">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="46" ht="15.0" customHeight="true">
@@ -4469,40 +4472,40 @@
         <v>214</v>
       </c>
       <c r="D46" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E46" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F46" t="s" s="25">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G46" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H46" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I46" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J46" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K46" t="s" s="25">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L46" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M46" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N46" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O46" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="47" ht="15.0" customHeight="true">
@@ -4516,40 +4519,40 @@
         <v>214</v>
       </c>
       <c r="D47" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E47" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F47" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G47" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H47" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I47" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J47" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K47" t="s" s="25">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L47" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M47" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N47" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O47" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="48" ht="15.0" customHeight="true">
@@ -4563,40 +4566,40 @@
         <v>214</v>
       </c>
       <c r="D48" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E48" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F48" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G48" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H48" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I48" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J48" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K48" t="s" s="25">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L48" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M48" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N48" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O48" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="49" ht="15.0" customHeight="true">
@@ -4610,40 +4613,40 @@
         <v>214</v>
       </c>
       <c r="D49" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E49" t="s" s="25">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F49" t="s" s="25">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G49" t="s" s="25">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H49" t="s" s="25">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I49" t="s" s="25">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="J49" t="s" s="25">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K49" t="s" s="25">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L49" t="s" s="25">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M49" t="s" s="25">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="N49" t="s" s="25">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="O49" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="50" ht="15.0" customHeight="true">
@@ -4657,40 +4660,40 @@
         <v>214</v>
       </c>
       <c r="D50" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E50" t="s" s="25">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F50" t="s" s="25">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G50" t="s" s="25">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H50" t="s" s="25">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I50" t="s" s="25">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J50" t="s" s="25">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K50" t="s" s="25">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L50" t="s" s="25">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M50" t="s" s="25">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N50" t="s" s="25">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="O50" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="51" ht="15.0" customHeight="true">
@@ -4704,40 +4707,40 @@
         <v>215</v>
       </c>
       <c r="D51" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E51" t="s" s="25">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F51" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G51" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H51" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I51" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J51" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K51" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L51" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M51" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N51" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O51" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="52" ht="15.0" customHeight="true">
@@ -4751,40 +4754,40 @@
         <v>215</v>
       </c>
       <c r="D52" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E52" t="s" s="25">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F52" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G52" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H52" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I52" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J52" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K52" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L52" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M52" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N52" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O52" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="53" ht="15.0" customHeight="true">
@@ -4798,40 +4801,40 @@
         <v>215</v>
       </c>
       <c r="D53" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E53" t="s" s="25">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F53" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G53" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H53" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I53" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J53" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K53" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L53" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M53" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N53" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O53" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="54" ht="15.0" customHeight="true">
@@ -4845,40 +4848,40 @@
         <v>208</v>
       </c>
       <c r="D54" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E54" t="s" s="25">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F54" t="s" s="25">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G54" t="s" s="25">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H54" t="s" s="25">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I54" t="s" s="25">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="J54" t="s" s="25">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="K54" t="s" s="25">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L54" t="s" s="25">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M54" t="s" s="25">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="N54" t="s" s="25">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="O54" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="55" ht="15.0" customHeight="true">
@@ -4892,40 +4895,40 @@
         <v>208</v>
       </c>
       <c r="D55" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E55" t="s" s="25">
+        <v>265</v>
+      </c>
+      <c r="F55" t="s" s="25">
+        <v>325</v>
+      </c>
+      <c r="G55" t="s" s="25">
+        <v>370</v>
+      </c>
+      <c r="H55" t="s" s="25">
         <v>264</v>
       </c>
-      <c r="F55" t="s" s="25">
-        <v>324</v>
-      </c>
-      <c r="G55" t="s" s="25">
-        <v>369</v>
-      </c>
-      <c r="H55" t="s" s="25">
-        <v>263</v>
-      </c>
       <c r="I55" t="s" s="25">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="J55" t="s" s="25">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K55" t="s" s="25">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L55" t="s" s="25">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M55" t="s" s="25">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="N55" t="s" s="25">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="O55" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="56" ht="15.0" customHeight="true">
@@ -4939,40 +4942,40 @@
         <v>208</v>
       </c>
       <c r="D56" t="s" s="25">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E56" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F56" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G56" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H56" t="s" s="25">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I56" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J56" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K56" t="s" s="25">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L56" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M56" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N56" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O56" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="57" ht="15.0" customHeight="true">
@@ -4986,40 +4989,40 @@
         <v>208</v>
       </c>
       <c r="D57" t="s" s="25">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E57" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F57" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G57" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H57" t="s" s="25">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I57" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J57" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K57" t="s" s="25">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L57" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M57" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N57" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O57" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="58" ht="15.0" customHeight="true">
@@ -5033,40 +5036,40 @@
         <v>208</v>
       </c>
       <c r="D58" t="s" s="25">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E58" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F58" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G58" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H58" t="s" s="25">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I58" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J58" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K58" t="s" s="25">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L58" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M58" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N58" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O58" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="59" ht="15.0" customHeight="true">
@@ -5080,40 +5083,40 @@
         <v>208</v>
       </c>
       <c r="D59" t="s" s="25">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E59" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F59" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G59" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H59" t="s" s="25">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I59" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J59" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K59" t="s" s="25">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L59" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M59" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N59" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O59" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="60" ht="15.0" customHeight="true">
@@ -5127,40 +5130,40 @@
         <v>208</v>
       </c>
       <c r="D60" t="s" s="25">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E60" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F60" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G60" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H60" t="s" s="25">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="I60" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J60" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K60" t="s" s="25">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L60" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M60" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N60" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O60" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61" ht="15.0" customHeight="true">
@@ -5174,40 +5177,40 @@
         <v>208</v>
       </c>
       <c r="D61" t="s" s="25">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E61" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F61" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G61" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H61" t="s" s="25">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I61" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J61" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K61" t="s" s="25">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="L61" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M61" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N61" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O61" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="62" ht="15.0" customHeight="true">
@@ -5221,40 +5224,40 @@
         <v>208</v>
       </c>
       <c r="D62" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E62" t="s" s="25">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F62" t="s" s="25">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G62" t="s" s="25">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H62" t="s" s="25">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="I62" t="s" s="25">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="J62" t="s" s="25">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K62" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L62" t="s" s="25">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="M62" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N62" t="s" s="25">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="O62" t="s" s="25">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="63" ht="15.0" customHeight="true">
@@ -5268,40 +5271,40 @@
         <v>208</v>
       </c>
       <c r="D63" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E63" t="s" s="25">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F63" t="s" s="25">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G63" t="s" s="25">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H63" t="s" s="25">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I63" t="s" s="25">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="J63" t="s" s="25">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K63" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L63" t="s" s="25">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M63" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N63" t="s" s="25">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="O63" t="s" s="25">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="64" ht="15.0" customHeight="true">
@@ -5315,40 +5318,40 @@
         <v>208</v>
       </c>
       <c r="D64" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E64" t="s" s="25">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F64" t="s" s="25">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G64" t="s" s="25">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H64" t="s" s="25">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I64" t="s" s="25">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J64" t="s" s="25">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K64" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L64" t="s" s="25">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M64" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N64" t="s" s="25">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="O64" t="s" s="25">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="65" ht="15.0" customHeight="true">
@@ -5362,40 +5365,40 @@
         <v>208</v>
       </c>
       <c r="D65" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E65" t="s" s="25">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F65" t="s" s="25">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G65" t="s" s="25">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H65" t="s" s="25">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I65" t="s" s="25">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="J65" t="s" s="25">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K65" t="s" s="25">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L65" t="s" s="25">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M65" t="s" s="25">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="N65" t="s" s="25">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O65" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="66" ht="15.0" customHeight="true">
@@ -5409,40 +5412,40 @@
         <v>208</v>
       </c>
       <c r="D66" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E66" t="s" s="25">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F66" t="s" s="25">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G66" t="s" s="25">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H66" t="s" s="25">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I66" t="s" s="25">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="J66" t="s" s="25">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K66" t="s" s="25">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L66" t="s" s="25">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M66" t="s" s="25">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N66" t="s" s="25">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="O66" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="67" ht="15.0" customHeight="true">
@@ -5456,40 +5459,40 @@
         <v>208</v>
       </c>
       <c r="D67" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E67" t="s" s="25">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F67" t="s" s="25">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G67" t="s" s="25">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H67" t="s" s="25">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I67" t="s" s="25">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="J67" t="s" s="25">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K67" t="s" s="25">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L67" t="s" s="25">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M67" t="s" s="25">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="N67" t="s" s="25">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="O67" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="68" ht="15.0" customHeight="true">
@@ -5503,40 +5506,40 @@
         <v>216</v>
       </c>
       <c r="D68" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E68" t="s" s="25">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F68" t="s" s="25">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G68" t="s" s="25">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H68" t="s" s="25">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I68" t="s" s="25">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="J68" t="s" s="25">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K68" t="s" s="25">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L68" t="s" s="25">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M68" t="s" s="25">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N68" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O68" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="69" ht="15.0" customHeight="true">
@@ -5550,40 +5553,40 @@
         <v>216</v>
       </c>
       <c r="D69" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E69" t="s" s="25">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F69" t="s" s="25">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G69" t="s" s="25">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H69" t="s" s="25">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I69" t="s" s="25">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J69" t="s" s="25">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K69" t="s" s="25">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L69" t="s" s="25">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M69" t="s" s="25">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N69" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O69" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="70" ht="15.0" customHeight="true">
@@ -5597,40 +5600,40 @@
         <v>216</v>
       </c>
       <c r="D70" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E70" t="s" s="25">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F70" t="s" s="25">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G70" t="s" s="25">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H70" t="s" s="25">
+        <v>282</v>
+      </c>
+      <c r="I70" t="s" s="25">
         <v>281</v>
       </c>
-      <c r="I70" t="s" s="25">
-        <v>280</v>
-      </c>
       <c r="J70" t="s" s="25">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K70" t="s" s="25">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L70" t="s" s="25">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M70" t="s" s="25">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="N70" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O70" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71" ht="15.0" customHeight="true">
@@ -5644,40 +5647,40 @@
         <v>208</v>
       </c>
       <c r="D71" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E71" t="s" s="25">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F71" t="s" s="25">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G71" t="s" s="25">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H71" t="s" s="25">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I71" t="s" s="25">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="J71" t="s" s="25">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K71" t="s" s="25">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L71" t="s" s="25">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M71" t="s" s="25">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N71" t="s" s="25">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O71" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="72" ht="15.0" customHeight="true">
@@ -5691,40 +5694,40 @@
         <v>208</v>
       </c>
       <c r="D72" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E72" t="s" s="25">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F72" t="s" s="25">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G72" t="s" s="25">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H72" t="s" s="25">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="I72" t="s" s="25">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J72" t="s" s="25">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K72" t="s" s="25">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="L72" t="s" s="25">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M72" t="s" s="25">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N72" t="s" s="25">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O72" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="73" ht="15.0" customHeight="true">
@@ -5738,40 +5741,40 @@
         <v>208</v>
       </c>
       <c r="D73" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E73" t="s" s="25">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F73" t="s" s="25">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G73" t="s" s="25">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H73" t="s" s="25">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I73" t="s" s="25">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="J73" t="s" s="25">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K73" t="s" s="25">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L73" t="s" s="25">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M73" t="s" s="25">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N73" t="s" s="25">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="O73" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="74" ht="15.0" customHeight="true">
@@ -5785,40 +5788,40 @@
         <v>208</v>
       </c>
       <c r="D74" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E74" t="s" s="25">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F74" t="s" s="25">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G74" t="s" s="25">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H74" t="s" s="25">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I74" t="s" s="25">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="J74" t="s" s="25">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K74" t="s" s="25">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L74" t="s" s="25">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M74" t="s" s="25">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N74" t="s" s="25">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O74" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="75" ht="15.0" customHeight="true">
@@ -5832,40 +5835,40 @@
         <v>208</v>
       </c>
       <c r="D75" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E75" t="s" s="25">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F75" t="s" s="25">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G75" t="s" s="25">
+        <v>282</v>
+      </c>
+      <c r="H75" t="s" s="25">
         <v>281</v>
       </c>
-      <c r="H75" t="s" s="25">
-        <v>280</v>
-      </c>
       <c r="I75" t="s" s="25">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J75" t="s" s="25">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K75" t="s" s="25">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L75" t="s" s="25">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M75" t="s" s="25">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N75" t="s" s="25">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O75" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="76" ht="15.0" customHeight="true">
@@ -5879,40 +5882,40 @@
         <v>216</v>
       </c>
       <c r="D76" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E76" t="s" s="25">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F76" t="s" s="25">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G76" t="s" s="25">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H76" t="s" s="25">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I76" t="s" s="25">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="J76" t="s" s="25">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="K76" t="s" s="25">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L76" t="s" s="25">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M76" t="s" s="25">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="N76" t="s" s="25">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="O76" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="77" ht="15.0" customHeight="true">
@@ -5926,40 +5929,40 @@
         <v>208</v>
       </c>
       <c r="D77" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E77" t="s" s="25">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F77" t="s" s="25">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G77" t="s" s="25">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H77" t="s" s="25">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I77" t="s" s="25">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J77" t="s" s="25">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K77" t="s" s="25">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L77" t="s" s="25">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M77" t="s" s="25">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N77" t="s" s="25">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="O77" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="78" ht="15.0" customHeight="true">
@@ -5973,40 +5976,40 @@
         <v>208</v>
       </c>
       <c r="D78" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E78" t="s" s="25">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F78" t="s" s="25">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G78" t="s" s="25">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H78" t="s" s="25">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="I78" t="s" s="25">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J78" t="s" s="25">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K78" t="s" s="25">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L78" t="s" s="25">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M78" t="s" s="25">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N78" t="s" s="25">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O78" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="79" ht="15.0" customHeight="true">
@@ -6020,40 +6023,40 @@
         <v>208</v>
       </c>
       <c r="D79" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E79" t="s" s="25">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F79" t="s" s="25">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G79" t="s" s="25">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H79" t="s" s="25">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="I79" t="s" s="25">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J79" t="s" s="25">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K79" t="s" s="25">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L79" t="s" s="25">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M79" t="s" s="25">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N79" t="s" s="25">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="O79" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" ht="15.0" customHeight="true">
@@ -6067,40 +6070,40 @@
         <v>217</v>
       </c>
       <c r="D80" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E80" t="s" s="25">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F80" t="s" s="25">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G80" t="s" s="25">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H80" t="s" s="25">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I80" t="s" s="25">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J80" t="s" s="25">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K80" t="s" s="25">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L80" t="s" s="25">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M80" t="s" s="25">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N80" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O80" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="81" ht="15.0" customHeight="true">
@@ -6114,40 +6117,40 @@
         <v>217</v>
       </c>
       <c r="D81" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E81" t="s" s="25">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F81" t="s" s="25">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G81" t="s" s="25">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H81" t="s" s="25">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I81" t="s" s="25">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="J81" t="s" s="25">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="K81" t="s" s="25">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L81" t="s" s="25">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M81" t="s" s="25">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="N81" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O81" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="82" ht="15.0" customHeight="true">
@@ -6161,40 +6164,40 @@
         <v>208</v>
       </c>
       <c r="D82" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E82" t="s" s="25">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F82" t="s" s="25">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G82" t="s" s="25">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H82" t="s" s="25">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I82" t="s" s="25">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J82" t="s" s="25">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K82" t="s" s="25">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L82" t="s" s="25">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M82" t="s" s="25">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N82" t="s" s="25">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O82" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="83" ht="15.0" customHeight="true">
@@ -6208,40 +6211,40 @@
         <v>218</v>
       </c>
       <c r="D83" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E83" t="s" s="25">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F83" t="s" s="25">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G83" t="s" s="25">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H83" t="s" s="25">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I83" t="s" s="25">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="J83" t="s" s="25">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K83" t="s" s="25">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L83" t="s" s="25">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M83" t="s" s="25">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="N83" t="s" s="25">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="O83" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="84" ht="15.0" customHeight="true">
@@ -6255,40 +6258,40 @@
         <v>208</v>
       </c>
       <c r="D84" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E84" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F84" t="s" s="25">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G84" t="s" s="25">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H84" t="s" s="25">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="I84" t="s" s="25">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J84" t="s" s="25">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K84" t="s" s="25">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L84" t="s" s="25">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M84" t="s" s="25">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="N84" t="s" s="25">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O84" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="85" ht="15.0" customHeight="true">
@@ -6302,40 +6305,40 @@
         <v>208</v>
       </c>
       <c r="D85" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E85" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F85" t="s" s="25">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G85" t="s" s="25">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H85" t="s" s="25">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="I85" t="s" s="25">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="J85" t="s" s="25">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K85" t="s" s="25">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L85" t="s" s="25">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M85" t="s" s="25">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N85" t="s" s="25">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O85" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="86" ht="15.0" customHeight="true">
@@ -6349,40 +6352,40 @@
         <v>208</v>
       </c>
       <c r="D86" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E86" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F86" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G86" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H86" t="s" s="25">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="I86" t="s" s="25">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J86" t="s" s="25">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K86" t="s" s="25">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L86" t="s" s="25">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M86" t="s" s="25">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N86" t="s" s="25">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O86" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="87" ht="15.0" customHeight="true">
@@ -6396,40 +6399,40 @@
         <v>208</v>
       </c>
       <c r="D87" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E87" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F87" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G87" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H87" t="s" s="25">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I87" t="s" s="25">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="J87" t="s" s="25">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="K87" t="s" s="25">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L87" t="s" s="25">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M87" t="s" s="25">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N87" t="s" s="25">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O87" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="88" ht="15.0" customHeight="true">
@@ -6443,40 +6446,40 @@
         <v>208</v>
       </c>
       <c r="D88" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E88" t="s" s="25">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F88" t="s" s="25">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G88" t="s" s="25">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H88" t="s" s="25">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I88" t="s" s="25">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J88" t="s" s="25">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K88" t="s" s="25">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L88" t="s" s="25">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M88" t="s" s="25">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N88" t="s" s="25">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O88" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="89" ht="15.0" customHeight="true">
@@ -6490,40 +6493,40 @@
         <v>208</v>
       </c>
       <c r="D89" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E89" t="s" s="25">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F89" t="s" s="25">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G89" t="s" s="25">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H89" t="s" s="25">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I89" t="s" s="25">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="J89" t="s" s="25">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K89" t="s" s="25">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L89" t="s" s="25">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M89" t="s" s="25">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N89" t="s" s="25">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O89" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="90" ht="15.0" customHeight="true">
@@ -6537,40 +6540,40 @@
         <v>208</v>
       </c>
       <c r="D90" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E90" t="s" s="25">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F90" t="s" s="25">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G90" t="s" s="25">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H90" t="s" s="25">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I90" t="s" s="25">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="J90" t="s" s="25">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K90" t="s" s="25">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L90" t="s" s="25">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M90" t="s" s="25">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N90" t="s" s="25">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O90" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="91" ht="15.0" customHeight="true">
@@ -6584,40 +6587,40 @@
         <v>208</v>
       </c>
       <c r="D91" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E91" t="s" s="25">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F91" t="s" s="25">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G91" t="s" s="25">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H91" t="s" s="25">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I91" t="s" s="25">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="J91" t="s" s="25">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K91" t="s" s="25">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L91" t="s" s="25">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M91" t="s" s="25">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="N91" t="s" s="25">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="O91" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="92" ht="15.0" customHeight="true">
@@ -6631,40 +6634,40 @@
         <v>209</v>
       </c>
       <c r="D92" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E92" t="s" s="25">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F92" t="s" s="25">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G92" t="s" s="25">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H92" t="s" s="25">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I92" t="s" s="25">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J92" t="s" s="25">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K92" t="s" s="25">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L92" t="s" s="25">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M92" t="s" s="25">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N92" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O92" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="93" ht="15.0" customHeight="true">
@@ -6675,43 +6678,43 @@
         <v>198</v>
       </c>
       <c r="C93" t="s" s="21">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D93" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E93" t="s" s="25">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F93" t="s" s="25">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G93" t="s" s="25">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H93" t="s" s="25">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="I93" t="s" s="25">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="J93" t="s" s="25">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="K93" t="s" s="25">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="L93" t="s" s="25">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M93" t="s" s="25">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N93" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O93" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="94" ht="15.0" customHeight="true">
@@ -6725,40 +6728,40 @@
         <v>208</v>
       </c>
       <c r="D94" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E94" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F94" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G94" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H94" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I94" t="s" s="25">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J94" t="s" s="25">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K94" t="s" s="25">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L94" t="s" s="25">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M94" t="s" s="25">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N94" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O94" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="95" ht="15.0" customHeight="true">
@@ -6772,40 +6775,40 @@
         <v>208</v>
       </c>
       <c r="D95" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E95" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F95" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G95" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H95" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I95" t="s" s="25">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="J95" t="s" s="25">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K95" t="s" s="25">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L95" t="s" s="25">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M95" t="s" s="25">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="N95" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O95" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="96" ht="15.0" customHeight="true">
@@ -6819,40 +6822,40 @@
         <v>208</v>
       </c>
       <c r="D96" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E96" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F96" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G96" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H96" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I96" t="s" s="25">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J96" t="s" s="25">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="K96" t="s" s="25">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L96" t="s" s="25">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="M96" t="s" s="25">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="N96" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O96" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="97" ht="15.0" customHeight="true">
@@ -6863,43 +6866,43 @@
         <v>202</v>
       </c>
       <c r="C97" t="s" s="21">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D97" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E97" t="s" s="25">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F97" t="s" s="25">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G97" t="s" s="25">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H97" t="s" s="25">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I97" t="s" s="25">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J97" t="s" s="25">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K97" t="s" s="25">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L97" t="s" s="25">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M97" t="s" s="25">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N97" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O97" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="98" ht="15.0" customHeight="true">
@@ -6913,40 +6916,40 @@
         <v>209</v>
       </c>
       <c r="D98" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E98" t="s" s="25">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F98" t="s" s="25">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G98" t="s" s="25">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H98" t="s" s="25">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I98" t="s" s="25">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J98" t="s" s="25">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K98" t="s" s="25">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L98" t="s" s="25">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M98" t="s" s="25">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N98" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O98" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="99" ht="15.0" customHeight="true">
@@ -6957,43 +6960,43 @@
         <v>203</v>
       </c>
       <c r="C99" t="s" s="21">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D99" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E99" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F99" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G99" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H99" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I99" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J99" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K99" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L99" t="s" s="25">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M99" t="s" s="25">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N99" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O99" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="100" ht="15.0" customHeight="true">
@@ -7004,43 +7007,43 @@
         <v>204</v>
       </c>
       <c r="C100" t="s" s="21">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D100" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E100" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F100" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G100" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H100" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I100" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J100" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K100" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L100" t="s" s="25">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M100" t="s" s="25">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N100" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O100" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="101" ht="15.0" customHeight="true">
@@ -7054,40 +7057,40 @@
         <v>208</v>
       </c>
       <c r="D101" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E101" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F101" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G101" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H101" t="s" s="25">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I101" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J101" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K101" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L101" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M101" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N101" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O101" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="102" ht="15.0" customHeight="true">
@@ -7101,40 +7104,40 @@
         <v>208</v>
       </c>
       <c r="D102" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E102" t="s" s="25">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F102" t="s" s="25">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G102" t="s" s="25">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H102" t="s" s="25">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="I102" t="s" s="25">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J102" t="s" s="25">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="K102" t="s" s="25">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L102" t="s" s="25">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M102" t="s" s="25">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="N102" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O102" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="103" ht="15.0" customHeight="true">
@@ -7148,40 +7151,40 @@
         <v>208</v>
       </c>
       <c r="D103" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E103" t="s" s="25">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F103" t="s" s="25">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G103" t="s" s="25">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H103" t="s" s="25">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="I103" t="s" s="25">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J103" t="s" s="25">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K103" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L103" t="s" s="25">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M103" t="s" s="25">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N103" t="s" s="25">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="O103" t="s" s="25">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="104" ht="15.0" customHeight="true">
@@ -7220,7 +7223,7 @@
     </row>
     <row r="106" ht="15.0" customHeight="true">
       <c r="A106" s="21" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B106" s="21"/>
       <c r="C106" s="21"/>

--- a/descargas/Indicadores ODS Asturias.xlsx
+++ b/descargas/Indicadores ODS Asturias.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="652">
   <si>
     <t>sadei</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Asturias</t>
   </si>
   <si>
-    <t>Última actualización: 24/02/2021</t>
+    <t>Última actualización: 19/03/2021</t>
   </si>
   <si>
     <t>Indicador</t>
@@ -789,1168 +789,1180 @@
     <t>12,2</t>
   </si>
   <si>
+    <t>16,4</t>
+  </si>
+  <si>
+    <t>68,0</t>
+  </si>
+  <si>
+    <t>9,1</t>
+  </si>
+  <si>
+    <t>99,5</t>
+  </si>
+  <si>
+    <t>80,2</t>
+  </si>
+  <si>
+    <t>181,5</t>
+  </si>
+  <si>
+    <t>107,4</t>
+  </si>
+  <si>
+    <t>248,8</t>
+  </si>
+  <si>
+    <t>30,9</t>
+  </si>
+  <si>
+    <t>34,9</t>
+  </si>
+  <si>
+    <t>90,9</t>
+  </si>
+  <si>
+    <t>90,5</t>
+  </si>
+  <si>
+    <t>91,4</t>
+  </si>
+  <si>
+    <t>0,7</t>
+  </si>
+  <si>
+    <t>3,6</t>
+  </si>
+  <si>
+    <t>4,0</t>
+  </si>
+  <si>
+    <t>14,1</t>
+  </si>
+  <si>
+    <t>15,5</t>
+  </si>
+  <si>
+    <t>12,4</t>
+  </si>
+  <si>
+    <t>15,9</t>
+  </si>
+  <si>
+    <t>15,2</t>
+  </si>
+  <si>
+    <t>16,8</t>
+  </si>
+  <si>
+    <t>17,3</t>
+  </si>
+  <si>
+    <t>14,2</t>
+  </si>
+  <si>
+    <t>2.998,2</t>
+  </si>
+  <si>
+    <t>12,5</t>
+  </si>
+  <si>
+    <t>12,6</t>
+  </si>
+  <si>
+    <t>12,7</t>
+  </si>
+  <si>
+    <t>0,9</t>
+  </si>
+  <si>
+    <t>2,7</t>
+  </si>
+  <si>
+    <t>1,0</t>
+  </si>
+  <si>
+    <t>2.389,2</t>
+  </si>
+  <si>
+    <t>6,7</t>
+  </si>
+  <si>
+    <t>8,5</t>
+  </si>
+  <si>
+    <t>48,3</t>
+  </si>
+  <si>
+    <t>15,7</t>
+  </si>
+  <si>
+    <t>574,0</t>
+  </si>
+  <si>
+    <t>1,6</t>
+  </si>
+  <si>
+    <t>23,5</t>
+  </si>
+  <si>
+    <t>62,3</t>
+  </si>
+  <si>
+    <t>19,6</t>
+  </si>
+  <si>
+    <t>10,7</t>
+  </si>
+  <si>
+    <t>16,0</t>
+  </si>
+  <si>
+    <t>20,4</t>
+  </si>
+  <si>
+    <t>25,4</t>
+  </si>
+  <si>
+    <t>0,8</t>
+  </si>
+  <si>
+    <t>12,8</t>
+  </si>
+  <si>
+    <t>37,6</t>
+  </si>
+  <si>
+    <t>5,0</t>
+  </si>
+  <si>
+    <t>5,1</t>
+  </si>
+  <si>
+    <t>376,1</t>
+  </si>
+  <si>
+    <t>341,0</t>
+  </si>
+  <si>
+    <t>38,2</t>
+  </si>
+  <si>
+    <t>96,8</t>
+  </si>
+  <si>
+    <t>4,9</t>
+  </si>
+  <si>
+    <t>7,6</t>
+  </si>
+  <si>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t>21,8</t>
+  </si>
+  <si>
+    <t>48,2</t>
+  </si>
+  <si>
+    <t>60,3</t>
+  </si>
+  <si>
+    <t>6,3</t>
+  </si>
+  <si>
+    <t>12,3</t>
+  </si>
+  <si>
+    <t>42,3</t>
+  </si>
+  <si>
+    <t>17,4</t>
+  </si>
+  <si>
+    <t>72,5</t>
+  </si>
+  <si>
+    <t>10,1</t>
+  </si>
+  <si>
+    <t>107,7</t>
+  </si>
+  <si>
+    <t>107,9</t>
+  </si>
+  <si>
+    <t>64,1</t>
+  </si>
+  <si>
+    <t>35,3</t>
+  </si>
+  <si>
+    <t>29,8</t>
+  </si>
+  <si>
+    <t>91,8</t>
+  </si>
+  <si>
+    <t>92,3</t>
+  </si>
+  <si>
+    <t>91,3</t>
+  </si>
+  <si>
+    <t>-1,0</t>
+  </si>
+  <si>
+    <t>17,8</t>
+  </si>
+  <si>
+    <t>18,3</t>
+  </si>
+  <si>
+    <t>17,2</t>
+  </si>
+  <si>
+    <t>13,6</t>
+  </si>
+  <si>
+    <t>2.829,6</t>
+  </si>
+  <si>
+    <t>11,9</t>
+  </si>
+  <si>
+    <t>2.291,6</t>
+  </si>
+  <si>
+    <t>8,1</t>
+  </si>
+  <si>
+    <t>12,1</t>
+  </si>
+  <si>
+    <t>47,8</t>
+  </si>
+  <si>
+    <t>537,1</t>
+  </si>
+  <si>
+    <t>21,2</t>
+  </si>
+  <si>
+    <t>66,2</t>
+  </si>
+  <si>
+    <t>13,0</t>
+  </si>
+  <si>
+    <t>20,7</t>
+  </si>
+  <si>
+    <t>11,8</t>
+  </si>
+  <si>
+    <t>17,5</t>
+  </si>
+  <si>
+    <t>24,5</t>
+  </si>
+  <si>
+    <t>29,6</t>
+  </si>
+  <si>
+    <t>3,3</t>
+  </si>
+  <si>
+    <t>22,6</t>
+  </si>
+  <si>
+    <t>5,2</t>
+  </si>
+  <si>
+    <t>100,0</t>
+  </si>
+  <si>
+    <t>3,7</t>
+  </si>
+  <si>
+    <t>2,8</t>
+  </si>
+  <si>
+    <t>391,0</t>
+  </si>
+  <si>
+    <t>340,4</t>
+  </si>
+  <si>
+    <t>30,8</t>
+  </si>
+  <si>
+    <t>115,3</t>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <t>2,0</t>
+  </si>
+  <si>
+    <t>52,5</t>
+  </si>
+  <si>
+    <t>58,2</t>
+  </si>
+  <si>
+    <t>7,0</t>
+  </si>
+  <si>
+    <t>17,1</t>
+  </si>
+  <si>
+    <t>74,6</t>
+  </si>
+  <si>
+    <t>9,5</t>
+  </si>
+  <si>
+    <t>105,9</t>
+  </si>
+  <si>
+    <t>73,0</t>
+  </si>
+  <si>
+    <t>23,6</t>
+  </si>
+  <si>
+    <t>21,7</t>
+  </si>
+  <si>
+    <t>93,4</t>
+  </si>
+  <si>
+    <t>93,2</t>
+  </si>
+  <si>
+    <t>93,6</t>
+  </si>
+  <si>
+    <t>-3,6</t>
+  </si>
+  <si>
+    <t>0,4</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>15,8</t>
+  </si>
+  <si>
+    <t>21,9</t>
+  </si>
+  <si>
+    <t>2.506,2</t>
+  </si>
+  <si>
+    <t>2.107,8</t>
+  </si>
+  <si>
+    <t>-0,2</t>
+  </si>
+  <si>
+    <t>7,4</t>
+  </si>
+  <si>
+    <t>46,4</t>
+  </si>
+  <si>
+    <t>499,9</t>
+  </si>
+  <si>
+    <t>60,4</t>
+  </si>
+  <si>
+    <t>20,5</t>
+  </si>
+  <si>
+    <t>17,6</t>
+  </si>
+  <si>
+    <t>27,2</t>
+  </si>
+  <si>
+    <t>15,0</t>
+  </si>
+  <si>
+    <t>392,7</t>
+  </si>
+  <si>
+    <t>331,6</t>
+  </si>
+  <si>
+    <t>27,8</t>
+  </si>
+  <si>
+    <t>99,3</t>
+  </si>
+  <si>
+    <t>13,9</t>
+  </si>
+  <si>
+    <t>4,8</t>
+  </si>
+  <si>
+    <t>55,1</t>
+  </si>
+  <si>
+    <t>57,6</t>
+  </si>
+  <si>
+    <t>74,2</t>
+  </si>
+  <si>
+    <t>9,9</t>
+  </si>
+  <si>
+    <t>113,0</t>
+  </si>
+  <si>
+    <t>85,9</t>
+  </si>
+  <si>
+    <t>31,0</t>
+  </si>
+  <si>
+    <t>58,6</t>
+  </si>
+  <si>
+    <t>50,0</t>
+  </si>
+  <si>
+    <t>69,9</t>
+  </si>
+  <si>
+    <t>51,5</t>
+  </si>
+  <si>
+    <t>53,8</t>
+  </si>
+  <si>
+    <t>43,8</t>
+  </si>
+  <si>
+    <t>93,0</t>
+  </si>
+  <si>
+    <t>92,6</t>
+  </si>
+  <si>
+    <t>93,3</t>
+  </si>
+  <si>
+    <t>-2,4</t>
+  </si>
+  <si>
+    <t>14,4</t>
+  </si>
+  <si>
+    <t>16,1</t>
+  </si>
+  <si>
+    <t>24,1</t>
+  </si>
+  <si>
+    <t>23,9</t>
+  </si>
+  <si>
+    <t>24,4</t>
+  </si>
+  <si>
+    <t>2.434,2</t>
+  </si>
+  <si>
+    <t>11,4</t>
+  </si>
+  <si>
+    <t>2.092,4</t>
+  </si>
+  <si>
+    <t>-1,7</t>
+  </si>
+  <si>
+    <t>-1,6</t>
+  </si>
+  <si>
+    <t>-1,2</t>
+  </si>
+  <si>
+    <t>13,3</t>
+  </si>
+  <si>
+    <t>45,6</t>
+  </si>
+  <si>
+    <t>21,0</t>
+  </si>
+  <si>
+    <t>489,4</t>
+  </si>
+  <si>
+    <t>87,7</t>
+  </si>
+  <si>
+    <t>22,2</t>
+  </si>
+  <si>
+    <t>69,6</t>
+  </si>
+  <si>
+    <t>16,7</t>
+  </si>
+  <si>
+    <t>21,3</t>
+  </si>
+  <si>
+    <t>14,5</t>
+  </si>
+  <si>
+    <t>23,4</t>
+  </si>
+  <si>
+    <t>27,4</t>
+  </si>
+  <si>
+    <t>18,0</t>
+  </si>
+  <si>
+    <t>3,8</t>
+  </si>
+  <si>
+    <t>2,1</t>
+  </si>
+  <si>
+    <t>386,1</t>
+  </si>
+  <si>
+    <t>328,3</t>
+  </si>
+  <si>
+    <t>27,7</t>
+  </si>
+  <si>
+    <t>106,6</t>
+  </si>
+  <si>
+    <t>4,6</t>
+  </si>
+  <si>
+    <t>19,1</t>
+  </si>
+  <si>
+    <t>57,5</t>
+  </si>
+  <si>
+    <t>64,0</t>
+  </si>
+  <si>
+    <t>7,7</t>
+  </si>
+  <si>
+    <t>76,3</t>
+  </si>
+  <si>
+    <t>102,6</t>
+  </si>
+  <si>
+    <t>88,0</t>
+  </si>
+  <si>
+    <t>38,9</t>
+  </si>
+  <si>
+    <t>39,4</t>
+  </si>
+  <si>
+    <t>93,8</t>
+  </si>
+  <si>
+    <t>90,8</t>
+  </si>
+  <si>
+    <t>96,7</t>
+  </si>
+  <si>
+    <t>0,5</t>
+  </si>
+  <si>
+    <t>-0,6</t>
+  </si>
+  <si>
+    <t>14,3</t>
+  </si>
+  <si>
+    <t>21,1</t>
+  </si>
+  <si>
+    <t>20,1</t>
+  </si>
+  <si>
+    <t>13,4</t>
+  </si>
+  <si>
+    <t>2.401,0</t>
+  </si>
+  <si>
+    <t>2,9</t>
+  </si>
+  <si>
+    <t>1.914,0</t>
+  </si>
+  <si>
+    <t>-1,8</t>
+  </si>
+  <si>
+    <t>-4,3</t>
+  </si>
+  <si>
+    <t>-2,3</t>
+  </si>
+  <si>
+    <t>45,8</t>
+  </si>
+  <si>
+    <t>498,0</t>
+  </si>
+  <si>
+    <t>74,3</t>
+  </si>
+  <si>
+    <t>25,7</t>
+  </si>
+  <si>
+    <t>23,2</t>
+  </si>
+  <si>
+    <t>74,0</t>
+  </si>
+  <si>
+    <t>20,9</t>
+  </si>
+  <si>
+    <t>24,2</t>
+  </si>
+  <si>
+    <t>28,0</t>
+  </si>
+  <si>
+    <t>6,9</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>420,3</t>
+  </si>
+  <si>
+    <t>335,5</t>
+  </si>
+  <si>
+    <t>28,1</t>
+  </si>
+  <si>
+    <t>124,8</t>
+  </si>
+  <si>
+    <t>12,9</t>
+  </si>
+  <si>
+    <t>3,9</t>
+  </si>
+  <si>
+    <t>6,4</t>
+  </si>
+  <si>
+    <t>3,1</t>
+  </si>
+  <si>
+    <t>58,8</t>
+  </si>
+  <si>
+    <t>66,3</t>
+  </si>
+  <si>
+    <t>7,9</t>
+  </si>
+  <si>
+    <t>16,9</t>
+  </si>
+  <si>
+    <t>76,2</t>
+  </si>
+  <si>
+    <t>8,9</t>
+  </si>
+  <si>
+    <t>94,9</t>
+  </si>
+  <si>
+    <t>57,0</t>
+  </si>
+  <si>
+    <t>101,8</t>
+  </si>
+  <si>
+    <t>105,3</t>
+  </si>
+  <si>
+    <t>47,3</t>
+  </si>
+  <si>
+    <t>45,3</t>
+  </si>
+  <si>
+    <t>94,4</t>
+  </si>
+  <si>
+    <t>92,0</t>
+  </si>
+  <si>
+    <t>14,9</t>
+  </si>
+  <si>
+    <t>13,1</t>
+  </si>
+  <si>
+    <t>18,6</t>
+  </si>
+  <si>
+    <t>2.499,5</t>
+  </si>
+  <si>
+    <t>11,0</t>
+  </si>
+  <si>
+    <t>3,0</t>
+  </si>
+  <si>
+    <t>1.930,1</t>
+  </si>
+  <si>
+    <t>-3,5</t>
+  </si>
+  <si>
+    <t>-1,9</t>
+  </si>
+  <si>
+    <t>10,5</t>
+  </si>
+  <si>
+    <t>14,6</t>
+  </si>
+  <si>
+    <t>519,4</t>
+  </si>
+  <si>
+    <t>22,3</t>
+  </si>
+  <si>
+    <t>78,3</t>
+  </si>
+  <si>
+    <t>17,0</t>
+  </si>
+  <si>
+    <t>18,5</t>
+  </si>
+  <si>
+    <t>25,3</t>
+  </si>
+  <si>
+    <t>14,7</t>
+  </si>
+  <si>
+    <t>413,1</t>
+  </si>
+  <si>
+    <t>344,9</t>
+  </si>
+  <si>
+    <t>110,5</t>
+  </si>
+  <si>
+    <t>1,9</t>
+  </si>
+  <si>
+    <t>2,6</t>
+  </si>
+  <si>
+    <t>60,7</t>
+  </si>
+  <si>
+    <t>68,9</t>
+  </si>
+  <si>
+    <t>13,5</t>
+  </si>
+  <si>
+    <t>43,4</t>
+  </si>
+  <si>
+    <t>74,7</t>
+  </si>
+  <si>
+    <t>8,4</t>
+  </si>
+  <si>
+    <t>61,2</t>
+  </si>
+  <si>
+    <t>91,5</t>
+  </si>
+  <si>
+    <t>100,9</t>
+  </si>
+  <si>
+    <t>44,0</t>
+  </si>
+  <si>
+    <t>70,0</t>
+  </si>
+  <si>
+    <t>109,2</t>
+  </si>
+  <si>
+    <t>85,2</t>
+  </si>
+  <si>
+    <t>42,0</t>
+  </si>
+  <si>
+    <t>41,4</t>
+  </si>
+  <si>
+    <t>58,5</t>
+  </si>
+  <si>
+    <t>70,5</t>
+  </si>
+  <si>
+    <t>50,2</t>
+  </si>
+  <si>
+    <t>56,2</t>
+  </si>
+  <si>
+    <t>37,8</t>
+  </si>
+  <si>
+    <t>18,8</t>
+  </si>
+  <si>
+    <t>16,3</t>
+  </si>
+  <si>
+    <t>2.552,7</t>
+  </si>
+  <si>
+    <t>11,3</t>
+  </si>
+  <si>
+    <t>1.992,3</t>
+  </si>
+  <si>
+    <t>0,6</t>
+  </si>
+  <si>
+    <t>9,7</t>
+  </si>
+  <si>
+    <t>45,0</t>
+  </si>
+  <si>
+    <t>20,2</t>
+  </si>
+  <si>
+    <t>518,7</t>
+  </si>
+  <si>
+    <t>71,8</t>
+  </si>
+  <si>
+    <t>28,2</t>
+  </si>
+  <si>
+    <t>16,6</t>
+  </si>
+  <si>
+    <t>3,5</t>
+  </si>
+  <si>
+    <t>37,7</t>
+  </si>
+  <si>
+    <t>3,2</t>
+  </si>
+  <si>
+    <t>1,8</t>
+  </si>
+  <si>
+    <t>385,5</t>
+  </si>
+  <si>
+    <t>342,3</t>
+  </si>
+  <si>
+    <t>119,5</t>
+  </si>
+  <si>
+    <t>4,4</t>
+  </si>
+  <si>
+    <t>23,8</t>
+  </si>
+  <si>
+    <t>61,9</t>
+  </si>
+  <si>
+    <t>70,9</t>
+  </si>
+  <si>
+    <t>8,2</t>
+  </si>
+  <si>
+    <t>76,0</t>
+  </si>
+  <si>
+    <t>9,0</t>
+  </si>
+  <si>
+    <t>65,0</t>
+  </si>
+  <si>
+    <t>99,6</t>
+  </si>
+  <si>
+    <t>61,7</t>
+  </si>
+  <si>
+    <t>102,4</t>
+  </si>
+  <si>
+    <t>63,5</t>
+  </si>
+  <si>
+    <t>37,5</t>
+  </si>
+  <si>
+    <t>36,5</t>
+  </si>
+  <si>
+    <t>96,4</t>
+  </si>
+  <si>
+    <t>96,0</t>
+  </si>
+  <si>
+    <t>1,7</t>
+  </si>
+  <si>
+    <t>13,2</t>
+  </si>
+  <si>
+    <t>13,7</t>
+  </si>
+  <si>
+    <t>2.873,3</t>
+  </si>
+  <si>
+    <t>2.149,4</t>
+  </si>
+  <si>
+    <t>10,2</t>
+  </si>
+  <si>
+    <t>11,6</t>
+  </si>
+  <si>
+    <t>44,8</t>
+  </si>
+  <si>
+    <t>516,1</t>
+  </si>
+  <si>
+    <t>73,7</t>
+  </si>
+  <si>
+    <t>26,3</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>82,3</t>
+  </si>
+  <si>
+    <t>14,0</t>
+  </si>
+  <si>
+    <t>6,0</t>
+  </si>
+  <si>
+    <t>379,0</t>
+  </si>
+  <si>
+    <t>346,6</t>
+  </si>
+  <si>
+    <t>31,2</t>
+  </si>
+  <si>
+    <t>126,1</t>
+  </si>
+  <si>
+    <t>63,6</t>
+  </si>
+  <si>
+    <t>71,9</t>
+  </si>
+  <si>
+    <t>100,6</t>
+  </si>
+  <si>
+    <t>76,6</t>
+  </si>
+  <si>
+    <t>36,1</t>
+  </si>
+  <si>
+    <t>31,4</t>
+  </si>
+  <si>
+    <t>2,5</t>
+  </si>
+  <si>
+    <t>-0,9</t>
+  </si>
+  <si>
     <t>15,6</t>
   </si>
   <si>
-    <t>64,9</t>
-  </si>
-  <si>
-    <t>9,1</t>
-  </si>
-  <si>
-    <t>99,5</t>
-  </si>
-  <si>
-    <t>80,2</t>
-  </si>
-  <si>
-    <t>181,5</t>
-  </si>
-  <si>
-    <t>107,4</t>
-  </si>
-  <si>
-    <t>248,8</t>
-  </si>
-  <si>
-    <t>30,9</t>
-  </si>
-  <si>
-    <t>34,9</t>
-  </si>
-  <si>
-    <t>90,9</t>
-  </si>
-  <si>
-    <t>90,5</t>
-  </si>
-  <si>
-    <t>91,4</t>
-  </si>
-  <si>
-    <t>0,7</t>
-  </si>
-  <si>
-    <t>3,6</t>
-  </si>
-  <si>
-    <t>4,0</t>
-  </si>
-  <si>
-    <t>14,1</t>
-  </si>
-  <si>
-    <t>15,5</t>
-  </si>
-  <si>
-    <t>12,4</t>
-  </si>
-  <si>
-    <t>15,9</t>
-  </si>
-  <si>
-    <t>15,2</t>
-  </si>
-  <si>
-    <t>16,8</t>
-  </si>
-  <si>
-    <t>17,3</t>
-  </si>
-  <si>
-    <t>14,2</t>
-  </si>
-  <si>
-    <t>2.998,2</t>
-  </si>
-  <si>
-    <t>12,5</t>
-  </si>
-  <si>
-    <t>12,6</t>
-  </si>
-  <si>
-    <t>12,7</t>
-  </si>
-  <si>
-    <t>0,9</t>
-  </si>
-  <si>
-    <t>2,7</t>
-  </si>
-  <si>
-    <t>1,0</t>
-  </si>
-  <si>
-    <t>2.389,2</t>
-  </si>
-  <si>
-    <t>6,7</t>
-  </si>
-  <si>
-    <t>8,5</t>
-  </si>
-  <si>
-    <t>48,3</t>
-  </si>
-  <si>
-    <t>15,7</t>
-  </si>
-  <si>
-    <t>574,0</t>
-  </si>
-  <si>
-    <t>1,6</t>
-  </si>
-  <si>
-    <t>23,5</t>
-  </si>
-  <si>
-    <t>62,3</t>
-  </si>
-  <si>
-    <t>19,6</t>
-  </si>
-  <si>
-    <t>10,7</t>
-  </si>
-  <si>
-    <t>16,0</t>
-  </si>
-  <si>
-    <t>20,4</t>
-  </si>
-  <si>
-    <t>25,4</t>
-  </si>
-  <si>
-    <t>0,8</t>
-  </si>
-  <si>
-    <t>12,8</t>
-  </si>
-  <si>
-    <t>37,6</t>
-  </si>
-  <si>
-    <t>5,0</t>
-  </si>
-  <si>
-    <t>5,1</t>
-  </si>
-  <si>
-    <t>376,1</t>
-  </si>
-  <si>
-    <t>341,0</t>
-  </si>
-  <si>
-    <t>38,2</t>
-  </si>
-  <si>
-    <t>96,8</t>
-  </si>
-  <si>
-    <t>4,9</t>
-  </si>
-  <si>
-    <t>7,6</t>
-  </si>
-  <si>
-    <t>1,5</t>
-  </si>
-  <si>
-    <t>21,8</t>
-  </si>
-  <si>
-    <t>48,2</t>
-  </si>
-  <si>
-    <t>60,3</t>
-  </si>
-  <si>
-    <t>6,3</t>
-  </si>
-  <si>
-    <t>12,3</t>
-  </si>
-  <si>
-    <t>42,3</t>
+    <t>3.007,1</t>
+  </si>
+  <si>
+    <t>2.236,5</t>
+  </si>
+  <si>
+    <t>18,2</t>
+  </si>
+  <si>
+    <t>489,1</t>
+  </si>
+  <si>
+    <t>82,1</t>
+  </si>
+  <si>
+    <t>17,9</t>
+  </si>
+  <si>
+    <t>22,7</t>
+  </si>
+  <si>
+    <t>19,5</t>
+  </si>
+  <si>
+    <t>24,6</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>5,4</t>
+  </si>
+  <si>
+    <t>65,4</t>
+  </si>
+  <si>
+    <t>73,5</t>
+  </si>
+  <si>
+    <t>8,7</t>
+  </si>
+  <si>
+    <t>77,6</t>
+  </si>
+  <si>
+    <t>69,7</t>
+  </si>
+  <si>
+    <t>66,8</t>
+  </si>
+  <si>
+    <t>113,1</t>
+  </si>
+  <si>
+    <t>77,4</t>
+  </si>
+  <si>
+    <t>36,4</t>
+  </si>
+  <si>
+    <t>35,1</t>
+  </si>
+  <si>
+    <t>96,6</t>
+  </si>
+  <si>
+    <t>95,5</t>
+  </si>
+  <si>
+    <t>97,6</t>
+  </si>
+  <si>
+    <t>-0,3</t>
+  </si>
+  <si>
+    <t>15,1</t>
+  </si>
+  <si>
+    <t>10,9</t>
+  </si>
+  <si>
+    <t>2.983,5</t>
+  </si>
+  <si>
+    <t>12,0</t>
+  </si>
+  <si>
+    <t>2.581,2</t>
+  </si>
+  <si>
+    <t>22,9</t>
+  </si>
+  <si>
+    <t>89,2</t>
+  </si>
+  <si>
+    <t>18,9</t>
+  </si>
+  <si>
+    <t>78,4</t>
+  </si>
+  <si>
+    <t>11,1</t>
+  </si>
+  <si>
+    <t>88,9</t>
+  </si>
+  <si>
+    <t>111,4</t>
   </si>
   <si>
     <t>69,8</t>
   </si>
   <si>
-    <t>10,1</t>
-  </si>
-  <si>
-    <t>107,7</t>
-  </si>
-  <si>
-    <t>107,9</t>
-  </si>
-  <si>
-    <t>64,1</t>
-  </si>
-  <si>
-    <t>35,3</t>
-  </si>
-  <si>
-    <t>29,8</t>
-  </si>
-  <si>
-    <t>91,8</t>
-  </si>
-  <si>
-    <t>92,3</t>
-  </si>
-  <si>
-    <t>91,3</t>
-  </si>
-  <si>
-    <t>-1,0</t>
-  </si>
-  <si>
-    <t>17,8</t>
-  </si>
-  <si>
-    <t>18,3</t>
-  </si>
-  <si>
-    <t>17,2</t>
-  </si>
-  <si>
-    <t>13,6</t>
-  </si>
-  <si>
-    <t>2.829,6</t>
-  </si>
-  <si>
-    <t>11,9</t>
-  </si>
-  <si>
-    <t>2.291,6</t>
-  </si>
-  <si>
-    <t>8,1</t>
-  </si>
-  <si>
-    <t>12,1</t>
-  </si>
-  <si>
-    <t>47,8</t>
-  </si>
-  <si>
-    <t>537,1</t>
-  </si>
-  <si>
-    <t>21,2</t>
-  </si>
-  <si>
-    <t>66,2</t>
-  </si>
-  <si>
-    <t>13,0</t>
-  </si>
-  <si>
-    <t>20,7</t>
-  </si>
-  <si>
-    <t>11,8</t>
-  </si>
-  <si>
-    <t>17,5</t>
-  </si>
-  <si>
-    <t>24,5</t>
-  </si>
-  <si>
-    <t>29,6</t>
-  </si>
-  <si>
-    <t>3,3</t>
-  </si>
-  <si>
-    <t>22,6</t>
-  </si>
-  <si>
-    <t>5,2</t>
-  </si>
-  <si>
-    <t>100,0</t>
-  </si>
-  <si>
-    <t>3,7</t>
-  </si>
-  <si>
-    <t>2,8</t>
-  </si>
-  <si>
-    <t>391,0</t>
-  </si>
-  <si>
-    <t>340,4</t>
-  </si>
-  <si>
-    <t>30,8</t>
-  </si>
-  <si>
-    <t>115,3</t>
-  </si>
-  <si>
-    <t>0,1</t>
-  </si>
-  <si>
-    <t>2,0</t>
-  </si>
-  <si>
-    <t>52,5</t>
-  </si>
-  <si>
-    <t>58,2</t>
-  </si>
-  <si>
-    <t>7,0</t>
-  </si>
-  <si>
-    <t>16,2</t>
-  </si>
-  <si>
-    <t>71,4</t>
-  </si>
-  <si>
-    <t>9,5</t>
-  </si>
-  <si>
-    <t>105,9</t>
-  </si>
-  <si>
-    <t>73,0</t>
-  </si>
-  <si>
-    <t>23,6</t>
-  </si>
-  <si>
-    <t>21,7</t>
-  </si>
-  <si>
-    <t>93,4</t>
-  </si>
-  <si>
-    <t>93,2</t>
-  </si>
-  <si>
-    <t>93,6</t>
-  </si>
-  <si>
-    <t>-3,6</t>
-  </si>
-  <si>
-    <t>0,4</t>
-  </si>
-  <si>
-    <t>1,4</t>
-  </si>
-  <si>
-    <t>15,8</t>
-  </si>
-  <si>
-    <t>21,9</t>
-  </si>
-  <si>
-    <t>17,4</t>
-  </si>
-  <si>
-    <t>2.506,2</t>
-  </si>
-  <si>
-    <t>2.107,8</t>
-  </si>
-  <si>
-    <t>-0,2</t>
-  </si>
-  <si>
-    <t>7,4</t>
-  </si>
-  <si>
-    <t>46,4</t>
-  </si>
-  <si>
-    <t>499,9</t>
-  </si>
-  <si>
-    <t>60,4</t>
-  </si>
-  <si>
-    <t>20,5</t>
-  </si>
-  <si>
-    <t>17,6</t>
-  </si>
-  <si>
-    <t>27,2</t>
-  </si>
-  <si>
-    <t>15,0</t>
-  </si>
-  <si>
-    <t>392,7</t>
-  </si>
-  <si>
-    <t>331,6</t>
-  </si>
-  <si>
-    <t>27,8</t>
-  </si>
-  <si>
-    <t>99,3</t>
-  </si>
-  <si>
-    <t>13,9</t>
-  </si>
-  <si>
-    <t>4,8</t>
-  </si>
-  <si>
-    <t>55,1</t>
-  </si>
-  <si>
-    <t>57,6</t>
-  </si>
-  <si>
-    <t>16,4</t>
-  </si>
-  <si>
-    <t>71,3</t>
-  </si>
-  <si>
-    <t>9,9</t>
-  </si>
-  <si>
-    <t>113,0</t>
-  </si>
-  <si>
-    <t>85,9</t>
-  </si>
-  <si>
-    <t>31,0</t>
-  </si>
-  <si>
-    <t>58,6</t>
-  </si>
-  <si>
-    <t>50,0</t>
-  </si>
-  <si>
-    <t>69,9</t>
-  </si>
-  <si>
-    <t>51,5</t>
-  </si>
-  <si>
-    <t>53,8</t>
-  </si>
-  <si>
-    <t>43,8</t>
-  </si>
-  <si>
-    <t>93,0</t>
-  </si>
-  <si>
-    <t>92,6</t>
-  </si>
-  <si>
-    <t>93,3</t>
-  </si>
-  <si>
-    <t>-2,4</t>
-  </si>
-  <si>
-    <t>14,4</t>
-  </si>
-  <si>
-    <t>16,1</t>
-  </si>
-  <si>
-    <t>24,1</t>
-  </si>
-  <si>
-    <t>23,9</t>
-  </si>
-  <si>
-    <t>24,4</t>
-  </si>
-  <si>
-    <t>2.434,2</t>
-  </si>
-  <si>
-    <t>11,4</t>
-  </si>
-  <si>
-    <t>2.092,4</t>
-  </si>
-  <si>
-    <t>-1,7</t>
-  </si>
-  <si>
-    <t>-1,6</t>
-  </si>
-  <si>
-    <t>-1,2</t>
-  </si>
-  <si>
-    <t>13,3</t>
-  </si>
-  <si>
-    <t>45,6</t>
-  </si>
-  <si>
-    <t>21,0</t>
-  </si>
-  <si>
-    <t>489,4</t>
-  </si>
-  <si>
-    <t>87,7</t>
-  </si>
-  <si>
-    <t>22,2</t>
-  </si>
-  <si>
-    <t>69,6</t>
-  </si>
-  <si>
-    <t>16,7</t>
-  </si>
-  <si>
-    <t>21,3</t>
-  </si>
-  <si>
-    <t>14,5</t>
-  </si>
-  <si>
-    <t>23,4</t>
-  </si>
-  <si>
-    <t>27,4</t>
-  </si>
-  <si>
-    <t>18,0</t>
-  </si>
-  <si>
-    <t>3,8</t>
-  </si>
-  <si>
-    <t>2,1</t>
-  </si>
-  <si>
-    <t>386,1</t>
-  </si>
-  <si>
-    <t>328,3</t>
-  </si>
-  <si>
-    <t>27,7</t>
-  </si>
-  <si>
-    <t>106,6</t>
-  </si>
-  <si>
-    <t>4,6</t>
-  </si>
-  <si>
-    <t>19,1</t>
-  </si>
-  <si>
-    <t>57,5</t>
-  </si>
-  <si>
-    <t>64,0</t>
-  </si>
-  <si>
-    <t>7,7</t>
-  </si>
-  <si>
-    <t>15,4</t>
-  </si>
-  <si>
-    <t>66,8</t>
-  </si>
-  <si>
-    <t>102,6</t>
-  </si>
-  <si>
-    <t>88,0</t>
-  </si>
-  <si>
-    <t>38,9</t>
-  </si>
-  <si>
-    <t>39,4</t>
-  </si>
-  <si>
-    <t>93,8</t>
-  </si>
-  <si>
-    <t>90,8</t>
-  </si>
-  <si>
-    <t>96,7</t>
-  </si>
-  <si>
-    <t>0,5</t>
-  </si>
-  <si>
-    <t>-0,6</t>
-  </si>
-  <si>
-    <t>14,3</t>
-  </si>
-  <si>
-    <t>21,1</t>
-  </si>
-  <si>
-    <t>20,1</t>
-  </si>
-  <si>
-    <t>13,4</t>
-  </si>
-  <si>
-    <t>2.401,0</t>
-  </si>
-  <si>
-    <t>2,9</t>
-  </si>
-  <si>
-    <t>1.914,0</t>
-  </si>
-  <si>
-    <t>-1,8</t>
-  </si>
-  <si>
-    <t>-4,3</t>
-  </si>
-  <si>
-    <t>-2,3</t>
-  </si>
-  <si>
-    <t>45,8</t>
-  </si>
-  <si>
-    <t>498,0</t>
-  </si>
-  <si>
-    <t>74,3</t>
-  </si>
-  <si>
-    <t>25,7</t>
-  </si>
-  <si>
-    <t>23,2</t>
-  </si>
-  <si>
-    <t>74,0</t>
-  </si>
-  <si>
-    <t>20,9</t>
-  </si>
-  <si>
-    <t>24,2</t>
-  </si>
-  <si>
-    <t>28,0</t>
-  </si>
-  <si>
-    <t>6,9</t>
-  </si>
-  <si>
-    <t>2,3</t>
-  </si>
-  <si>
-    <t>420,3</t>
-  </si>
-  <si>
-    <t>335,5</t>
-  </si>
-  <si>
-    <t>28,1</t>
-  </si>
-  <si>
-    <t>124,8</t>
-  </si>
-  <si>
-    <t>12,9</t>
-  </si>
-  <si>
-    <t>3,9</t>
-  </si>
-  <si>
-    <t>6,4</t>
-  </si>
-  <si>
-    <t>3,1</t>
-  </si>
-  <si>
-    <t>58,8</t>
-  </si>
-  <si>
-    <t>66,3</t>
-  </si>
-  <si>
-    <t>7,9</t>
-  </si>
-  <si>
-    <t>15,3</t>
-  </si>
-  <si>
-    <t>62,8</t>
-  </si>
-  <si>
-    <t>8,9</t>
-  </si>
-  <si>
-    <t>94,9</t>
-  </si>
-  <si>
-    <t>57,0</t>
-  </si>
-  <si>
-    <t>101,8</t>
-  </si>
-  <si>
-    <t>105,3</t>
-  </si>
-  <si>
-    <t>47,3</t>
-  </si>
-  <si>
-    <t>45,3</t>
-  </si>
-  <si>
-    <t>94,4</t>
-  </si>
-  <si>
-    <t>92,0</t>
-  </si>
-  <si>
-    <t>14,9</t>
-  </si>
-  <si>
-    <t>13,1</t>
-  </si>
-  <si>
-    <t>18,6</t>
-  </si>
-  <si>
-    <t>2.499,5</t>
-  </si>
-  <si>
-    <t>11,0</t>
-  </si>
-  <si>
-    <t>3,0</t>
-  </si>
-  <si>
-    <t>1.930,1</t>
-  </si>
-  <si>
-    <t>-3,5</t>
-  </si>
-  <si>
-    <t>-1,9</t>
-  </si>
-  <si>
-    <t>10,5</t>
-  </si>
-  <si>
-    <t>14,6</t>
-  </si>
-  <si>
-    <t>519,4</t>
-  </si>
-  <si>
-    <t>22,3</t>
-  </si>
-  <si>
-    <t>78,3</t>
-  </si>
-  <si>
-    <t>17,0</t>
-  </si>
-  <si>
-    <t>18,5</t>
-  </si>
-  <si>
-    <t>25,3</t>
-  </si>
-  <si>
-    <t>14,7</t>
-  </si>
-  <si>
-    <t>413,1</t>
-  </si>
-  <si>
-    <t>344,9</t>
-  </si>
-  <si>
-    <t>110,5</t>
-  </si>
-  <si>
-    <t>1,9</t>
-  </si>
-  <si>
-    <t>2,6</t>
-  </si>
-  <si>
-    <t>60,7</t>
-  </si>
-  <si>
-    <t>68,9</t>
-  </si>
-  <si>
-    <t>13,5</t>
-  </si>
-  <si>
-    <t>43,4</t>
-  </si>
-  <si>
-    <t>65,3</t>
-  </si>
-  <si>
-    <t>8,4</t>
-  </si>
-  <si>
-    <t>61,2</t>
-  </si>
-  <si>
-    <t>91,5</t>
-  </si>
-  <si>
-    <t>100,9</t>
-  </si>
-  <si>
-    <t>44,0</t>
-  </si>
-  <si>
-    <t>70,0</t>
-  </si>
-  <si>
-    <t>109,2</t>
-  </si>
-  <si>
-    <t>85,2</t>
-  </si>
-  <si>
-    <t>42,0</t>
-  </si>
-  <si>
-    <t>41,4</t>
-  </si>
-  <si>
-    <t>58,5</t>
-  </si>
-  <si>
-    <t>70,5</t>
-  </si>
-  <si>
-    <t>50,2</t>
-  </si>
-  <si>
-    <t>56,2</t>
-  </si>
-  <si>
-    <t>37,8</t>
-  </si>
-  <si>
-    <t>18,8</t>
-  </si>
-  <si>
-    <t>16,3</t>
-  </si>
-  <si>
-    <t>2.552,7</t>
-  </si>
-  <si>
-    <t>11,3</t>
-  </si>
-  <si>
-    <t>1.992,3</t>
-  </si>
-  <si>
-    <t>0,6</t>
-  </si>
-  <si>
-    <t>9,7</t>
-  </si>
-  <si>
-    <t>45,0</t>
-  </si>
-  <si>
-    <t>20,2</t>
-  </si>
-  <si>
-    <t>518,7</t>
-  </si>
-  <si>
-    <t>71,8</t>
-  </si>
-  <si>
-    <t>28,2</t>
-  </si>
-  <si>
-    <t>16,6</t>
-  </si>
-  <si>
-    <t>3,5</t>
-  </si>
-  <si>
-    <t>37,7</t>
-  </si>
-  <si>
-    <t>3,2</t>
-  </si>
-  <si>
-    <t>1,8</t>
-  </si>
-  <si>
-    <t>385,5</t>
-  </si>
-  <si>
-    <t>342,3</t>
-  </si>
-  <si>
-    <t>119,5</t>
-  </si>
-  <si>
-    <t>4,4</t>
-  </si>
-  <si>
-    <t>23,8</t>
-  </si>
-  <si>
-    <t>61,9</t>
-  </si>
-  <si>
-    <t>70,9</t>
-  </si>
-  <si>
-    <t>8,2</t>
-  </si>
-  <si>
-    <t>65,6</t>
-  </si>
-  <si>
-    <t>9,0</t>
-  </si>
-  <si>
-    <t>65,0</t>
-  </si>
-  <si>
-    <t>99,6</t>
-  </si>
-  <si>
-    <t>61,7</t>
-  </si>
-  <si>
-    <t>102,4</t>
-  </si>
-  <si>
-    <t>63,5</t>
-  </si>
-  <si>
-    <t>37,5</t>
-  </si>
-  <si>
-    <t>36,5</t>
-  </si>
-  <si>
-    <t>96,4</t>
-  </si>
-  <si>
-    <t>96,0</t>
-  </si>
-  <si>
-    <t>1,7</t>
-  </si>
-  <si>
-    <t>17,1</t>
-  </si>
-  <si>
-    <t>13,2</t>
-  </si>
-  <si>
-    <t>13,7</t>
-  </si>
-  <si>
-    <t>2.873,3</t>
-  </si>
-  <si>
-    <t>2.149,4</t>
-  </si>
-  <si>
-    <t>10,2</t>
-  </si>
-  <si>
-    <t>11,6</t>
-  </si>
-  <si>
-    <t>44,8</t>
-  </si>
-  <si>
-    <t>516,1</t>
-  </si>
-  <si>
-    <t>73,7</t>
-  </si>
-  <si>
-    <t>26,3</t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>82,3</t>
-  </si>
-  <si>
-    <t>14,0</t>
-  </si>
-  <si>
-    <t>6,0</t>
-  </si>
-  <si>
-    <t>379,0</t>
-  </si>
-  <si>
-    <t>346,6</t>
-  </si>
-  <si>
-    <t>31,2</t>
-  </si>
-  <si>
-    <t>126,1</t>
-  </si>
-  <si>
-    <t>63,6</t>
-  </si>
-  <si>
-    <t>71,9</t>
-  </si>
-  <si>
-    <t>70,7</t>
-  </si>
-  <si>
-    <t>100,6</t>
-  </si>
-  <si>
-    <t>76,6</t>
-  </si>
-  <si>
-    <t>36,1</t>
-  </si>
-  <si>
-    <t>31,4</t>
-  </si>
-  <si>
-    <t>2,5</t>
-  </si>
-  <si>
-    <t>-0,9</t>
-  </si>
-  <si>
-    <t>3.007,1</t>
-  </si>
-  <si>
-    <t>2.236,5</t>
-  </si>
-  <si>
-    <t>18,2</t>
-  </si>
-  <si>
-    <t>489,1</t>
-  </si>
-  <si>
-    <t>82,1</t>
-  </si>
-  <si>
-    <t>17,9</t>
-  </si>
-  <si>
-    <t>22,7</t>
-  </si>
-  <si>
-    <t>19,5</t>
-  </si>
-  <si>
-    <t>24,6</t>
-  </si>
-  <si>
-    <t>3,4</t>
-  </si>
-  <si>
-    <t>5,4</t>
-  </si>
-  <si>
-    <t>65,4</t>
-  </si>
-  <si>
-    <t>73,5</t>
-  </si>
-  <si>
-    <t>8,7</t>
-  </si>
-  <si>
-    <t>68,0</t>
-  </si>
-  <si>
-    <t>69,7</t>
-  </si>
-  <si>
-    <t>113,1</t>
-  </si>
-  <si>
-    <t>77,4</t>
-  </si>
-  <si>
-    <t>36,4</t>
-  </si>
-  <si>
-    <t>35,1</t>
-  </si>
-  <si>
-    <t>96,6</t>
-  </si>
-  <si>
-    <t>95,5</t>
-  </si>
-  <si>
-    <t>97,6</t>
-  </si>
-  <si>
-    <t>-0,3</t>
-  </si>
-  <si>
-    <t>15,1</t>
-  </si>
-  <si>
-    <t>10,9</t>
-  </si>
-  <si>
-    <t>2.983,5</t>
-  </si>
-  <si>
-    <t>12,0</t>
-  </si>
-  <si>
-    <t>2.581,2</t>
-  </si>
-  <si>
-    <t>22,9</t>
-  </si>
-  <si>
-    <t>89,2</t>
-  </si>
-  <si>
-    <t>88,9</t>
+    <t>48,9</t>
   </si>
   <si>
     <t>99,1</t>
@@ -2742,28 +2754,28 @@
         <v>272</v>
       </c>
       <c r="G9" t="s" s="25">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H9" t="s" s="25">
         <v>272</v>
       </c>
       <c r="I9" t="s" s="25">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J9" t="s" s="25">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K9" t="s" s="25">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L9" t="s" s="25">
         <v>282</v>
       </c>
       <c r="M9" t="s" s="25">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="N9" t="s" s="25">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O9" t="s" s="25">
         <v>222</v>
@@ -2789,28 +2801,28 @@
         <v>296</v>
       </c>
       <c r="G10" t="s" s="25">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H10" t="s" s="25">
         <v>387</v>
       </c>
       <c r="I10" t="s" s="25">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J10" t="s" s="25">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="K10" t="s" s="25">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L10" t="s" s="25">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="M10" t="s" s="25">
-        <v>379</v>
+        <v>319</v>
       </c>
       <c r="N10" t="s" s="25">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O10" t="s" s="25">
         <v>222</v>
@@ -2836,13 +2848,13 @@
         <v>297</v>
       </c>
       <c r="G11" t="s" s="25">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H11" t="s" s="25">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I11" t="s" s="25">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J11" t="s" s="25">
         <v>291</v>
@@ -2854,10 +2866,10 @@
         <v>317</v>
       </c>
       <c r="M11" t="s" s="25">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="N11" t="s" s="25">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="O11" t="s" s="25">
         <v>222</v>
@@ -2883,28 +2895,28 @@
         <v>298</v>
       </c>
       <c r="G12" t="s" s="25">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H12" t="s" s="25">
         <v>388</v>
       </c>
       <c r="I12" t="s" s="25">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J12" t="s" s="25">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K12" t="s" s="25">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="L12" t="s" s="25">
         <v>279</v>
       </c>
       <c r="M12" t="s" s="25">
-        <v>584</v>
+        <v>365</v>
       </c>
       <c r="N12" t="s" s="25">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="O12" t="s" s="25">
         <v>222</v>
@@ -2930,28 +2942,28 @@
         <v>299</v>
       </c>
       <c r="G13" t="s" s="25">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H13" t="s" s="25">
         <v>313</v>
       </c>
       <c r="I13" t="s" s="25">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J13" t="s" s="25">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="K13" t="s" s="25">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="L13" t="s" s="25">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M13" t="s" s="25">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="N13" t="s" s="25">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="O13" t="s" s="25">
         <v>222</v>
@@ -2977,28 +2989,28 @@
         <v>300</v>
       </c>
       <c r="G14" t="s" s="25">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H14" t="s" s="25">
         <v>389</v>
       </c>
       <c r="I14" t="s" s="25">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J14" t="s" s="25">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="K14" t="s" s="25">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="L14" t="s" s="25">
         <v>299</v>
       </c>
       <c r="M14" t="s" s="25">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N14" t="s" s="25">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="O14" t="s" s="25">
         <v>222</v>
@@ -3024,7 +3036,7 @@
         <v>301</v>
       </c>
       <c r="G15" t="s" s="25">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H15" t="s" s="25">
         <v>238</v>
@@ -3033,19 +3045,19 @@
         <v>305</v>
       </c>
       <c r="J15" t="s" s="25">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="K15" t="s" s="25">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="L15" t="s" s="25">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="M15" t="s" s="25">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="N15" t="s" s="25">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="O15" t="s" s="25">
         <v>222</v>
@@ -3071,25 +3083,25 @@
         <v>302</v>
       </c>
       <c r="G16" t="s" s="25">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H16" t="s" s="25">
         <v>233</v>
       </c>
       <c r="I16" t="s" s="25">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J16" t="s" s="25">
-        <v>399</v>
+        <v>256</v>
       </c>
       <c r="K16" t="s" s="25">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="L16" t="s" s="25">
         <v>229</v>
       </c>
       <c r="M16" t="s" s="25">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N16" t="s" s="25">
         <v>272</v>
@@ -3127,7 +3139,7 @@
         <v>239</v>
       </c>
       <c r="J17" t="s" s="25">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K17" t="s" s="25">
         <v>249</v>
@@ -3180,7 +3192,7 @@
         <v>222</v>
       </c>
       <c r="L18" t="s" s="25">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="M18" t="s" s="25">
         <v>222</v>
@@ -3212,25 +3224,25 @@
         <v>304</v>
       </c>
       <c r="G19" t="s" s="25">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H19" t="s" s="25">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I19" t="s" s="25">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J19" t="s" s="25">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K19" t="s" s="25">
         <v>285</v>
       </c>
       <c r="L19" t="s" s="25">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="M19" t="s" s="25">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="N19" t="s" s="25">
         <v>222</v>
@@ -3271,7 +3283,7 @@
         <v>239</v>
       </c>
       <c r="K20" t="s" s="25">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L20" t="s" s="25">
         <v>239</v>
@@ -3306,22 +3318,22 @@
         <v>240</v>
       </c>
       <c r="G21" t="s" s="25">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H21" t="s" s="25">
         <v>240</v>
       </c>
       <c r="I21" t="s" s="25">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J21" t="s" s="25">
         <v>240</v>
       </c>
       <c r="K21" t="s" s="25">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L21" t="s" s="25">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M21" t="s" s="25">
         <v>240</v>
@@ -3353,28 +3365,28 @@
         <v>305</v>
       </c>
       <c r="G22" t="s" s="25">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H22" t="s" s="25">
         <v>285</v>
       </c>
       <c r="I22" t="s" s="25">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J22" t="s" s="25">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="K22" t="s" s="25">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L22" t="s" s="25">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="M22" t="s" s="25">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="N22" t="s" s="25">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="O22" t="s" s="25">
         <v>222</v>
@@ -3400,28 +3412,28 @@
         <v>285</v>
       </c>
       <c r="G23" t="s" s="25">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H23" t="s" s="25">
         <v>242</v>
       </c>
       <c r="I23" t="s" s="25">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J23" t="s" s="25">
         <v>301</v>
       </c>
       <c r="K23" t="s" s="25">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L23" t="s" s="25">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M23" t="s" s="25">
         <v>293</v>
       </c>
       <c r="N23" t="s" s="25">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="O23" t="s" s="25">
         <v>222</v>
@@ -3447,25 +3459,25 @@
         <v>306</v>
       </c>
       <c r="G24" t="s" s="25">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H24" t="s" s="25">
         <v>391</v>
       </c>
       <c r="I24" t="s" s="25">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J24" t="s" s="25">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="K24" t="s" s="25">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="L24" t="s" s="25">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="M24" t="s" s="25">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="N24" t="s" s="25">
         <v>222</v>
@@ -3494,25 +3506,25 @@
         <v>307</v>
       </c>
       <c r="G25" t="s" s="25">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H25" t="s" s="25">
         <v>392</v>
       </c>
       <c r="I25" t="s" s="25">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J25" t="s" s="25">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="K25" t="s" s="25">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="L25" t="s" s="25">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="M25" t="s" s="25">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="N25" t="s" s="25">
         <v>222</v>
@@ -3541,16 +3553,16 @@
         <v>308</v>
       </c>
       <c r="G26" t="s" s="25">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H26" t="s" s="25">
         <v>393</v>
       </c>
       <c r="I26" t="s" s="25">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J26" t="s" s="25">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="K26" t="s" s="25">
         <v>393</v>
@@ -3559,7 +3571,7 @@
         <v>300</v>
       </c>
       <c r="M26" t="s" s="25">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="N26" t="s" s="25">
         <v>222</v>
@@ -3588,25 +3600,25 @@
         <v>309</v>
       </c>
       <c r="G27" t="s" s="25">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H27" t="s" s="25">
         <v>394</v>
       </c>
       <c r="I27" t="s" s="25">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J27" t="s" s="25">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="K27" t="s" s="25">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="L27" t="s" s="25">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="M27" t="s" s="25">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="N27" t="s" s="25">
         <v>222</v>
@@ -3644,16 +3656,16 @@
         <v>272</v>
       </c>
       <c r="J28" t="s" s="25">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="K28" t="s" s="25">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="L28" t="s" s="25">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M28" t="s" s="25">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="N28" t="s" s="25">
         <v>222</v>
@@ -3688,16 +3700,16 @@
         <v>396</v>
       </c>
       <c r="I29" t="s" s="25">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J29" t="s" s="25">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="K29" t="s" s="25">
         <v>271</v>
       </c>
       <c r="L29" t="s" s="25">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="M29" t="s" s="25">
         <v>396</v>
@@ -3729,10 +3741,10 @@
         <v>249</v>
       </c>
       <c r="G30" t="s" s="25">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H30" t="s" s="25">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I30" t="s" s="25">
         <v>249</v>
@@ -3744,13 +3756,13 @@
         <v>239</v>
       </c>
       <c r="L30" t="s" s="25">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M30" t="s" s="25">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N30" t="s" s="25">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O30" t="s" s="25">
         <v>222</v>
@@ -3785,19 +3797,19 @@
         <v>383</v>
       </c>
       <c r="J31" t="s" s="25">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="K31" t="s" s="25">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="L31" t="s" s="25">
         <v>248</v>
       </c>
       <c r="M31" t="s" s="25">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="N31" t="s" s="25">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="O31" t="s" s="25">
         <v>222</v>
@@ -3832,10 +3844,10 @@
         <v>222</v>
       </c>
       <c r="J32" t="s" s="25">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="K32" t="s" s="25">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="L32" t="s" s="25">
         <v>239</v>
@@ -3844,7 +3856,7 @@
         <v>239</v>
       </c>
       <c r="N32" t="s" s="25">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O32" t="s" s="25">
         <v>222</v>
@@ -3870,7 +3882,7 @@
         <v>312</v>
       </c>
       <c r="G33" t="s" s="25">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H33" t="s" s="25">
         <v>293</v>
@@ -3879,16 +3891,16 @@
         <v>251</v>
       </c>
       <c r="J33" t="s" s="25">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="K33" t="s" s="25">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="L33" t="s" s="25">
         <v>285</v>
       </c>
       <c r="M33" t="s" s="25">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="N33" t="s" s="25">
         <v>222</v>
@@ -3923,7 +3935,7 @@
         <v>222</v>
       </c>
       <c r="I34" t="s" s="25">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J34" t="s" s="25">
         <v>222</v>
@@ -3932,7 +3944,7 @@
         <v>222</v>
       </c>
       <c r="L34" t="s" s="25">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="M34" t="s" s="25">
         <v>222</v>
@@ -3964,28 +3976,28 @@
         <v>314</v>
       </c>
       <c r="G35" t="s" s="25">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H35" t="s" s="25">
         <v>397</v>
       </c>
       <c r="I35" t="s" s="25">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J35" t="s" s="25">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="K35" t="s" s="25">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L35" t="s" s="25">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="M35" t="s" s="25">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="N35" t="s" s="25">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="O35" t="s" s="25">
         <v>222</v>
@@ -4011,28 +4023,28 @@
         <v>315</v>
       </c>
       <c r="G36" t="s" s="25">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H36" t="s" s="25">
         <v>398</v>
       </c>
       <c r="I36" t="s" s="25">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J36" t="s" s="25">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="K36" t="s" s="25">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="L36" t="s" s="25">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="M36" t="s" s="25">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="N36" t="s" s="25">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="O36" t="s" s="25">
         <v>222</v>
@@ -4058,28 +4070,28 @@
         <v>316</v>
       </c>
       <c r="G37" t="s" s="25">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H37" t="s" s="25">
         <v>383</v>
       </c>
       <c r="I37" t="s" s="25">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J37" t="s" s="25">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="K37" t="s" s="25">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L37" t="s" s="25">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="M37" t="s" s="25">
         <v>289</v>
       </c>
       <c r="N37" t="s" s="25">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="O37" t="s" s="25">
         <v>222</v>
@@ -4111,13 +4123,13 @@
         <v>282</v>
       </c>
       <c r="I38" t="s" s="25">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J38" t="s" s="25">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K38" t="s" s="25">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="L38" t="s" s="25">
         <v>247</v>
@@ -4126,7 +4138,7 @@
         <v>279</v>
       </c>
       <c r="N38" t="s" s="25">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="O38" t="s" s="25">
         <v>222</v>
@@ -4164,7 +4176,7 @@
         <v>222</v>
       </c>
       <c r="K39" t="s" s="25">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="L39" t="s" s="25">
         <v>222</v>
@@ -4196,34 +4208,34 @@
         <v>256</v>
       </c>
       <c r="F40" t="s" s="25">
+        <v>319</v>
+      </c>
+      <c r="G40" t="s" s="25">
+        <v>365</v>
+      </c>
+      <c r="H40" t="s" s="25">
+        <v>333</v>
+      </c>
+      <c r="I40" t="s" s="25">
+        <v>233</v>
+      </c>
+      <c r="J40" t="s" s="25">
+        <v>491</v>
+      </c>
+      <c r="K40" t="s" s="25">
+        <v>291</v>
+      </c>
+      <c r="L40" t="s" s="25">
         <v>277</v>
       </c>
-      <c r="G40" t="s" s="25">
-        <v>364</v>
-      </c>
-      <c r="H40" t="s" s="25">
-        <v>399</v>
-      </c>
-      <c r="I40" t="s" s="25">
-        <v>450</v>
-      </c>
-      <c r="J40" t="s" s="25">
-        <v>493</v>
-      </c>
-      <c r="K40" t="s" s="25">
-        <v>504</v>
-      </c>
-      <c r="L40" t="s" s="25">
-        <v>256</v>
-      </c>
       <c r="M40" t="s" s="25">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="N40" t="s" s="25">
-        <v>377</v>
+        <v>491</v>
       </c>
       <c r="O40" t="s" s="25">
-        <v>222</v>
+        <v>641</v>
       </c>
     </row>
     <row r="41" ht="15.0" customHeight="true">
@@ -4243,34 +4255,34 @@
         <v>257</v>
       </c>
       <c r="F41" t="s" s="25">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G41" t="s" s="25">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H41" t="s" s="25">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I41" t="s" s="25">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J41" t="s" s="25">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K41" t="s" s="25">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="L41" t="s" s="25">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="M41" t="s" s="25">
-        <v>605</v>
+        <v>570</v>
       </c>
       <c r="N41" t="s" s="25">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="O41" t="s" s="25">
-        <v>222</v>
+        <v>642</v>
       </c>
     </row>
     <row r="42" ht="15.0" customHeight="true">
@@ -4290,34 +4302,34 @@
         <v>258</v>
       </c>
       <c r="F42" t="s" s="25">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G42" t="s" s="25">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H42" t="s" s="25">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I42" t="s" s="25">
         <v>236</v>
       </c>
       <c r="J42" t="s" s="25">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K42" t="s" s="25">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="L42" t="s" s="25">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="M42" t="s" s="25">
         <v>231</v>
       </c>
       <c r="N42" t="s" s="25">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="O42" t="s" s="25">
-        <v>222</v>
+        <v>643</v>
       </c>
     </row>
     <row r="43" ht="15.0" customHeight="true">
@@ -4352,19 +4364,19 @@
         <v>386</v>
       </c>
       <c r="K43" t="s" s="25">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="L43" t="s" s="25">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="M43" t="s" s="25">
         <v>222</v>
       </c>
       <c r="N43" t="s" s="25">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="O43" t="s" s="25">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="44" ht="15.0" customHeight="true">
@@ -4396,13 +4408,13 @@
         <v>222</v>
       </c>
       <c r="J44" t="s" s="25">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="K44" t="s" s="25">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="L44" t="s" s="25">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="M44" t="s" s="25">
         <v>222</v>
@@ -4411,7 +4423,7 @@
         <v>259</v>
       </c>
       <c r="O44" t="s" s="25">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="45" ht="15.0" customHeight="true">
@@ -4443,22 +4455,22 @@
         <v>222</v>
       </c>
       <c r="J45" t="s" s="25">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="K45" t="s" s="25">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L45" t="s" s="25">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="M45" t="s" s="25">
         <v>222</v>
       </c>
       <c r="N45" t="s" s="25">
-        <v>451</v>
+        <v>625</v>
       </c>
       <c r="O45" t="s" s="25">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="46" ht="15.0" customHeight="true">
@@ -4478,7 +4490,7 @@
         <v>222</v>
       </c>
       <c r="F46" t="s" s="25">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G46" t="s" s="25">
         <v>222</v>
@@ -4493,7 +4505,7 @@
         <v>222</v>
       </c>
       <c r="K46" t="s" s="25">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="L46" t="s" s="25">
         <v>222</v>
@@ -4540,7 +4552,7 @@
         <v>222</v>
       </c>
       <c r="K47" t="s" s="25">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="L47" t="s" s="25">
         <v>222</v>
@@ -4587,7 +4599,7 @@
         <v>222</v>
       </c>
       <c r="K48" t="s" s="25">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="L48" t="s" s="25">
         <v>222</v>
@@ -4619,34 +4631,34 @@
         <v>259</v>
       </c>
       <c r="F49" t="s" s="25">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G49" t="s" s="25">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H49" t="s" s="25">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I49" t="s" s="25">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J49" t="s" s="25">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="K49" t="s" s="25">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="L49" t="s" s="25">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="M49" t="s" s="25">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="N49" t="s" s="25">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="O49" t="s" s="25">
-        <v>222</v>
+        <v>645</v>
       </c>
     </row>
     <row r="50" ht="15.0" customHeight="true">
@@ -4666,34 +4678,34 @@
         <v>260</v>
       </c>
       <c r="F50" t="s" s="25">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G50" t="s" s="25">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H50" t="s" s="25">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I50" t="s" s="25">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="J50" t="s" s="25">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="K50" t="s" s="25">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L50" t="s" s="25">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="M50" t="s" s="25">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="N50" t="s" s="25">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="O50" t="s" s="25">
-        <v>222</v>
+        <v>646</v>
       </c>
     </row>
     <row r="51" ht="15.0" customHeight="true">
@@ -4854,34 +4866,34 @@
         <v>264</v>
       </c>
       <c r="F54" t="s" s="25">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G54" t="s" s="25">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H54" t="s" s="25">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I54" t="s" s="25">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="J54" t="s" s="25">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K54" t="s" s="25">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="L54" t="s" s="25">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M54" t="s" s="25">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="N54" t="s" s="25">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="O54" t="s" s="25">
-        <v>222</v>
+        <v>647</v>
       </c>
     </row>
     <row r="55" ht="15.0" customHeight="true">
@@ -4901,34 +4913,34 @@
         <v>265</v>
       </c>
       <c r="F55" t="s" s="25">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G55" t="s" s="25">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H55" t="s" s="25">
         <v>264</v>
       </c>
       <c r="I55" t="s" s="25">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="J55" t="s" s="25">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="K55" t="s" s="25">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="L55" t="s" s="25">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="M55" t="s" s="25">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="N55" t="s" s="25">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="O55" t="s" s="25">
-        <v>222</v>
+        <v>588</v>
       </c>
     </row>
     <row r="56" ht="15.0" customHeight="true">
@@ -4954,7 +4966,7 @@
         <v>222</v>
       </c>
       <c r="H56" t="s" s="25">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I56" t="s" s="25">
         <v>222</v>
@@ -4963,7 +4975,7 @@
         <v>222</v>
       </c>
       <c r="K56" t="s" s="25">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="L56" t="s" s="25">
         <v>222</v>
@@ -5001,7 +5013,7 @@
         <v>222</v>
       </c>
       <c r="H57" t="s" s="25">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I57" t="s" s="25">
         <v>222</v>
@@ -5010,7 +5022,7 @@
         <v>222</v>
       </c>
       <c r="K57" t="s" s="25">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L57" t="s" s="25">
         <v>222</v>
@@ -5048,7 +5060,7 @@
         <v>222</v>
       </c>
       <c r="H58" t="s" s="25">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I58" t="s" s="25">
         <v>222</v>
@@ -5057,7 +5069,7 @@
         <v>222</v>
       </c>
       <c r="K58" t="s" s="25">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="L58" t="s" s="25">
         <v>222</v>
@@ -5095,7 +5107,7 @@
         <v>222</v>
       </c>
       <c r="H59" t="s" s="25">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I59" t="s" s="25">
         <v>222</v>
@@ -5104,7 +5116,7 @@
         <v>222</v>
       </c>
       <c r="K59" t="s" s="25">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L59" t="s" s="25">
         <v>222</v>
@@ -5142,7 +5154,7 @@
         <v>222</v>
       </c>
       <c r="H60" t="s" s="25">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I60" t="s" s="25">
         <v>222</v>
@@ -5151,7 +5163,7 @@
         <v>222</v>
       </c>
       <c r="K60" t="s" s="25">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L60" t="s" s="25">
         <v>222</v>
@@ -5189,7 +5201,7 @@
         <v>222</v>
       </c>
       <c r="H61" t="s" s="25">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I61" t="s" s="25">
         <v>222</v>
@@ -5198,7 +5210,7 @@
         <v>222</v>
       </c>
       <c r="K61" t="s" s="25">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="L61" t="s" s="25">
         <v>222</v>
@@ -5230,34 +5242,34 @@
         <v>266</v>
       </c>
       <c r="F62" t="s" s="25">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G62" t="s" s="25">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H62" t="s" s="25">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I62" t="s" s="25">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="J62" t="s" s="25">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="K62" t="s" s="25">
         <v>222</v>
       </c>
       <c r="L62" t="s" s="25">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="M62" t="s" s="25">
         <v>222</v>
       </c>
       <c r="N62" t="s" s="25">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="O62" t="s" s="25">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="63" ht="15.0" customHeight="true">
@@ -5277,31 +5289,31 @@
         <v>267</v>
       </c>
       <c r="F63" t="s" s="25">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G63" t="s" s="25">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H63" t="s" s="25">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I63" t="s" s="25">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="J63" t="s" s="25">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="K63" t="s" s="25">
         <v>222</v>
       </c>
       <c r="L63" t="s" s="25">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="M63" t="s" s="25">
         <v>222</v>
       </c>
       <c r="N63" t="s" s="25">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="O63" t="s" s="25">
         <v>394</v>
@@ -5324,16 +5336,16 @@
         <v>268</v>
       </c>
       <c r="F64" t="s" s="25">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G64" t="s" s="25">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H64" t="s" s="25">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I64" t="s" s="25">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="J64" t="s" s="25">
         <v>309</v>
@@ -5348,10 +5360,10 @@
         <v>222</v>
       </c>
       <c r="N64" t="s" s="25">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="O64" t="s" s="25">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="65" ht="15.0" customHeight="true">
@@ -5371,16 +5383,16 @@
         <v>269</v>
       </c>
       <c r="F65" t="s" s="25">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G65" t="s" s="25">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H65" t="s" s="25">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I65" t="s" s="25">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="J65" t="s" s="25">
         <v>270</v>
@@ -5389,10 +5401,10 @@
         <v>241</v>
       </c>
       <c r="L65" t="s" s="25">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="M65" t="s" s="25">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="N65" t="s" s="25">
         <v>293</v>
@@ -5421,13 +5433,13 @@
         <v>239</v>
       </c>
       <c r="G66" t="s" s="25">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H66" t="s" s="25">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I66" t="s" s="25">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="J66" t="s" s="25">
         <v>284</v>
@@ -5439,10 +5451,10 @@
         <v>237</v>
       </c>
       <c r="M66" t="s" s="25">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="N66" t="s" s="25">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="O66" t="s" s="25">
         <v>222</v>
@@ -5468,13 +5480,13 @@
         <v>249</v>
       </c>
       <c r="G67" t="s" s="25">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H67" t="s" s="25">
         <v>242</v>
       </c>
       <c r="I67" t="s" s="25">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="J67" t="s" s="25">
         <v>242</v>
@@ -5483,13 +5495,13 @@
         <v>239</v>
       </c>
       <c r="L67" t="s" s="25">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="M67" t="s" s="25">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="N67" t="s" s="25">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="O67" t="s" s="25">
         <v>222</v>
@@ -5518,13 +5530,13 @@
         <v>279</v>
       </c>
       <c r="H68" t="s" s="25">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I68" t="s" s="25">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="J68" t="s" s="25">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="K68" t="s" s="25">
         <v>390</v>
@@ -5533,7 +5545,7 @@
         <v>276</v>
       </c>
       <c r="M68" t="s" s="25">
-        <v>256</v>
+        <v>608</v>
       </c>
       <c r="N68" t="s" s="25">
         <v>222</v>
@@ -5562,10 +5574,10 @@
         <v>291</v>
       </c>
       <c r="G69" t="s" s="25">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H69" t="s" s="25">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I69" t="s" s="25">
         <v>275</v>
@@ -5574,10 +5586,10 @@
         <v>233</v>
       </c>
       <c r="K69" t="s" s="25">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L69" t="s" s="25">
-        <v>584</v>
+        <v>365</v>
       </c>
       <c r="M69" t="s" s="25">
         <v>278</v>
@@ -5618,16 +5630,16 @@
         <v>281</v>
       </c>
       <c r="J70" t="s" s="25">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="K70" t="s" s="25">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L70" t="s" s="25">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="M70" t="s" s="25">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="N70" t="s" s="25">
         <v>222</v>
@@ -5653,34 +5665,34 @@
         <v>275</v>
       </c>
       <c r="F71" t="s" s="25">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G71" t="s" s="25">
         <v>313</v>
       </c>
       <c r="H71" t="s" s="25">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I71" t="s" s="25">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="J71" t="s" s="25">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K71" t="s" s="25">
         <v>388</v>
       </c>
       <c r="L71" t="s" s="25">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="M71" t="s" s="25">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N71" t="s" s="25">
         <v>279</v>
       </c>
       <c r="O71" t="s" s="25">
-        <v>222</v>
+        <v>272</v>
       </c>
     </row>
     <row r="72" ht="15.0" customHeight="true">
@@ -5700,34 +5712,34 @@
         <v>276</v>
       </c>
       <c r="F72" t="s" s="25">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G72" t="s" s="25">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H72" t="s" s="25">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I72" t="s" s="25">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="J72" t="s" s="25">
         <v>296</v>
       </c>
       <c r="K72" t="s" s="25">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="L72" t="s" s="25">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="M72" t="s" s="25">
         <v>274</v>
       </c>
       <c r="N72" t="s" s="25">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O72" t="s" s="25">
-        <v>222</v>
+        <v>395</v>
       </c>
     </row>
     <row r="73" ht="15.0" customHeight="true">
@@ -5753,28 +5765,28 @@
         <v>313</v>
       </c>
       <c r="H73" t="s" s="25">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I73" t="s" s="25">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J73" t="s" s="25">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="K73" t="s" s="25">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="L73" t="s" s="25">
         <v>395</v>
       </c>
       <c r="M73" t="s" s="25">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="N73" t="s" s="25">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="O73" t="s" s="25">
-        <v>222</v>
+        <v>414</v>
       </c>
     </row>
     <row r="74" ht="15.0" customHeight="true">
@@ -5794,34 +5806,34 @@
         <v>278</v>
       </c>
       <c r="F74" t="s" s="25">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G74" t="s" s="25">
-        <v>379</v>
+        <v>319</v>
       </c>
       <c r="H74" t="s" s="25">
         <v>388</v>
       </c>
       <c r="I74" t="s" s="25">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J74" t="s" s="25">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="K74" t="s" s="25">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="L74" t="s" s="25">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M74" t="s" s="25">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="N74" t="s" s="25">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="O74" t="s" s="25">
-        <v>222</v>
+        <v>339</v>
       </c>
     </row>
     <row r="75" ht="15.0" customHeight="true">
@@ -5841,7 +5853,7 @@
         <v>279</v>
       </c>
       <c r="F75" t="s" s="25">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G75" t="s" s="25">
         <v>282</v>
@@ -5859,10 +5871,10 @@
         <v>255</v>
       </c>
       <c r="L75" t="s" s="25">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="M75" t="s" s="25">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="N75" t="s" s="25">
         <v>283</v>
@@ -5888,31 +5900,31 @@
         <v>280</v>
       </c>
       <c r="F76" t="s" s="25">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G76" t="s" s="25">
         <v>380</v>
       </c>
       <c r="H76" t="s" s="25">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I76" t="s" s="25">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J76" t="s" s="25">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="K76" t="s" s="25">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="L76" t="s" s="25">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="M76" t="s" s="25">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="N76" t="s" s="25">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="O76" t="s" s="25">
         <v>222</v>
@@ -5935,7 +5947,7 @@
         <v>281</v>
       </c>
       <c r="F77" t="s" s="25">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G77" t="s" s="25">
         <v>283</v>
@@ -5944,13 +5956,13 @@
         <v>281</v>
       </c>
       <c r="I77" t="s" s="25">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J77" t="s" s="25">
         <v>283</v>
       </c>
       <c r="K77" t="s" s="25">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L77" t="s" s="25">
         <v>302</v>
@@ -5959,10 +5971,10 @@
         <v>255</v>
       </c>
       <c r="N77" t="s" s="25">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="O77" t="s" s="25">
-        <v>222</v>
+        <v>336</v>
       </c>
     </row>
     <row r="78" ht="15.0" customHeight="true">
@@ -5985,28 +5997,28 @@
         <v>274</v>
       </c>
       <c r="G78" t="s" s="25">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H78" t="s" s="25">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I78" t="s" s="25">
         <v>232</v>
       </c>
       <c r="J78" t="s" s="25">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="K78" t="s" s="25">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="L78" t="s" s="25">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="M78" t="s" s="25">
         <v>229</v>
       </c>
       <c r="N78" t="s" s="25">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O78" t="s" s="25">
         <v>222</v>
@@ -6032,10 +6044,10 @@
         <v>281</v>
       </c>
       <c r="G79" t="s" s="25">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H79" t="s" s="25">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I79" t="s" s="25">
         <v>232</v>
@@ -6047,13 +6059,13 @@
         <v>232</v>
       </c>
       <c r="L79" t="s" s="25">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M79" t="s" s="25">
         <v>229</v>
       </c>
       <c r="N79" t="s" s="25">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="O79" t="s" s="25">
         <v>222</v>
@@ -6088,7 +6100,7 @@
         <v>235</v>
       </c>
       <c r="J80" t="s" s="25">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K80" t="s" s="25">
         <v>235</v>
@@ -6129,22 +6141,22 @@
         <v>285</v>
       </c>
       <c r="H81" t="s" s="25">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I81" t="s" s="25">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="J81" t="s" s="25">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="K81" t="s" s="25">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="L81" t="s" s="25">
         <v>285</v>
       </c>
       <c r="M81" t="s" s="25">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="N81" t="s" s="25">
         <v>222</v>
@@ -6217,31 +6229,31 @@
         <v>287</v>
       </c>
       <c r="F83" t="s" s="25">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G83" t="s" s="25">
         <v>381</v>
       </c>
       <c r="H83" t="s" s="25">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I83" t="s" s="25">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="J83" t="s" s="25">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K83" t="s" s="25">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="L83" t="s" s="25">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="M83" t="s" s="25">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="N83" t="s" s="25">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="O83" t="s" s="25">
         <v>222</v>
@@ -6270,25 +6282,25 @@
         <v>237</v>
       </c>
       <c r="H84" t="s" s="25">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I84" t="s" s="25">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="J84" t="s" s="25">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K84" t="s" s="25">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L84" t="s" s="25">
         <v>286</v>
       </c>
       <c r="M84" t="s" s="25">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="N84" t="s" s="25">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O84" t="s" s="25">
         <v>222</v>
@@ -6317,16 +6329,16 @@
         <v>382</v>
       </c>
       <c r="H85" t="s" s="25">
+        <v>423</v>
+      </c>
+      <c r="I85" t="s" s="25">
         <v>424</v>
       </c>
-      <c r="I85" t="s" s="25">
-        <v>425</v>
-      </c>
       <c r="J85" t="s" s="25">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K85" t="s" s="25">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="L85" t="s" s="25">
         <v>284</v>
@@ -6335,7 +6347,7 @@
         <v>293</v>
       </c>
       <c r="N85" t="s" s="25">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O85" t="s" s="25">
         <v>222</v>
@@ -6364,22 +6376,22 @@
         <v>222</v>
       </c>
       <c r="H86" t="s" s="25">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I86" t="s" s="25">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J86" t="s" s="25">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="K86" t="s" s="25">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L86" t="s" s="25">
         <v>284</v>
       </c>
       <c r="M86" t="s" s="25">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="N86" t="s" s="25">
         <v>284</v>
@@ -6411,16 +6423,16 @@
         <v>222</v>
       </c>
       <c r="H87" t="s" s="25">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I87" t="s" s="25">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="J87" t="s" s="25">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="K87" t="s" s="25">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L87" t="s" s="25">
         <v>301</v>
@@ -6452,7 +6464,7 @@
         <v>288</v>
       </c>
       <c r="F88" t="s" s="25">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G88" t="s" s="25">
         <v>383</v>
@@ -6464,16 +6476,16 @@
         <v>255</v>
       </c>
       <c r="J88" t="s" s="25">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="K88" t="s" s="25">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="L88" t="s" s="25">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="M88" t="s" s="25">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="N88" t="s" s="25">
         <v>291</v>
@@ -6499,25 +6511,25 @@
         <v>289</v>
       </c>
       <c r="F89" t="s" s="25">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G89" t="s" s="25">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H89" t="s" s="25">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I89" t="s" s="25">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="J89" t="s" s="25">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K89" t="s" s="25">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L89" t="s" s="25">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="M89" t="s" s="25">
         <v>255</v>
@@ -6546,31 +6558,31 @@
         <v>290</v>
       </c>
       <c r="F90" t="s" s="25">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G90" t="s" s="25">
         <v>384</v>
       </c>
       <c r="H90" t="s" s="25">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I90" t="s" s="25">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="J90" t="s" s="25">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="K90" t="s" s="25">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="L90" t="s" s="25">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="M90" t="s" s="25">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="N90" t="s" s="25">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="O90" t="s" s="25">
         <v>222</v>
@@ -6599,25 +6611,25 @@
         <v>310</v>
       </c>
       <c r="H91" t="s" s="25">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I91" t="s" s="25">
         <v>390</v>
       </c>
       <c r="J91" t="s" s="25">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K91" t="s" s="25">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="L91" t="s" s="25">
         <v>274</v>
       </c>
       <c r="M91" t="s" s="25">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="N91" t="s" s="25">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="O91" t="s" s="25">
         <v>222</v>
@@ -6652,7 +6664,7 @@
         <v>239</v>
       </c>
       <c r="J92" t="s" s="25">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K92" t="s" s="25">
         <v>249</v>
@@ -6687,28 +6699,28 @@
         <v>292</v>
       </c>
       <c r="F93" t="s" s="25">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G93" t="s" s="25">
         <v>385</v>
       </c>
       <c r="H93" t="s" s="25">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I93" t="s" s="25">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="J93" t="s" s="25">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="K93" t="s" s="25">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="L93" t="s" s="25">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="M93" t="s" s="25">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="N93" t="s" s="25">
         <v>222</v>
@@ -6790,19 +6802,19 @@
         <v>222</v>
       </c>
       <c r="I95" t="s" s="25">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="J95" t="s" s="25">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="K95" t="s" s="25">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="L95" t="s" s="25">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="M95" t="s" s="25">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="N95" t="s" s="25">
         <v>222</v>
@@ -6837,19 +6849,19 @@
         <v>222</v>
       </c>
       <c r="I96" t="s" s="25">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="J96" t="s" s="25">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="K96" t="s" s="25">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="L96" t="s" s="25">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="M96" t="s" s="25">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="N96" t="s" s="25">
         <v>222</v>
@@ -6878,22 +6890,22 @@
         <v>312</v>
       </c>
       <c r="G97" t="s" s="25">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H97" t="s" s="25">
         <v>242</v>
       </c>
       <c r="I97" t="s" s="25">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J97" t="s" s="25">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K97" t="s" s="25">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L97" t="s" s="25">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M97" t="s" s="25">
         <v>242</v>
@@ -6934,7 +6946,7 @@
         <v>239</v>
       </c>
       <c r="J98" t="s" s="25">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K98" t="s" s="25">
         <v>249</v>
@@ -6987,7 +6999,7 @@
         <v>222</v>
       </c>
       <c r="L99" t="s" s="25">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="M99" t="s" s="25">
         <v>235</v>
@@ -7034,10 +7046,10 @@
         <v>222</v>
       </c>
       <c r="L100" t="s" s="25">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="M100" t="s" s="25">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N100" t="s" s="25">
         <v>222</v>
@@ -7069,7 +7081,7 @@
         <v>222</v>
       </c>
       <c r="H101" t="s" s="25">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I101" t="s" s="25">
         <v>222</v>
@@ -7110,28 +7122,28 @@
         <v>294</v>
       </c>
       <c r="F102" t="s" s="25">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G102" t="s" s="25">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H102" t="s" s="25">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I102" t="s" s="25">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="J102" t="s" s="25">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="K102" t="s" s="25">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L102" t="s" s="25">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M102" t="s" s="25">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="N102" t="s" s="25">
         <v>222</v>
@@ -7157,34 +7169,34 @@
         <v>295</v>
       </c>
       <c r="F103" t="s" s="25">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G103" t="s" s="25">
         <v>386</v>
       </c>
       <c r="H103" t="s" s="25">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I103" t="s" s="25">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="J103" t="s" s="25">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="K103" t="s" s="25">
         <v>222</v>
       </c>
       <c r="L103" t="s" s="25">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="M103" t="s" s="25">
         <v>222</v>
       </c>
       <c r="N103" t="s" s="25">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="O103" t="s" s="25">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="104" ht="15.0" customHeight="true">
@@ -7223,7 +7235,7 @@
     </row>
     <row r="106" ht="15.0" customHeight="true">
       <c r="A106" s="21" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="B106" s="21"/>
       <c r="C106" s="21"/>

--- a/descargas/Indicadores ODS Asturias.xlsx
+++ b/descargas/Indicadores ODS Asturias.xlsx
@@ -30,7 +30,7 @@
     <t>Asturias</t>
   </si>
   <si>
-    <t>Última actualización: 19/03/2021</t>
+    <t>Última actualización: 28/05/2021</t>
   </si>
   <si>
     <t>Indicador</t>

--- a/descargas/Indicadores ODS Asturias.xlsx
+++ b/descargas/Indicadores ODS Asturias.xlsx
@@ -30,7 +30,7 @@
     <t>Asturias</t>
   </si>
   <si>
-    <t>Última actualización: 30/11/2021</t>
+    <t>Última actualización: 01/12/2021</t>
   </si>
   <si>
     <t>Indicador</t>

--- a/descargas/Indicadores ODS Asturias.xlsx
+++ b/descargas/Indicadores ODS Asturias.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2469" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2469" uniqueCount="904">
   <si>
     <t>sadei</t>
   </si>
@@ -2716,6 +2716,9 @@
   </si>
   <si>
     <t>29,2</t>
+  </si>
+  <si>
+    <t>2.297,6</t>
   </si>
   <si>
     <t>9,2</t>
@@ -9346,7 +9349,7 @@
         <v>877</v>
       </c>
       <c r="O125" t="s" s="25">
-        <v>340</v>
+        <v>899</v>
       </c>
       <c r="P125" t="s" s="25">
         <v>340</v>
@@ -10546,7 +10549,7 @@
         <v>783</v>
       </c>
       <c r="O149" t="s" s="25">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="P149" t="s" s="25">
         <v>340</v>
@@ -10946,7 +10949,7 @@
         <v>883</v>
       </c>
       <c r="O157" t="s" s="25">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="P157" t="s" s="25">
         <v>340</v>
@@ -11046,7 +11049,7 @@
         <v>884</v>
       </c>
       <c r="O159" t="s" s="25">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="P159" t="s" s="25">
         <v>340</v>
@@ -11140,7 +11143,7 @@
     </row>
     <row r="163" ht="15.0" customHeight="true">
       <c r="A163" s="21" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B163" s="21"/>
       <c r="C163" s="21"/>

--- a/descargas/Indicadores ODS Asturias.xlsx
+++ b/descargas/Indicadores ODS Asturias.xlsx
@@ -30,7 +30,7 @@
     <t>Asturias</t>
   </si>
   <si>
-    <t>Última actualización: 01/12/2021</t>
+    <t>Última actualización: 03/01/2022</t>
   </si>
   <si>
     <t>Indicador</t>

--- a/descargas/Indicadores ODS Asturias.xlsx
+++ b/descargas/Indicadores ODS Asturias.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2469" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2469" uniqueCount="921">
   <si>
     <t>sadei</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Asturias</t>
   </si>
   <si>
-    <t>Última actualización: 03/01/2022</t>
+    <t>Última actualización: 18/01/2022</t>
   </si>
   <si>
     <t>Indicador</t>
@@ -2148,7 +2148,7 @@
     <t>1,8</t>
   </si>
   <si>
-    <t>2.499,5</t>
+    <t>2.499,4</t>
   </si>
   <si>
     <t>11,0</t>
@@ -2286,7 +2286,7 @@
     <t>54,4</t>
   </si>
   <si>
-    <t>2.485,6</t>
+    <t>2.486,1</t>
   </si>
   <si>
     <t>11,3</t>
@@ -2415,7 +2415,7 @@
     <t>66,8</t>
   </si>
   <si>
-    <t>2.649,9</t>
+    <t>2.650,1</t>
   </si>
   <si>
     <t>-4,8</t>
@@ -2484,7 +2484,7 @@
     <t>31,2</t>
   </si>
   <si>
-    <t>124,4</t>
+    <t>125,2</t>
   </si>
   <si>
     <t>94,5</t>
@@ -2523,22 +2523,25 @@
     <t>40,6</t>
   </si>
   <si>
+    <t>-0,8</t>
+  </si>
+  <si>
+    <t>15,6</t>
+  </si>
+  <si>
+    <t>69,3</t>
+  </si>
+  <si>
+    <t>2.659,9</t>
+  </si>
+  <si>
+    <t>2.236,5</t>
+  </si>
+  <si>
     <t>2,5</t>
   </si>
   <si>
-    <t>-0,9</t>
-  </si>
-  <si>
-    <t>15,6</t>
-  </si>
-  <si>
-    <t>69,3</t>
-  </si>
-  <si>
-    <t>2.690,6</t>
-  </si>
-  <si>
-    <t>2.236,5</t>
+    <t>45,1</t>
   </si>
   <si>
     <t>18,2</t>
@@ -2568,6 +2571,9 @@
     <t>80,2</t>
   </si>
   <si>
+    <t>85,7</t>
+  </si>
+  <si>
     <t>19,5</t>
   </si>
   <si>
@@ -2589,7 +2595,7 @@
     <t>28,5</t>
   </si>
   <si>
-    <t>109,0</t>
+    <t>110,8</t>
   </si>
   <si>
     <t>7,5</t>
@@ -2637,88 +2643,127 @@
     <t>35,4</t>
   </si>
   <si>
+    <t>-0,5</t>
+  </si>
+  <si>
+    <t>96,1</t>
+  </si>
+  <si>
+    <t>2.663,1</t>
+  </si>
+  <si>
+    <t>-29,9</t>
+  </si>
+  <si>
+    <t>-46,0</t>
+  </si>
+  <si>
+    <t>2.581,2</t>
+  </si>
+  <si>
+    <t>45,9</t>
+  </si>
+  <si>
+    <t>22,9</t>
+  </si>
+  <si>
+    <t>497,6</t>
+  </si>
+  <si>
+    <t>19,0</t>
+  </si>
+  <si>
+    <t>-31,9</t>
+  </si>
+  <si>
+    <t>-45,0</t>
+  </si>
+  <si>
+    <t>89.472,1</t>
+  </si>
+  <si>
+    <t>87,2</t>
+  </si>
+  <si>
+    <t>89,2</t>
+  </si>
+  <si>
+    <t>22,1</t>
+  </si>
+  <si>
+    <t>21,4</t>
+  </si>
+  <si>
+    <t>27,6</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>370,4</t>
+  </si>
+  <si>
+    <t>340,7</t>
+  </si>
+  <si>
+    <t>34,2</t>
+  </si>
+  <si>
+    <t>87,8</t>
+  </si>
+  <si>
+    <t>90,0</t>
+  </si>
+  <si>
+    <t>33,3</t>
+  </si>
+  <si>
+    <t>67,5</t>
+  </si>
+  <si>
+    <t>75,4</t>
+  </si>
+  <si>
+    <t>98,8</t>
+  </si>
+  <si>
+    <t>18,9</t>
+  </si>
+  <si>
+    <t>78,4</t>
+  </si>
+  <si>
+    <t>11,1</t>
+  </si>
+  <si>
+    <t>88,9</t>
+  </si>
+  <si>
+    <t>48,9</t>
+  </si>
+  <si>
+    <t>79,8</t>
+  </si>
+  <si>
+    <t>29,2</t>
+  </si>
+  <si>
+    <t>36,6</t>
+  </si>
+  <si>
+    <t>-5,8</t>
+  </si>
+  <si>
+    <t>2.240,8</t>
+  </si>
+  <si>
+    <t>2.297,6</t>
+  </si>
+  <si>
     <t>-0,3</t>
   </si>
   <si>
-    <t>96,1</t>
-  </si>
-  <si>
-    <t>2.686,9</t>
-  </si>
-  <si>
-    <t>-29,9</t>
-  </si>
-  <si>
-    <t>-46,0</t>
-  </si>
-  <si>
-    <t>2.581,2</t>
-  </si>
-  <si>
-    <t>22,9</t>
-  </si>
-  <si>
-    <t>19,0</t>
-  </si>
-  <si>
-    <t>-31,9</t>
-  </si>
-  <si>
-    <t>-45,0</t>
-  </si>
-  <si>
-    <t>89.472,1</t>
-  </si>
-  <si>
-    <t>87,2</t>
-  </si>
-  <si>
-    <t>89,2</t>
-  </si>
-  <si>
-    <t>22,1</t>
-  </si>
-  <si>
-    <t>21,4</t>
-  </si>
-  <si>
-    <t>27,6</t>
-  </si>
-  <si>
-    <t>4,5</t>
-  </si>
-  <si>
-    <t>67,5</t>
-  </si>
-  <si>
-    <t>75,4</t>
-  </si>
-  <si>
-    <t>98,8</t>
-  </si>
-  <si>
-    <t>18,9</t>
-  </si>
-  <si>
-    <t>78,4</t>
-  </si>
-  <si>
-    <t>11,1</t>
-  </si>
-  <si>
-    <t>88,9</t>
-  </si>
-  <si>
-    <t>48,9</t>
-  </si>
-  <si>
-    <t>79,8</t>
-  </si>
-  <si>
-    <t>29,2</t>
-  </si>
-  <si>
-    <t>2.297,6</t>
+    <t>48,1</t>
   </si>
   <si>
     <t>9,2</t>
@@ -2728,6 +2773,12 @@
   </si>
   <si>
     <t>91,1</t>
+  </si>
+  <si>
+    <t>88,2</t>
+  </si>
+  <si>
+    <t>64,6</t>
   </si>
   <si>
     <t>Fuente: elaborado por SADEI a partir de las fuentes reseñadas en las fichas metodológicas.</t>
@@ -3599,7 +3650,7 @@
         <v>594</v>
       </c>
       <c r="O10" t="s" s="25">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="P10" t="s" s="25">
         <v>340</v>
@@ -3646,10 +3697,10 @@
         <v>794</v>
       </c>
       <c r="N11" t="s" s="25">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="O11" t="s" s="25">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="P11" t="s" s="25">
         <v>340</v>
@@ -3746,7 +3797,7 @@
         <v>650</v>
       </c>
       <c r="N13" t="s" s="25">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="O13" t="s" s="25">
         <v>630</v>
@@ -3799,7 +3850,7 @@
         <v>676</v>
       </c>
       <c r="O14" t="s" s="25">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="P14" t="s" s="25">
         <v>340</v>
@@ -3846,10 +3897,10 @@
         <v>817</v>
       </c>
       <c r="N15" t="s" s="25">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="O15" t="s" s="25">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="P15" t="s" s="25">
         <v>340</v>
@@ -4099,7 +4150,7 @@
         <v>357</v>
       </c>
       <c r="O20" t="s" s="25">
-        <v>340</v>
+        <v>431</v>
       </c>
       <c r="P20" t="s" s="25">
         <v>340</v>
@@ -4296,7 +4347,7 @@
         <v>653</v>
       </c>
       <c r="N24" t="s" s="25">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="O24" t="s" s="25">
         <v>507</v>
@@ -4349,7 +4400,7 @@
         <v>357</v>
       </c>
       <c r="O25" t="s" s="25">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="P25" t="s" s="25">
         <v>340</v>
@@ -4399,7 +4450,7 @@
         <v>358</v>
       </c>
       <c r="O26" t="s" s="25">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="P26" t="s" s="25">
         <v>340</v>
@@ -4449,7 +4500,7 @@
         <v>369</v>
       </c>
       <c r="O27" t="s" s="25">
-        <v>340</v>
+        <v>392</v>
       </c>
       <c r="P27" t="s" s="25">
         <v>340</v>
@@ -4499,7 +4550,7 @@
         <v>732</v>
       </c>
       <c r="O28" t="s" s="25">
-        <v>340</v>
+        <v>653</v>
       </c>
       <c r="P28" t="s" s="25">
         <v>340</v>
@@ -4546,10 +4597,10 @@
         <v>818</v>
       </c>
       <c r="N29" t="s" s="25">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="O29" t="s" s="25">
-        <v>340</v>
+        <v>893</v>
       </c>
       <c r="P29" t="s" s="25">
         <v>340</v>
@@ -4596,10 +4647,10 @@
         <v>819</v>
       </c>
       <c r="N30" t="s" s="25">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="O30" t="s" s="25">
-        <v>340</v>
+        <v>894</v>
       </c>
       <c r="P30" t="s" s="25">
         <v>340</v>
@@ -4646,10 +4697,10 @@
         <v>820</v>
       </c>
       <c r="N31" t="s" s="25">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="O31" t="s" s="25">
-        <v>340</v>
+        <v>895</v>
       </c>
       <c r="P31" t="s" s="25">
         <v>340</v>
@@ -4696,10 +4747,10 @@
         <v>821</v>
       </c>
       <c r="N32" t="s" s="25">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="O32" t="s" s="25">
-        <v>340</v>
+        <v>896</v>
       </c>
       <c r="P32" t="s" s="25">
         <v>340</v>
@@ -4749,7 +4800,7 @@
         <v>406</v>
       </c>
       <c r="O33" t="s" s="25">
-        <v>340</v>
+        <v>540</v>
       </c>
       <c r="P33" t="s" s="25">
         <v>340</v>
@@ -4799,7 +4850,7 @@
         <v>476</v>
       </c>
       <c r="O34" t="s" s="25">
-        <v>340</v>
+        <v>839</v>
       </c>
       <c r="P34" t="s" s="25">
         <v>340</v>
@@ -4899,7 +4950,7 @@
         <v>431</v>
       </c>
       <c r="O36" t="s" s="25">
-        <v>340</v>
+        <v>431</v>
       </c>
       <c r="P36" t="s" s="25">
         <v>340</v>
@@ -4949,7 +5000,7 @@
         <v>672</v>
       </c>
       <c r="O37" t="s" s="25">
-        <v>340</v>
+        <v>443</v>
       </c>
       <c r="P37" t="s" s="25">
         <v>340</v>
@@ -5046,7 +5097,7 @@
         <v>483</v>
       </c>
       <c r="N39" t="s" s="25">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="O39" t="s" s="25">
         <v>783</v>
@@ -5093,13 +5144,13 @@
         <v>444</v>
       </c>
       <c r="M40" t="s" s="25">
-        <v>370</v>
+        <v>627</v>
       </c>
       <c r="N40" t="s" s="25">
-        <v>679</v>
+        <v>359</v>
       </c>
       <c r="O40" t="s" s="25">
-        <v>340</v>
+        <v>444</v>
       </c>
       <c r="P40" t="s" s="25">
         <v>340</v>
@@ -5199,7 +5250,7 @@
         <v>340</v>
       </c>
       <c r="O42" t="s" s="25">
-        <v>340</v>
+        <v>448</v>
       </c>
       <c r="P42" t="s" s="25">
         <v>340</v>
@@ -5249,7 +5300,7 @@
         <v>340</v>
       </c>
       <c r="O43" t="s" s="25">
-        <v>340</v>
+        <v>777</v>
       </c>
       <c r="P43" t="s" s="25">
         <v>340</v>
@@ -5299,7 +5350,7 @@
         <v>340</v>
       </c>
       <c r="O44" t="s" s="25">
-        <v>340</v>
+        <v>897</v>
       </c>
       <c r="P44" t="s" s="25">
         <v>340</v>
@@ -5349,7 +5400,7 @@
         <v>340</v>
       </c>
       <c r="O45" t="s" s="25">
-        <v>340</v>
+        <v>898</v>
       </c>
       <c r="P45" t="s" s="25">
         <v>340</v>
@@ -5396,10 +5447,10 @@
         <v>825</v>
       </c>
       <c r="N46" t="s" s="25">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="O46" t="s" s="25">
-        <v>889</v>
+        <v>899</v>
       </c>
       <c r="P46" t="s" s="25">
         <v>340</v>
@@ -5446,10 +5497,10 @@
         <v>826</v>
       </c>
       <c r="N47" t="s" s="25">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="O47" t="s" s="25">
-        <v>890</v>
+        <v>900</v>
       </c>
       <c r="P47" t="s" s="25">
         <v>340</v>
@@ -5496,7 +5547,7 @@
         <v>416</v>
       </c>
       <c r="N48" t="s" s="25">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="O48" t="s" s="25">
         <v>785</v>
@@ -5599,7 +5650,7 @@
         <v>692</v>
       </c>
       <c r="O50" t="s" s="25">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="P50" t="s" s="25">
         <v>358</v>
@@ -5646,7 +5697,7 @@
         <v>828</v>
       </c>
       <c r="N51" t="s" s="25">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="O51" t="s" s="25">
         <v>692</v>
@@ -5696,7 +5747,7 @@
         <v>829</v>
       </c>
       <c r="N52" t="s" s="25">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="O52" t="s" s="25">
         <v>576</v>
@@ -5799,7 +5850,7 @@
         <v>693</v>
       </c>
       <c r="O54" t="s" s="25">
-        <v>892</v>
+        <v>902</v>
       </c>
       <c r="P54" t="s" s="25">
         <v>340</v>
@@ -5846,10 +5897,10 @@
         <v>784</v>
       </c>
       <c r="N55" t="s" s="25">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="O55" t="s" s="25">
-        <v>893</v>
+        <v>903</v>
       </c>
       <c r="P55" t="s" s="25">
         <v>340</v>
@@ -5896,10 +5947,10 @@
         <v>349</v>
       </c>
       <c r="N56" t="s" s="25">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="O56" t="s" s="25">
-        <v>894</v>
+        <v>904</v>
       </c>
       <c r="P56" t="s" s="25">
         <v>340</v>
@@ -5946,13 +5997,13 @@
         <v>340</v>
       </c>
       <c r="N57" t="s" s="25">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="O57" t="s" s="25">
         <v>688</v>
       </c>
       <c r="P57" t="s" s="25">
-        <v>340</v>
+        <v>797</v>
       </c>
     </row>
     <row r="58" ht="15.0" customHeight="true">
@@ -5999,10 +6050,10 @@
         <v>439</v>
       </c>
       <c r="O58" t="s" s="25">
-        <v>895</v>
+        <v>905</v>
       </c>
       <c r="P58" t="s" s="25">
-        <v>340</v>
+        <v>918</v>
       </c>
     </row>
     <row r="59" ht="15.0" customHeight="true">
@@ -6052,7 +6103,7 @@
         <v>635</v>
       </c>
       <c r="P59" t="s" s="25">
-        <v>340</v>
+        <v>919</v>
       </c>
     </row>
     <row r="60" ht="15.0" customHeight="true">
@@ -6849,7 +6900,7 @@
         <v>357</v>
       </c>
       <c r="O75" t="s" s="25">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="P75" t="s" s="25">
         <v>340</v>
@@ -7046,10 +7097,10 @@
         <v>830</v>
       </c>
       <c r="N79" t="s" s="25">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="O79" t="s" s="25">
-        <v>896</v>
+        <v>906</v>
       </c>
       <c r="P79" t="s" s="25">
         <v>340</v>
@@ -7096,7 +7147,7 @@
         <v>831</v>
       </c>
       <c r="N80" t="s" s="25">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="O80" t="s" s="25">
         <v>804</v>
@@ -7496,13 +7547,13 @@
         <v>340</v>
       </c>
       <c r="N88" t="s" s="25">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="O88" t="s" s="25">
         <v>576</v>
       </c>
       <c r="P88" t="s" s="25">
-        <v>340</v>
+        <v>901</v>
       </c>
     </row>
     <row r="89" ht="15.0" customHeight="true">
@@ -7546,13 +7597,13 @@
         <v>340</v>
       </c>
       <c r="N89" t="s" s="25">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="O89" t="s" s="25">
         <v>736</v>
       </c>
       <c r="P89" t="s" s="25">
-        <v>340</v>
+        <v>735</v>
       </c>
     </row>
     <row r="90" ht="15.0" customHeight="true">
@@ -7596,13 +7647,13 @@
         <v>340</v>
       </c>
       <c r="N90" t="s" s="25">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="O90" t="s" s="25">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="P90" t="s" s="25">
-        <v>340</v>
+        <v>692</v>
       </c>
     </row>
     <row r="91" ht="15.0" customHeight="true">
@@ -7649,7 +7700,7 @@
         <v>826</v>
       </c>
       <c r="O91" t="s" s="25">
-        <v>897</v>
+        <v>907</v>
       </c>
       <c r="P91" t="s" s="25">
         <v>340</v>
@@ -7796,10 +7847,10 @@
         <v>682</v>
       </c>
       <c r="N94" t="s" s="25">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="O94" t="s" s="25">
-        <v>898</v>
+        <v>908</v>
       </c>
       <c r="P94" t="s" s="25">
         <v>340</v>
@@ -7846,10 +7897,10 @@
         <v>833</v>
       </c>
       <c r="N95" t="s" s="25">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="O95" t="s" s="25">
-        <v>340</v>
+        <v>909</v>
       </c>
       <c r="P95" t="s" s="25">
         <v>340</v>
@@ -7890,16 +7941,16 @@
         <v>359</v>
       </c>
       <c r="L96" t="s" s="25">
-        <v>686</v>
+        <v>507</v>
       </c>
       <c r="M96" t="s" s="25">
-        <v>834</v>
+        <v>627</v>
       </c>
       <c r="N96" t="s" s="25">
-        <v>539</v>
+        <v>793</v>
       </c>
       <c r="O96" t="s" s="25">
-        <v>340</v>
+        <v>654</v>
       </c>
       <c r="P96" t="s" s="25">
         <v>340</v>
@@ -7940,16 +7991,16 @@
         <v>410</v>
       </c>
       <c r="L97" t="s" s="25">
-        <v>355</v>
+        <v>429</v>
       </c>
       <c r="M97" t="s" s="25">
-        <v>461</v>
+        <v>647</v>
       </c>
       <c r="N97" t="s" s="25">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="O97" t="s" s="25">
-        <v>340</v>
+        <v>910</v>
       </c>
       <c r="P97" t="s" s="25">
         <v>340</v>
@@ -7993,13 +8044,13 @@
         <v>793</v>
       </c>
       <c r="M98" t="s" s="25">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N98" t="s" s="25">
-        <v>872</v>
+        <v>534</v>
       </c>
       <c r="O98" t="s" s="25">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="P98" t="s" s="25">
         <v>340</v>
@@ -8043,7 +8094,7 @@
         <v>399</v>
       </c>
       <c r="M99" t="s" s="25">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="N99" t="s" s="25">
         <v>751</v>
@@ -8196,7 +8247,7 @@
         <v>495</v>
       </c>
       <c r="N102" t="s" s="25">
-        <v>340</v>
+        <v>470</v>
       </c>
       <c r="O102" t="s" s="25">
         <v>340</v>
@@ -8246,7 +8297,7 @@
         <v>418</v>
       </c>
       <c r="N103" t="s" s="25">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="O103" t="s" s="25">
         <v>340</v>
@@ -8446,10 +8497,10 @@
         <v>365</v>
       </c>
       <c r="N107" t="s" s="25">
-        <v>340</v>
+        <v>397</v>
       </c>
       <c r="O107" t="s" s="25">
-        <v>340</v>
+        <v>409</v>
       </c>
       <c r="P107" t="s" s="25">
         <v>340</v>
@@ -8496,10 +8547,10 @@
         <v>352</v>
       </c>
       <c r="N108" t="s" s="25">
-        <v>340</v>
+        <v>693</v>
       </c>
       <c r="O108" t="s" s="25">
-        <v>340</v>
+        <v>537</v>
       </c>
       <c r="P108" t="s" s="25">
         <v>340</v>
@@ -8546,10 +8597,10 @@
         <v>560</v>
       </c>
       <c r="N109" t="s" s="25">
-        <v>340</v>
+        <v>409</v>
       </c>
       <c r="O109" t="s" s="25">
-        <v>340</v>
+        <v>495</v>
       </c>
       <c r="P109" t="s" s="25">
         <v>340</v>
@@ -8693,10 +8744,10 @@
         <v>797</v>
       </c>
       <c r="M112" t="s" s="25">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="N112" t="s" s="25">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="O112" t="s" s="25">
         <v>340</v>
@@ -8793,13 +8844,13 @@
         <v>455</v>
       </c>
       <c r="M114" t="s" s="25">
-        <v>374</v>
+        <v>484</v>
       </c>
       <c r="N114" t="s" s="25">
-        <v>540</v>
+        <v>478</v>
       </c>
       <c r="O114" t="s" s="25">
-        <v>340</v>
+        <v>904</v>
       </c>
       <c r="P114" t="s" s="25">
         <v>340</v>
@@ -8843,13 +8894,13 @@
         <v>798</v>
       </c>
       <c r="M115" t="s" s="25">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="N115" t="s" s="25">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="O115" t="s" s="25">
-        <v>340</v>
+        <v>911</v>
       </c>
       <c r="P115" t="s" s="25">
         <v>340</v>
@@ -8949,7 +9000,7 @@
         <v>598</v>
       </c>
       <c r="O117" t="s" s="25">
-        <v>340</v>
+        <v>710</v>
       </c>
       <c r="P117" t="s" s="25">
         <v>340</v>
@@ -8996,10 +9047,10 @@
         <v>347</v>
       </c>
       <c r="N118" t="s" s="25">
-        <v>756</v>
+        <v>598</v>
       </c>
       <c r="O118" t="s" s="25">
-        <v>340</v>
+        <v>598</v>
       </c>
       <c r="P118" t="s" s="25">
         <v>340</v>
@@ -9196,7 +9247,7 @@
         <v>599</v>
       </c>
       <c r="N122" t="s" s="25">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="O122" t="s" s="25">
         <v>340</v>
@@ -9246,7 +9297,7 @@
         <v>600</v>
       </c>
       <c r="N123" t="s" s="25">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="O123" t="s" s="25">
         <v>340</v>
@@ -9299,7 +9350,7 @@
         <v>381</v>
       </c>
       <c r="O124" t="s" s="25">
-        <v>340</v>
+        <v>410</v>
       </c>
       <c r="P124" t="s" s="25">
         <v>340</v>
@@ -9343,13 +9394,13 @@
         <v>801</v>
       </c>
       <c r="M125" t="s" s="25">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="N125" t="s" s="25">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="O125" t="s" s="25">
-        <v>899</v>
+        <v>912</v>
       </c>
       <c r="P125" t="s" s="25">
         <v>340</v>
@@ -9393,13 +9444,13 @@
         <v>353</v>
       </c>
       <c r="M126" t="s" s="25">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="N126" t="s" s="25">
         <v>653</v>
       </c>
       <c r="O126" t="s" s="25">
-        <v>872</v>
+        <v>913</v>
       </c>
       <c r="P126" t="s" s="25">
         <v>340</v>
@@ -9693,13 +9744,13 @@
         <v>804</v>
       </c>
       <c r="M132" t="s" s="25">
-        <v>760</v>
+        <v>840</v>
       </c>
       <c r="N132" t="s" s="25">
-        <v>660</v>
+        <v>880</v>
       </c>
       <c r="O132" t="s" s="25">
-        <v>340</v>
+        <v>914</v>
       </c>
       <c r="P132" t="s" s="25">
         <v>340</v>
@@ -9743,10 +9794,10 @@
         <v>396</v>
       </c>
       <c r="M133" t="s" s="25">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="N133" t="s" s="25">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="O133" t="s" s="25">
         <v>352</v>
@@ -9849,7 +9900,7 @@
         <v>357</v>
       </c>
       <c r="O135" t="s" s="25">
-        <v>340</v>
+        <v>431</v>
       </c>
       <c r="P135" t="s" s="25">
         <v>340</v>
@@ -9893,10 +9944,10 @@
         <v>806</v>
       </c>
       <c r="M136" t="s" s="25">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="N136" t="s" s="25">
-        <v>340</v>
+        <v>882</v>
       </c>
       <c r="O136" t="s" s="25">
         <v>340</v>
@@ -9993,7 +10044,7 @@
         <v>807</v>
       </c>
       <c r="M138" t="s" s="25">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="N138" t="s" s="25">
         <v>340</v>
@@ -10043,7 +10094,7 @@
         <v>808</v>
       </c>
       <c r="M139" t="s" s="25">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="N139" t="s" s="25">
         <v>340</v>
@@ -10099,7 +10150,7 @@
         <v>357</v>
       </c>
       <c r="O140" t="s" s="25">
-        <v>340</v>
+        <v>431</v>
       </c>
       <c r="P140" t="s" s="25">
         <v>340</v>
@@ -10196,7 +10247,7 @@
         <v>621</v>
       </c>
       <c r="N142" t="s" s="25">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="O142" t="s" s="25">
         <v>340</v>
@@ -10243,10 +10294,10 @@
         <v>810</v>
       </c>
       <c r="M143" t="s" s="25">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="N143" t="s" s="25">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="O143" t="s" s="25">
         <v>340</v>
@@ -10293,10 +10344,10 @@
         <v>800</v>
       </c>
       <c r="M144" t="s" s="25">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="N144" t="s" s="25">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="O144" t="s" s="25">
         <v>340</v>
@@ -10393,10 +10444,10 @@
         <v>811</v>
       </c>
       <c r="M146" t="s" s="25">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="N146" t="s" s="25">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="O146" t="s" s="25">
         <v>340</v>
@@ -10549,7 +10600,7 @@
         <v>783</v>
       </c>
       <c r="O149" t="s" s="25">
-        <v>900</v>
+        <v>915</v>
       </c>
       <c r="P149" t="s" s="25">
         <v>340</v>
@@ -10643,7 +10694,7 @@
         <v>812</v>
       </c>
       <c r="M151" t="s" s="25">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="N151" t="s" s="25">
         <v>372</v>
@@ -10943,13 +10994,13 @@
         <v>815</v>
       </c>
       <c r="M157" t="s" s="25">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="N157" t="s" s="25">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="O157" t="s" s="25">
-        <v>901</v>
+        <v>916</v>
       </c>
       <c r="P157" t="s" s="25">
         <v>340</v>
@@ -11037,22 +11088,22 @@
         <v>725</v>
       </c>
       <c r="K159" t="s" s="25">
-        <v>340</v>
+        <v>519</v>
       </c>
       <c r="L159" t="s" s="25">
         <v>816</v>
       </c>
       <c r="M159" t="s" s="25">
-        <v>340</v>
+        <v>850</v>
       </c>
       <c r="N159" t="s" s="25">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="O159" t="s" s="25">
-        <v>902</v>
+        <v>917</v>
       </c>
       <c r="P159" t="s" s="25">
-        <v>340</v>
+        <v>587</v>
       </c>
     </row>
     <row r="160" ht="15.0" customHeight="true">
@@ -11102,7 +11153,7 @@
         <v>433</v>
       </c>
       <c r="P160" t="s" s="25">
-        <v>340</v>
+        <v>433</v>
       </c>
     </row>
     <row r="161" ht="15.0" customHeight="true">
@@ -11143,7 +11194,7 @@
     </row>
     <row r="163" ht="15.0" customHeight="true">
       <c r="A163" s="21" t="s">
-        <v>903</v>
+        <v>920</v>
       </c>
       <c r="B163" s="21"/>
       <c r="C163" s="21"/>

--- a/descargas/Indicadores ODS Asturias.xlsx
+++ b/descargas/Indicadores ODS Asturias.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2469" uniqueCount="921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2469" uniqueCount="920">
   <si>
     <t>sadei</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Asturias</t>
   </si>
   <si>
-    <t>Última actualización: 18/01/2022</t>
+    <t>Última actualización: 28/01/2022</t>
   </si>
   <si>
     <t>Indicador</t>
@@ -1176,591 +1176,588 @@
     <t>248,8</t>
   </si>
   <si>
+    <t>41,4</t>
+  </si>
+  <si>
+    <t>90,9</t>
+  </si>
+  <si>
+    <t>90,5</t>
+  </si>
+  <si>
+    <t>91,4</t>
+  </si>
+  <si>
+    <t>0,7</t>
+  </si>
+  <si>
+    <t>3,6</t>
+  </si>
+  <si>
+    <t>4,0</t>
+  </si>
+  <si>
+    <t>14,1</t>
+  </si>
+  <si>
+    <t>15,5</t>
+  </si>
+  <si>
+    <t>12,4</t>
+  </si>
+  <si>
+    <t>14,4</t>
+  </si>
+  <si>
+    <t>15,9</t>
+  </si>
+  <si>
+    <t>15,2</t>
+  </si>
+  <si>
+    <t>16,8</t>
+  </si>
+  <si>
+    <t>17,3</t>
+  </si>
+  <si>
+    <t>156,5</t>
+  </si>
+  <si>
+    <t>3,7</t>
+  </si>
+  <si>
+    <t>13,4</t>
+  </si>
+  <si>
+    <t>2.823,3</t>
+  </si>
+  <si>
+    <t>12,5</t>
+  </si>
+  <si>
+    <t>12,6</t>
+  </si>
+  <si>
+    <t>12,7</t>
+  </si>
+  <si>
+    <t>14,3</t>
+  </si>
+  <si>
+    <t>0,9</t>
+  </si>
+  <si>
+    <t>2,6</t>
+  </si>
+  <si>
+    <t>-21,7</t>
+  </si>
+  <si>
+    <t>-39,7</t>
+  </si>
+  <si>
+    <t>2.389,2</t>
+  </si>
+  <si>
+    <t>6,7</t>
+  </si>
+  <si>
+    <t>8,5</t>
+  </si>
+  <si>
+    <t>48,3</t>
+  </si>
+  <si>
+    <t>15,7</t>
+  </si>
+  <si>
+    <t>11,7</t>
+  </si>
+  <si>
+    <t>574,0</t>
+  </si>
+  <si>
+    <t>20,4</t>
+  </si>
+  <si>
+    <t>-22,9</t>
+  </si>
+  <si>
+    <t>-37,7</t>
+  </si>
+  <si>
+    <t>42,8</t>
+  </si>
+  <si>
+    <t>23,5</t>
+  </si>
+  <si>
+    <t>36,5</t>
+  </si>
+  <si>
+    <t>42,6</t>
+  </si>
+  <si>
+    <t>-14,7</t>
+  </si>
+  <si>
+    <t>-0,1</t>
+  </si>
+  <si>
+    <t>15,1</t>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <t>62,3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>19,6</t>
+  </si>
+  <si>
+    <t>10,7</t>
+  </si>
+  <si>
+    <t>16,0</t>
+  </si>
+  <si>
+    <t>25,4</t>
+  </si>
+  <si>
+    <t>12,8</t>
+  </si>
+  <si>
+    <t>99,5</t>
+  </si>
+  <si>
+    <t>99,4</t>
+  </si>
+  <si>
+    <t>37,6</t>
+  </si>
+  <si>
+    <t>5,0</t>
+  </si>
+  <si>
+    <t>5,1</t>
+  </si>
+  <si>
+    <t>2,7</t>
+  </si>
+  <si>
+    <t>376,1</t>
+  </si>
+  <si>
+    <t>341,0</t>
+  </si>
+  <si>
+    <t>38,2</t>
+  </si>
+  <si>
+    <t>95,3</t>
+  </si>
+  <si>
+    <t>4,9</t>
+  </si>
+  <si>
+    <t>7,6</t>
+  </si>
+  <si>
+    <t>21,8</t>
+  </si>
+  <si>
+    <t>48,2</t>
+  </si>
+  <si>
+    <t>60,3</t>
+  </si>
+  <si>
+    <t>6,3</t>
+  </si>
+  <si>
+    <t>12,3</t>
+  </si>
+  <si>
+    <t>99,7</t>
+  </si>
+  <si>
+    <t>42,3</t>
+  </si>
+  <si>
+    <t>17,4</t>
+  </si>
+  <si>
+    <t>72,5</t>
+  </si>
+  <si>
+    <t>10,1</t>
+  </si>
+  <si>
+    <t>0,6</t>
+  </si>
+  <si>
+    <t>35,3</t>
+  </si>
+  <si>
+    <t>29,8</t>
+  </si>
+  <si>
+    <t>91,8</t>
+  </si>
+  <si>
+    <t>92,3</t>
+  </si>
+  <si>
+    <t>91,3</t>
+  </si>
+  <si>
+    <t>20,0</t>
+  </si>
+  <si>
+    <t>41,8</t>
+  </si>
+  <si>
+    <t>-1,0</t>
+  </si>
+  <si>
+    <t>14,2</t>
+  </si>
+  <si>
+    <t>13,1</t>
+  </si>
+  <si>
+    <t>17,8</t>
+  </si>
+  <si>
+    <t>18,3</t>
+  </si>
+  <si>
+    <t>17,2</t>
+  </si>
+  <si>
+    <t>145,8</t>
+  </si>
+  <si>
+    <t>3,5</t>
+  </si>
+  <si>
+    <t>2.674,3</t>
+  </si>
+  <si>
+    <t>11,9</t>
+  </si>
+  <si>
+    <t>-14,4</t>
+  </si>
+  <si>
+    <t>-34,1</t>
+  </si>
+  <si>
+    <t>2.291,6</t>
+  </si>
+  <si>
+    <t>2,2</t>
+  </si>
+  <si>
+    <t>8,1</t>
+  </si>
+  <si>
+    <t>12,1</t>
+  </si>
+  <si>
+    <t>47,8</t>
+  </si>
+  <si>
+    <t>537,1</t>
+  </si>
+  <si>
+    <t>22,0</t>
+  </si>
+  <si>
+    <t>-16,7</t>
+  </si>
+  <si>
+    <t>-32,7</t>
+  </si>
+  <si>
+    <t>10,8</t>
+  </si>
+  <si>
+    <t>21,2</t>
+  </si>
+  <si>
+    <t>55,6</t>
+  </si>
+  <si>
+    <t>62,6</t>
+  </si>
+  <si>
+    <t>25,2</t>
+  </si>
+  <si>
+    <t>14,0</t>
+  </si>
+  <si>
+    <t>66,2</t>
+  </si>
+  <si>
+    <t>13,0</t>
+  </si>
+  <si>
+    <t>20,7</t>
+  </si>
+  <si>
+    <t>11,8</t>
+  </si>
+  <si>
+    <t>17,5</t>
+  </si>
+  <si>
+    <t>24,5</t>
+  </si>
+  <si>
+    <t>29,6</t>
+  </si>
+  <si>
+    <t>3,3</t>
+  </si>
+  <si>
+    <t>22,6</t>
+  </si>
+  <si>
+    <t>33,7</t>
+  </si>
+  <si>
+    <t>5,2</t>
+  </si>
+  <si>
+    <t>2,8</t>
+  </si>
+  <si>
+    <t>391,0</t>
+  </si>
+  <si>
+    <t>340,4</t>
+  </si>
+  <si>
+    <t>30,8</t>
+  </si>
+  <si>
+    <t>113,9</t>
+  </si>
+  <si>
+    <t>4,6</t>
+  </si>
+  <si>
+    <t>52,5</t>
+  </si>
+  <si>
+    <t>58,2</t>
+  </si>
+  <si>
+    <t>7,0</t>
+  </si>
+  <si>
+    <t>17,1</t>
+  </si>
+  <si>
+    <t>74,6</t>
+  </si>
+  <si>
+    <t>9,5</t>
+  </si>
+  <si>
+    <t>76,7</t>
+  </si>
+  <si>
+    <t>80,3</t>
+  </si>
+  <si>
+    <t>73,3</t>
+  </si>
+  <si>
+    <t>71,0</t>
+  </si>
+  <si>
+    <t>80,7</t>
+  </si>
+  <si>
+    <t>61,7</t>
+  </si>
+  <si>
+    <t>23,6</t>
+  </si>
+  <si>
+    <t>21,7</t>
+  </si>
+  <si>
+    <t>41,7</t>
+  </si>
+  <si>
+    <t>93,4</t>
+  </si>
+  <si>
+    <t>93,2</t>
+  </si>
+  <si>
+    <t>93,6</t>
+  </si>
+  <si>
+    <t>18,4</t>
+  </si>
+  <si>
+    <t>41,1</t>
+  </si>
+  <si>
+    <t>-3,6</t>
+  </si>
+  <si>
+    <t>0,4</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>15,8</t>
+  </si>
+  <si>
+    <t>21,9</t>
+  </si>
+  <si>
+    <t>64,1</t>
+  </si>
+  <si>
+    <t>1,6</t>
+  </si>
+  <si>
+    <t>12,0</t>
+  </si>
+  <si>
+    <t>2.416,9</t>
+  </si>
+  <si>
+    <t>18,5</t>
+  </si>
+  <si>
+    <t>-8,8</t>
+  </si>
+  <si>
+    <t>-29,7</t>
+  </si>
+  <si>
+    <t>2.107,8</t>
+  </si>
+  <si>
+    <t>-0,2</t>
+  </si>
+  <si>
+    <t>7,4</t>
+  </si>
+  <si>
+    <t>46,4</t>
+  </si>
+  <si>
+    <t>499,9</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>23,3</t>
+  </si>
+  <si>
+    <t>-12,0</t>
+  </si>
+  <si>
+    <t>-29,0</t>
+  </si>
+  <si>
+    <t>8,4</t>
+  </si>
+  <si>
+    <t>65,6</t>
+  </si>
+  <si>
+    <t>77,9</t>
+  </si>
+  <si>
+    <t>286,8</t>
+  </si>
+  <si>
+    <t>60,4</t>
+  </si>
+  <si>
+    <t>20,5</t>
+  </si>
+  <si>
+    <t>13,6</t>
+  </si>
+  <si>
+    <t>17,6</t>
+  </si>
+  <si>
+    <t>27,2</t>
+  </si>
+  <si>
+    <t>39,7</t>
+  </si>
+  <si>
+    <t>15,0</t>
+  </si>
+  <si>
+    <t>392,7</t>
+  </si>
+  <si>
+    <t>331,6</t>
+  </si>
+  <si>
+    <t>27,8</t>
+  </si>
+  <si>
+    <t>97,7</t>
+  </si>
+  <si>
+    <t>13,9</t>
+  </si>
+  <si>
+    <t>4,8</t>
+  </si>
+  <si>
+    <t>6,9</t>
+  </si>
+  <si>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t>55,1</t>
+  </si>
+  <si>
+    <t>57,6</t>
+  </si>
+  <si>
+    <t>99,0</t>
+  </si>
+  <si>
+    <t>99,1</t>
+  </si>
+  <si>
+    <t>74,2</t>
+  </si>
+  <si>
+    <t>9,9</t>
+  </si>
+  <si>
+    <t>31,0</t>
+  </si>
+  <si>
     <t>30,9</t>
   </si>
   <si>
-    <t>34,9</t>
-  </si>
-  <si>
-    <t>41,4</t>
-  </si>
-  <si>
-    <t>90,9</t>
-  </si>
-  <si>
-    <t>90,5</t>
-  </si>
-  <si>
-    <t>91,4</t>
-  </si>
-  <si>
-    <t>0,7</t>
-  </si>
-  <si>
-    <t>3,6</t>
-  </si>
-  <si>
-    <t>4,0</t>
-  </si>
-  <si>
-    <t>14,1</t>
-  </si>
-  <si>
-    <t>15,5</t>
-  </si>
-  <si>
-    <t>12,4</t>
-  </si>
-  <si>
-    <t>14,4</t>
-  </si>
-  <si>
-    <t>15,9</t>
-  </si>
-  <si>
-    <t>15,2</t>
-  </si>
-  <si>
-    <t>16,8</t>
-  </si>
-  <si>
-    <t>17,3</t>
-  </si>
-  <si>
-    <t>156,5</t>
-  </si>
-  <si>
-    <t>3,7</t>
-  </si>
-  <si>
-    <t>13,4</t>
-  </si>
-  <si>
-    <t>2.823,3</t>
-  </si>
-  <si>
-    <t>12,5</t>
-  </si>
-  <si>
-    <t>12,6</t>
-  </si>
-  <si>
-    <t>12,7</t>
-  </si>
-  <si>
-    <t>14,3</t>
-  </si>
-  <si>
-    <t>0,9</t>
-  </si>
-  <si>
-    <t>2,6</t>
-  </si>
-  <si>
-    <t>-21,7</t>
-  </si>
-  <si>
-    <t>-39,7</t>
-  </si>
-  <si>
-    <t>2.389,2</t>
-  </si>
-  <si>
-    <t>6,7</t>
-  </si>
-  <si>
-    <t>8,5</t>
-  </si>
-  <si>
-    <t>48,3</t>
-  </si>
-  <si>
-    <t>15,7</t>
-  </si>
-  <si>
-    <t>11,7</t>
-  </si>
-  <si>
-    <t>574,0</t>
-  </si>
-  <si>
-    <t>20,4</t>
-  </si>
-  <si>
-    <t>-22,9</t>
-  </si>
-  <si>
-    <t>-37,7</t>
-  </si>
-  <si>
-    <t>42,8</t>
-  </si>
-  <si>
-    <t>23,5</t>
-  </si>
-  <si>
-    <t>36,5</t>
-  </si>
-  <si>
-    <t>42,6</t>
-  </si>
-  <si>
-    <t>-14,7</t>
-  </si>
-  <si>
-    <t>-0,1</t>
-  </si>
-  <si>
-    <t>15,1</t>
-  </si>
-  <si>
-    <t>0,1</t>
-  </si>
-  <si>
-    <t>62,3</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>19,6</t>
-  </si>
-  <si>
-    <t>10,7</t>
-  </si>
-  <si>
-    <t>16,0</t>
-  </si>
-  <si>
-    <t>25,4</t>
-  </si>
-  <si>
-    <t>12,8</t>
-  </si>
-  <si>
-    <t>99,5</t>
-  </si>
-  <si>
-    <t>99,4</t>
-  </si>
-  <si>
-    <t>37,6</t>
-  </si>
-  <si>
-    <t>5,0</t>
-  </si>
-  <si>
-    <t>5,1</t>
-  </si>
-  <si>
-    <t>2,7</t>
-  </si>
-  <si>
-    <t>376,1</t>
-  </si>
-  <si>
-    <t>341,0</t>
-  </si>
-  <si>
-    <t>38,2</t>
-  </si>
-  <si>
-    <t>95,3</t>
-  </si>
-  <si>
-    <t>4,9</t>
-  </si>
-  <si>
-    <t>7,6</t>
-  </si>
-  <si>
-    <t>21,8</t>
-  </si>
-  <si>
-    <t>48,2</t>
-  </si>
-  <si>
-    <t>60,3</t>
-  </si>
-  <si>
-    <t>6,3</t>
-  </si>
-  <si>
-    <t>12,3</t>
-  </si>
-  <si>
-    <t>99,7</t>
-  </si>
-  <si>
-    <t>42,3</t>
-  </si>
-  <si>
-    <t>17,4</t>
-  </si>
-  <si>
-    <t>72,5</t>
-  </si>
-  <si>
-    <t>10,1</t>
-  </si>
-  <si>
-    <t>0,6</t>
-  </si>
-  <si>
-    <t>35,3</t>
-  </si>
-  <si>
-    <t>29,8</t>
-  </si>
-  <si>
-    <t>91,8</t>
-  </si>
-  <si>
-    <t>92,3</t>
-  </si>
-  <si>
-    <t>91,3</t>
-  </si>
-  <si>
-    <t>20,0</t>
-  </si>
-  <si>
-    <t>41,8</t>
-  </si>
-  <si>
-    <t>-1,0</t>
-  </si>
-  <si>
-    <t>14,2</t>
-  </si>
-  <si>
-    <t>13,1</t>
-  </si>
-  <si>
-    <t>17,8</t>
-  </si>
-  <si>
-    <t>18,3</t>
-  </si>
-  <si>
-    <t>17,2</t>
-  </si>
-  <si>
-    <t>145,8</t>
-  </si>
-  <si>
-    <t>3,5</t>
-  </si>
-  <si>
-    <t>2.674,3</t>
-  </si>
-  <si>
-    <t>11,9</t>
-  </si>
-  <si>
-    <t>-14,4</t>
-  </si>
-  <si>
-    <t>-34,1</t>
-  </si>
-  <si>
-    <t>2.291,6</t>
-  </si>
-  <si>
-    <t>2,2</t>
-  </si>
-  <si>
-    <t>8,1</t>
-  </si>
-  <si>
-    <t>12,1</t>
-  </si>
-  <si>
-    <t>47,8</t>
-  </si>
-  <si>
-    <t>537,1</t>
-  </si>
-  <si>
-    <t>22,0</t>
-  </si>
-  <si>
-    <t>-16,7</t>
-  </si>
-  <si>
-    <t>-32,7</t>
-  </si>
-  <si>
-    <t>10,8</t>
-  </si>
-  <si>
-    <t>21,2</t>
-  </si>
-  <si>
-    <t>55,6</t>
-  </si>
-  <si>
-    <t>62,6</t>
-  </si>
-  <si>
-    <t>25,2</t>
-  </si>
-  <si>
-    <t>14,0</t>
-  </si>
-  <si>
-    <t>66,2</t>
-  </si>
-  <si>
-    <t>13,0</t>
-  </si>
-  <si>
-    <t>20,7</t>
-  </si>
-  <si>
-    <t>11,8</t>
-  </si>
-  <si>
-    <t>17,5</t>
-  </si>
-  <si>
-    <t>24,5</t>
-  </si>
-  <si>
-    <t>29,6</t>
-  </si>
-  <si>
-    <t>3,3</t>
-  </si>
-  <si>
-    <t>22,6</t>
-  </si>
-  <si>
-    <t>33,7</t>
-  </si>
-  <si>
-    <t>5,2</t>
-  </si>
-  <si>
-    <t>2,8</t>
-  </si>
-  <si>
-    <t>391,0</t>
-  </si>
-  <si>
-    <t>340,4</t>
-  </si>
-  <si>
-    <t>30,8</t>
-  </si>
-  <si>
-    <t>113,9</t>
-  </si>
-  <si>
-    <t>4,6</t>
-  </si>
-  <si>
-    <t>52,5</t>
-  </si>
-  <si>
-    <t>58,2</t>
-  </si>
-  <si>
-    <t>7,0</t>
-  </si>
-  <si>
-    <t>17,1</t>
-  </si>
-  <si>
-    <t>74,6</t>
-  </si>
-  <si>
-    <t>9,5</t>
-  </si>
-  <si>
-    <t>76,7</t>
-  </si>
-  <si>
-    <t>80,3</t>
-  </si>
-  <si>
-    <t>73,3</t>
-  </si>
-  <si>
-    <t>71,0</t>
-  </si>
-  <si>
-    <t>80,7</t>
-  </si>
-  <si>
-    <t>61,7</t>
-  </si>
-  <si>
-    <t>23,6</t>
-  </si>
-  <si>
-    <t>21,7</t>
-  </si>
-  <si>
-    <t>41,7</t>
-  </si>
-  <si>
-    <t>93,4</t>
-  </si>
-  <si>
-    <t>93,2</t>
-  </si>
-  <si>
-    <t>93,6</t>
-  </si>
-  <si>
-    <t>18,4</t>
-  </si>
-  <si>
-    <t>41,1</t>
-  </si>
-  <si>
-    <t>-3,6</t>
-  </si>
-  <si>
-    <t>0,4</t>
-  </si>
-  <si>
-    <t>1,4</t>
-  </si>
-  <si>
-    <t>15,8</t>
-  </si>
-  <si>
-    <t>21,9</t>
-  </si>
-  <si>
-    <t>64,1</t>
-  </si>
-  <si>
-    <t>1,6</t>
-  </si>
-  <si>
-    <t>12,0</t>
-  </si>
-  <si>
-    <t>2.416,9</t>
-  </si>
-  <si>
-    <t>18,5</t>
-  </si>
-  <si>
-    <t>-8,8</t>
-  </si>
-  <si>
-    <t>-29,7</t>
-  </si>
-  <si>
-    <t>2.107,8</t>
-  </si>
-  <si>
-    <t>-0,2</t>
-  </si>
-  <si>
-    <t>7,4</t>
-  </si>
-  <si>
-    <t>46,4</t>
-  </si>
-  <si>
-    <t>499,9</t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>23,3</t>
-  </si>
-  <si>
-    <t>-12,0</t>
-  </si>
-  <si>
-    <t>-29,0</t>
-  </si>
-  <si>
-    <t>8,4</t>
-  </si>
-  <si>
-    <t>65,6</t>
-  </si>
-  <si>
-    <t>77,9</t>
-  </si>
-  <si>
-    <t>286,8</t>
-  </si>
-  <si>
-    <t>60,4</t>
-  </si>
-  <si>
-    <t>20,5</t>
-  </si>
-  <si>
-    <t>13,6</t>
-  </si>
-  <si>
-    <t>17,6</t>
-  </si>
-  <si>
-    <t>27,2</t>
-  </si>
-  <si>
-    <t>39,7</t>
-  </si>
-  <si>
-    <t>15,0</t>
-  </si>
-  <si>
-    <t>392,7</t>
-  </si>
-  <si>
-    <t>331,6</t>
-  </si>
-  <si>
-    <t>27,8</t>
-  </si>
-  <si>
-    <t>97,7</t>
-  </si>
-  <si>
-    <t>13,9</t>
-  </si>
-  <si>
-    <t>4,8</t>
-  </si>
-  <si>
-    <t>6,9</t>
-  </si>
-  <si>
-    <t>1,5</t>
-  </si>
-  <si>
-    <t>55,1</t>
-  </si>
-  <si>
-    <t>57,6</t>
-  </si>
-  <si>
-    <t>99,0</t>
-  </si>
-  <si>
-    <t>99,1</t>
-  </si>
-  <si>
-    <t>74,2</t>
-  </si>
-  <si>
-    <t>9,9</t>
-  </si>
-  <si>
-    <t>31,0</t>
-  </si>
-  <si>
     <t>41,9</t>
   </si>
   <si>
@@ -1995,7 +1992,7 @@
     <t>-1,8</t>
   </si>
   <si>
-    <t>-4,3</t>
+    <t>-4,7</t>
   </si>
   <si>
     <t>-2,3</t>
@@ -2163,7 +2160,7 @@
     <t>1.930,1</t>
   </si>
   <si>
-    <t>-3,5</t>
+    <t>-3,7</t>
   </si>
   <si>
     <t>-1,9</t>
@@ -3573,34 +3570,34 @@
         <v>347</v>
       </c>
       <c r="F9" t="s" s="25">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G9" t="s" s="25">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H9" t="s" s="25">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I9" t="s" s="25">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J9" t="s" s="25">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K9" t="s" s="25">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="L9" t="s" s="25">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="M9" t="s" s="25">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="N9" t="s" s="25">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="O9" t="s" s="25">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="P9" t="s" s="25">
         <v>340</v>
@@ -3623,34 +3620,34 @@
         <v>348</v>
       </c>
       <c r="F10" t="s" s="25">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G10" t="s" s="25">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H10" t="s" s="25">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="I10" t="s" s="25">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J10" t="s" s="25">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="K10" t="s" s="25">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L10" t="s" s="25">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="M10" t="s" s="25">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="N10" t="s" s="25">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="O10" t="s" s="25">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="P10" t="s" s="25">
         <v>340</v>
@@ -3673,34 +3670,34 @@
         <v>349</v>
       </c>
       <c r="F11" t="s" s="25">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G11" t="s" s="25">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H11" t="s" s="25">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I11" t="s" s="25">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J11" t="s" s="25">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K11" t="s" s="25">
         <v>374</v>
       </c>
       <c r="L11" t="s" s="25">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="M11" t="s" s="25">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="N11" t="s" s="25">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="O11" t="s" s="25">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="P11" t="s" s="25">
         <v>340</v>
@@ -3723,34 +3720,34 @@
         <v>350</v>
       </c>
       <c r="F12" t="s" s="25">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G12" t="s" s="25">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H12" t="s" s="25">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="I12" t="s" s="25">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="J12" t="s" s="25">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K12" t="s" s="25">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L12" t="s" s="25">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="M12" t="s" s="25">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="N12" t="s" s="25">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="O12" t="s" s="25">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="P12" t="s" s="25">
         <v>340</v>
@@ -3773,34 +3770,34 @@
         <v>351</v>
       </c>
       <c r="F13" t="s" s="25">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G13" t="s" s="25">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H13" t="s" s="25">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I13" t="s" s="25">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J13" t="s" s="25">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="K13" t="s" s="25">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="L13" t="s" s="25">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="M13" t="s" s="25">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="N13" t="s" s="25">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O13" t="s" s="25">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="P13" t="s" s="25">
         <v>340</v>
@@ -3823,34 +3820,34 @@
         <v>352</v>
       </c>
       <c r="F14" t="s" s="25">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G14" t="s" s="25">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H14" t="s" s="25">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="I14" t="s" s="25">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J14" t="s" s="25">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="K14" t="s" s="25">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L14" t="s" s="25">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="M14" t="s" s="25">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="N14" t="s" s="25">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="O14" t="s" s="25">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="P14" t="s" s="25">
         <v>340</v>
@@ -3876,31 +3873,31 @@
         <v>381</v>
       </c>
       <c r="G15" t="s" s="25">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H15" t="s" s="25">
         <v>356</v>
       </c>
       <c r="I15" t="s" s="25">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J15" t="s" s="25">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="K15" t="s" s="25">
         <v>369</v>
       </c>
       <c r="L15" t="s" s="25">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="M15" t="s" s="25">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="N15" t="s" s="25">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="O15" t="s" s="25">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="P15" t="s" s="25">
         <v>340</v>
@@ -3923,34 +3920,34 @@
         <v>354</v>
       </c>
       <c r="F16" t="s" s="25">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G16" t="s" s="25">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H16" t="s" s="25">
         <v>351</v>
       </c>
       <c r="I16" t="s" s="25">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J16" t="s" s="25">
         <v>377</v>
       </c>
       <c r="K16" t="s" s="25">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="L16" t="s" s="25">
         <v>347</v>
       </c>
       <c r="M16" t="s" s="25">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="N16" t="s" s="25">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="O16" t="s" s="25">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="P16" t="s" s="25">
         <v>340</v>
@@ -4023,7 +4020,7 @@
         <v>340</v>
       </c>
       <c r="F18" t="s" s="25">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G18" t="s" s="25">
         <v>340</v>
@@ -4073,7 +4070,7 @@
         <v>340</v>
       </c>
       <c r="F19" t="s" s="25">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G19" t="s" s="25">
         <v>340</v>
@@ -4135,7 +4132,7 @@
         <v>357</v>
       </c>
       <c r="J20" t="s" s="25">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K20" t="s" s="25">
         <v>367</v>
@@ -4150,7 +4147,7 @@
         <v>357</v>
       </c>
       <c r="O20" t="s" s="25">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="P20" t="s" s="25">
         <v>340</v>
@@ -4176,28 +4173,28 @@
         <v>340</v>
       </c>
       <c r="G21" t="s" s="25">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H21" t="s" s="25">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="I21" t="s" s="25">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J21" t="s" s="25">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K21" t="s" s="25">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L21" t="s" s="25">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="M21" t="s" s="25">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="N21" t="s" s="25">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="O21" t="s" s="25">
         <v>340</v>
@@ -4226,28 +4223,28 @@
         <v>340</v>
       </c>
       <c r="G22" t="s" s="25">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="H22" t="s" s="25">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="I22" t="s" s="25">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J22" t="s" s="25">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="K22" t="s" s="25">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L22" t="s" s="25">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="M22" t="s" s="25">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="N22" t="s" s="25">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="O22" t="s" s="25">
         <v>340</v>
@@ -4273,10 +4270,10 @@
         <v>340</v>
       </c>
       <c r="F23" t="s" s="25">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G23" t="s" s="25">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H23" t="s" s="25">
         <v>340</v>
@@ -4291,7 +4288,7 @@
         <v>340</v>
       </c>
       <c r="L23" t="s" s="25">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M23" t="s" s="25">
         <v>340</v>
@@ -4323,34 +4320,34 @@
         <v>356</v>
       </c>
       <c r="F24" t="s" s="25">
+        <v>440</v>
+      </c>
+      <c r="G24" t="s" s="25">
+        <v>504</v>
+      </c>
+      <c r="H24" t="s" s="25">
+        <v>504</v>
+      </c>
+      <c r="I24" t="s" s="25">
+        <v>625</v>
+      </c>
+      <c r="J24" t="s" s="25">
+        <v>505</v>
+      </c>
+      <c r="K24" t="s" s="25">
         <v>442</v>
       </c>
-      <c r="G24" t="s" s="25">
-        <v>506</v>
-      </c>
-      <c r="H24" t="s" s="25">
-        <v>506</v>
-      </c>
-      <c r="I24" t="s" s="25">
-        <v>626</v>
-      </c>
-      <c r="J24" t="s" s="25">
-        <v>507</v>
-      </c>
-      <c r="K24" t="s" s="25">
-        <v>444</v>
-      </c>
       <c r="L24" t="s" s="25">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="M24" t="s" s="25">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="N24" t="s" s="25">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="O24" t="s" s="25">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="P24" t="s" s="25">
         <v>340</v>
@@ -4379,7 +4376,7 @@
         <v>357</v>
       </c>
       <c r="H25" t="s" s="25">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="I25" t="s" s="25">
         <v>357</v>
@@ -4388,7 +4385,7 @@
         <v>357</v>
       </c>
       <c r="K25" t="s" s="25">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="L25" t="s" s="25">
         <v>357</v>
@@ -4473,34 +4470,34 @@
         <v>359</v>
       </c>
       <c r="F27" t="s" s="25">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G27" t="s" s="25">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H27" t="s" s="25">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I27" t="s" s="25">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="J27" t="s" s="25">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="K27" t="s" s="25">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="L27" t="s" s="25">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="M27" t="s" s="25">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N27" t="s" s="25">
         <v>369</v>
       </c>
       <c r="O27" t="s" s="25">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="P27" t="s" s="25">
         <v>340</v>
@@ -4523,34 +4520,34 @@
         <v>360</v>
       </c>
       <c r="F28" t="s" s="25">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G28" t="s" s="25">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H28" t="s" s="25">
         <v>360</v>
       </c>
       <c r="I28" t="s" s="25">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J28" t="s" s="25">
         <v>381</v>
       </c>
       <c r="K28" t="s" s="25">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="L28" t="s" s="25">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="M28" t="s" s="25">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="N28" t="s" s="25">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="O28" t="s" s="25">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="P28" t="s" s="25">
         <v>340</v>
@@ -4573,34 +4570,34 @@
         <v>361</v>
       </c>
       <c r="F29" t="s" s="25">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G29" t="s" s="25">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="H29" t="s" s="25">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="I29" t="s" s="25">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J29" t="s" s="25">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K29" t="s" s="25">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="L29" t="s" s="25">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="M29" t="s" s="25">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="N29" t="s" s="25">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="O29" t="s" s="25">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="P29" t="s" s="25">
         <v>340</v>
@@ -4623,34 +4620,34 @@
         <v>362</v>
       </c>
       <c r="F30" t="s" s="25">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G30" t="s" s="25">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H30" t="s" s="25">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I30" t="s" s="25">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J30" t="s" s="25">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K30" t="s" s="25">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="L30" t="s" s="25">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="M30" t="s" s="25">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="N30" t="s" s="25">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="O30" t="s" s="25">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="P30" t="s" s="25">
         <v>340</v>
@@ -4673,34 +4670,34 @@
         <v>363</v>
       </c>
       <c r="F31" t="s" s="25">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G31" t="s" s="25">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H31" t="s" s="25">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="I31" t="s" s="25">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J31" t="s" s="25">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K31" t="s" s="25">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="L31" t="s" s="25">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="M31" t="s" s="25">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="N31" t="s" s="25">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O31" t="s" s="25">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="P31" t="s" s="25">
         <v>340</v>
@@ -4723,34 +4720,34 @@
         <v>364</v>
       </c>
       <c r="F32" t="s" s="25">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G32" t="s" s="25">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H32" t="s" s="25">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="I32" t="s" s="25">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J32" t="s" s="25">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K32" t="s" s="25">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="L32" t="s" s="25">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="M32" t="s" s="25">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="N32" t="s" s="25">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="O32" t="s" s="25">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="P32" t="s" s="25">
         <v>340</v>
@@ -4776,31 +4773,31 @@
         <v>350</v>
       </c>
       <c r="G33" t="s" s="25">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H33" t="s" s="25">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="I33" t="s" s="25">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J33" t="s" s="25">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K33" t="s" s="25">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="L33" t="s" s="25">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="M33" t="s" s="25">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="N33" t="s" s="25">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="O33" t="s" s="25">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="P33" t="s" s="25">
         <v>340</v>
@@ -4823,34 +4820,34 @@
         <v>366</v>
       </c>
       <c r="F34" t="s" s="25">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G34" t="s" s="25">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H34" t="s" s="25">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="I34" t="s" s="25">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="J34" t="s" s="25">
         <v>369</v>
       </c>
       <c r="K34" t="s" s="25">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="L34" t="s" s="25">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="M34" t="s" s="25">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N34" t="s" s="25">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="O34" t="s" s="25">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="P34" t="s" s="25">
         <v>340</v>
@@ -4894,7 +4891,7 @@
         <v>340</v>
       </c>
       <c r="M35" t="s" s="25">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="N35" t="s" s="25">
         <v>340</v>
@@ -4926,10 +4923,10 @@
         <v>367</v>
       </c>
       <c r="G36" t="s" s="25">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H36" t="s" s="25">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I36" t="s" s="25">
         <v>367</v>
@@ -4941,16 +4938,16 @@
         <v>357</v>
       </c>
       <c r="L36" t="s" s="25">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="M36" t="s" s="25">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N36" t="s" s="25">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="O36" t="s" s="25">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="P36" t="s" s="25">
         <v>340</v>
@@ -4973,34 +4970,34 @@
         <v>368</v>
       </c>
       <c r="F37" t="s" s="25">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G37" t="s" s="25">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H37" t="s" s="25">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="I37" t="s" s="25">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J37" t="s" s="25">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K37" t="s" s="25">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="L37" t="s" s="25">
         <v>366</v>
       </c>
       <c r="M37" t="s" s="25">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="N37" t="s" s="25">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="O37" t="s" s="25">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="P37" t="s" s="25">
         <v>340</v>
@@ -5035,10 +5032,10 @@
         <v>340</v>
       </c>
       <c r="J38" t="s" s="25">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="K38" t="s" s="25">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="L38" t="s" s="25">
         <v>357</v>
@@ -5047,7 +5044,7 @@
         <v>357</v>
       </c>
       <c r="N38" t="s" s="25">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="O38" t="s" s="25">
         <v>367</v>
@@ -5073,34 +5070,34 @@
         <v>369</v>
       </c>
       <c r="F39" t="s" s="25">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G39" t="s" s="25">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H39" t="s" s="25">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="I39" t="s" s="25">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J39" t="s" s="25">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="K39" t="s" s="25">
         <v>379</v>
       </c>
       <c r="L39" t="s" s="25">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="M39" t="s" s="25">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="N39" t="s" s="25">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="O39" t="s" s="25">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="P39" t="s" s="25">
         <v>340</v>
@@ -5129,28 +5126,28 @@
         <v>370</v>
       </c>
       <c r="H40" t="s" s="25">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="I40" t="s" s="25">
         <v>370</v>
       </c>
       <c r="J40" t="s" s="25">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K40" t="s" s="25">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="L40" t="s" s="25">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="M40" t="s" s="25">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="N40" t="s" s="25">
         <v>359</v>
       </c>
       <c r="O40" t="s" s="25">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="P40" t="s" s="25">
         <v>340</v>
@@ -5173,16 +5170,16 @@
         <v>340</v>
       </c>
       <c r="F41" t="s" s="25">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G41" t="s" s="25">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H41" t="s" s="25">
         <v>340</v>
       </c>
       <c r="I41" t="s" s="25">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J41" t="s" s="25">
         <v>340</v>
@@ -5191,7 +5188,7 @@
         <v>340</v>
       </c>
       <c r="L41" t="s" s="25">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="M41" t="s" s="25">
         <v>340</v>
@@ -5241,16 +5238,16 @@
         <v>340</v>
       </c>
       <c r="L42" t="s" s="25">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="M42" t="s" s="25">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N42" t="s" s="25">
         <v>340</v>
       </c>
       <c r="O42" t="s" s="25">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="P42" t="s" s="25">
         <v>340</v>
@@ -5291,16 +5288,16 @@
         <v>340</v>
       </c>
       <c r="L43" t="s" s="25">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="M43" t="s" s="25">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="N43" t="s" s="25">
         <v>340</v>
       </c>
       <c r="O43" t="s" s="25">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="P43" t="s" s="25">
         <v>340</v>
@@ -5341,16 +5338,16 @@
         <v>340</v>
       </c>
       <c r="L44" t="s" s="25">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="M44" t="s" s="25">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="N44" t="s" s="25">
         <v>340</v>
       </c>
       <c r="O44" t="s" s="25">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="P44" t="s" s="25">
         <v>340</v>
@@ -5391,16 +5388,16 @@
         <v>340</v>
       </c>
       <c r="L45" t="s" s="25">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="M45" t="s" s="25">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="N45" t="s" s="25">
         <v>340</v>
       </c>
       <c r="O45" t="s" s="25">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="P45" t="s" s="25">
         <v>340</v>
@@ -5423,34 +5420,34 @@
         <v>371</v>
       </c>
       <c r="F46" t="s" s="25">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G46" t="s" s="25">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H46" t="s" s="25">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="I46" t="s" s="25">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="J46" t="s" s="25">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K46" t="s" s="25">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="L46" t="s" s="25">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="M46" t="s" s="25">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="N46" t="s" s="25">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="O46" t="s" s="25">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="P46" t="s" s="25">
         <v>340</v>
@@ -5473,34 +5470,34 @@
         <v>372</v>
       </c>
       <c r="F47" t="s" s="25">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G47" t="s" s="25">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H47" t="s" s="25">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I47" t="s" s="25">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="J47" t="s" s="25">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K47" t="s" s="25">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="L47" t="s" s="25">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="M47" t="s" s="25">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="N47" t="s" s="25">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="O47" t="s" s="25">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="P47" t="s" s="25">
         <v>340</v>
@@ -5523,34 +5520,34 @@
         <v>373</v>
       </c>
       <c r="F48" t="s" s="25">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G48" t="s" s="25">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H48" t="s" s="25">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I48" t="s" s="25">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J48" t="s" s="25">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K48" t="s" s="25">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="L48" t="s" s="25">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="M48" t="s" s="25">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N48" t="s" s="25">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="O48" t="s" s="25">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="P48" t="s" s="25">
         <v>340</v>
@@ -5573,34 +5570,34 @@
         <v>374</v>
       </c>
       <c r="F49" t="s" s="25">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G49" t="s" s="25">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H49" t="s" s="25">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I49" t="s" s="25">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J49" t="s" s="25">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K49" t="s" s="25">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="L49" t="s" s="25">
         <v>365</v>
       </c>
       <c r="M49" t="s" s="25">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="N49" t="s" s="25">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="O49" t="s" s="25">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="P49" t="s" s="25">
         <v>340</v>
@@ -5626,31 +5623,31 @@
         <v>358</v>
       </c>
       <c r="G50" t="s" s="25">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H50" t="s" s="25">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="I50" t="s" s="25">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J50" t="s" s="25">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="K50" t="s" s="25">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="L50" t="s" s="25">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="M50" t="s" s="25">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="N50" t="s" s="25">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="O50" t="s" s="25">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="P50" t="s" s="25">
         <v>358</v>
@@ -5679,28 +5676,28 @@
         <v>375</v>
       </c>
       <c r="H51" t="s" s="25">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="I51" t="s" s="25">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J51" t="s" s="25">
+        <v>690</v>
+      </c>
+      <c r="K51" t="s" s="25">
+        <v>574</v>
+      </c>
+      <c r="L51" t="s" s="25">
+        <v>690</v>
+      </c>
+      <c r="M51" t="s" s="25">
+        <v>827</v>
+      </c>
+      <c r="N51" t="s" s="25">
+        <v>862</v>
+      </c>
+      <c r="O51" t="s" s="25">
         <v>691</v>
-      </c>
-      <c r="K51" t="s" s="25">
-        <v>576</v>
-      </c>
-      <c r="L51" t="s" s="25">
-        <v>691</v>
-      </c>
-      <c r="M51" t="s" s="25">
-        <v>828</v>
-      </c>
-      <c r="N51" t="s" s="25">
-        <v>863</v>
-      </c>
-      <c r="O51" t="s" s="25">
-        <v>692</v>
       </c>
       <c r="P51" t="s" s="25">
         <v>340</v>
@@ -5723,34 +5720,34 @@
         <v>376</v>
       </c>
       <c r="F52" t="s" s="25">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G52" t="s" s="25">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H52" t="s" s="25">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="I52" t="s" s="25">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J52" t="s" s="25">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K52" t="s" s="25">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="L52" t="s" s="25">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="M52" t="s" s="25">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="N52" t="s" s="25">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="O52" t="s" s="25">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="P52" t="s" s="25">
         <v>340</v>
@@ -5773,7 +5770,7 @@
         <v>340</v>
       </c>
       <c r="F53" t="s" s="25">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G53" t="s" s="25">
         <v>340</v>
@@ -5788,7 +5785,7 @@
         <v>340</v>
       </c>
       <c r="K53" t="s" s="25">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="L53" t="s" s="25">
         <v>340</v>
@@ -5823,34 +5820,34 @@
         <v>377</v>
       </c>
       <c r="F54" t="s" s="25">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G54" t="s" s="25">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H54" t="s" s="25">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="I54" t="s" s="25">
         <v>351</v>
       </c>
       <c r="J54" t="s" s="25">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="K54" t="s" s="25">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="L54" t="s" s="25">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="M54" t="s" s="25">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="N54" t="s" s="25">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="O54" t="s" s="25">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="P54" t="s" s="25">
         <v>340</v>
@@ -5873,34 +5870,34 @@
         <v>378</v>
       </c>
       <c r="F55" t="s" s="25">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G55" t="s" s="25">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H55" t="s" s="25">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="I55" t="s" s="25">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="J55" t="s" s="25">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="K55" t="s" s="25">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="L55" t="s" s="25">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="M55" t="s" s="25">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="N55" t="s" s="25">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="O55" t="s" s="25">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="P55" t="s" s="25">
         <v>340</v>
@@ -5923,34 +5920,34 @@
         <v>379</v>
       </c>
       <c r="F56" t="s" s="25">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G56" t="s" s="25">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="H56" t="s" s="25">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="I56" t="s" s="25">
         <v>354</v>
       </c>
       <c r="J56" t="s" s="25">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="K56" t="s" s="25">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="L56" t="s" s="25">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="M56" t="s" s="25">
         <v>349</v>
       </c>
       <c r="N56" t="s" s="25">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="O56" t="s" s="25">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="P56" t="s" s="25">
         <v>340</v>
@@ -5985,25 +5982,25 @@
         <v>340</v>
       </c>
       <c r="J57" t="s" s="25">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="K57" t="s" s="25">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="L57" t="s" s="25">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="M57" t="s" s="25">
         <v>340</v>
       </c>
       <c r="N57" t="s" s="25">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="O57" t="s" s="25">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="P57" t="s" s="25">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="58" ht="15.0" customHeight="true">
@@ -6035,25 +6032,25 @@
         <v>340</v>
       </c>
       <c r="J58" t="s" s="25">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="K58" t="s" s="25">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="L58" t="s" s="25">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="M58" t="s" s="25">
         <v>340</v>
       </c>
       <c r="N58" t="s" s="25">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="O58" t="s" s="25">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="P58" t="s" s="25">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="59" ht="15.0" customHeight="true">
@@ -6085,25 +6082,25 @@
         <v>340</v>
       </c>
       <c r="J59" t="s" s="25">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="K59" t="s" s="25">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="L59" t="s" s="25">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="M59" t="s" s="25">
         <v>340</v>
       </c>
       <c r="N59" t="s" s="25">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="O59" t="s" s="25">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="P59" t="s" s="25">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="60" ht="15.0" customHeight="true">
@@ -6188,7 +6185,7 @@
         <v>340</v>
       </c>
       <c r="K61" t="s" s="25">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="L61" t="s" s="25">
         <v>340</v>
@@ -6238,7 +6235,7 @@
         <v>340</v>
       </c>
       <c r="K62" t="s" s="25">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="L62" t="s" s="25">
         <v>340</v>
@@ -6323,25 +6320,25 @@
         <v>381</v>
       </c>
       <c r="F64" t="s" s="25">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G64" t="s" s="25">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H64" t="s" s="25">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I64" t="s" s="25">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="J64" t="s" s="25">
         <v>353</v>
       </c>
       <c r="K64" t="s" s="25">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L64" t="s" s="25">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="M64" t="s" s="25">
         <v>381</v>
@@ -6350,7 +6347,7 @@
         <v>381</v>
       </c>
       <c r="O64" t="s" s="25">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="P64" t="s" s="25">
         <v>340</v>
@@ -6376,7 +6373,7 @@
         <v>340</v>
       </c>
       <c r="G65" t="s" s="25">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="H65" t="s" s="25">
         <v>340</v>
@@ -6426,7 +6423,7 @@
         <v>340</v>
       </c>
       <c r="G66" t="s" s="25">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H66" t="s" s="25">
         <v>340</v>
@@ -6476,7 +6473,7 @@
         <v>340</v>
       </c>
       <c r="G67" t="s" s="25">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="H67" t="s" s="25">
         <v>340</v>
@@ -6526,7 +6523,7 @@
         <v>340</v>
       </c>
       <c r="G68" t="s" s="25">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H68" t="s" s="25">
         <v>340</v>
@@ -6576,7 +6573,7 @@
         <v>340</v>
       </c>
       <c r="G69" t="s" s="25">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H69" t="s" s="25">
         <v>340</v>
@@ -6626,7 +6623,7 @@
         <v>340</v>
       </c>
       <c r="G70" t="s" s="25">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="H70" t="s" s="25">
         <v>340</v>
@@ -6873,13 +6870,13 @@
         <v>357</v>
       </c>
       <c r="F75" t="s" s="25">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G75" t="s" s="25">
         <v>357</v>
       </c>
       <c r="H75" t="s" s="25">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I75" t="s" s="25">
         <v>357</v>
@@ -7070,37 +7067,37 @@
         <v>340</v>
       </c>
       <c r="E79" t="s" s="25">
-        <v>385</v>
+        <v>340</v>
       </c>
       <c r="F79" t="s" s="25">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G79" t="s" s="25">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H79" t="s" s="25">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I79" t="s" s="25">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="J79" t="s" s="25">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="K79" t="s" s="25">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="L79" t="s" s="25">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="M79" t="s" s="25">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="N79" t="s" s="25">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="O79" t="s" s="25">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="P79" t="s" s="25">
         <v>340</v>
@@ -7120,37 +7117,37 @@
         <v>340</v>
       </c>
       <c r="E80" t="s" s="25">
-        <v>386</v>
+        <v>340</v>
       </c>
       <c r="F80" t="s" s="25">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G80" t="s" s="25">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H80" t="s" s="25">
+        <v>578</v>
+      </c>
+      <c r="I80" t="s" s="25">
+        <v>639</v>
+      </c>
+      <c r="J80" t="s" s="25">
+        <v>697</v>
+      </c>
+      <c r="K80" t="s" s="25">
         <v>385</v>
       </c>
-      <c r="I80" t="s" s="25">
-        <v>640</v>
-      </c>
-      <c r="J80" t="s" s="25">
-        <v>698</v>
-      </c>
-      <c r="K80" t="s" s="25">
-        <v>387</v>
-      </c>
       <c r="L80" t="s" s="25">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="M80" t="s" s="25">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="N80" t="s" s="25">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="O80" t="s" s="25">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="P80" t="s" s="25">
         <v>340</v>
@@ -7170,34 +7167,34 @@
         <v>340</v>
       </c>
       <c r="E81" t="s" s="25">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F81" t="s" s="25">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G81" t="s" s="25">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H81" t="s" s="25">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I81" t="s" s="25">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J81" t="s" s="25">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K81" t="s" s="25">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="L81" t="s" s="25">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="M81" t="s" s="25">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="N81" t="s" s="25">
-        <v>340</v>
+        <v>701</v>
       </c>
       <c r="O81" t="s" s="25">
         <v>340</v>
@@ -7229,7 +7226,7 @@
         <v>340</v>
       </c>
       <c r="H82" t="s" s="25">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I82" t="s" s="25">
         <v>340</v>
@@ -7238,7 +7235,7 @@
         <v>340</v>
       </c>
       <c r="K82" t="s" s="25">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="L82" t="s" s="25">
         <v>340</v>
@@ -7279,7 +7276,7 @@
         <v>340</v>
       </c>
       <c r="H83" t="s" s="25">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I83" t="s" s="25">
         <v>340</v>
@@ -7288,7 +7285,7 @@
         <v>340</v>
       </c>
       <c r="K83" t="s" s="25">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L83" t="s" s="25">
         <v>340</v>
@@ -7329,7 +7326,7 @@
         <v>340</v>
       </c>
       <c r="H84" t="s" s="25">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I84" t="s" s="25">
         <v>340</v>
@@ -7338,7 +7335,7 @@
         <v>340</v>
       </c>
       <c r="K84" t="s" s="25">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L84" t="s" s="25">
         <v>340</v>
@@ -7379,7 +7376,7 @@
         <v>340</v>
       </c>
       <c r="H85" t="s" s="25">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I85" t="s" s="25">
         <v>340</v>
@@ -7388,7 +7385,7 @@
         <v>340</v>
       </c>
       <c r="K85" t="s" s="25">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="L85" t="s" s="25">
         <v>340</v>
@@ -7429,7 +7426,7 @@
         <v>340</v>
       </c>
       <c r="H86" t="s" s="25">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I86" t="s" s="25">
         <v>340</v>
@@ -7438,7 +7435,7 @@
         <v>340</v>
       </c>
       <c r="K86" t="s" s="25">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="L86" t="s" s="25">
         <v>340</v>
@@ -7479,7 +7476,7 @@
         <v>340</v>
       </c>
       <c r="H87" t="s" s="25">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I87" t="s" s="25">
         <v>340</v>
@@ -7488,7 +7485,7 @@
         <v>340</v>
       </c>
       <c r="K87" t="s" s="25">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="L87" t="s" s="25">
         <v>340</v>
@@ -7520,40 +7517,40 @@
         <v>340</v>
       </c>
       <c r="E88" t="s" s="25">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F88" t="s" s="25">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G88" t="s" s="25">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="H88" t="s" s="25">
         <v>364</v>
       </c>
       <c r="I88" t="s" s="25">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J88" t="s" s="25">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="K88" t="s" s="25">
         <v>340</v>
       </c>
       <c r="L88" t="s" s="25">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="M88" t="s" s="25">
         <v>340</v>
       </c>
       <c r="N88" t="s" s="25">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="O88" t="s" s="25">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="P88" t="s" s="25">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="89" ht="15.0" customHeight="true">
@@ -7570,40 +7567,40 @@
         <v>340</v>
       </c>
       <c r="E89" t="s" s="25">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F89" t="s" s="25">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G89" t="s" s="25">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H89" t="s" s="25">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I89" t="s" s="25">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="J89" t="s" s="25">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="K89" t="s" s="25">
         <v>340</v>
       </c>
       <c r="L89" t="s" s="25">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="M89" t="s" s="25">
         <v>340</v>
       </c>
       <c r="N89" t="s" s="25">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="O89" t="s" s="25">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="P89" t="s" s="25">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="90" ht="15.0" customHeight="true">
@@ -7620,40 +7617,40 @@
         <v>340</v>
       </c>
       <c r="E90" t="s" s="25">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F90" t="s" s="25">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G90" t="s" s="25">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H90" t="s" s="25">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I90" t="s" s="25">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="J90" t="s" s="25">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="K90" t="s" s="25">
         <v>340</v>
       </c>
       <c r="L90" t="s" s="25">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="M90" t="s" s="25">
         <v>340</v>
       </c>
       <c r="N90" t="s" s="25">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="O90" t="s" s="25">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="P90" t="s" s="25">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="91" ht="15.0" customHeight="true">
@@ -7688,19 +7685,19 @@
         <v>340</v>
       </c>
       <c r="K91" t="s" s="25">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="L91" t="s" s="25">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="M91" t="s" s="25">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="N91" t="s" s="25">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="O91" t="s" s="25">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="P91" t="s" s="25">
         <v>340</v>
@@ -7823,34 +7820,34 @@
         <v>340</v>
       </c>
       <c r="F94" t="s" s="25">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G94" t="s" s="25">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H94" t="s" s="25">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I94" t="s" s="25">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="J94" t="s" s="25">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="K94" t="s" s="25">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="L94" t="s" s="25">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="M94" t="s" s="25">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N94" t="s" s="25">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="O94" t="s" s="25">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="P94" t="s" s="25">
         <v>340</v>
@@ -7873,34 +7870,34 @@
         <v>340</v>
       </c>
       <c r="F95" t="s" s="25">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G95" t="s" s="25">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H95" t="s" s="25">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I95" t="s" s="25">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="J95" t="s" s="25">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="K95" t="s" s="25">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="L95" t="s" s="25">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="M95" t="s" s="25">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="N95" t="s" s="25">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="O95" t="s" s="25">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="P95" t="s" s="25">
         <v>340</v>
@@ -7920,37 +7917,37 @@
         <v>340</v>
       </c>
       <c r="E96" t="s" s="25">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F96" t="s" s="25">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G96" t="s" s="25">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H96" t="s" s="25">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I96" t="s" s="25">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="J96" t="s" s="25">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="K96" t="s" s="25">
         <v>359</v>
       </c>
       <c r="L96" t="s" s="25">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="M96" t="s" s="25">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="N96" t="s" s="25">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="O96" t="s" s="25">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="P96" t="s" s="25">
         <v>340</v>
@@ -7970,37 +7967,37 @@
         <v>340</v>
       </c>
       <c r="E97" t="s" s="25">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F97" t="s" s="25">
         <v>357</v>
       </c>
       <c r="G97" t="s" s="25">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H97" t="s" s="25">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="I97" t="s" s="25">
+        <v>645</v>
+      </c>
+      <c r="J97" t="s" s="25">
+        <v>408</v>
+      </c>
+      <c r="K97" t="s" s="25">
+        <v>408</v>
+      </c>
+      <c r="L97" t="s" s="25">
+        <v>427</v>
+      </c>
+      <c r="M97" t="s" s="25">
         <v>646</v>
       </c>
-      <c r="J97" t="s" s="25">
-        <v>410</v>
-      </c>
-      <c r="K97" t="s" s="25">
-        <v>410</v>
-      </c>
-      <c r="L97" t="s" s="25">
-        <v>429</v>
-      </c>
-      <c r="M97" t="s" s="25">
-        <v>647</v>
-      </c>
       <c r="N97" t="s" s="25">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="O97" t="s" s="25">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="P97" t="s" s="25">
         <v>340</v>
@@ -8020,19 +8017,19 @@
         <v>340</v>
       </c>
       <c r="E98" t="s" s="25">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F98" t="s" s="25">
         <v>367</v>
       </c>
       <c r="G98" t="s" s="25">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H98" t="s" s="25">
         <v>360</v>
       </c>
       <c r="I98" t="s" s="25">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J98" t="s" s="25">
         <v>360</v>
@@ -8041,13 +8038,13 @@
         <v>357</v>
       </c>
       <c r="L98" t="s" s="25">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="M98" t="s" s="25">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="N98" t="s" s="25">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="O98" t="s" s="25">
         <v>380</v>
@@ -8070,34 +8067,34 @@
         <v>340</v>
       </c>
       <c r="E99" t="s" s="25">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F99" t="s" s="25">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G99" t="s" s="25">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H99" t="s" s="25">
+        <v>395</v>
+      </c>
+      <c r="I99" t="s" s="25">
+        <v>407</v>
+      </c>
+      <c r="J99" t="s" s="25">
+        <v>702</v>
+      </c>
+      <c r="K99" t="s" s="25">
+        <v>562</v>
+      </c>
+      <c r="L99" t="s" s="25">
         <v>397</v>
       </c>
-      <c r="I99" t="s" s="25">
-        <v>409</v>
-      </c>
-      <c r="J99" t="s" s="25">
-        <v>703</v>
-      </c>
-      <c r="K99" t="s" s="25">
-        <v>564</v>
-      </c>
-      <c r="L99" t="s" s="25">
-        <v>399</v>
-      </c>
       <c r="M99" t="s" s="25">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N99" t="s" s="25">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="O99" t="s" s="25">
         <v>340</v>
@@ -8120,34 +8117,34 @@
         <v>340</v>
       </c>
       <c r="E100" t="s" s="25">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F100" t="s" s="25">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G100" t="s" s="25">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H100" t="s" s="25">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I100" t="s" s="25">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J100" t="s" s="25">
         <v>351</v>
       </c>
       <c r="K100" t="s" s="25">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L100" t="s" s="25">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="M100" t="s" s="25">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="N100" t="s" s="25">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="O100" t="s" s="25">
         <v>340</v>
@@ -8170,31 +8167,31 @@
         <v>340</v>
       </c>
       <c r="E101" t="s" s="25">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F101" t="s" s="25">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G101" t="s" s="25">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H101" t="s" s="25">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I101" t="s" s="25">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="J101" t="s" s="25">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="K101" t="s" s="25">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L101" t="s" s="25">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="M101" t="s" s="25">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="N101" t="s" s="25">
         <v>348</v>
@@ -8220,34 +8217,34 @@
         <v>340</v>
       </c>
       <c r="E102" t="s" s="25">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F102" t="s" s="25">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G102" t="s" s="25">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H102" t="s" s="25">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="I102" t="s" s="25">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="J102" t="s" s="25">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="K102" t="s" s="25">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="L102" t="s" s="25">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="M102" t="s" s="25">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="N102" t="s" s="25">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="O102" t="s" s="25">
         <v>340</v>
@@ -8270,31 +8267,31 @@
         <v>340</v>
       </c>
       <c r="E103" t="s" s="25">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F103" t="s" s="25">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G103" t="s" s="25">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H103" t="s" s="25">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I103" t="s" s="25">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J103" t="s" s="25">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="K103" t="s" s="25">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="L103" t="s" s="25">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="M103" t="s" s="25">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="N103" t="s" s="25">
         <v>377</v>
@@ -8320,37 +8317,37 @@
         <v>340</v>
       </c>
       <c r="E104" t="s" s="25">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F104" t="s" s="25">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G104" t="s" s="25">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H104" t="s" s="25">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I104" t="s" s="25">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="J104" t="s" s="25">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K104" t="s" s="25">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="L104" t="s" s="25">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="M104" t="s" s="25">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="N104" t="s" s="25">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="O104" t="s" s="25">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="P104" t="s" s="25">
         <v>340</v>
@@ -8370,37 +8367,37 @@
         <v>340</v>
       </c>
       <c r="E105" t="s" s="25">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F105" t="s" s="25">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G105" t="s" s="25">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H105" t="s" s="25">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I105" t="s" s="25">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J105" t="s" s="25">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="K105" t="s" s="25">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="L105" t="s" s="25">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="M105" t="s" s="25">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="N105" t="s" s="25">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O105" t="s" s="25">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="P105" t="s" s="25">
         <v>340</v>
@@ -8420,37 +8417,37 @@
         <v>340</v>
       </c>
       <c r="E106" t="s" s="25">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F106" t="s" s="25">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G106" t="s" s="25">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H106" t="s" s="25">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I106" t="s" s="25">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J106" t="s" s="25">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="K106" t="s" s="25">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="L106" t="s" s="25">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="M106" t="s" s="25">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="N106" t="s" s="25">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="O106" t="s" s="25">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="P106" t="s" s="25">
         <v>340</v>
@@ -8482,25 +8479,25 @@
         <v>340</v>
       </c>
       <c r="I107" t="s" s="25">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J107" t="s" s="25">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="K107" t="s" s="25">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="L107" t="s" s="25">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="M107" t="s" s="25">
         <v>365</v>
       </c>
       <c r="N107" t="s" s="25">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="O107" t="s" s="25">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="P107" t="s" s="25">
         <v>340</v>
@@ -8532,25 +8529,25 @@
         <v>340</v>
       </c>
       <c r="I108" t="s" s="25">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J108" t="s" s="25">
+        <v>704</v>
+      </c>
+      <c r="K108" t="s" s="25">
         <v>705</v>
       </c>
-      <c r="K108" t="s" s="25">
-        <v>706</v>
-      </c>
       <c r="L108" t="s" s="25">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="M108" t="s" s="25">
         <v>352</v>
       </c>
       <c r="N108" t="s" s="25">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="O108" t="s" s="25">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="P108" t="s" s="25">
         <v>340</v>
@@ -8582,25 +8579,25 @@
         <v>340</v>
       </c>
       <c r="I109" t="s" s="25">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J109" t="s" s="25">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="K109" t="s" s="25">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="L109" t="s" s="25">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="M109" t="s" s="25">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="N109" t="s" s="25">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="O109" t="s" s="25">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="P109" t="s" s="25">
         <v>340</v>
@@ -8620,37 +8617,37 @@
         <v>340</v>
       </c>
       <c r="E110" t="s" s="25">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F110" t="s" s="25">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G110" t="s" s="25">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H110" t="s" s="25">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="I110" t="s" s="25">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J110" t="s" s="25">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="K110" t="s" s="25">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="L110" t="s" s="25">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="M110" t="s" s="25">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="N110" t="s" s="25">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="O110" t="s" s="25">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="P110" t="s" s="25">
         <v>340</v>
@@ -8688,7 +8685,7 @@
         <v>340</v>
       </c>
       <c r="K111" t="s" s="25">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="L111" t="s" s="25">
         <v>340</v>
@@ -8720,34 +8717,34 @@
         <v>340</v>
       </c>
       <c r="E112" t="s" s="25">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F112" t="s" s="25">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G112" t="s" s="25">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H112" t="s" s="25">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="I112" t="s" s="25">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J112" t="s" s="25">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K112" t="s" s="25">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="L112" t="s" s="25">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M112" t="s" s="25">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="N112" t="s" s="25">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="O112" t="s" s="25">
         <v>340</v>
@@ -8770,13 +8767,13 @@
         <v>340</v>
       </c>
       <c r="E113" t="s" s="25">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F113" t="s" s="25">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G113" t="s" s="25">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H113" t="s" s="25">
         <v>370</v>
@@ -8785,19 +8782,19 @@
         <v>370</v>
       </c>
       <c r="J113" t="s" s="25">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K113" t="s" s="25">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="L113" t="s" s="25">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="M113" t="s" s="25">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="N113" t="s" s="25">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="O113" t="s" s="25">
         <v>340</v>
@@ -8820,37 +8817,37 @@
         <v>340</v>
       </c>
       <c r="E114" t="s" s="25">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F114" t="s" s="25">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G114" t="s" s="25">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H114" t="s" s="25">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I114" t="s" s="25">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="J114" t="s" s="25">
         <v>374</v>
       </c>
       <c r="K114" t="s" s="25">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L114" t="s" s="25">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="M114" t="s" s="25">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="N114" t="s" s="25">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="O114" t="s" s="25">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="P114" t="s" s="25">
         <v>340</v>
@@ -8870,37 +8867,37 @@
         <v>340</v>
       </c>
       <c r="E115" t="s" s="25">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F115" t="s" s="25">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G115" t="s" s="25">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H115" t="s" s="25">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I115" t="s" s="25">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="J115" t="s" s="25">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="K115" t="s" s="25">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="L115" t="s" s="25">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="M115" t="s" s="25">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="N115" t="s" s="25">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="O115" t="s" s="25">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="P115" t="s" s="25">
         <v>340</v>
@@ -8920,37 +8917,37 @@
         <v>340</v>
       </c>
       <c r="E116" t="s" s="25">
+        <v>404</v>
+      </c>
+      <c r="F116" t="s" s="25">
+        <v>476</v>
+      </c>
+      <c r="G116" t="s" s="25">
         <v>406</v>
       </c>
-      <c r="F116" t="s" s="25">
-        <v>478</v>
-      </c>
-      <c r="G116" t="s" s="25">
-        <v>408</v>
-      </c>
       <c r="H116" t="s" s="25">
+        <v>404</v>
+      </c>
+      <c r="I116" t="s" s="25">
+        <v>558</v>
+      </c>
+      <c r="J116" t="s" s="25">
         <v>406</v>
       </c>
-      <c r="I116" t="s" s="25">
-        <v>560</v>
-      </c>
-      <c r="J116" t="s" s="25">
-        <v>408</v>
-      </c>
       <c r="K116" t="s" s="25">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L116" t="s" s="25">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="M116" t="s" s="25">
         <v>374</v>
       </c>
       <c r="N116" t="s" s="25">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="O116" t="s" s="25">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="P116" t="s" s="25">
         <v>340</v>
@@ -8970,37 +8967,37 @@
         <v>340</v>
       </c>
       <c r="E117" t="s" s="25">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F117" t="s" s="25">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G117" t="s" s="25">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H117" t="s" s="25">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I117" t="s" s="25">
         <v>350</v>
       </c>
       <c r="J117" t="s" s="25">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K117" t="s" s="25">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L117" t="s" s="25">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="M117" t="s" s="25">
         <v>347</v>
       </c>
       <c r="N117" t="s" s="25">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="O117" t="s" s="25">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="P117" t="s" s="25">
         <v>340</v>
@@ -9020,37 +9017,37 @@
         <v>340</v>
       </c>
       <c r="E118" t="s" s="25">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F118" t="s" s="25">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G118" t="s" s="25">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H118" t="s" s="25">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I118" t="s" s="25">
         <v>350</v>
       </c>
       <c r="J118" t="s" s="25">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="K118" t="s" s="25">
         <v>350</v>
       </c>
       <c r="L118" t="s" s="25">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="M118" t="s" s="25">
         <v>347</v>
       </c>
       <c r="N118" t="s" s="25">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="O118" t="s" s="25">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="P118" t="s" s="25">
         <v>340</v>
@@ -9070,34 +9067,34 @@
         <v>340</v>
       </c>
       <c r="E119" t="s" s="25">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F119" t="s" s="25">
         <v>351</v>
       </c>
       <c r="G119" t="s" s="25">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H119" t="s" s="25">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I119" t="s" s="25">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="J119" t="s" s="25">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="K119" t="s" s="25">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="L119" t="s" s="25">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="M119" t="s" s="25">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="N119" t="s" s="25">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="O119" t="s" s="25">
         <v>340</v>
@@ -9120,7 +9117,7 @@
         <v>340</v>
       </c>
       <c r="E120" t="s" s="25">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F120" t="s" s="25">
         <v>380</v>
@@ -9170,34 +9167,34 @@
         <v>340</v>
       </c>
       <c r="E121" t="s" s="25">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F121" t="s" s="25">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G121" t="s" s="25">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H121" t="s" s="25">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I121" t="s" s="25">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="J121" t="s" s="25">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="K121" t="s" s="25">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L121" t="s" s="25">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="M121" t="s" s="25">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="N121" t="s" s="25">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="O121" t="s" s="25">
         <v>340</v>
@@ -9220,34 +9217,34 @@
         <v>340</v>
       </c>
       <c r="E122" t="s" s="25">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F122" t="s" s="25">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G122" t="s" s="25">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H122" t="s" s="25">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I122" t="s" s="25">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="J122" t="s" s="25">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K122" t="s" s="25">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="L122" t="s" s="25">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="M122" t="s" s="25">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="N122" t="s" s="25">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="O122" t="s" s="25">
         <v>340</v>
@@ -9270,34 +9267,34 @@
         <v>340</v>
       </c>
       <c r="E123" t="s" s="25">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F123" t="s" s="25">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G123" t="s" s="25">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H123" t="s" s="25">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I123" t="s" s="25">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="J123" t="s" s="25">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K123" t="s" s="25">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="L123" t="s" s="25">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="M123" t="s" s="25">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="N123" t="s" s="25">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="O123" t="s" s="25">
         <v>340</v>
@@ -9326,19 +9323,19 @@
         <v>380</v>
       </c>
       <c r="G124" t="s" s="25">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H124" t="s" s="25">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I124" t="s" s="25">
         <v>381</v>
       </c>
       <c r="J124" t="s" s="25">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K124" t="s" s="25">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="L124" t="s" s="25">
         <v>381</v>
@@ -9350,7 +9347,7 @@
         <v>381</v>
       </c>
       <c r="O124" t="s" s="25">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="P124" t="s" s="25">
         <v>340</v>
@@ -9370,37 +9367,37 @@
         <v>340</v>
       </c>
       <c r="E125" t="s" s="25">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F125" t="s" s="25">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G125" t="s" s="25">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H125" t="s" s="25">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I125" t="s" s="25">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J125" t="s" s="25">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K125" t="s" s="25">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="L125" t="s" s="25">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="M125" t="s" s="25">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="N125" t="s" s="25">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="O125" t="s" s="25">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="P125" t="s" s="25">
         <v>340</v>
@@ -9423,34 +9420,34 @@
         <v>340</v>
       </c>
       <c r="F126" t="s" s="25">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G126" t="s" s="25">
         <v>355</v>
       </c>
       <c r="H126" t="s" s="25">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I126" t="s" s="25">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J126" t="s" s="25">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="K126" t="s" s="25">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="L126" t="s" s="25">
         <v>353</v>
       </c>
       <c r="M126" t="s" s="25">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="N126" t="s" s="25">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="O126" t="s" s="25">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="P126" t="s" s="25">
         <v>340</v>
@@ -9476,31 +9473,31 @@
         <v>353</v>
       </c>
       <c r="G127" t="s" s="25">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H127" t="s" s="25">
+        <v>602</v>
+      </c>
+      <c r="I127" t="s" s="25">
         <v>603</v>
       </c>
-      <c r="I127" t="s" s="25">
-        <v>604</v>
-      </c>
       <c r="J127" t="s" s="25">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K127" t="s" s="25">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L127" t="s" s="25">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="M127" t="s" s="25">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="N127" t="s" s="25">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="O127" t="s" s="25">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="P127" t="s" s="25">
         <v>340</v>
@@ -9529,28 +9526,28 @@
         <v>340</v>
       </c>
       <c r="H128" t="s" s="25">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="I128" t="s" s="25">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="J128" t="s" s="25">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="K128" t="s" s="25">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L128" t="s" s="25">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="M128" t="s" s="25">
-        <v>679</v>
+        <v>838</v>
       </c>
       <c r="N128" t="s" s="25">
-        <v>410</v>
+        <v>353</v>
       </c>
       <c r="O128" t="s" s="25">
-        <v>355</v>
+        <v>532</v>
       </c>
       <c r="P128" t="s" s="25">
         <v>340</v>
@@ -9579,28 +9576,28 @@
         <v>340</v>
       </c>
       <c r="H129" t="s" s="25">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I129" t="s" s="25">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="J129" t="s" s="25">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="K129" t="s" s="25">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="L129" t="s" s="25">
         <v>381</v>
       </c>
       <c r="M129" t="s" s="25">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="N129" t="s" s="25">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="O129" t="s" s="25">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="P129" t="s" s="25">
         <v>340</v>
@@ -9620,13 +9617,13 @@
         <v>340</v>
       </c>
       <c r="E130" t="s" s="25">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F130" t="s" s="25">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G130" t="s" s="25">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H130" t="s" s="25">
         <v>347</v>
@@ -9635,22 +9632,22 @@
         <v>374</v>
       </c>
       <c r="J130" t="s" s="25">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="K130" t="s" s="25">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="L130" t="s" s="25">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="M130" t="s" s="25">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="N130" t="s" s="25">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="O130" t="s" s="25">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="P130" t="s" s="25">
         <v>340</v>
@@ -9670,37 +9667,37 @@
         <v>340</v>
       </c>
       <c r="E131" t="s" s="25">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F131" t="s" s="25">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G131" t="s" s="25">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H131" t="s" s="25">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I131" t="s" s="25">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="J131" t="s" s="25">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="K131" t="s" s="25">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="L131" t="s" s="25">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="M131" t="s" s="25">
         <v>374</v>
       </c>
       <c r="N131" t="s" s="25">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="O131" t="s" s="25">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="P131" t="s" s="25">
         <v>340</v>
@@ -9720,37 +9717,37 @@
         <v>340</v>
       </c>
       <c r="E132" t="s" s="25">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F132" t="s" s="25">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G132" t="s" s="25">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H132" t="s" s="25">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I132" t="s" s="25">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J132" t="s" s="25">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="K132" t="s" s="25">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="L132" t="s" s="25">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="M132" t="s" s="25">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="N132" t="s" s="25">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="O132" t="s" s="25">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="P132" t="s" s="25">
         <v>340</v>
@@ -9770,34 +9767,34 @@
         <v>340</v>
       </c>
       <c r="E133" t="s" s="25">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F133" t="s" s="25">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G133" t="s" s="25">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H133" t="s" s="25">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I133" t="s" s="25">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="J133" t="s" s="25">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K133" t="s" s="25">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="L133" t="s" s="25">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="M133" t="s" s="25">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="N133" t="s" s="25">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="O133" t="s" s="25">
         <v>352</v>
@@ -9820,37 +9817,37 @@
         <v>340</v>
       </c>
       <c r="E134" t="s" s="25">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F134" t="s" s="25">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G134" t="s" s="25">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H134" t="s" s="25">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I134" t="s" s="25">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="J134" t="s" s="25">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K134" t="s" s="25">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="L134" t="s" s="25">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="M134" t="s" s="25">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="N134" t="s" s="25">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="O134" t="s" s="25">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="P134" t="s" s="25">
         <v>340</v>
@@ -9885,7 +9882,7 @@
         <v>357</v>
       </c>
       <c r="J135" t="s" s="25">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K135" t="s" s="25">
         <v>367</v>
@@ -9900,7 +9897,7 @@
         <v>357</v>
       </c>
       <c r="O135" t="s" s="25">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="P135" t="s" s="25">
         <v>340</v>
@@ -9920,34 +9917,34 @@
         <v>340</v>
       </c>
       <c r="E136" t="s" s="25">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F136" t="s" s="25">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G136" t="s" s="25">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H136" t="s" s="25">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I136" t="s" s="25">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J136" t="s" s="25">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="K136" t="s" s="25">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="L136" t="s" s="25">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="M136" t="s" s="25">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="N136" t="s" s="25">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="O136" t="s" s="25">
         <v>340</v>
@@ -10032,19 +10029,19 @@
         <v>340</v>
       </c>
       <c r="I138" t="s" s="25">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J138" t="s" s="25">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K138" t="s" s="25">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="L138" t="s" s="25">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="M138" t="s" s="25">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="N138" t="s" s="25">
         <v>340</v>
@@ -10082,19 +10079,19 @@
         <v>340</v>
       </c>
       <c r="I139" t="s" s="25">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="J139" t="s" s="25">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="K139" t="s" s="25">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="L139" t="s" s="25">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="M139" t="s" s="25">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="N139" t="s" s="25">
         <v>340</v>
@@ -10135,7 +10132,7 @@
         <v>357</v>
       </c>
       <c r="J140" t="s" s="25">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K140" t="s" s="25">
         <v>367</v>
@@ -10150,7 +10147,7 @@
         <v>357</v>
       </c>
       <c r="O140" t="s" s="25">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="P140" t="s" s="25">
         <v>340</v>
@@ -10176,22 +10173,22 @@
         <v>353</v>
       </c>
       <c r="G141" t="s" s="25">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H141" t="s" s="25">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="I141" t="s" s="25">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="J141" t="s" s="25">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="K141" t="s" s="25">
         <v>353</v>
       </c>
       <c r="L141" t="s" s="25">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="M141" t="s" s="25">
         <v>353</v>
@@ -10220,34 +10217,34 @@
         <v>340</v>
       </c>
       <c r="E142" t="s" s="25">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F142" t="s" s="25">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G142" t="s" s="25">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="H142" t="s" s="25">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I142" t="s" s="25">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J142" t="s" s="25">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K142" t="s" s="25">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="L142" t="s" s="25">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="M142" t="s" s="25">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="N142" t="s" s="25">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="O142" t="s" s="25">
         <v>340</v>
@@ -10270,34 +10267,34 @@
         <v>340</v>
       </c>
       <c r="E143" t="s" s="25">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F143" t="s" s="25">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G143" t="s" s="25">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H143" t="s" s="25">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I143" t="s" s="25">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J143" t="s" s="25">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K143" t="s" s="25">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="L143" t="s" s="25">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="M143" t="s" s="25">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="N143" t="s" s="25">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="O143" t="s" s="25">
         <v>340</v>
@@ -10320,34 +10317,34 @@
         <v>340</v>
       </c>
       <c r="E144" t="s" s="25">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F144" t="s" s="25">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G144" t="s" s="25">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H144" t="s" s="25">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I144" t="s" s="25">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="J144" t="s" s="25">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K144" t="s" s="25">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="L144" t="s" s="25">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="M144" t="s" s="25">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="N144" t="s" s="25">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="O144" t="s" s="25">
         <v>340</v>
@@ -10370,34 +10367,34 @@
         <v>340</v>
       </c>
       <c r="E145" t="s" s="25">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F145" t="s" s="25">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G145" t="s" s="25">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H145" t="s" s="25">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I145" t="s" s="25">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J145" t="s" s="25">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K145" t="s" s="25">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="L145" t="s" s="25">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M145" t="s" s="25">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="N145" t="s" s="25">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="O145" t="s" s="25">
         <v>340</v>
@@ -10432,22 +10429,22 @@
         <v>340</v>
       </c>
       <c r="I146" t="s" s="25">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J146" t="s" s="25">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="K146" t="s" s="25">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="L146" t="s" s="25">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="M146" t="s" s="25">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="N146" t="s" s="25">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="O146" t="s" s="25">
         <v>340</v>
@@ -10482,22 +10479,22 @@
         <v>340</v>
       </c>
       <c r="I147" t="s" s="25">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="J147" t="s" s="25">
         <v>373</v>
       </c>
       <c r="K147" t="s" s="25">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="L147" t="s" s="25">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="M147" t="s" s="25">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="N147" t="s" s="25">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="O147" t="s" s="25">
         <v>340</v>
@@ -10529,7 +10526,7 @@
         <v>340</v>
       </c>
       <c r="H148" t="s" s="25">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I148" t="s" s="25">
         <v>340</v>
@@ -10573,34 +10570,34 @@
         <v>347</v>
       </c>
       <c r="F149" t="s" s="25">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G149" t="s" s="25">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H149" t="s" s="25">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="I149" t="s" s="25">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J149" t="s" s="25">
         <v>366</v>
       </c>
       <c r="K149" t="s" s="25">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L149" t="s" s="25">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="M149" t="s" s="25">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N149" t="s" s="25">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="O149" t="s" s="25">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="P149" t="s" s="25">
         <v>340</v>
@@ -10620,34 +10617,34 @@
         <v>340</v>
       </c>
       <c r="E150" t="s" s="25">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F150" t="s" s="25">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G150" t="s" s="25">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H150" t="s" s="25">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I150" t="s" s="25">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="J150" t="s" s="25">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="K150" t="s" s="25">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="L150" t="s" s="25">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="M150" t="s" s="25">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N150" t="s" s="25">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="O150" t="s" s="25">
         <v>340</v>
@@ -10670,31 +10667,31 @@
         <v>340</v>
       </c>
       <c r="E151" t="s" s="25">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F151" t="s" s="25">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G151" t="s" s="25">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H151" t="s" s="25">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I151" t="s" s="25">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J151" t="s" s="25">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K151" t="s" s="25">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="L151" t="s" s="25">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="M151" t="s" s="25">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="N151" t="s" s="25">
         <v>372</v>
@@ -10720,34 +10717,34 @@
         <v>340</v>
       </c>
       <c r="E152" t="s" s="25">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F152" t="s" s="25">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G152" t="s" s="25">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H152" t="s" s="25">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I152" t="s" s="25">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="J152" t="s" s="25">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K152" t="s" s="25">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="L152" t="s" s="25">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="M152" t="s" s="25">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="N152" t="s" s="25">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="O152" t="s" s="25">
         <v>340</v>
@@ -10770,28 +10767,28 @@
         <v>340</v>
       </c>
       <c r="E153" t="s" s="25">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F153" t="s" s="25">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G153" t="s" s="25">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H153" t="s" s="25">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I153" t="s" s="25">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="J153" t="s" s="25">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="K153" t="s" s="25">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="L153" t="s" s="25">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="M153" t="s" s="25">
         <v>357</v>
@@ -10800,7 +10797,7 @@
         <v>357</v>
       </c>
       <c r="O153" t="s" s="25">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="P153" t="s" s="25">
         <v>340</v>
@@ -10820,10 +10817,10 @@
         <v>340</v>
       </c>
       <c r="E154" t="s" s="25">
+        <v>427</v>
+      </c>
+      <c r="F154" t="s" s="25">
         <v>429</v>
-      </c>
-      <c r="F154" t="s" s="25">
-        <v>431</v>
       </c>
       <c r="G154" t="s" s="25">
         <v>360</v>
@@ -10870,34 +10867,34 @@
         <v>340</v>
       </c>
       <c r="E155" t="s" s="25">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F155" t="s" s="25">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G155" t="s" s="25">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H155" t="s" s="25">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I155" t="s" s="25">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="J155" t="s" s="25">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="K155" t="s" s="25">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="L155" t="s" s="25">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="M155" t="s" s="25">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="N155" t="s" s="25">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="O155" t="s" s="25">
         <v>340</v>
@@ -10920,10 +10917,10 @@
         <v>340</v>
       </c>
       <c r="E156" t="s" s="25">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F156" t="s" s="25">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G156" t="s" s="25">
         <v>357</v>
@@ -10979,28 +10976,28 @@
         <v>340</v>
       </c>
       <c r="H157" t="s" s="25">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I157" t="s" s="25">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J157" t="s" s="25">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K157" t="s" s="25">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="L157" t="s" s="25">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="M157" t="s" s="25">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="N157" t="s" s="25">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="O157" t="s" s="25">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="P157" t="s" s="25">
         <v>340</v>
@@ -11047,7 +11044,7 @@
         <v>355</v>
       </c>
       <c r="N158" t="s" s="25">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="O158" t="s" s="25">
         <v>340</v>
@@ -11070,40 +11067,40 @@
         <v>340</v>
       </c>
       <c r="E159" t="s" s="25">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F159" t="s" s="25">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G159" t="s" s="25">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H159" t="s" s="25">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I159" t="s" s="25">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J159" t="s" s="25">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="K159" t="s" s="25">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="L159" t="s" s="25">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="M159" t="s" s="25">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="N159" t="s" s="25">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="O159" t="s" s="25">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="P159" t="s" s="25">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="160" ht="15.0" customHeight="true">
@@ -11120,40 +11117,40 @@
         <v>340</v>
       </c>
       <c r="E160" t="s" s="25">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F160" t="s" s="25">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G160" t="s" s="25">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H160" t="s" s="25">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I160" t="s" s="25">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="J160" t="s" s="25">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="K160" t="s" s="25">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="L160" t="s" s="25">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="M160" t="s" s="25">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="N160" t="s" s="25">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="O160" t="s" s="25">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="P160" t="s" s="25">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="161" ht="15.0" customHeight="true">
@@ -11194,7 +11191,7 @@
     </row>
     <row r="163" ht="15.0" customHeight="true">
       <c r="A163" s="21" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B163" s="21"/>
       <c r="C163" s="21"/>

--- a/descargas/Indicadores ODS Asturias.xlsx
+++ b/descargas/Indicadores ODS Asturias.xlsx
@@ -717,7 +717,7 @@
     <t>17.19.2a.a</t>
   </si>
   <si>
-    <t>17.19.2.a</t>
+    <t>17.19.2b.a</t>
   </si>
   <si>
     <t>Proporción de personas en riesgo de pobreza relativa, considerando el umbral nacional de pobreza</t>

--- a/descargas/Indicadores ODS Asturias.xlsx
+++ b/descargas/Indicadores ODS Asturias.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3796" uniqueCount="1162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3796" uniqueCount="1161">
   <si>
     <t>sadei</t>
   </si>
@@ -2418,949 +2418,946 @@
     <t>2,1</t>
   </si>
   <si>
+    <t>19,8</t>
+  </si>
+  <si>
+    <t>386,1</t>
+  </si>
+  <si>
+    <t>328,3</t>
+  </si>
+  <si>
+    <t>27,7</t>
+  </si>
+  <si>
+    <t>105,6</t>
+  </si>
+  <si>
+    <t>24,2</t>
+  </si>
+  <si>
+    <t>10,0</t>
+  </si>
+  <si>
+    <t>5,7</t>
+  </si>
+  <si>
+    <t>19,1</t>
+  </si>
+  <si>
+    <t>57,5</t>
+  </si>
+  <si>
+    <t>64,0</t>
+  </si>
+  <si>
+    <t>7,7</t>
+  </si>
+  <si>
+    <t>97,1</t>
+  </si>
+  <si>
+    <t>76,3</t>
+  </si>
+  <si>
+    <t>37,8</t>
+  </si>
+  <si>
+    <t>38,9</t>
+  </si>
+  <si>
+    <t>39,4</t>
+  </si>
+  <si>
+    <t>42,0</t>
+  </si>
+  <si>
+    <t>93,8</t>
+  </si>
+  <si>
+    <t>90,8</t>
+  </si>
+  <si>
+    <t>96,7</t>
+  </si>
+  <si>
+    <t>26,8</t>
+  </si>
+  <si>
+    <t>42,6</t>
+  </si>
+  <si>
+    <t>-0,6</t>
+  </si>
+  <si>
+    <t>21,1</t>
+  </si>
+  <si>
+    <t>32,6</t>
+  </si>
+  <si>
+    <t>20,9</t>
+  </si>
+  <si>
+    <t>87,5</t>
+  </si>
+  <si>
+    <t>75,1</t>
+  </si>
+  <si>
+    <t>2.394,6</t>
+  </si>
+  <si>
+    <t>2,9</t>
+  </si>
+  <si>
+    <t>-9,1</t>
+  </si>
+  <si>
+    <t>-30,4</t>
+  </si>
+  <si>
+    <t>1.914,0</t>
+  </si>
+  <si>
+    <t>98,2</t>
+  </si>
+  <si>
+    <t>54,9</t>
+  </si>
+  <si>
+    <t>-1,8</t>
+  </si>
+  <si>
+    <t>-4,7</t>
+  </si>
+  <si>
+    <t>-2,3</t>
+  </si>
+  <si>
+    <t>45,8</t>
+  </si>
+  <si>
+    <t>6,8</t>
+  </si>
+  <si>
+    <t>498,0</t>
+  </si>
+  <si>
+    <t>74,3</t>
+  </si>
+  <si>
+    <t>26,0</t>
+  </si>
+  <si>
+    <t>-24,2</t>
+  </si>
+  <si>
+    <t>56.148,7</t>
+  </si>
+  <si>
+    <t>7,3</t>
+  </si>
+  <si>
+    <t>23,2</t>
+  </si>
+  <si>
+    <t>57,8</t>
+  </si>
+  <si>
+    <t>69,0</t>
+  </si>
+  <si>
+    <t>8,9</t>
+  </si>
+  <si>
+    <t>5,4</t>
+  </si>
+  <si>
+    <t>64,5</t>
+  </si>
+  <si>
+    <t>74,0</t>
+  </si>
+  <si>
+    <t>28,0</t>
+  </si>
+  <si>
+    <t>20,2</t>
+  </si>
+  <si>
+    <t>40,2</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>9,7</t>
+  </si>
+  <si>
+    <t>420,3</t>
+  </si>
+  <si>
+    <t>335,5</t>
+  </si>
+  <si>
+    <t>28,1</t>
+  </si>
+  <si>
+    <t>122,9</t>
+  </si>
+  <si>
+    <t>12,9</t>
+  </si>
+  <si>
+    <t>17,7</t>
+  </si>
+  <si>
+    <t>29,0</t>
+  </si>
+  <si>
+    <t>10,4</t>
+  </si>
+  <si>
+    <t>6,4</t>
+  </si>
+  <si>
+    <t>3,0</t>
+  </si>
+  <si>
+    <t>58,8</t>
+  </si>
+  <si>
+    <t>66,3</t>
+  </si>
+  <si>
+    <t>7,9</t>
+  </si>
+  <si>
+    <t>83,7</t>
+  </si>
+  <si>
+    <t>87,3</t>
+  </si>
+  <si>
+    <t>79,4</t>
+  </si>
+  <si>
+    <t>97,9</t>
+  </si>
+  <si>
+    <t>97,3</t>
+  </si>
+  <si>
+    <t>98,5</t>
+  </si>
+  <si>
+    <t>16,9</t>
+  </si>
+  <si>
+    <t>76,2</t>
+  </si>
+  <si>
+    <t>94,9</t>
+  </si>
+  <si>
+    <t>57,0</t>
+  </si>
+  <si>
+    <t>89,1</t>
+  </si>
+  <si>
+    <t>48,9</t>
+  </si>
+  <si>
+    <t>23,1</t>
+  </si>
+  <si>
+    <t>41,6</t>
+  </si>
+  <si>
+    <t>47,3</t>
+  </si>
+  <si>
+    <t>45,3</t>
+  </si>
+  <si>
+    <t>94,4</t>
+  </si>
+  <si>
+    <t>92,0</t>
+  </si>
+  <si>
+    <t>96,8</t>
+  </si>
+  <si>
+    <t>14,9</t>
+  </si>
+  <si>
+    <t>13,5</t>
+  </si>
+  <si>
+    <t>18,6</t>
+  </si>
+  <si>
+    <t>86,5</t>
+  </si>
+  <si>
+    <t>67,7</t>
+  </si>
+  <si>
+    <t>1,8</t>
+  </si>
+  <si>
+    <t>2.499,2</t>
+  </si>
+  <si>
+    <t>11,0</t>
+  </si>
+  <si>
+    <t>-14,6</t>
+  </si>
+  <si>
+    <t>1.930,1</t>
+  </si>
+  <si>
+    <t>79,6</t>
+  </si>
+  <si>
+    <t>-3,7</t>
+  </si>
+  <si>
+    <t>-1,9</t>
+  </si>
+  <si>
+    <t>10,5</t>
+  </si>
+  <si>
+    <t>5,5</t>
+  </si>
+  <si>
+    <t>519,4</t>
+  </si>
+  <si>
+    <t>25,0</t>
+  </si>
+  <si>
+    <t>28,8</t>
+  </si>
+  <si>
+    <t>-8,1</t>
+  </si>
+  <si>
+    <t>45.791,0</t>
+  </si>
+  <si>
+    <t>22,3</t>
+  </si>
+  <si>
+    <t>4,7</t>
+  </si>
+  <si>
+    <t>68,6</t>
+  </si>
+  <si>
+    <t>78,3</t>
+  </si>
+  <si>
+    <t>17,0</t>
+  </si>
+  <si>
+    <t>25,3</t>
+  </si>
+  <si>
+    <t>14,7</t>
+  </si>
+  <si>
+    <t>413,1</t>
+  </si>
+  <si>
+    <t>344,9</t>
+  </si>
+  <si>
+    <t>108,3</t>
+  </si>
+  <si>
+    <t>20,8</t>
+  </si>
+  <si>
+    <t>34,7</t>
+  </si>
+  <si>
+    <t>61,1</t>
+  </si>
+  <si>
+    <t>1,9</t>
+  </si>
+  <si>
+    <t>60,7</t>
+  </si>
+  <si>
+    <t>68,9</t>
+  </si>
+  <si>
+    <t>99,2</t>
+  </si>
+  <si>
+    <t>99,3</t>
+  </si>
+  <si>
+    <t>43,4</t>
+  </si>
+  <si>
+    <t>75,2</t>
+  </si>
+  <si>
+    <t>61,2</t>
+  </si>
+  <si>
+    <t>91,5</t>
+  </si>
+  <si>
+    <t>42,1</t>
+  </si>
+  <si>
+    <t>58,5</t>
+  </si>
+  <si>
+    <t>70,5</t>
+  </si>
+  <si>
+    <t>50,2</t>
+  </si>
+  <si>
+    <t>56,2</t>
+  </si>
+  <si>
+    <t>66,1</t>
+  </si>
+  <si>
+    <t>25,6</t>
+  </si>
+  <si>
+    <t>18,8</t>
+  </si>
+  <si>
+    <t>16,3</t>
+  </si>
+  <si>
+    <t>19,3</t>
+  </si>
+  <si>
+    <t>38,5</t>
+  </si>
+  <si>
+    <t>81,8</t>
+  </si>
+  <si>
+    <t>97,5</t>
+  </si>
+  <si>
+    <t>54,4</t>
+  </si>
+  <si>
+    <t>2.483,4</t>
+  </si>
+  <si>
+    <t>11,3</t>
+  </si>
+  <si>
+    <t>-9,6</t>
+  </si>
+  <si>
+    <t>-30,7</t>
+  </si>
+  <si>
+    <t>1.992,3</t>
+  </si>
+  <si>
+    <t>99,6</t>
+  </si>
+  <si>
+    <t>94,1</t>
+  </si>
+  <si>
+    <t>45,0</t>
+  </si>
+  <si>
+    <t>518,7</t>
+  </si>
+  <si>
+    <t>71,8</t>
+  </si>
+  <si>
+    <t>28,2</t>
+  </si>
+  <si>
+    <t>23,0</t>
+  </si>
+  <si>
+    <t>23,8</t>
+  </si>
+  <si>
+    <t>-24,5</t>
+  </si>
+  <si>
+    <t>14.011,5</t>
+  </si>
+  <si>
+    <t>57,4</t>
+  </si>
+  <si>
+    <t>-3,4</t>
+  </si>
+  <si>
+    <t>16,6</t>
+  </si>
+  <si>
+    <t>37,7</t>
+  </si>
+  <si>
+    <t>6,5</t>
+  </si>
+  <si>
+    <t>385,5</t>
+  </si>
+  <si>
+    <t>342,3</t>
+  </si>
+  <si>
+    <t>117,4</t>
+  </si>
+  <si>
+    <t>34,9</t>
+  </si>
+  <si>
+    <t>6,0</t>
+  </si>
+  <si>
+    <t>46,7</t>
+  </si>
+  <si>
+    <t>10,3</t>
+  </si>
+  <si>
+    <t>94,3</t>
+  </si>
+  <si>
+    <t>89,6</t>
+  </si>
+  <si>
+    <t>82,5</t>
+  </si>
+  <si>
+    <t>61,9</t>
+  </si>
+  <si>
+    <t>70,9</t>
+  </si>
+  <si>
+    <t>8,2</t>
+  </si>
+  <si>
+    <t>76,0</t>
+  </si>
+  <si>
+    <t>9,0</t>
+  </si>
+  <si>
+    <t>65,0</t>
+  </si>
+  <si>
+    <t>37,5</t>
+  </si>
+  <si>
+    <t>96,4</t>
+  </si>
+  <si>
+    <t>96,0</t>
+  </si>
+  <si>
+    <t>66,0</t>
+  </si>
+  <si>
+    <t>15,4</t>
+  </si>
+  <si>
+    <t>1,7</t>
+  </si>
+  <si>
+    <t>13,2</t>
+  </si>
+  <si>
+    <t>15,3</t>
+  </si>
+  <si>
+    <t>13,7</t>
+  </si>
+  <si>
+    <t>44,2</t>
+  </si>
+  <si>
+    <t>74,8</t>
+  </si>
+  <si>
+    <t>66,8</t>
+  </si>
+  <si>
+    <t>2.649,7</t>
+  </si>
+  <si>
+    <t>-4,3</t>
+  </si>
+  <si>
+    <t>-26,7</t>
+  </si>
+  <si>
+    <t>2.149,4</t>
+  </si>
+  <si>
+    <t>96,9</t>
+  </si>
+  <si>
+    <t>10,2</t>
+  </si>
+  <si>
+    <t>11,6</t>
+  </si>
+  <si>
+    <t>44,8</t>
+  </si>
+  <si>
+    <t>9,8</t>
+  </si>
+  <si>
+    <t>516,1</t>
+  </si>
+  <si>
+    <t>73,7</t>
+  </si>
+  <si>
+    <t>26,3</t>
+  </si>
+  <si>
+    <t>25,1</t>
+  </si>
+  <si>
+    <t>-20,7</t>
+  </si>
+  <si>
+    <t>16.898,3</t>
+  </si>
+  <si>
+    <t>59,0</t>
+  </si>
+  <si>
+    <t>66,5</t>
+  </si>
+  <si>
+    <t>76,9</t>
+  </si>
+  <si>
+    <t>82,3</t>
+  </si>
+  <si>
+    <t>9,4</t>
+  </si>
+  <si>
+    <t>379,0</t>
+  </si>
+  <si>
+    <t>346,6</t>
+  </si>
+  <si>
+    <t>31,2</t>
+  </si>
+  <si>
+    <t>125,2</t>
+  </si>
+  <si>
+    <t>24,3</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>94,5</t>
+  </si>
+  <si>
+    <t>90,2</t>
+  </si>
+  <si>
+    <t>72,2</t>
+  </si>
+  <si>
+    <t>63,6</t>
+  </si>
+  <si>
+    <t>71,9</t>
+  </si>
+  <si>
+    <t>82,2</t>
+  </si>
+  <si>
+    <t>77,6</t>
+  </si>
+  <si>
+    <t>86,8</t>
+  </si>
+  <si>
+    <t>78,4</t>
+  </si>
+  <si>
+    <t>78,7</t>
+  </si>
+  <si>
+    <t>78,1</t>
+  </si>
+  <si>
+    <t>98,6</t>
+  </si>
+  <si>
+    <t>98,7</t>
+  </si>
+  <si>
+    <t>98,4</t>
+  </si>
+  <si>
+    <t>79,2</t>
+  </si>
+  <si>
+    <t>36,1</t>
+  </si>
+  <si>
+    <t>31,4</t>
+  </si>
+  <si>
+    <t>40,6</t>
+  </si>
+  <si>
+    <t>-0,8</t>
+  </si>
+  <si>
+    <t>19,5</t>
+  </si>
+  <si>
+    <t>71,5</t>
+  </si>
+  <si>
+    <t>69,3</t>
+  </si>
+  <si>
+    <t>2.659,7</t>
+  </si>
+  <si>
+    <t>-11,3</t>
+  </si>
+  <si>
+    <t>-32,0</t>
+  </si>
+  <si>
+    <t>2.236,5</t>
+  </si>
+  <si>
+    <t>45,1</t>
+  </si>
+  <si>
+    <t>18,2</t>
+  </si>
+  <si>
+    <t>489,1</t>
+  </si>
+  <si>
+    <t>82,1</t>
+  </si>
+  <si>
+    <t>17,9</t>
+  </si>
+  <si>
+    <t>19,0</t>
+  </si>
+  <si>
+    <t>-26,1</t>
+  </si>
+  <si>
+    <t>24.674,8</t>
+  </si>
+  <si>
+    <t>22,8</t>
+  </si>
+  <si>
+    <t>56,0</t>
+  </si>
+  <si>
+    <t>80,2</t>
+  </si>
+  <si>
+    <t>85,7</t>
+  </si>
+  <si>
+    <t>24,6</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>41,3</t>
+  </si>
+  <si>
+    <t>3,1</t>
+  </si>
+  <si>
+    <t>11,1</t>
+  </si>
+  <si>
+    <t>371,4</t>
+  </si>
+  <si>
+    <t>339,1</t>
+  </si>
+  <si>
+    <t>28,5</t>
+  </si>
+  <si>
+    <t>110,8</t>
+  </si>
+  <si>
+    <t>4,1</t>
+  </si>
+  <si>
+    <t>28,9</t>
+  </si>
+  <si>
+    <t>5,6</t>
+  </si>
+  <si>
+    <t>7,5</t>
+  </si>
+  <si>
+    <t>65,4</t>
+  </si>
+  <si>
+    <t>73,5</t>
+  </si>
+  <si>
+    <t>8,7</t>
+  </si>
+  <si>
+    <t>98,1</t>
+  </si>
+  <si>
+    <t>98,9</t>
+  </si>
+  <si>
+    <t>69,7</t>
+  </si>
+  <si>
+    <t>97,4</t>
+  </si>
+  <si>
+    <t>36,4</t>
+  </si>
+  <si>
+    <t>35,1</t>
+  </si>
+  <si>
+    <t>96,6</t>
+  </si>
+  <si>
+    <t>95,5</t>
+  </si>
+  <si>
+    <t>97,6</t>
+  </si>
+  <si>
+    <t>33,2</t>
+  </si>
+  <si>
+    <t>35,4</t>
+  </si>
+  <si>
+    <t>67,9</t>
+  </si>
+  <si>
+    <t>96,1</t>
+  </si>
+  <si>
+    <t>2.655,3</t>
+  </si>
+  <si>
+    <t>-29,2</t>
+  </si>
+  <si>
+    <t>-45,7</t>
+  </si>
+  <si>
+    <t>2.581,2</t>
+  </si>
+  <si>
+    <t>497,6</t>
+  </si>
+  <si>
+    <t>79,1</t>
+  </si>
+  <si>
+    <t>-22,4</t>
+  </si>
+  <si>
+    <t>-40,4</t>
+  </si>
+  <si>
+    <t>89.472,1</t>
+  </si>
+  <si>
+    <t>83,8</t>
+  </si>
+  <si>
+    <t>89,2</t>
+  </si>
+  <si>
+    <t>21,4</t>
+  </si>
+  <si>
+    <t>27,6</t>
+  </si>
+  <si>
+    <t>370,4</t>
+  </si>
+  <si>
+    <t>340,7</t>
+  </si>
+  <si>
+    <t>34,2</t>
+  </si>
+  <si>
+    <t>87,8</t>
+  </si>
+  <si>
+    <t>47,2</t>
+  </si>
+  <si>
+    <t>85,3</t>
+  </si>
+  <si>
+    <t>8,3</t>
+  </si>
+  <si>
+    <t>90,0</t>
+  </si>
+  <si>
+    <t>67,5</t>
+  </si>
+  <si>
+    <t>75,4</t>
+  </si>
+  <si>
+    <t>98,8</t>
+  </si>
+  <si>
     <t>19,4</t>
   </si>
   <si>
-    <t>386,1</t>
-  </si>
-  <si>
-    <t>328,3</t>
-  </si>
-  <si>
-    <t>27,7</t>
-  </si>
-  <si>
-    <t>105,6</t>
-  </si>
-  <si>
-    <t>24,2</t>
-  </si>
-  <si>
-    <t>10,0</t>
-  </si>
-  <si>
-    <t>5,7</t>
-  </si>
-  <si>
-    <t>19,1</t>
-  </si>
-  <si>
-    <t>57,5</t>
-  </si>
-  <si>
-    <t>64,0</t>
-  </si>
-  <si>
-    <t>7,7</t>
-  </si>
-  <si>
-    <t>97,1</t>
-  </si>
-  <si>
-    <t>76,3</t>
-  </si>
-  <si>
-    <t>37,8</t>
-  </si>
-  <si>
-    <t>38,9</t>
-  </si>
-  <si>
-    <t>39,4</t>
-  </si>
-  <si>
-    <t>42,0</t>
-  </si>
-  <si>
-    <t>93,8</t>
-  </si>
-  <si>
-    <t>90,8</t>
-  </si>
-  <si>
-    <t>96,7</t>
-  </si>
-  <si>
-    <t>26,8</t>
-  </si>
-  <si>
-    <t>42,6</t>
-  </si>
-  <si>
-    <t>-0,6</t>
-  </si>
-  <si>
-    <t>21,1</t>
-  </si>
-  <si>
-    <t>32,6</t>
-  </si>
-  <si>
-    <t>20,9</t>
-  </si>
-  <si>
-    <t>87,5</t>
-  </si>
-  <si>
-    <t>75,1</t>
-  </si>
-  <si>
-    <t>2.394,6</t>
-  </si>
-  <si>
-    <t>2,9</t>
-  </si>
-  <si>
-    <t>-9,1</t>
-  </si>
-  <si>
-    <t>-30,4</t>
-  </si>
-  <si>
-    <t>1.914,0</t>
-  </si>
-  <si>
-    <t>98,2</t>
-  </si>
-  <si>
-    <t>54,9</t>
-  </si>
-  <si>
-    <t>-1,8</t>
-  </si>
-  <si>
-    <t>-4,7</t>
-  </si>
-  <si>
-    <t>-2,3</t>
-  </si>
-  <si>
-    <t>45,8</t>
-  </si>
-  <si>
-    <t>6,8</t>
-  </si>
-  <si>
-    <t>498,0</t>
-  </si>
-  <si>
-    <t>74,3</t>
-  </si>
-  <si>
-    <t>26,0</t>
-  </si>
-  <si>
-    <t>-24,2</t>
-  </si>
-  <si>
-    <t>56.148,7</t>
-  </si>
-  <si>
-    <t>7,3</t>
-  </si>
-  <si>
-    <t>23,2</t>
-  </si>
-  <si>
-    <t>57,8</t>
-  </si>
-  <si>
-    <t>69,0</t>
-  </si>
-  <si>
-    <t>8,9</t>
-  </si>
-  <si>
-    <t>5,4</t>
-  </si>
-  <si>
-    <t>64,5</t>
-  </si>
-  <si>
-    <t>74,0</t>
-  </si>
-  <si>
-    <t>28,0</t>
-  </si>
-  <si>
-    <t>20,2</t>
-  </si>
-  <si>
-    <t>40,2</t>
-  </si>
-  <si>
-    <t>2,3</t>
-  </si>
-  <si>
-    <t>9,4</t>
-  </si>
-  <si>
-    <t>420,3</t>
-  </si>
-  <si>
-    <t>335,5</t>
-  </si>
-  <si>
-    <t>28,1</t>
-  </si>
-  <si>
-    <t>122,9</t>
-  </si>
-  <si>
-    <t>12,9</t>
-  </si>
-  <si>
-    <t>17,7</t>
-  </si>
-  <si>
-    <t>29,0</t>
-  </si>
-  <si>
-    <t>10,4</t>
-  </si>
-  <si>
-    <t>6,4</t>
-  </si>
-  <si>
-    <t>3,0</t>
-  </si>
-  <si>
-    <t>58,8</t>
-  </si>
-  <si>
-    <t>66,3</t>
-  </si>
-  <si>
-    <t>7,9</t>
-  </si>
-  <si>
-    <t>83,7</t>
-  </si>
-  <si>
-    <t>87,3</t>
-  </si>
-  <si>
-    <t>79,4</t>
-  </si>
-  <si>
-    <t>97,9</t>
-  </si>
-  <si>
-    <t>97,3</t>
-  </si>
-  <si>
-    <t>98,5</t>
-  </si>
-  <si>
-    <t>16,9</t>
-  </si>
-  <si>
-    <t>76,2</t>
-  </si>
-  <si>
-    <t>94,9</t>
-  </si>
-  <si>
-    <t>57,0</t>
-  </si>
-  <si>
-    <t>89,1</t>
-  </si>
-  <si>
-    <t>48,9</t>
-  </si>
-  <si>
-    <t>23,1</t>
-  </si>
-  <si>
-    <t>41,6</t>
-  </si>
-  <si>
-    <t>47,3</t>
-  </si>
-  <si>
-    <t>45,3</t>
-  </si>
-  <si>
-    <t>94,4</t>
-  </si>
-  <si>
-    <t>92,0</t>
-  </si>
-  <si>
-    <t>96,8</t>
-  </si>
-  <si>
-    <t>14,9</t>
-  </si>
-  <si>
-    <t>13,5</t>
-  </si>
-  <si>
-    <t>18,6</t>
-  </si>
-  <si>
-    <t>86,5</t>
-  </si>
-  <si>
-    <t>67,7</t>
-  </si>
-  <si>
-    <t>1,8</t>
-  </si>
-  <si>
-    <t>2.499,2</t>
-  </si>
-  <si>
-    <t>11,0</t>
-  </si>
-  <si>
-    <t>-14,6</t>
-  </si>
-  <si>
-    <t>1.930,1</t>
-  </si>
-  <si>
-    <t>79,6</t>
-  </si>
-  <si>
-    <t>-3,7</t>
-  </si>
-  <si>
-    <t>-1,9</t>
-  </si>
-  <si>
-    <t>10,5</t>
-  </si>
-  <si>
-    <t>5,5</t>
-  </si>
-  <si>
-    <t>519,4</t>
-  </si>
-  <si>
-    <t>25,0</t>
-  </si>
-  <si>
-    <t>28,8</t>
-  </si>
-  <si>
-    <t>19,8</t>
-  </si>
-  <si>
-    <t>-8,1</t>
-  </si>
-  <si>
-    <t>45.791,0</t>
-  </si>
-  <si>
-    <t>22,3</t>
-  </si>
-  <si>
-    <t>4,7</t>
-  </si>
-  <si>
-    <t>68,6</t>
-  </si>
-  <si>
-    <t>78,3</t>
-  </si>
-  <si>
-    <t>17,0</t>
-  </si>
-  <si>
-    <t>25,3</t>
-  </si>
-  <si>
-    <t>14,7</t>
-  </si>
-  <si>
-    <t>413,1</t>
-  </si>
-  <si>
-    <t>344,9</t>
-  </si>
-  <si>
-    <t>108,3</t>
-  </si>
-  <si>
-    <t>20,8</t>
-  </si>
-  <si>
-    <t>34,7</t>
-  </si>
-  <si>
-    <t>61,1</t>
-  </si>
-  <si>
-    <t>1,9</t>
-  </si>
-  <si>
-    <t>60,7</t>
-  </si>
-  <si>
-    <t>68,9</t>
-  </si>
-  <si>
-    <t>99,2</t>
-  </si>
-  <si>
-    <t>99,3</t>
-  </si>
-  <si>
-    <t>43,4</t>
-  </si>
-  <si>
-    <t>75,2</t>
-  </si>
-  <si>
-    <t>61,2</t>
-  </si>
-  <si>
-    <t>91,5</t>
-  </si>
-  <si>
-    <t>42,1</t>
-  </si>
-  <si>
-    <t>58,5</t>
-  </si>
-  <si>
-    <t>70,5</t>
-  </si>
-  <si>
-    <t>50,2</t>
-  </si>
-  <si>
-    <t>56,2</t>
-  </si>
-  <si>
-    <t>66,1</t>
-  </si>
-  <si>
-    <t>25,6</t>
-  </si>
-  <si>
-    <t>18,8</t>
-  </si>
-  <si>
-    <t>16,3</t>
-  </si>
-  <si>
-    <t>19,3</t>
-  </si>
-  <si>
-    <t>38,5</t>
-  </si>
-  <si>
-    <t>81,8</t>
-  </si>
-  <si>
-    <t>97,5</t>
-  </si>
-  <si>
-    <t>54,4</t>
-  </si>
-  <si>
-    <t>2.483,4</t>
-  </si>
-  <si>
-    <t>11,3</t>
-  </si>
-  <si>
-    <t>-9,6</t>
-  </si>
-  <si>
-    <t>-30,7</t>
-  </si>
-  <si>
-    <t>1.992,3</t>
-  </si>
-  <si>
-    <t>99,6</t>
-  </si>
-  <si>
-    <t>94,1</t>
-  </si>
-  <si>
-    <t>9,7</t>
-  </si>
-  <si>
-    <t>45,0</t>
-  </si>
-  <si>
-    <t>518,7</t>
-  </si>
-  <si>
-    <t>71,8</t>
-  </si>
-  <si>
-    <t>28,2</t>
-  </si>
-  <si>
-    <t>23,0</t>
-  </si>
-  <si>
-    <t>23,8</t>
-  </si>
-  <si>
-    <t>-24,5</t>
-  </si>
-  <si>
-    <t>14.011,5</t>
-  </si>
-  <si>
-    <t>57,4</t>
-  </si>
-  <si>
-    <t>-3,4</t>
-  </si>
-  <si>
-    <t>16,6</t>
-  </si>
-  <si>
-    <t>37,7</t>
-  </si>
-  <si>
-    <t>6,1</t>
-  </si>
-  <si>
-    <t>385,5</t>
-  </si>
-  <si>
-    <t>342,3</t>
-  </si>
-  <si>
-    <t>117,4</t>
-  </si>
-  <si>
-    <t>34,9</t>
-  </si>
-  <si>
-    <t>6,0</t>
-  </si>
-  <si>
-    <t>46,7</t>
-  </si>
-  <si>
-    <t>10,3</t>
-  </si>
-  <si>
-    <t>94,3</t>
-  </si>
-  <si>
-    <t>89,6</t>
-  </si>
-  <si>
-    <t>82,5</t>
-  </si>
-  <si>
-    <t>61,9</t>
-  </si>
-  <si>
-    <t>70,9</t>
-  </si>
-  <si>
-    <t>8,2</t>
-  </si>
-  <si>
-    <t>76,0</t>
-  </si>
-  <si>
-    <t>9,0</t>
-  </si>
-  <si>
-    <t>65,0</t>
-  </si>
-  <si>
-    <t>37,5</t>
-  </si>
-  <si>
-    <t>96,4</t>
-  </si>
-  <si>
-    <t>96,0</t>
-  </si>
-  <si>
-    <t>66,0</t>
-  </si>
-  <si>
-    <t>15,4</t>
-  </si>
-  <si>
-    <t>1,7</t>
-  </si>
-  <si>
-    <t>13,2</t>
-  </si>
-  <si>
-    <t>15,3</t>
-  </si>
-  <si>
-    <t>13,7</t>
-  </si>
-  <si>
-    <t>44,2</t>
-  </si>
-  <si>
-    <t>74,8</t>
-  </si>
-  <si>
-    <t>66,8</t>
-  </si>
-  <si>
-    <t>2.649,7</t>
-  </si>
-  <si>
-    <t>-4,3</t>
-  </si>
-  <si>
-    <t>-26,7</t>
-  </si>
-  <si>
-    <t>2.149,4</t>
-  </si>
-  <si>
-    <t>96,9</t>
-  </si>
-  <si>
-    <t>10,2</t>
-  </si>
-  <si>
-    <t>11,6</t>
-  </si>
-  <si>
-    <t>44,8</t>
-  </si>
-  <si>
-    <t>9,8</t>
-  </si>
-  <si>
-    <t>516,1</t>
-  </si>
-  <si>
-    <t>73,7</t>
-  </si>
-  <si>
-    <t>26,3</t>
-  </si>
-  <si>
-    <t>25,1</t>
-  </si>
-  <si>
-    <t>-20,7</t>
-  </si>
-  <si>
-    <t>16.898,3</t>
-  </si>
-  <si>
-    <t>59,0</t>
-  </si>
-  <si>
-    <t>66,5</t>
-  </si>
-  <si>
-    <t>6,5</t>
-  </si>
-  <si>
-    <t>76,9</t>
-  </si>
-  <si>
-    <t>82,3</t>
-  </si>
-  <si>
-    <t>379,0</t>
-  </si>
-  <si>
-    <t>346,6</t>
-  </si>
-  <si>
-    <t>31,2</t>
-  </si>
-  <si>
-    <t>125,2</t>
-  </si>
-  <si>
-    <t>24,3</t>
-  </si>
-  <si>
-    <t>4,5</t>
-  </si>
-  <si>
-    <t>94,5</t>
-  </si>
-  <si>
-    <t>90,2</t>
-  </si>
-  <si>
-    <t>72,2</t>
-  </si>
-  <si>
-    <t>63,6</t>
-  </si>
-  <si>
-    <t>71,9</t>
-  </si>
-  <si>
-    <t>82,2</t>
-  </si>
-  <si>
-    <t>77,6</t>
-  </si>
-  <si>
-    <t>86,8</t>
-  </si>
-  <si>
-    <t>78,4</t>
-  </si>
-  <si>
-    <t>78,7</t>
-  </si>
-  <si>
-    <t>78,1</t>
-  </si>
-  <si>
-    <t>98,6</t>
-  </si>
-  <si>
-    <t>98,7</t>
-  </si>
-  <si>
-    <t>98,4</t>
-  </si>
-  <si>
-    <t>79,2</t>
-  </si>
-  <si>
-    <t>36,1</t>
-  </si>
-  <si>
-    <t>31,4</t>
-  </si>
-  <si>
-    <t>40,6</t>
-  </si>
-  <si>
-    <t>-0,8</t>
-  </si>
-  <si>
-    <t>19,5</t>
-  </si>
-  <si>
-    <t>71,5</t>
-  </si>
-  <si>
-    <t>69,3</t>
-  </si>
-  <si>
-    <t>2.659,7</t>
-  </si>
-  <si>
-    <t>-11,3</t>
-  </si>
-  <si>
-    <t>-32,0</t>
-  </si>
-  <si>
-    <t>2.236,5</t>
-  </si>
-  <si>
-    <t>45,1</t>
-  </si>
-  <si>
-    <t>18,2</t>
-  </si>
-  <si>
-    <t>489,1</t>
-  </si>
-  <si>
-    <t>82,1</t>
-  </si>
-  <si>
-    <t>17,9</t>
-  </si>
-  <si>
-    <t>19,0</t>
-  </si>
-  <si>
-    <t>-26,1</t>
-  </si>
-  <si>
-    <t>24.674,8</t>
-  </si>
-  <si>
-    <t>22,8</t>
-  </si>
-  <si>
-    <t>56,0</t>
-  </si>
-  <si>
-    <t>80,2</t>
-  </si>
-  <si>
-    <t>85,7</t>
-  </si>
-  <si>
-    <t>24,6</t>
-  </si>
-  <si>
-    <t>3,4</t>
-  </si>
-  <si>
-    <t>41,3</t>
-  </si>
-  <si>
-    <t>3,1</t>
-  </si>
-  <si>
-    <t>371,4</t>
-  </si>
-  <si>
-    <t>339,1</t>
-  </si>
-  <si>
-    <t>28,5</t>
-  </si>
-  <si>
-    <t>110,8</t>
-  </si>
-  <si>
-    <t>4,1</t>
-  </si>
-  <si>
-    <t>28,9</t>
-  </si>
-  <si>
-    <t>5,6</t>
-  </si>
-  <si>
-    <t>7,5</t>
-  </si>
-  <si>
-    <t>65,4</t>
-  </si>
-  <si>
-    <t>73,5</t>
-  </si>
-  <si>
-    <t>8,7</t>
-  </si>
-  <si>
-    <t>98,1</t>
-  </si>
-  <si>
-    <t>98,9</t>
-  </si>
-  <si>
-    <t>69,7</t>
-  </si>
-  <si>
-    <t>97,4</t>
-  </si>
-  <si>
-    <t>36,4</t>
-  </si>
-  <si>
-    <t>35,1</t>
-  </si>
-  <si>
-    <t>96,6</t>
-  </si>
-  <si>
-    <t>95,5</t>
-  </si>
-  <si>
-    <t>97,6</t>
-  </si>
-  <si>
-    <t>33,2</t>
-  </si>
-  <si>
-    <t>35,4</t>
-  </si>
-  <si>
-    <t>67,9</t>
-  </si>
-  <si>
-    <t>96,1</t>
-  </si>
-  <si>
-    <t>2.655,3</t>
-  </si>
-  <si>
-    <t>-29,2</t>
-  </si>
-  <si>
-    <t>-45,7</t>
-  </si>
-  <si>
-    <t>2.581,2</t>
-  </si>
-  <si>
-    <t>497,6</t>
-  </si>
-  <si>
-    <t>79,1</t>
-  </si>
-  <si>
-    <t>-22,4</t>
-  </si>
-  <si>
-    <t>-40,4</t>
-  </si>
-  <si>
-    <t>89.472,1</t>
-  </si>
-  <si>
-    <t>83,8</t>
-  </si>
-  <si>
-    <t>89,2</t>
-  </si>
-  <si>
-    <t>21,4</t>
-  </si>
-  <si>
-    <t>27,6</t>
-  </si>
-  <si>
-    <t>370,4</t>
-  </si>
-  <si>
-    <t>340,7</t>
-  </si>
-  <si>
-    <t>34,2</t>
-  </si>
-  <si>
-    <t>87,8</t>
-  </si>
-  <si>
-    <t>47,2</t>
-  </si>
-  <si>
-    <t>85,3</t>
-  </si>
-  <si>
-    <t>8,3</t>
-  </si>
-  <si>
-    <t>90,0</t>
-  </si>
-  <si>
-    <t>67,5</t>
-  </si>
-  <si>
-    <t>75,4</t>
-  </si>
-  <si>
-    <t>98,8</t>
-  </si>
-  <si>
     <t>78,8</t>
-  </si>
-  <si>
-    <t>11,1</t>
   </si>
   <si>
     <t>88,9</t>
@@ -4382,7 +4379,7 @@
         <v>823</v>
       </c>
       <c r="L10" t="s" s="25">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="M10" t="s" s="25">
         <v>611</v>
@@ -4438,13 +4435,13 @@
         <v>608</v>
       </c>
       <c r="M11" t="s" s="25">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="N11" t="s" s="25">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="O11" t="s" s="25">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="P11" t="s" s="25">
         <v>497</v>
@@ -4485,7 +4482,7 @@
         <v>658</v>
       </c>
       <c r="K12" t="s" s="25">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="L12" t="s" s="25">
         <v>628</v>
@@ -4497,7 +4494,7 @@
         <v>846</v>
       </c>
       <c r="O12" t="s" s="25">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="P12" t="s" s="25">
         <v>854</v>
@@ -4547,13 +4544,13 @@
         <v>825</v>
       </c>
       <c r="N13" t="s" s="25">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="O13" t="s" s="25">
         <v>802</v>
       </c>
       <c r="P13" t="s" s="25">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="Q13" t="s" s="25">
         <v>485</v>
@@ -4591,7 +4588,7 @@
         <v>853</v>
       </c>
       <c r="K14" t="s" s="25">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="L14" t="s" s="25">
         <v>589</v>
@@ -4603,10 +4600,10 @@
         <v>853</v>
       </c>
       <c r="O14" t="s" s="25">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="P14" t="s" s="25">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="Q14" t="s" s="25">
         <v>485</v>
@@ -4650,13 +4647,13 @@
         <v>634</v>
       </c>
       <c r="M15" t="s" s="25">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="N15" t="s" s="25">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="O15" t="s" s="25">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="P15" t="s" s="25">
         <v>904</v>
@@ -4697,7 +4694,7 @@
         <v>525</v>
       </c>
       <c r="K16" t="s" s="25">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="L16" t="s" s="25">
         <v>492</v>
@@ -5024,7 +5021,7 @@
         <v>656</v>
       </c>
       <c r="N22" t="s" s="25">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="O22" t="s" s="25">
         <v>656</v>
@@ -5074,16 +5071,16 @@
         <v>816</v>
       </c>
       <c r="M23" t="s" s="25">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="N23" t="s" s="25">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="O23" t="s" s="25">
         <v>759</v>
       </c>
       <c r="P23" t="s" s="25">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="Q23" t="s" s="25">
         <v>485</v>
@@ -5124,7 +5121,7 @@
         <v>485</v>
       </c>
       <c r="L24" t="s" s="25">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="M24" t="s" s="25">
         <v>485</v>
@@ -5183,13 +5180,13 @@
         <v>829</v>
       </c>
       <c r="N25" t="s" s="25">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="O25" t="s" s="25">
         <v>665</v>
       </c>
       <c r="P25" t="s" s="25">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="Q25" t="s" s="25">
         <v>485</v>
@@ -5395,7 +5392,7 @@
         <v>705</v>
       </c>
       <c r="N29" t="s" s="25">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="O29" t="s" s="25">
         <v>829</v>
@@ -5451,7 +5448,7 @@
         <v>507</v>
       </c>
       <c r="O30" t="s" s="25">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="P30" t="s" s="25">
         <v>485</v>
@@ -5504,7 +5501,7 @@
         <v>507</v>
       </c>
       <c r="O31" t="s" s="25">
-        <v>485</v>
+        <v>507</v>
       </c>
       <c r="P31" t="s" s="25">
         <v>485</v>
@@ -5557,7 +5554,7 @@
         <v>503</v>
       </c>
       <c r="O32" t="s" s="25">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="P32" t="s" s="25">
         <v>485</v>
@@ -5592,25 +5589,25 @@
         <v>730</v>
       </c>
       <c r="I33" t="s" s="25">
-        <v>569</v>
+        <v>588</v>
       </c>
       <c r="J33" t="s" s="25">
-        <v>636</v>
+        <v>522</v>
       </c>
       <c r="K33" t="s" s="25">
-        <v>558</v>
+        <v>655</v>
       </c>
       <c r="L33" t="s" s="25">
-        <v>649</v>
+        <v>897</v>
       </c>
       <c r="M33" t="s" s="25">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="N33" t="s" s="25">
-        <v>903</v>
+        <v>1062</v>
       </c>
       <c r="O33" t="s" s="25">
-        <v>485</v>
+        <v>522</v>
       </c>
       <c r="P33" t="s" s="25">
         <v>485</v>
@@ -5648,22 +5645,22 @@
         <v>799</v>
       </c>
       <c r="J34" t="s" s="25">
-        <v>779</v>
+        <v>493</v>
       </c>
       <c r="K34" t="s" s="25">
-        <v>583</v>
+        <v>548</v>
       </c>
       <c r="L34" t="s" s="25">
         <v>702</v>
       </c>
       <c r="M34" t="s" s="25">
-        <v>495</v>
+        <v>768</v>
       </c>
       <c r="N34" t="s" s="25">
-        <v>776</v>
+        <v>547</v>
       </c>
       <c r="O34" t="s" s="25">
-        <v>485</v>
+        <v>683</v>
       </c>
       <c r="P34" t="s" s="25">
         <v>485</v>
@@ -5698,7 +5695,7 @@
         <v>608</v>
       </c>
       <c r="I35" t="s" s="25">
-        <v>522</v>
+        <v>558</v>
       </c>
       <c r="J35" t="s" s="25">
         <v>857</v>
@@ -5707,16 +5704,16 @@
         <v>865</v>
       </c>
       <c r="L35" t="s" s="25">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="M35" t="s" s="25">
-        <v>857</v>
+        <v>1013</v>
       </c>
       <c r="N35" t="s" s="25">
-        <v>870</v>
+        <v>641</v>
       </c>
       <c r="O35" t="s" s="25">
-        <v>485</v>
+        <v>810</v>
       </c>
       <c r="P35" t="s" s="25">
         <v>485</v>
@@ -5769,7 +5766,7 @@
         <v>503</v>
       </c>
       <c r="O36" t="s" s="25">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="P36" t="s" s="25">
         <v>485</v>
@@ -5822,7 +5819,7 @@
         <v>503</v>
       </c>
       <c r="O37" t="s" s="25">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="P37" t="s" s="25">
         <v>485</v>
@@ -5875,7 +5872,7 @@
         <v>503</v>
       </c>
       <c r="O38" t="s" s="25">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="P38" t="s" s="25">
         <v>485</v>
@@ -6075,19 +6072,19 @@
         <v>858</v>
       </c>
       <c r="K42" t="s" s="25">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L42" t="s" s="25">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="M42" t="s" s="25">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="N42" t="s" s="25">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="O42" t="s" s="25">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="P42" t="s" s="25">
         <v>485</v>
@@ -6128,19 +6125,19 @@
         <v>859</v>
       </c>
       <c r="K43" t="s" s="25">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L43" t="s" s="25">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="M43" t="s" s="25">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="N43" t="s" s="25">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="O43" t="s" s="25">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="P43" t="s" s="25">
         <v>485</v>
@@ -6187,13 +6184,13 @@
         <v>590</v>
       </c>
       <c r="M44" t="s" s="25">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="N44" t="s" s="25">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="O44" t="s" s="25">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="P44" t="s" s="25">
         <v>485</v>
@@ -6234,19 +6231,19 @@
         <v>861</v>
       </c>
       <c r="K45" t="s" s="25">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="L45" t="s" s="25">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="M45" t="s" s="25">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="N45" t="s" s="25">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="O45" t="s" s="25">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="P45" t="s" s="25">
         <v>485</v>
@@ -6340,10 +6337,10 @@
         <v>516</v>
       </c>
       <c r="K47" t="s" s="25">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="L47" t="s" s="25">
-        <v>908</v>
+        <v>799</v>
       </c>
       <c r="M47" t="s" s="25">
         <v>645</v>
@@ -6352,7 +6349,7 @@
         <v>492</v>
       </c>
       <c r="O47" t="s" s="25">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="P47" t="s" s="25">
         <v>485</v>
@@ -6393,19 +6390,19 @@
         <v>555</v>
       </c>
       <c r="K48" t="s" s="25">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="L48" t="s" s="25">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="M48" t="s" s="25">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="N48" t="s" s="25">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="O48" t="s" s="25">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="P48" t="s" s="25">
         <v>485</v>
@@ -6449,13 +6446,13 @@
         <v>641</v>
       </c>
       <c r="L49" t="s" s="25">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="M49" t="s" s="25">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="N49" t="s" s="25">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="O49" t="s" s="25">
         <v>608</v>
@@ -6511,7 +6508,7 @@
         <v>550</v>
       </c>
       <c r="O50" t="s" s="25">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="P50" t="s" s="25">
         <v>485</v>
@@ -6552,16 +6549,16 @@
         <v>864</v>
       </c>
       <c r="K51" t="s" s="25">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L51" t="s" s="25">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="M51" t="s" s="25">
         <v>853</v>
       </c>
       <c r="N51" t="s" s="25">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="O51" t="s" s="25">
         <v>733</v>
@@ -6611,10 +6608,10 @@
         <v>645</v>
       </c>
       <c r="M52" t="s" s="25">
-        <v>1013</v>
+        <v>965</v>
       </c>
       <c r="N52" t="s" s="25">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="O52" t="s" s="25">
         <v>668</v>
@@ -6661,16 +6658,16 @@
         <v>495</v>
       </c>
       <c r="L53" t="s" s="25">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="M53" t="s" s="25">
         <v>499</v>
       </c>
       <c r="N53" t="s" s="25">
-        <v>954</v>
+        <v>857</v>
       </c>
       <c r="O53" t="s" s="25">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="P53" t="s" s="25">
         <v>570</v>
@@ -6770,7 +6767,7 @@
         <v>485</v>
       </c>
       <c r="M55" t="s" s="25">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="N55" t="s" s="25">
         <v>485</v>
@@ -6923,7 +6920,7 @@
         <v>829</v>
       </c>
       <c r="K58" t="s" s="25">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L58" t="s" s="25">
         <v>503</v>
@@ -6985,10 +6982,10 @@
         <v>641</v>
       </c>
       <c r="N59" t="s" s="25">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="O59" t="s" s="25">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="P59" t="s" s="25">
         <v>805</v>
@@ -7085,7 +7082,7 @@
         <v>485</v>
       </c>
       <c r="L61" t="s" s="25">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="M61" t="s" s="25">
         <v>485</v>
@@ -7191,10 +7188,10 @@
         <v>485</v>
       </c>
       <c r="L63" t="s" s="25">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="M63" t="s" s="25">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="N63" t="s" s="25">
         <v>485</v>
@@ -7244,16 +7241,16 @@
         <v>485</v>
       </c>
       <c r="L64" t="s" s="25">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="M64" t="s" s="25">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="N64" t="s" s="25">
         <v>485</v>
       </c>
       <c r="O64" t="s" s="25">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="P64" t="s" s="25">
         <v>485</v>
@@ -7297,10 +7294,10 @@
         <v>485</v>
       </c>
       <c r="L65" t="s" s="25">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="M65" t="s" s="25">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="N65" t="s" s="25">
         <v>485</v>
@@ -7347,22 +7344,22 @@
         <v>868</v>
       </c>
       <c r="K66" t="s" s="25">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L66" t="s" s="25">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M66" t="s" s="25">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="N66" t="s" s="25">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="O66" t="s" s="25">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="P66" t="s" s="25">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="Q66" t="s" s="25">
         <v>485</v>
@@ -7400,22 +7397,22 @@
         <v>869</v>
       </c>
       <c r="K67" t="s" s="25">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="L67" t="s" s="25">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="M67" t="s" s="25">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="N67" t="s" s="25">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="O67" t="s" s="25">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="P67" t="s" s="25">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="Q67" t="s" s="25">
         <v>485</v>
@@ -7456,19 +7453,19 @@
         <v>641</v>
       </c>
       <c r="L68" t="s" s="25">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="M68" t="s" s="25">
         <v>567</v>
       </c>
       <c r="N68" t="s" s="25">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="O68" t="s" s="25">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="P68" t="s" s="25">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="Q68" t="s" s="25">
         <v>485</v>
@@ -7565,7 +7562,7 @@
         <v>485</v>
       </c>
       <c r="M70" t="s" s="25">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="N70" t="s" s="25">
         <v>485</v>
@@ -7618,7 +7615,7 @@
         <v>485</v>
       </c>
       <c r="M71" t="s" s="25">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="N71" t="s" s="25">
         <v>485</v>
@@ -7671,7 +7668,7 @@
         <v>485</v>
       </c>
       <c r="M72" t="s" s="25">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="N72" t="s" s="25">
         <v>485</v>
@@ -7724,7 +7721,7 @@
         <v>485</v>
       </c>
       <c r="M73" t="s" s="25">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="N73" t="s" s="25">
         <v>485</v>
@@ -7777,7 +7774,7 @@
         <v>485</v>
       </c>
       <c r="M74" t="s" s="25">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="N74" t="s" s="25">
         <v>485</v>
@@ -7830,7 +7827,7 @@
         <v>485</v>
       </c>
       <c r="M75" t="s" s="25">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="N75" t="s" s="25">
         <v>485</v>
@@ -7877,19 +7874,19 @@
         <v>874</v>
       </c>
       <c r="K76" t="s" s="25">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="L76" t="s" s="25">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="M76" t="s" s="25">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="N76" t="s" s="25">
         <v>876</v>
       </c>
       <c r="O76" t="s" s="25">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="P76" t="s" s="25">
         <v>552</v>
@@ -7936,16 +7933,16 @@
         <v>875</v>
       </c>
       <c r="M77" t="s" s="25">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="N77" t="s" s="25">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="O77" t="s" s="25">
         <v>876</v>
       </c>
       <c r="P77" t="s" s="25">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="Q77" t="s" s="25">
         <v>485</v>
@@ -7983,22 +7980,22 @@
         <v>876</v>
       </c>
       <c r="K78" t="s" s="25">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L78" t="s" s="25">
         <v>734</v>
       </c>
       <c r="M78" t="s" s="25">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="N78" t="s" s="25">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="O78" t="s" s="25">
         <v>740</v>
       </c>
       <c r="P78" t="s" s="25">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="Q78" t="s" s="25">
         <v>485</v>
@@ -8036,7 +8033,7 @@
         <v>485</v>
       </c>
       <c r="K79" t="s" s="25">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L79" t="s" s="25">
         <v>485</v>
@@ -8101,10 +8098,10 @@
         <v>877</v>
       </c>
       <c r="O80" t="s" s="25">
-        <v>799</v>
+        <v>1111</v>
       </c>
       <c r="P80" t="s" s="25">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="Q80" t="s" s="25">
         <v>485</v>
@@ -8142,22 +8139,22 @@
         <v>878</v>
       </c>
       <c r="K81" t="s" s="25">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="L81" t="s" s="25">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="M81" t="s" s="25">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="N81" t="s" s="25">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="O81" t="s" s="25">
         <v>1112</v>
       </c>
       <c r="P81" t="s" s="25">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="Q81" t="s" s="25">
         <v>485</v>
@@ -8198,19 +8195,19 @@
         <v>720</v>
       </c>
       <c r="L82" t="s" s="25">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="M82" t="s" s="25">
         <v>494</v>
       </c>
       <c r="N82" t="s" s="25">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="O82" t="s" s="25">
-        <v>1113</v>
+        <v>1062</v>
       </c>
       <c r="P82" t="s" s="25">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="Q82" t="s" s="25">
         <v>485</v>
@@ -8248,22 +8245,22 @@
         <v>724</v>
       </c>
       <c r="K83" t="s" s="25">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="L83" t="s" s="25">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="M83" t="s" s="25">
         <v>485</v>
       </c>
       <c r="N83" t="s" s="25">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="O83" t="s" s="25">
         <v>869</v>
       </c>
       <c r="P83" t="s" s="25">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="Q83" t="s" s="25">
         <v>485</v>
@@ -8301,10 +8298,10 @@
         <v>879</v>
       </c>
       <c r="K84" t="s" s="25">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="L84" t="s" s="25">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="M84" t="s" s="25">
         <v>485</v>
@@ -8313,10 +8310,10 @@
         <v>592</v>
       </c>
       <c r="O84" t="s" s="25">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="P84" t="s" s="25">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="Q84" t="s" s="25">
         <v>485</v>
@@ -8363,13 +8360,13 @@
         <v>485</v>
       </c>
       <c r="N85" t="s" s="25">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="O85" t="s" s="25">
         <v>809</v>
       </c>
       <c r="P85" t="s" s="25">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="Q85" t="s" s="25">
         <v>485</v>
@@ -9211,7 +9208,7 @@
         <v>485</v>
       </c>
       <c r="N101" t="s" s="25">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="O101" t="s" s="25">
         <v>485</v>
@@ -9847,16 +9844,16 @@
         <v>883</v>
       </c>
       <c r="N113" t="s" s="25">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="O113" t="s" s="25">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="P113" t="s" s="25">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="Q113" t="s" s="25">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="114" ht="15.0" customHeight="true">
@@ -9906,10 +9903,10 @@
         <v>886</v>
       </c>
       <c r="P114" t="s" s="25">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="Q114" t="s" s="25">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="115" ht="15.0" customHeight="true">
@@ -9947,19 +9944,19 @@
         <v>816</v>
       </c>
       <c r="L115" t="s" s="25">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="M115" t="s" s="25">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="N115" t="s" s="25">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="O115" t="s" s="25">
         <v>882</v>
       </c>
       <c r="P115" t="s" s="25">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="Q115" t="s" s="25">
         <v>485</v>
@@ -10003,16 +10000,16 @@
         <v>579</v>
       </c>
       <c r="M116" t="s" s="25">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="N116" t="s" s="25">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="O116" t="s" s="25">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="P116" t="s" s="25">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="Q116" t="s" s="25">
         <v>485</v>
@@ -10050,13 +10047,13 @@
         <v>749</v>
       </c>
       <c r="K117" t="s" s="25">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="L117" t="s" s="25">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="M117" t="s" s="25">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="N117" t="s" s="25">
         <v>617</v>
@@ -10103,7 +10100,7 @@
         <v>485</v>
       </c>
       <c r="K118" t="s" s="25">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="L118" t="s" s="25">
         <v>485</v>
@@ -10209,7 +10206,7 @@
         <v>485</v>
       </c>
       <c r="K120" t="s" s="25">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="L120" t="s" s="25">
         <v>485</v>
@@ -10262,7 +10259,7 @@
         <v>485</v>
       </c>
       <c r="K121" t="s" s="25">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="L121" t="s" s="25">
         <v>485</v>
@@ -10315,7 +10312,7 @@
         <v>485</v>
       </c>
       <c r="K122" t="s" s="25">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="L122" t="s" s="25">
         <v>485</v>
@@ -10424,22 +10421,22 @@
         <v>485</v>
       </c>
       <c r="L124" t="s" s="25">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="M124" t="s" s="25">
         <v>485</v>
       </c>
       <c r="N124" t="s" s="25">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="O124" t="s" s="25">
         <v>740</v>
       </c>
       <c r="P124" t="s" s="25">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="Q124" t="s" s="25">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="125" ht="15.0" customHeight="true">
@@ -10477,22 +10474,22 @@
         <v>485</v>
       </c>
       <c r="L125" t="s" s="25">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="M125" t="s" s="25">
         <v>485</v>
       </c>
       <c r="N125" t="s" s="25">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="O125" t="s" s="25">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="P125" t="s" s="25">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="Q125" t="s" s="25">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="126" ht="15.0" customHeight="true">
@@ -10536,10 +10533,10 @@
         <v>485</v>
       </c>
       <c r="N126" t="s" s="25">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="O126" t="s" s="25">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="P126" t="s" s="25">
         <v>876</v>
@@ -10580,22 +10577,22 @@
         <v>485</v>
       </c>
       <c r="K127" t="s" s="25">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="L127" t="s" s="25">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="M127" t="s" s="25">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="N127" t="s" s="25">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="O127" t="s" s="25">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="P127" t="s" s="25">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="Q127" t="s" s="25">
         <v>485</v>
@@ -10739,22 +10736,22 @@
         <v>632</v>
       </c>
       <c r="K130" t="s" s="25">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="L130" t="s" s="25">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="M130" t="s" s="25">
         <v>860</v>
       </c>
       <c r="N130" t="s" s="25">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="O130" t="s" s="25">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="P130" t="s" s="25">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="Q130" t="s" s="25">
         <v>485</v>
@@ -10798,16 +10795,16 @@
         <v>700</v>
       </c>
       <c r="M131" t="s" s="25">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="N131" t="s" s="25">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="O131" t="s" s="25">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="P131" t="s" s="25">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="Q131" t="s" s="25">
         <v>485</v>
@@ -10854,10 +10851,10 @@
         <v>798</v>
       </c>
       <c r="N132" t="s" s="25">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="O132" t="s" s="25">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="P132" t="s" s="25">
         <v>607</v>
@@ -10910,7 +10907,7 @@
         <v>582</v>
       </c>
       <c r="O133" t="s" s="25">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="P133" t="s" s="25">
         <v>544</v>
@@ -10954,10 +10951,10 @@
         <v>582</v>
       </c>
       <c r="L134" t="s" s="25">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="M134" t="s" s="25">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="N134" t="s" s="25">
         <v>577</v>
@@ -10966,7 +10963,7 @@
         <v>895</v>
       </c>
       <c r="P134" t="s" s="25">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="Q134" t="s" s="25">
         <v>485</v>
@@ -11013,7 +11010,7 @@
         <v>730</v>
       </c>
       <c r="N135" t="s" s="25">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="O135" t="s" s="25">
         <v>761</v>
@@ -11113,10 +11110,10 @@
         <v>655</v>
       </c>
       <c r="L137" t="s" s="25">
+        <v>988</v>
+      </c>
+      <c r="M137" t="s" s="25">
         <v>990</v>
-      </c>
-      <c r="M137" t="s" s="25">
-        <v>992</v>
       </c>
       <c r="N137" t="s" s="25">
         <v>493</v>
@@ -11219,7 +11216,7 @@
         <v>583</v>
       </c>
       <c r="L139" t="s" s="25">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="M139" t="s" s="25">
         <v>569</v>
@@ -11272,7 +11269,7 @@
         <v>726</v>
       </c>
       <c r="L140" t="s" s="25">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="M140" t="s" s="25">
         <v>725</v>
@@ -11322,7 +11319,7 @@
         <v>586</v>
       </c>
       <c r="K141" t="s" s="25">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="L141" t="s" s="25">
         <v>891</v>
@@ -11375,7 +11372,7 @@
         <v>892</v>
       </c>
       <c r="K142" t="s" s="25">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="L142" t="s" s="25">
         <v>735</v>
@@ -11390,7 +11387,7 @@
         <v>547</v>
       </c>
       <c r="P142" t="s" s="25">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="Q142" t="s" s="25">
         <v>485</v>
@@ -11587,13 +11584,13 @@
         <v>629</v>
       </c>
       <c r="K146" t="s" s="25">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="L146" t="s" s="25">
         <v>862</v>
       </c>
       <c r="M146" t="s" s="25">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="N146" t="s" s="25">
         <v>668</v>
@@ -11640,13 +11637,13 @@
         <v>485</v>
       </c>
       <c r="K147" t="s" s="25">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="L147" t="s" s="25">
         <v>703</v>
       </c>
       <c r="M147" t="s" s="25">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="N147" t="s" s="25">
         <v>778</v>
@@ -11702,10 +11699,10 @@
         <v>514</v>
       </c>
       <c r="N148" t="s" s="25">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="O148" t="s" s="25">
-        <v>954</v>
+        <v>857</v>
       </c>
       <c r="P148" t="s" s="25">
         <v>546</v>
@@ -11746,7 +11743,7 @@
         <v>485</v>
       </c>
       <c r="K149" t="s" s="25">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L149" t="s" s="25">
         <v>700</v>
@@ -11758,10 +11755,10 @@
         <v>538</v>
       </c>
       <c r="O149" t="s" s="25">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="P149" t="s" s="25">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="Q149" t="s" s="25">
         <v>485</v>
@@ -11802,19 +11799,19 @@
         <v>626</v>
       </c>
       <c r="L150" t="s" s="25">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="M150" t="s" s="25">
         <v>749</v>
       </c>
       <c r="N150" t="s" s="25">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="O150" t="s" s="25">
         <v>486</v>
       </c>
       <c r="P150" t="s" s="25">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="Q150" t="s" s="25">
         <v>485</v>
@@ -11852,16 +11849,16 @@
         <v>893</v>
       </c>
       <c r="K151" t="s" s="25">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="L151" t="s" s="25">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="M151" t="s" s="25">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="N151" t="s" s="25">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="O151" t="s" s="25">
         <v>851</v>
@@ -11905,7 +11902,7 @@
         <v>485</v>
       </c>
       <c r="K152" t="s" s="25">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="L152" t="s" s="25">
         <v>485</v>
@@ -11958,19 +11955,19 @@
         <v>894</v>
       </c>
       <c r="K153" t="s" s="25">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="L153" t="s" s="25">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="M153" t="s" s="25">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="N153" t="s" s="25">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="O153" t="s" s="25">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="P153" t="s" s="25">
         <v>485</v>
@@ -12014,7 +12011,7 @@
         <v>509</v>
       </c>
       <c r="L154" t="s" s="25">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="M154" t="s" s="25">
         <v>705</v>
@@ -12023,7 +12020,7 @@
         <v>640</v>
       </c>
       <c r="O154" t="s" s="25">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="P154" t="s" s="25">
         <v>485</v>
@@ -12117,22 +12114,22 @@
         <v>896</v>
       </c>
       <c r="K156" t="s" s="25">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="L156" t="s" s="25">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="M156" t="s" s="25">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="N156" t="s" s="25">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="O156" t="s" s="25">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="P156" t="s" s="25">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="Q156" t="s" s="25">
         <v>485</v>
@@ -12223,10 +12220,10 @@
         <v>897</v>
       </c>
       <c r="K158" t="s" s="25">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="L158" t="s" s="25">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="M158" t="s" s="25">
         <v>492</v>
@@ -12238,7 +12235,7 @@
         <v>768</v>
       </c>
       <c r="P158" t="s" s="25">
-        <v>1113</v>
+        <v>1062</v>
       </c>
       <c r="Q158" t="s" s="25">
         <v>485</v>
@@ -12488,19 +12485,19 @@
         <v>768</v>
       </c>
       <c r="K163" t="s" s="25">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="L163" t="s" s="25">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="M163" t="s" s="25">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="N163" t="s" s="25">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="O163" t="s" s="25">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="P163" t="s" s="25">
         <v>485</v>
@@ -12541,19 +12538,19 @@
         <v>898</v>
       </c>
       <c r="K164" t="s" s="25">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="L164" t="s" s="25">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="M164" t="s" s="25">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="N164" t="s" s="25">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="O164" t="s" s="25">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="P164" t="s" s="25">
         <v>485</v>
@@ -12647,22 +12644,22 @@
         <v>899</v>
       </c>
       <c r="K166" t="s" s="25">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="L166" t="s" s="25">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="M166" t="s" s="25">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="N166" t="s" s="25">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="O166" t="s" s="25">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="P166" t="s" s="25">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="Q166" t="s" s="25">
         <v>485</v>
@@ -12700,7 +12697,7 @@
         <v>592</v>
       </c>
       <c r="K167" t="s" s="25">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="L167" t="s" s="25">
         <v>523</v>
@@ -12753,16 +12750,16 @@
         <v>900</v>
       </c>
       <c r="K168" t="s" s="25">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="L168" t="s" s="25">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="M168" t="s" s="25">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="N168" t="s" s="25">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="O168" t="s" s="25">
         <v>609</v>
@@ -12818,7 +12815,7 @@
         <v>665</v>
       </c>
       <c r="O169" t="s" s="25">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="P169" t="s" s="25">
         <v>501</v>
@@ -12927,7 +12924,7 @@
         <v>669</v>
       </c>
       <c r="P171" t="s" s="25">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="Q171" t="s" s="25">
         <v>485</v>
@@ -13018,13 +13015,13 @@
         <v>903</v>
       </c>
       <c r="K173" t="s" s="25">
-        <v>954</v>
+        <v>857</v>
       </c>
       <c r="L173" t="s" s="25">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="M173" t="s" s="25">
-        <v>954</v>
+        <v>857</v>
       </c>
       <c r="N173" t="s" s="25">
         <v>569</v>
@@ -13033,7 +13030,7 @@
         <v>726</v>
       </c>
       <c r="P173" t="s" s="25">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="Q173" t="s" s="25">
         <v>485</v>
@@ -13074,7 +13071,7 @@
         <v>555</v>
       </c>
       <c r="L174" t="s" s="25">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="M174" t="s" s="25">
         <v>522</v>
@@ -13124,22 +13121,22 @@
         <v>886</v>
       </c>
       <c r="K175" t="s" s="25">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="L175" t="s" s="25">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="M175" t="s" s="25">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="N175" t="s" s="25">
         <v>491</v>
       </c>
       <c r="O175" t="s" s="25">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="P175" t="s" s="25">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="Q175" t="s" s="25">
         <v>485</v>
@@ -13183,7 +13180,7 @@
         <v>546</v>
       </c>
       <c r="M176" t="s" s="25">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="N176" t="s" s="25">
         <v>782</v>
@@ -13233,13 +13230,13 @@
         <v>742</v>
       </c>
       <c r="L177" t="s" s="25">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="M177" t="s" s="25">
         <v>613</v>
       </c>
       <c r="N177" t="s" s="25">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="O177" t="s" s="25">
         <v>708</v>
@@ -13442,19 +13439,19 @@
         <v>905</v>
       </c>
       <c r="K181" t="s" s="25">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="L181" t="s" s="25">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="M181" t="s" s="25">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="N181" t="s" s="25">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="O181" t="s" s="25">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="P181" t="s" s="25">
         <v>485</v>
@@ -13548,16 +13545,16 @@
         <v>841</v>
       </c>
       <c r="K183" t="s" s="25">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="L183" t="s" s="25">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="M183" t="s" s="25">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="N183" t="s" s="25">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="O183" t="s" s="25">
         <v>485</v>
@@ -13601,13 +13598,13 @@
         <v>667</v>
       </c>
       <c r="K184" t="s" s="25">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="L184" t="s" s="25">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="M184" t="s" s="25">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="N184" t="s" s="25">
         <v>825</v>
@@ -13707,13 +13704,13 @@
         <v>906</v>
       </c>
       <c r="K186" t="s" s="25">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="L186" t="s" s="25">
         <v>778</v>
       </c>
       <c r="M186" t="s" s="25">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="N186" t="s" s="25">
         <v>625</v>
@@ -13722,7 +13719,7 @@
         <v>625</v>
       </c>
       <c r="P186" t="s" s="25">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="Q186" t="s" s="25">
         <v>588</v>
@@ -13866,10 +13863,10 @@
         <v>907</v>
       </c>
       <c r="K189" t="s" s="25">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="L189" t="s" s="25">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="M189" t="s" s="25">
         <v>693</v>
@@ -13878,7 +13875,7 @@
         <v>807</v>
       </c>
       <c r="O189" t="s" s="25">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="P189" t="s" s="25">
         <v>485</v>
@@ -13916,7 +13913,7 @@
         <v>775</v>
       </c>
       <c r="J190" t="s" s="25">
-        <v>908</v>
+        <v>799</v>
       </c>
       <c r="K190" t="s" s="25">
         <v>774</v>
@@ -13928,10 +13925,10 @@
         <v>901</v>
       </c>
       <c r="N190" t="s" s="25">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="O190" t="s" s="25">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="P190" t="s" s="25">
         <v>485</v>
@@ -13969,22 +13966,22 @@
         <v>843</v>
       </c>
       <c r="J191" t="s" s="25">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="K191" t="s" s="25">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="L191" t="s" s="25">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="M191" t="s" s="25">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="N191" t="s" s="25">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="O191" t="s" s="25">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="P191" t="s" s="25">
         <v>485</v>
@@ -14037,7 +14034,7 @@
         <v>575</v>
       </c>
       <c r="O192" t="s" s="25">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="P192" t="s" s="25">
         <v>485</v>
@@ -14075,22 +14072,22 @@
         <v>844</v>
       </c>
       <c r="J193" t="s" s="25">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K193" t="s" s="25">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="L193" t="s" s="25">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="M193" t="s" s="25">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="N193" t="s" s="25">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="O193" t="s" s="25">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="P193" t="s" s="25">
         <v>485</v>
@@ -14140,7 +14137,7 @@
         <v>616</v>
       </c>
       <c r="N194" t="s" s="25">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="O194" t="s" s="25">
         <v>870</v>
@@ -14564,10 +14561,10 @@
         <v>849</v>
       </c>
       <c r="N202" t="s" s="25">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="O202" t="s" s="25">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="P202" t="s" s="25">
         <v>603</v>
@@ -15294,7 +15291,7 @@
         <v>846</v>
       </c>
       <c r="J216" t="s" s="25">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="K216" t="s" s="25">
         <v>662</v>
@@ -15303,13 +15300,13 @@
         <v>694</v>
       </c>
       <c r="M216" t="s" s="25">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="N216" t="s" s="25">
         <v>778</v>
       </c>
       <c r="O216" t="s" s="25">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="P216" t="s" s="25">
         <v>485</v>
@@ -15350,13 +15347,13 @@
         <v>787</v>
       </c>
       <c r="K217" t="s" s="25">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="L217" t="s" s="25">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="M217" t="s" s="25">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="N217" t="s" s="25">
         <v>520</v>
@@ -15406,16 +15403,16 @@
         <v>869</v>
       </c>
       <c r="L218" t="s" s="25">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="M218" t="s" s="25">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="N218" t="s" s="25">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="O218" t="s" s="25">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="P218" t="s" s="25">
         <v>485</v>
@@ -15456,7 +15453,7 @@
         <v>554</v>
       </c>
       <c r="K219" t="s" s="25">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="L219" t="s" s="25">
         <v>634</v>
@@ -15468,7 +15465,7 @@
         <v>503</v>
       </c>
       <c r="O219" t="s" s="25">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="P219" t="s" s="25">
         <v>503</v>
@@ -15559,13 +15556,13 @@
         <v>850</v>
       </c>
       <c r="J221" t="s" s="25">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="K221" t="s" s="25">
         <v>566</v>
       </c>
       <c r="L221" t="s" s="25">
-        <v>1013</v>
+        <v>965</v>
       </c>
       <c r="M221" t="s" s="25">
         <v>797</v>
@@ -15665,25 +15662,25 @@
         <v>851</v>
       </c>
       <c r="J223" t="s" s="25">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="K223" t="s" s="25">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="L223" t="s" s="25">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="M223" t="s" s="25">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="N223" t="s" s="25">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="O223" t="s" s="25">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="P223" t="s" s="25">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="Q223" t="s" s="25">
         <v>485</v>
@@ -15771,19 +15768,19 @@
         <v>852</v>
       </c>
       <c r="J225" t="s" s="25">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="K225" t="s" s="25">
         <v>686</v>
       </c>
       <c r="L225" t="s" s="25">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="M225" t="s" s="25">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="N225" t="s" s="25">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="O225" t="s" s="25">
         <v>766</v>
@@ -15792,7 +15789,7 @@
         <v>756</v>
       </c>
       <c r="Q225" t="s" s="25">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="226" ht="15.0" customHeight="true">
@@ -16047,7 +16044,7 @@
     </row>
     <row r="232" ht="15.0" customHeight="true">
       <c r="A232" s="21" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B232" s="21"/>
       <c r="C232" s="21"/>

--- a/descargas/Indicadores ODS Asturias.xlsx
+++ b/descargas/Indicadores ODS Asturias.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5225" uniqueCount="1524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5225" uniqueCount="1531">
   <si>
     <t>sadei</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Asturias</t>
   </si>
   <si>
-    <t>Última actualización: 17/05/2024</t>
+    <t>Última actualización: 16/10/2024</t>
   </si>
   <si>
     <t>Indicador</t>
@@ -3063,1224 +3063,1227 @@
     <t>14,7</t>
   </si>
   <si>
+    <t>6,0</t>
+  </si>
+  <si>
+    <t>16,7</t>
+  </si>
+  <si>
+    <t>21,3</t>
+  </si>
+  <si>
+    <t>23,2</t>
+  </si>
+  <si>
+    <t>27,4</t>
+  </si>
+  <si>
+    <t>16,2</t>
+  </si>
+  <si>
+    <t>20,1</t>
+  </si>
+  <si>
+    <t>3,8</t>
+  </si>
+  <si>
+    <t>23,8</t>
+  </si>
+  <si>
+    <t>91,2</t>
+  </si>
+  <si>
+    <t>3,3</t>
+  </si>
+  <si>
+    <t>2,1</t>
+  </si>
+  <si>
+    <t>19,8</t>
+  </si>
+  <si>
+    <t>386,1</t>
+  </si>
+  <si>
+    <t>328,3</t>
+  </si>
+  <si>
+    <t>27,7</t>
+  </si>
+  <si>
+    <t>105,6</t>
+  </si>
+  <si>
+    <t>24,2</t>
+  </si>
+  <si>
+    <t>10,0</t>
+  </si>
+  <si>
+    <t>69,8</t>
+  </si>
+  <si>
+    <t>5,7</t>
+  </si>
+  <si>
+    <t>19,1</t>
+  </si>
+  <si>
+    <t>57,5</t>
+  </si>
+  <si>
+    <t>7,7</t>
+  </si>
+  <si>
+    <t>97,5</t>
+  </si>
+  <si>
+    <t>97,6</t>
+  </si>
+  <si>
+    <t>76,3</t>
+  </si>
+  <si>
+    <t>8,8</t>
+  </si>
+  <si>
+    <t>37,8</t>
+  </si>
+  <si>
+    <t>38,9</t>
+  </si>
+  <si>
+    <t>39,4</t>
+  </si>
+  <si>
+    <t>42,0</t>
+  </si>
+  <si>
+    <t>93,8</t>
+  </si>
+  <si>
+    <t>90,8</t>
+  </si>
+  <si>
+    <t>96,7</t>
+  </si>
+  <si>
+    <t>26,8</t>
+  </si>
+  <si>
+    <t>42,6</t>
+  </si>
+  <si>
+    <t>-0,6</t>
+  </si>
+  <si>
+    <t>21,1</t>
+  </si>
+  <si>
+    <t>32,6</t>
+  </si>
+  <si>
+    <t>20,9</t>
+  </si>
+  <si>
+    <t>57,3</t>
+  </si>
+  <si>
+    <t>60,9</t>
+  </si>
+  <si>
+    <t>-15,8</t>
+  </si>
+  <si>
+    <t>-8,2</t>
+  </si>
+  <si>
+    <t>1,8</t>
+  </si>
+  <si>
+    <t>87,5</t>
+  </si>
+  <si>
+    <t>75,1</t>
+  </si>
+  <si>
+    <t>2.394,6</t>
+  </si>
+  <si>
+    <t>-10,5</t>
+  </si>
+  <si>
+    <t>-31,6</t>
+  </si>
+  <si>
+    <t>1.928,9</t>
+  </si>
+  <si>
+    <t>98,2</t>
+  </si>
+  <si>
+    <t>54,9</t>
+  </si>
+  <si>
+    <t>-1,8</t>
+  </si>
+  <si>
+    <t>-4,7</t>
+  </si>
+  <si>
+    <t>-2,3</t>
+  </si>
+  <si>
+    <t>45,8</t>
+  </si>
+  <si>
+    <t>6,8</t>
+  </si>
+  <si>
+    <t>5,6</t>
+  </si>
+  <si>
+    <t>498,2</t>
+  </si>
+  <si>
+    <t>74,3</t>
+  </si>
+  <si>
+    <t>26,4</t>
+  </si>
+  <si>
+    <t>26,0</t>
+  </si>
+  <si>
+    <t>-15,7</t>
+  </si>
+  <si>
+    <t>-33,0</t>
+  </si>
+  <si>
+    <t>56.148,7</t>
+  </si>
+  <si>
+    <t>99,6</t>
+  </si>
+  <si>
+    <t>101,7</t>
+  </si>
+  <si>
+    <t>49,5</t>
+  </si>
+  <si>
+    <t>57,1</t>
+  </si>
+  <si>
+    <t>46,8</t>
+  </si>
+  <si>
+    <t>54,4</t>
+  </si>
+  <si>
+    <t>35,4</t>
+  </si>
+  <si>
+    <t>89,1</t>
+  </si>
+  <si>
+    <t>58,9</t>
+  </si>
+  <si>
+    <t>18,2</t>
+  </si>
+  <si>
+    <t>57,8</t>
+  </si>
+  <si>
+    <t>69,0</t>
+  </si>
+  <si>
+    <t>64,0</t>
+  </si>
+  <si>
+    <t>29,0</t>
+  </si>
+  <si>
+    <t>10,9</t>
+  </si>
+  <si>
+    <t>74,0</t>
+  </si>
+  <si>
+    <t>-0,3</t>
+  </si>
+  <si>
+    <t>22,5</t>
+  </si>
+  <si>
+    <t>28,0</t>
+  </si>
+  <si>
+    <t>6,4</t>
+  </si>
+  <si>
+    <t>15,3</t>
+  </si>
+  <si>
+    <t>20,2</t>
+  </si>
+  <si>
+    <t>40,2</t>
+  </si>
+  <si>
+    <t>10,4</t>
+  </si>
+  <si>
+    <t>91,6</t>
+  </si>
+  <si>
+    <t>96,5</t>
+  </si>
+  <si>
+    <t>9,7</t>
+  </si>
+  <si>
+    <t>420,3</t>
+  </si>
+  <si>
+    <t>335,5</t>
+  </si>
+  <si>
+    <t>28,1</t>
+  </si>
+  <si>
+    <t>122,9</t>
+  </si>
+  <si>
+    <t>12,9</t>
+  </si>
+  <si>
+    <t>17,7</t>
+  </si>
+  <si>
+    <t>2,9</t>
+  </si>
+  <si>
+    <t>67,2</t>
+  </si>
+  <si>
+    <t>3,0</t>
+  </si>
+  <si>
+    <t>66,4</t>
+  </si>
+  <si>
+    <t>7,9</t>
+  </si>
+  <si>
+    <t>83,7</t>
+  </si>
+  <si>
+    <t>87,3</t>
+  </si>
+  <si>
+    <t>79,4</t>
+  </si>
+  <si>
+    <t>96,6</t>
+  </si>
+  <si>
+    <t>72,3</t>
+  </si>
+  <si>
+    <t>75,0</t>
+  </si>
+  <si>
+    <t>98,9</t>
+  </si>
+  <si>
+    <t>16,9</t>
+  </si>
+  <si>
+    <t>76,2</t>
+  </si>
+  <si>
+    <t>94,9</t>
+  </si>
+  <si>
+    <t>57,0</t>
+  </si>
+  <si>
+    <t>81,8</t>
+  </si>
+  <si>
+    <t>48,9</t>
+  </si>
+  <si>
+    <t>23,1</t>
+  </si>
+  <si>
+    <t>41,6</t>
+  </si>
+  <si>
+    <t>47,3</t>
+  </si>
+  <si>
+    <t>45,3</t>
+  </si>
+  <si>
+    <t>94,4</t>
+  </si>
+  <si>
+    <t>92,0</t>
+  </si>
+  <si>
+    <t>14,9</t>
+  </si>
+  <si>
+    <t>13,5</t>
+  </si>
+  <si>
+    <t>18,6</t>
+  </si>
+  <si>
+    <t>56,0</t>
+  </si>
+  <si>
+    <t>-16,6</t>
+  </si>
+  <si>
+    <t>-2,7</t>
+  </si>
+  <si>
+    <t>-9,2</t>
+  </si>
+  <si>
+    <t>86,6</t>
+  </si>
+  <si>
+    <t>67,7</t>
+  </si>
+  <si>
+    <t>2.500,5</t>
+  </si>
+  <si>
+    <t>1.944,4</t>
+  </si>
+  <si>
+    <t>79,6</t>
+  </si>
+  <si>
+    <t>-3,7</t>
+  </si>
+  <si>
+    <t>-1,9</t>
+  </si>
+  <si>
+    <t>5,5</t>
+  </si>
+  <si>
+    <t>519,7</t>
+  </si>
+  <si>
+    <t>25,8</t>
+  </si>
+  <si>
+    <t>-17,9</t>
+  </si>
+  <si>
+    <t>45.791,0</t>
+  </si>
+  <si>
+    <t>101,6</t>
+  </si>
+  <si>
+    <t>47,6</t>
+  </si>
+  <si>
+    <t>53,1</t>
+  </si>
+  <si>
+    <t>33,9</t>
+  </si>
+  <si>
+    <t>68,9</t>
+  </si>
+  <si>
+    <t>51,7</t>
+  </si>
+  <si>
+    <t>50,8</t>
+  </si>
+  <si>
+    <t>47,5</t>
+  </si>
+  <si>
+    <t>22,3</t>
+  </si>
+  <si>
+    <t>66,3</t>
+  </si>
+  <si>
+    <t>78,3</t>
+  </si>
+  <si>
+    <t>18,1</t>
+  </si>
+  <si>
+    <t>-1,5</t>
+  </si>
+  <si>
+    <t>17,0</t>
+  </si>
+  <si>
+    <t>24,6</t>
+  </si>
+  <si>
+    <t>93,1</t>
+  </si>
+  <si>
+    <t>96,9</t>
+  </si>
+  <si>
+    <t>413,1</t>
+  </si>
+  <si>
+    <t>344,9</t>
+  </si>
+  <si>
+    <t>108,3</t>
+  </si>
+  <si>
+    <t>20,8</t>
+  </si>
+  <si>
+    <t>34,7</t>
+  </si>
+  <si>
+    <t>61,1</t>
+  </si>
+  <si>
+    <t>1,9</t>
+  </si>
+  <si>
+    <t>63,6</t>
+  </si>
+  <si>
+    <t>60,7</t>
+  </si>
+  <si>
+    <t>94,5</t>
+  </si>
+  <si>
+    <t>95,5</t>
+  </si>
+  <si>
+    <t>93,5</t>
+  </si>
+  <si>
+    <t>73,2</t>
+  </si>
+  <si>
+    <t>73,4</t>
+  </si>
+  <si>
+    <t>72,9</t>
+  </si>
+  <si>
+    <t>43,4</t>
+  </si>
+  <si>
+    <t>75,2</t>
+  </si>
+  <si>
+    <t>42,1</t>
+  </si>
+  <si>
+    <t>58,5</t>
+  </si>
+  <si>
+    <t>50,2</t>
+  </si>
+  <si>
+    <t>56,2</t>
+  </si>
+  <si>
+    <t>66,1</t>
+  </si>
+  <si>
+    <t>25,6</t>
+  </si>
+  <si>
+    <t>18,8</t>
+  </si>
+  <si>
+    <t>16,3</t>
+  </si>
+  <si>
+    <t>9,0</t>
+  </si>
+  <si>
+    <t>58,3</t>
+  </si>
+  <si>
+    <t>4,3</t>
+  </si>
+  <si>
+    <t>-8,1</t>
+  </si>
+  <si>
+    <t>19,3</t>
+  </si>
+  <si>
+    <t>38,5</t>
+  </si>
+  <si>
+    <t>2.484,7</t>
+  </si>
+  <si>
+    <t>11,3</t>
+  </si>
+  <si>
+    <t>-12,5</t>
+  </si>
+  <si>
+    <t>2.004,1</t>
+  </si>
+  <si>
+    <t>19,0</t>
+  </si>
+  <si>
+    <t>94,1</t>
+  </si>
+  <si>
+    <t>45,0</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>519,0</t>
+  </si>
+  <si>
+    <t>71,8</t>
+  </si>
+  <si>
+    <t>28,2</t>
+  </si>
+  <si>
+    <t>22,8</t>
+  </si>
+  <si>
+    <t>23,0</t>
+  </si>
+  <si>
+    <t>-17,6</t>
+  </si>
+  <si>
+    <t>-34,5</t>
+  </si>
+  <si>
+    <t>14.011,5</t>
+  </si>
+  <si>
+    <t>9,4</t>
+  </si>
+  <si>
+    <t>100,7</t>
+  </si>
+  <si>
+    <t>100,8</t>
+  </si>
+  <si>
+    <t>56,3</t>
+  </si>
+  <si>
+    <t>69,5</t>
+  </si>
+  <si>
+    <t>71,9</t>
+  </si>
+  <si>
+    <t>46,7</t>
+  </si>
+  <si>
+    <t>35,0</t>
+  </si>
+  <si>
+    <t>43,1</t>
+  </si>
+  <si>
+    <t>64,5</t>
+  </si>
+  <si>
+    <t>69,4</t>
+  </si>
+  <si>
+    <t>30,5</t>
+  </si>
+  <si>
+    <t>57,4</t>
+  </si>
+  <si>
+    <t>-3,4</t>
+  </si>
+  <si>
+    <t>32,0</t>
+  </si>
+  <si>
+    <t>11,6</t>
+  </si>
+  <si>
+    <t>18,9</t>
+  </si>
+  <si>
+    <t>-0,5</t>
+  </si>
+  <si>
+    <t>16,6</t>
+  </si>
+  <si>
+    <t>20,4</t>
+  </si>
+  <si>
+    <t>37,7</t>
+  </si>
+  <si>
+    <t>93,7</t>
+  </si>
+  <si>
+    <t>6,5</t>
+  </si>
+  <si>
+    <t>385,5</t>
+  </si>
+  <si>
+    <t>342,3</t>
+  </si>
+  <si>
+    <t>117,4</t>
+  </si>
+  <si>
+    <t>34,9</t>
+  </si>
+  <si>
+    <t>94,3</t>
+  </si>
+  <si>
+    <t>89,6</t>
+  </si>
+  <si>
+    <t>82,5</t>
+  </si>
+  <si>
+    <t>62,0</t>
+  </si>
+  <si>
+    <t>70,9</t>
+  </si>
+  <si>
+    <t>8,2</t>
+  </si>
+  <si>
+    <t>95,6</t>
+  </si>
+  <si>
+    <t>72,0</t>
+  </si>
+  <si>
+    <t>74,5</t>
+  </si>
+  <si>
+    <t>97,2</t>
+  </si>
+  <si>
+    <t>76,0</t>
+  </si>
+  <si>
+    <t>65,0</t>
+  </si>
+  <si>
+    <t>37,5</t>
+  </si>
+  <si>
+    <t>96,4</t>
+  </si>
+  <si>
+    <t>96,0</t>
+  </si>
+  <si>
+    <t>66,0</t>
+  </si>
+  <si>
+    <t>15,4</t>
+  </si>
+  <si>
+    <t>1,7</t>
+  </si>
+  <si>
+    <t>59,4</t>
+  </si>
+  <si>
+    <t>6,6</t>
+  </si>
+  <si>
+    <t>74,9</t>
+  </si>
+  <si>
+    <t>66,8</t>
+  </si>
+  <si>
+    <t>2.651,6</t>
+  </si>
+  <si>
+    <t>-6,1</t>
+  </si>
+  <si>
+    <t>-28,2</t>
+  </si>
+  <si>
+    <t>2.161,2</t>
+  </si>
+  <si>
+    <t>44,8</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>9,8</t>
+  </si>
+  <si>
+    <t>516,4</t>
+  </si>
+  <si>
+    <t>73,7</t>
+  </si>
+  <si>
+    <t>26,3</t>
+  </si>
+  <si>
+    <t>24,5</t>
+  </si>
+  <si>
+    <t>-11,4</t>
+  </si>
+  <si>
+    <t>-29,6</t>
+  </si>
+  <si>
+    <t>16.898,3</t>
+  </si>
+  <si>
+    <t>102,6</t>
+  </si>
+  <si>
+    <t>70,0</t>
+  </si>
+  <si>
+    <t>36,8</t>
+  </si>
+  <si>
+    <t>71,7</t>
+  </si>
+  <si>
+    <t>64,4</t>
+  </si>
+  <si>
+    <t>35,8</t>
+  </si>
+  <si>
+    <t>59,0</t>
+  </si>
+  <si>
+    <t>66,5</t>
+  </si>
+  <si>
+    <t>32,7</t>
+  </si>
+  <si>
+    <t>82,3</t>
+  </si>
+  <si>
+    <t>95,0</t>
+  </si>
+  <si>
+    <t>379,3</t>
+  </si>
+  <si>
+    <t>346,8</t>
+  </si>
+  <si>
+    <t>31,3</t>
+  </si>
+  <si>
+    <t>125,2</t>
+  </si>
+  <si>
+    <t>76,9</t>
+  </si>
+  <si>
+    <t>70,3</t>
+  </si>
+  <si>
+    <t>90,2</t>
+  </si>
+  <si>
+    <t>72,2</t>
+  </si>
+  <si>
+    <t>63,7</t>
+  </si>
+  <si>
+    <t>82,2</t>
+  </si>
+  <si>
+    <t>77,6</t>
+  </si>
+  <si>
+    <t>86,8</t>
+  </si>
+  <si>
+    <t>78,4</t>
+  </si>
+  <si>
+    <t>78,7</t>
+  </si>
+  <si>
+    <t>78,1</t>
+  </si>
+  <si>
+    <t>86,5</t>
+  </si>
+  <si>
+    <t>79,2</t>
+  </si>
+  <si>
+    <t>36,1</t>
+  </si>
+  <si>
+    <t>31,4</t>
+  </si>
+  <si>
+    <t>40,6</t>
+  </si>
+  <si>
+    <t>-0,8</t>
+  </si>
+  <si>
     <t>6,1</t>
   </si>
   <si>
-    <t>16,7</t>
-  </si>
-  <si>
-    <t>21,3</t>
-  </si>
-  <si>
-    <t>23,2</t>
-  </si>
-  <si>
-    <t>27,4</t>
-  </si>
-  <si>
-    <t>16,2</t>
-  </si>
-  <si>
-    <t>20,1</t>
-  </si>
-  <si>
-    <t>3,8</t>
-  </si>
-  <si>
-    <t>23,8</t>
-  </si>
-  <si>
-    <t>91,2</t>
-  </si>
-  <si>
-    <t>3,3</t>
-  </si>
-  <si>
-    <t>2,1</t>
-  </si>
-  <si>
-    <t>19,8</t>
-  </si>
-  <si>
-    <t>386,1</t>
-  </si>
-  <si>
-    <t>328,3</t>
-  </si>
-  <si>
-    <t>27,7</t>
-  </si>
-  <si>
-    <t>105,6</t>
-  </si>
-  <si>
-    <t>24,2</t>
-  </si>
-  <si>
-    <t>10,0</t>
-  </si>
-  <si>
-    <t>69,8</t>
-  </si>
-  <si>
-    <t>5,7</t>
-  </si>
-  <si>
-    <t>19,1</t>
-  </si>
-  <si>
-    <t>57,5</t>
-  </si>
-  <si>
-    <t>7,7</t>
-  </si>
-  <si>
-    <t>97,5</t>
-  </si>
-  <si>
-    <t>97,6</t>
-  </si>
-  <si>
-    <t>76,3</t>
-  </si>
-  <si>
-    <t>8,8</t>
-  </si>
-  <si>
-    <t>37,8</t>
-  </si>
-  <si>
-    <t>38,9</t>
-  </si>
-  <si>
-    <t>39,4</t>
-  </si>
-  <si>
-    <t>42,0</t>
-  </si>
-  <si>
-    <t>93,8</t>
-  </si>
-  <si>
-    <t>90,8</t>
-  </si>
-  <si>
-    <t>96,7</t>
-  </si>
-  <si>
-    <t>26,8</t>
-  </si>
-  <si>
-    <t>42,6</t>
-  </si>
-  <si>
-    <t>-0,6</t>
-  </si>
-  <si>
-    <t>21,1</t>
-  </si>
-  <si>
-    <t>32,6</t>
-  </si>
-  <si>
-    <t>20,9</t>
-  </si>
-  <si>
-    <t>57,3</t>
-  </si>
-  <si>
-    <t>60,9</t>
-  </si>
-  <si>
-    <t>-15,8</t>
-  </si>
-  <si>
-    <t>-8,2</t>
-  </si>
-  <si>
-    <t>1,8</t>
-  </si>
-  <si>
-    <t>87,5</t>
-  </si>
-  <si>
-    <t>75,1</t>
-  </si>
-  <si>
-    <t>2.394,6</t>
-  </si>
-  <si>
-    <t>-10,5</t>
-  </si>
-  <si>
-    <t>-31,6</t>
-  </si>
-  <si>
-    <t>1.928,9</t>
-  </si>
-  <si>
-    <t>98,2</t>
-  </si>
-  <si>
-    <t>54,9</t>
-  </si>
-  <si>
-    <t>-1,8</t>
-  </si>
-  <si>
-    <t>-4,7</t>
-  </si>
-  <si>
-    <t>-2,3</t>
-  </si>
-  <si>
-    <t>45,8</t>
-  </si>
-  <si>
-    <t>6,8</t>
-  </si>
-  <si>
-    <t>5,6</t>
-  </si>
-  <si>
-    <t>498,2</t>
-  </si>
-  <si>
-    <t>74,3</t>
-  </si>
-  <si>
-    <t>26,4</t>
-  </si>
-  <si>
-    <t>26,0</t>
-  </si>
-  <si>
-    <t>-15,7</t>
-  </si>
-  <si>
-    <t>-33,0</t>
-  </si>
-  <si>
-    <t>56.148,7</t>
-  </si>
-  <si>
-    <t>99,6</t>
-  </si>
-  <si>
-    <t>101,7</t>
-  </si>
-  <si>
-    <t>49,5</t>
-  </si>
-  <si>
-    <t>57,1</t>
-  </si>
-  <si>
-    <t>46,8</t>
-  </si>
-  <si>
-    <t>54,4</t>
-  </si>
-  <si>
-    <t>35,4</t>
-  </si>
-  <si>
-    <t>89,1</t>
-  </si>
-  <si>
-    <t>58,9</t>
-  </si>
-  <si>
-    <t>18,2</t>
-  </si>
-  <si>
-    <t>57,8</t>
-  </si>
-  <si>
-    <t>69,0</t>
-  </si>
-  <si>
-    <t>64,0</t>
-  </si>
-  <si>
-    <t>29,0</t>
-  </si>
-  <si>
-    <t>10,9</t>
-  </si>
-  <si>
-    <t>74,0</t>
-  </si>
-  <si>
-    <t>-0,3</t>
-  </si>
-  <si>
-    <t>22,5</t>
-  </si>
-  <si>
-    <t>28,0</t>
-  </si>
-  <si>
-    <t>6,4</t>
-  </si>
-  <si>
-    <t>15,3</t>
-  </si>
-  <si>
-    <t>20,2</t>
-  </si>
-  <si>
-    <t>40,2</t>
-  </si>
-  <si>
-    <t>10,4</t>
-  </si>
-  <si>
-    <t>91,6</t>
-  </si>
-  <si>
-    <t>96,5</t>
-  </si>
-  <si>
-    <t>9,7</t>
-  </si>
-  <si>
-    <t>420,3</t>
-  </si>
-  <si>
-    <t>335,5</t>
-  </si>
-  <si>
-    <t>28,1</t>
-  </si>
-  <si>
-    <t>122,9</t>
-  </si>
-  <si>
-    <t>12,9</t>
-  </si>
-  <si>
-    <t>17,7</t>
-  </si>
-  <si>
-    <t>2,9</t>
-  </si>
-  <si>
-    <t>67,2</t>
-  </si>
-  <si>
-    <t>3,0</t>
-  </si>
-  <si>
-    <t>66,4</t>
-  </si>
-  <si>
-    <t>7,9</t>
-  </si>
-  <si>
-    <t>83,7</t>
-  </si>
-  <si>
-    <t>87,3</t>
-  </si>
-  <si>
-    <t>79,4</t>
-  </si>
-  <si>
-    <t>96,6</t>
-  </si>
-  <si>
-    <t>72,3</t>
-  </si>
-  <si>
-    <t>75,0</t>
-  </si>
-  <si>
-    <t>98,9</t>
-  </si>
-  <si>
-    <t>16,9</t>
-  </si>
-  <si>
-    <t>76,2</t>
-  </si>
-  <si>
-    <t>94,9</t>
-  </si>
-  <si>
-    <t>57,0</t>
-  </si>
-  <si>
-    <t>81,8</t>
-  </si>
-  <si>
-    <t>48,9</t>
-  </si>
-  <si>
-    <t>23,1</t>
-  </si>
-  <si>
-    <t>41,6</t>
-  </si>
-  <si>
-    <t>47,3</t>
-  </si>
-  <si>
-    <t>45,3</t>
-  </si>
-  <si>
-    <t>6,0</t>
-  </si>
-  <si>
-    <t>94,4</t>
-  </si>
-  <si>
-    <t>92,0</t>
-  </si>
-  <si>
-    <t>14,9</t>
-  </si>
-  <si>
-    <t>13,5</t>
-  </si>
-  <si>
-    <t>18,6</t>
-  </si>
-  <si>
-    <t>56,0</t>
-  </si>
-  <si>
-    <t>-16,6</t>
-  </si>
-  <si>
-    <t>-2,7</t>
-  </si>
-  <si>
-    <t>-9,2</t>
-  </si>
-  <si>
-    <t>86,6</t>
-  </si>
-  <si>
-    <t>67,7</t>
-  </si>
-  <si>
-    <t>2.500,5</t>
-  </si>
-  <si>
-    <t>1.944,4</t>
-  </si>
-  <si>
-    <t>79,6</t>
-  </si>
-  <si>
-    <t>-3,7</t>
-  </si>
-  <si>
-    <t>-1,9</t>
-  </si>
-  <si>
-    <t>5,5</t>
-  </si>
-  <si>
-    <t>519,7</t>
-  </si>
-  <si>
-    <t>25,8</t>
-  </si>
-  <si>
-    <t>-17,9</t>
-  </si>
-  <si>
-    <t>45.791,0</t>
-  </si>
-  <si>
-    <t>101,6</t>
-  </si>
-  <si>
-    <t>47,6</t>
-  </si>
-  <si>
-    <t>53,1</t>
-  </si>
-  <si>
-    <t>33,9</t>
-  </si>
-  <si>
-    <t>68,9</t>
-  </si>
-  <si>
-    <t>51,7</t>
-  </si>
-  <si>
-    <t>50,8</t>
-  </si>
-  <si>
-    <t>47,5</t>
-  </si>
-  <si>
-    <t>22,3</t>
-  </si>
-  <si>
-    <t>66,3</t>
-  </si>
-  <si>
-    <t>78,3</t>
-  </si>
-  <si>
-    <t>18,1</t>
-  </si>
-  <si>
-    <t>-1,5</t>
-  </si>
-  <si>
-    <t>17,0</t>
-  </si>
-  <si>
-    <t>24,6</t>
-  </si>
-  <si>
-    <t>93,1</t>
-  </si>
-  <si>
-    <t>96,9</t>
-  </si>
-  <si>
-    <t>413,1</t>
-  </si>
-  <si>
-    <t>344,9</t>
-  </si>
-  <si>
-    <t>108,3</t>
-  </si>
-  <si>
-    <t>20,8</t>
-  </si>
-  <si>
-    <t>34,7</t>
-  </si>
-  <si>
-    <t>61,1</t>
-  </si>
-  <si>
-    <t>1,9</t>
-  </si>
-  <si>
-    <t>63,6</t>
-  </si>
-  <si>
-    <t>60,7</t>
-  </si>
-  <si>
-    <t>94,5</t>
-  </si>
-  <si>
-    <t>95,5</t>
-  </si>
-  <si>
-    <t>93,5</t>
-  </si>
-  <si>
-    <t>73,2</t>
-  </si>
-  <si>
-    <t>73,4</t>
-  </si>
-  <si>
-    <t>72,9</t>
-  </si>
-  <si>
-    <t>43,4</t>
-  </si>
-  <si>
-    <t>75,2</t>
-  </si>
-  <si>
-    <t>42,1</t>
-  </si>
-  <si>
-    <t>58,5</t>
-  </si>
-  <si>
-    <t>50,2</t>
-  </si>
-  <si>
-    <t>56,2</t>
-  </si>
-  <si>
-    <t>66,1</t>
-  </si>
-  <si>
-    <t>25,6</t>
-  </si>
-  <si>
-    <t>18,8</t>
-  </si>
-  <si>
-    <t>16,3</t>
-  </si>
-  <si>
-    <t>9,0</t>
-  </si>
-  <si>
-    <t>58,3</t>
-  </si>
-  <si>
-    <t>4,3</t>
-  </si>
-  <si>
-    <t>-8,1</t>
-  </si>
-  <si>
-    <t>19,3</t>
-  </si>
-  <si>
-    <t>38,5</t>
-  </si>
-  <si>
-    <t>2.484,7</t>
-  </si>
-  <si>
-    <t>11,3</t>
-  </si>
-  <si>
-    <t>-12,5</t>
-  </si>
-  <si>
-    <t>2.004,1</t>
-  </si>
-  <si>
-    <t>19,0</t>
-  </si>
-  <si>
-    <t>94,1</t>
-  </si>
-  <si>
-    <t>45,0</t>
-  </si>
-  <si>
-    <t>4,5</t>
-  </si>
-  <si>
-    <t>519,0</t>
-  </si>
-  <si>
-    <t>71,8</t>
-  </si>
-  <si>
-    <t>28,2</t>
-  </si>
-  <si>
-    <t>22,8</t>
-  </si>
-  <si>
-    <t>23,0</t>
-  </si>
-  <si>
-    <t>-17,6</t>
-  </si>
-  <si>
-    <t>-34,5</t>
-  </si>
-  <si>
-    <t>14.011,5</t>
-  </si>
-  <si>
-    <t>9,4</t>
-  </si>
-  <si>
-    <t>100,7</t>
-  </si>
-  <si>
-    <t>100,8</t>
-  </si>
-  <si>
-    <t>56,3</t>
-  </si>
-  <si>
-    <t>69,5</t>
-  </si>
-  <si>
-    <t>71,9</t>
-  </si>
-  <si>
-    <t>46,7</t>
-  </si>
-  <si>
-    <t>35,0</t>
-  </si>
-  <si>
-    <t>43,1</t>
-  </si>
-  <si>
-    <t>64,5</t>
-  </si>
-  <si>
-    <t>69,4</t>
-  </si>
-  <si>
-    <t>30,5</t>
-  </si>
-  <si>
-    <t>57,4</t>
-  </si>
-  <si>
-    <t>-3,4</t>
-  </si>
-  <si>
-    <t>32,0</t>
-  </si>
-  <si>
-    <t>11,6</t>
-  </si>
-  <si>
-    <t>18,9</t>
-  </si>
-  <si>
-    <t>-0,5</t>
-  </si>
-  <si>
-    <t>16,6</t>
-  </si>
-  <si>
-    <t>20,4</t>
-  </si>
-  <si>
-    <t>37,7</t>
-  </si>
-  <si>
-    <t>93,7</t>
-  </si>
-  <si>
-    <t>6,5</t>
-  </si>
-  <si>
-    <t>385,5</t>
-  </si>
-  <si>
-    <t>342,3</t>
-  </si>
-  <si>
-    <t>117,4</t>
-  </si>
-  <si>
-    <t>34,9</t>
-  </si>
-  <si>
-    <t>94,3</t>
-  </si>
-  <si>
-    <t>89,6</t>
-  </si>
-  <si>
-    <t>82,5</t>
-  </si>
-  <si>
-    <t>62,0</t>
-  </si>
-  <si>
-    <t>70,9</t>
-  </si>
-  <si>
-    <t>8,2</t>
-  </si>
-  <si>
-    <t>95,6</t>
-  </si>
-  <si>
-    <t>72,0</t>
-  </si>
-  <si>
-    <t>74,5</t>
-  </si>
-  <si>
-    <t>97,2</t>
-  </si>
-  <si>
-    <t>76,0</t>
-  </si>
-  <si>
-    <t>65,0</t>
-  </si>
-  <si>
-    <t>37,5</t>
-  </si>
-  <si>
-    <t>96,4</t>
-  </si>
-  <si>
-    <t>96,0</t>
-  </si>
-  <si>
-    <t>66,0</t>
-  </si>
-  <si>
-    <t>15,4</t>
-  </si>
-  <si>
-    <t>1,7</t>
-  </si>
-  <si>
-    <t>59,4</t>
-  </si>
-  <si>
-    <t>6,6</t>
-  </si>
-  <si>
-    <t>74,9</t>
-  </si>
-  <si>
-    <t>66,8</t>
-  </si>
-  <si>
-    <t>2.651,6</t>
-  </si>
-  <si>
-    <t>-6,1</t>
-  </si>
-  <si>
-    <t>-28,2</t>
-  </si>
-  <si>
-    <t>2.161,2</t>
-  </si>
-  <si>
-    <t>44,8</t>
-  </si>
-  <si>
-    <t>3,4</t>
-  </si>
-  <si>
-    <t>9,8</t>
-  </si>
-  <si>
-    <t>516,4</t>
-  </si>
-  <si>
-    <t>73,7</t>
-  </si>
-  <si>
-    <t>26,3</t>
-  </si>
-  <si>
-    <t>24,5</t>
-  </si>
-  <si>
-    <t>-11,4</t>
-  </si>
-  <si>
-    <t>-29,6</t>
-  </si>
-  <si>
-    <t>16.898,3</t>
-  </si>
-  <si>
-    <t>102,6</t>
-  </si>
-  <si>
-    <t>70,0</t>
-  </si>
-  <si>
-    <t>36,8</t>
-  </si>
-  <si>
-    <t>71,7</t>
-  </si>
-  <si>
-    <t>64,4</t>
-  </si>
-  <si>
-    <t>35,8</t>
-  </si>
-  <si>
-    <t>59,0</t>
-  </si>
-  <si>
-    <t>66,5</t>
-  </si>
-  <si>
-    <t>32,7</t>
-  </si>
-  <si>
-    <t>82,3</t>
+    <t>63,3</t>
+  </si>
+  <si>
+    <t>67,1</t>
+  </si>
+  <si>
+    <t>-7,3</t>
+  </si>
+  <si>
+    <t>19,5</t>
+  </si>
+  <si>
+    <t>71,5</t>
+  </si>
+  <si>
+    <t>69,3</t>
+  </si>
+  <si>
+    <t>2.661,2</t>
+  </si>
+  <si>
+    <t>-13,1</t>
+  </si>
+  <si>
+    <t>-33,6</t>
+  </si>
+  <si>
+    <t>2.246,7</t>
+  </si>
+  <si>
+    <t>99,3</t>
+  </si>
+  <si>
+    <t>45,1</t>
+  </si>
+  <si>
+    <t>489,4</t>
+  </si>
+  <si>
+    <t>82,1</t>
+  </si>
+  <si>
+    <t>17,9</t>
+  </si>
+  <si>
+    <t>22,4</t>
+  </si>
+  <si>
+    <t>-18,6</t>
+  </si>
+  <si>
+    <t>-35,3</t>
+  </si>
+  <si>
+    <t>24.674,8</t>
+  </si>
+  <si>
+    <t>102,9</t>
+  </si>
+  <si>
+    <t>104,9</t>
+  </si>
+  <si>
+    <t>80,6</t>
+  </si>
+  <si>
+    <t>40,7</t>
+  </si>
+  <si>
+    <t>82,8</t>
+  </si>
+  <si>
+    <t>61,3</t>
+  </si>
+  <si>
+    <t>30,2</t>
+  </si>
+  <si>
+    <t>79,0</t>
+  </si>
+  <si>
+    <t>85,7</t>
+  </si>
+  <si>
+    <t>18,7</t>
+  </si>
+  <si>
+    <t>41,3</t>
+  </si>
+  <si>
+    <t>3,1</t>
+  </si>
+  <si>
+    <t>11,1</t>
+  </si>
+  <si>
+    <t>371,7</t>
+  </si>
+  <si>
+    <t>339,4</t>
+  </si>
+  <si>
+    <t>28,6</t>
+  </si>
+  <si>
+    <t>110,9</t>
+  </si>
+  <si>
+    <t>4,1</t>
+  </si>
+  <si>
+    <t>28,9</t>
+  </si>
+  <si>
+    <t>73,5</t>
+  </si>
+  <si>
+    <t>8,7</t>
+  </si>
+  <si>
+    <t>82,4</t>
+  </si>
+  <si>
+    <t>89,3</t>
+  </si>
+  <si>
+    <t>69,7</t>
+  </si>
+  <si>
+    <t>97,4</t>
+  </si>
+  <si>
+    <t>36,4</t>
+  </si>
+  <si>
+    <t>35,1</t>
+  </si>
+  <si>
+    <t>33,2</t>
+  </si>
+  <si>
+    <t>62,9</t>
+  </si>
+  <si>
+    <t>-15,9</t>
+  </si>
+  <si>
+    <t>96,1</t>
+  </si>
+  <si>
+    <t>2.657,3</t>
+  </si>
+  <si>
+    <t>-30,7</t>
+  </si>
+  <si>
+    <t>-47,0</t>
+  </si>
+  <si>
+    <t>2.583,3</t>
+  </si>
+  <si>
+    <t>22,9</t>
+  </si>
+  <si>
+    <t>498,0</t>
+  </si>
+  <si>
+    <t>79,1</t>
+  </si>
+  <si>
+    <t>20,3</t>
+  </si>
+  <si>
+    <t>-35,6</t>
+  </si>
+  <si>
+    <t>-48,8</t>
+  </si>
+  <si>
+    <t>89.472,1</t>
+  </si>
+  <si>
+    <t>46,5</t>
+  </si>
+  <si>
+    <t>28,3</t>
+  </si>
+  <si>
+    <t>82,0</t>
+  </si>
+  <si>
+    <t>35,6</t>
+  </si>
+  <si>
+    <t>89,2</t>
+  </si>
+  <si>
+    <t>-0,7</t>
+  </si>
+  <si>
+    <t>22,1</t>
+  </si>
+  <si>
+    <t>27,6</t>
+  </si>
+  <si>
+    <t>370,7</t>
+  </si>
+  <si>
+    <t>34,2</t>
+  </si>
+  <si>
+    <t>87,9</t>
+  </si>
+  <si>
+    <t>47,2</t>
+  </si>
+  <si>
+    <t>85,3</t>
+  </si>
+  <si>
+    <t>8,3</t>
+  </si>
+  <si>
+    <t>71,3</t>
+  </si>
+  <si>
+    <t>90,0</t>
+  </si>
+  <si>
+    <t>67,6</t>
+  </si>
+  <si>
+    <t>75,4</t>
+  </si>
+  <si>
+    <t>97,1</t>
+  </si>
+  <si>
+    <t>85,1</t>
+  </si>
+  <si>
+    <t>81,6</t>
+  </si>
+  <si>
+    <t>19,4</t>
+  </si>
+  <si>
+    <t>78,8</t>
+  </si>
+  <si>
+    <t>88,9</t>
+  </si>
+  <si>
+    <t>55,9</t>
+  </si>
+  <si>
+    <t>68,5</t>
+  </si>
+  <si>
+    <t>43,3</t>
+  </si>
+  <si>
+    <t>44,1</t>
+  </si>
+  <si>
+    <t>38,7</t>
+  </si>
+  <si>
+    <t>79,8</t>
+  </si>
+  <si>
+    <t>31,2</t>
+  </si>
+  <si>
+    <t>37,0</t>
+  </si>
+  <si>
+    <t>-10,3</t>
+  </si>
+  <si>
+    <t>-16,2</t>
+  </si>
+  <si>
+    <t>-7,2</t>
+  </si>
+  <si>
+    <t>-5,7</t>
+  </si>
+  <si>
+    <t>51,2</t>
+  </si>
+  <si>
+    <t>86,9</t>
+  </si>
+  <si>
+    <t>2.234,8</t>
+  </si>
+  <si>
+    <t>-41,8</t>
+  </si>
+  <si>
+    <t>-55,5</t>
+  </si>
+  <si>
+    <t>2.299,4</t>
   </si>
   <si>
     <t>-0,4</t>
   </si>
   <si>
-    <t>95,0</t>
-  </si>
-  <si>
-    <t>379,3</t>
-  </si>
-  <si>
-    <t>346,8</t>
-  </si>
-  <si>
-    <t>31,3</t>
-  </si>
-  <si>
-    <t>125,2</t>
-  </si>
-  <si>
-    <t>76,9</t>
-  </si>
-  <si>
-    <t>70,3</t>
-  </si>
-  <si>
-    <t>90,2</t>
-  </si>
-  <si>
-    <t>72,2</t>
-  </si>
-  <si>
-    <t>63,7</t>
-  </si>
-  <si>
-    <t>82,2</t>
-  </si>
-  <si>
-    <t>77,6</t>
-  </si>
-  <si>
-    <t>86,8</t>
-  </si>
-  <si>
-    <t>78,4</t>
-  </si>
-  <si>
-    <t>78,7</t>
-  </si>
-  <si>
-    <t>78,1</t>
-  </si>
-  <si>
-    <t>86,5</t>
-  </si>
-  <si>
-    <t>79,2</t>
-  </si>
-  <si>
-    <t>36,1</t>
-  </si>
-  <si>
-    <t>31,4</t>
-  </si>
-  <si>
-    <t>40,6</t>
-  </si>
-  <si>
-    <t>-0,8</t>
-  </si>
-  <si>
-    <t>63,3</t>
-  </si>
-  <si>
-    <t>67,1</t>
-  </si>
-  <si>
-    <t>-7,3</t>
-  </si>
-  <si>
-    <t>19,5</t>
-  </si>
-  <si>
-    <t>71,5</t>
-  </si>
-  <si>
-    <t>69,3</t>
-  </si>
-  <si>
-    <t>2.661,2</t>
-  </si>
-  <si>
-    <t>-13,1</t>
-  </si>
-  <si>
-    <t>-33,6</t>
-  </si>
-  <si>
-    <t>2.246,7</t>
-  </si>
-  <si>
-    <t>99,3</t>
-  </si>
-  <si>
-    <t>45,1</t>
-  </si>
-  <si>
-    <t>489,4</t>
-  </si>
-  <si>
-    <t>82,1</t>
-  </si>
-  <si>
-    <t>17,9</t>
-  </si>
-  <si>
-    <t>22,4</t>
-  </si>
-  <si>
-    <t>-18,6</t>
-  </si>
-  <si>
-    <t>-35,3</t>
-  </si>
-  <si>
-    <t>24.674,8</t>
-  </si>
-  <si>
-    <t>102,9</t>
-  </si>
-  <si>
-    <t>104,9</t>
-  </si>
-  <si>
-    <t>80,6</t>
-  </si>
-  <si>
-    <t>40,7</t>
-  </si>
-  <si>
-    <t>82,8</t>
-  </si>
-  <si>
-    <t>61,3</t>
-  </si>
-  <si>
-    <t>30,2</t>
-  </si>
-  <si>
-    <t>79,0</t>
-  </si>
-  <si>
-    <t>85,7</t>
-  </si>
-  <si>
-    <t>18,7</t>
-  </si>
-  <si>
-    <t>41,3</t>
-  </si>
-  <si>
-    <t>3,1</t>
-  </si>
-  <si>
-    <t>11,1</t>
-  </si>
-  <si>
-    <t>371,7</t>
-  </si>
-  <si>
-    <t>339,4</t>
-  </si>
-  <si>
-    <t>28,6</t>
-  </si>
-  <si>
-    <t>110,9</t>
-  </si>
-  <si>
-    <t>4,1</t>
-  </si>
-  <si>
-    <t>28,9</t>
-  </si>
-  <si>
-    <t>73,5</t>
-  </si>
-  <si>
-    <t>8,7</t>
-  </si>
-  <si>
-    <t>82,4</t>
-  </si>
-  <si>
-    <t>89,3</t>
-  </si>
-  <si>
-    <t>69,7</t>
-  </si>
-  <si>
-    <t>97,4</t>
-  </si>
-  <si>
-    <t>36,4</t>
-  </si>
-  <si>
-    <t>35,1</t>
-  </si>
-  <si>
-    <t>33,2</t>
-  </si>
-  <si>
-    <t>62,9</t>
-  </si>
-  <si>
-    <t>-15,9</t>
-  </si>
-  <si>
-    <t>96,1</t>
-  </si>
-  <si>
-    <t>2.657,3</t>
-  </si>
-  <si>
-    <t>-30,7</t>
-  </si>
-  <si>
-    <t>-47,0</t>
-  </si>
-  <si>
-    <t>2.583,3</t>
-  </si>
-  <si>
-    <t>22,9</t>
-  </si>
-  <si>
-    <t>498,0</t>
-  </si>
-  <si>
-    <t>79,1</t>
-  </si>
-  <si>
-    <t>20,3</t>
-  </si>
-  <si>
-    <t>-35,6</t>
-  </si>
-  <si>
-    <t>-48,8</t>
-  </si>
-  <si>
-    <t>89.472,1</t>
-  </si>
-  <si>
-    <t>46,5</t>
-  </si>
-  <si>
-    <t>28,3</t>
-  </si>
-  <si>
-    <t>82,0</t>
-  </si>
-  <si>
-    <t>35,6</t>
-  </si>
-  <si>
-    <t>89,2</t>
-  </si>
-  <si>
-    <t>22,1</t>
-  </si>
-  <si>
-    <t>27,6</t>
-  </si>
-  <si>
-    <t>370,7</t>
-  </si>
-  <si>
-    <t>34,2</t>
-  </si>
-  <si>
-    <t>87,9</t>
-  </si>
-  <si>
-    <t>47,2</t>
-  </si>
-  <si>
-    <t>85,3</t>
-  </si>
-  <si>
-    <t>8,3</t>
-  </si>
-  <si>
-    <t>71,3</t>
-  </si>
-  <si>
-    <t>90,0</t>
-  </si>
-  <si>
-    <t>67,6</t>
-  </si>
-  <si>
-    <t>75,4</t>
-  </si>
-  <si>
-    <t>97,1</t>
-  </si>
-  <si>
-    <t>85,1</t>
-  </si>
-  <si>
-    <t>81,6</t>
-  </si>
-  <si>
-    <t>19,4</t>
-  </si>
-  <si>
-    <t>78,8</t>
-  </si>
-  <si>
-    <t>88,9</t>
-  </si>
-  <si>
-    <t>55,9</t>
-  </si>
-  <si>
-    <t>68,5</t>
-  </si>
-  <si>
-    <t>43,3</t>
-  </si>
-  <si>
-    <t>44,1</t>
-  </si>
-  <si>
-    <t>38,7</t>
-  </si>
-  <si>
-    <t>79,8</t>
-  </si>
-  <si>
-    <t>31,2</t>
-  </si>
-  <si>
-    <t>37,0</t>
-  </si>
-  <si>
-    <t>-10,3</t>
-  </si>
-  <si>
-    <t>-16,2</t>
-  </si>
-  <si>
-    <t>-7,2</t>
-  </si>
-  <si>
-    <t>-5,7</t>
-  </si>
-  <si>
-    <t>51,2</t>
-  </si>
-  <si>
-    <t>86,9</t>
-  </si>
-  <si>
-    <t>2.234,8</t>
-  </si>
-  <si>
-    <t>-41,8</t>
-  </si>
-  <si>
-    <t>-55,5</t>
-  </si>
-  <si>
-    <t>2.299,4</t>
-  </si>
-  <si>
     <t>49,4</t>
   </si>
   <si>
@@ -4308,6 +4311,9 @@
     <t>61,4</t>
   </si>
   <si>
+    <t>27,1</t>
+  </si>
+  <si>
     <t>-10,7</t>
   </si>
   <si>
@@ -4413,6 +4419,9 @@
     <t>101.165,0</t>
   </si>
   <si>
+    <t>97,8</t>
+  </si>
+  <si>
     <t>104,5</t>
   </si>
   <si>
@@ -4512,6 +4521,9 @@
     <t>41,5</t>
   </si>
   <si>
+    <t>115,4</t>
+  </si>
+  <si>
     <t>2.794,9</t>
   </si>
   <si>
@@ -4533,6 +4545,12 @@
     <t>9,3</t>
   </si>
   <si>
+    <t>95,1</t>
+  </si>
+  <si>
+    <t>106,7</t>
+  </si>
+  <si>
     <t>44,7</t>
   </si>
   <si>
@@ -4555,6 +4573,9 @@
   </si>
   <si>
     <t>41,0</t>
+  </si>
+  <si>
+    <t>81,2</t>
   </si>
   <si>
     <t>97,3</t>
@@ -5442,13 +5463,13 @@
         <v>1006</v>
       </c>
       <c r="P9" t="s" s="25">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="Q9" t="s" s="25">
         <v>1020</v>
       </c>
       <c r="R9" t="s" s="25">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="true">
@@ -5486,7 +5507,7 @@
         <v>1052</v>
       </c>
       <c r="L10" t="s" s="25">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="M10" t="s" s="25">
         <v>777</v>
@@ -5548,7 +5569,7 @@
         <v>973</v>
       </c>
       <c r="N11" t="s" s="25">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="O11" t="s" s="25">
         <v>913</v>
@@ -5560,7 +5581,7 @@
         <v>937</v>
       </c>
       <c r="R11" t="s" s="25">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="12" ht="15.0" customHeight="true">
@@ -5595,7 +5616,7 @@
         <v>846</v>
       </c>
       <c r="K12" t="s" s="25">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="L12" t="s" s="25">
         <v>792</v>
@@ -5607,7 +5628,7 @@
         <v>1017</v>
       </c>
       <c r="O12" t="s" s="25">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="P12" t="s" s="25">
         <v>1102</v>
@@ -5616,7 +5637,7 @@
         <v>795</v>
       </c>
       <c r="R12" t="s" s="25">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="13" ht="15.0" customHeight="true">
@@ -5666,7 +5687,7 @@
         <v>911</v>
       </c>
       <c r="P13" t="s" s="25">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q13" t="s" s="25">
         <v>837</v>
@@ -5710,7 +5731,7 @@
         <v>837</v>
       </c>
       <c r="L14" t="s" s="25">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="M14" t="s" s="25">
         <v>971</v>
@@ -5775,7 +5796,7 @@
         <v>842</v>
       </c>
       <c r="O15" t="s" s="25">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="P15" t="s" s="25">
         <v>693</v>
@@ -5784,7 +5805,7 @@
         <v>672</v>
       </c>
       <c r="R15" t="s" s="25">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="16" ht="15.0" customHeight="true">
@@ -5831,7 +5852,7 @@
         <v>691</v>
       </c>
       <c r="O16" t="s" s="25">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="P16" t="s" s="25">
         <v>792</v>
@@ -6120,7 +6141,7 @@
         <v>643</v>
       </c>
       <c r="R21" t="s" s="25">
-        <v>624</v>
+        <v>643</v>
       </c>
     </row>
     <row r="22" ht="15.0" customHeight="true">
@@ -6164,7 +6185,7 @@
         <v>844</v>
       </c>
       <c r="N22" t="s" s="25">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="O22" t="s" s="25">
         <v>844</v>
@@ -6217,19 +6238,19 @@
         <v>1045</v>
       </c>
       <c r="M23" t="s" s="25">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="N23" t="s" s="25">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="O23" t="s" s="25">
         <v>828</v>
       </c>
       <c r="P23" t="s" s="25">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="Q23" t="s" s="25">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="R23" t="s" s="25">
         <v>624</v>
@@ -6270,7 +6291,7 @@
         <v>624</v>
       </c>
       <c r="L24" t="s" s="25">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="M24" t="s" s="25">
         <v>624</v>
@@ -6332,19 +6353,19 @@
         <v>1114</v>
       </c>
       <c r="N25" t="s" s="25">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="O25" t="s" s="25">
         <v>853</v>
       </c>
       <c r="P25" t="s" s="25">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="Q25" t="s" s="25">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="R25" t="s" s="25">
-        <v>624</v>
+        <v>863</v>
       </c>
     </row>
     <row r="26" ht="15.0" customHeight="true">
@@ -6435,7 +6456,7 @@
         <v>1031</v>
       </c>
       <c r="K27" t="s" s="25">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="L27" t="s" s="25">
         <v>1022</v>
@@ -6453,7 +6474,7 @@
         <v>1098</v>
       </c>
       <c r="Q27" t="s" s="25">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="R27" t="s" s="25">
         <v>624</v>
@@ -6491,16 +6512,16 @@
         <v>1105</v>
       </c>
       <c r="K28" t="s" s="25">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="L28" t="s" s="25">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="M28" t="s" s="25">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="N28" t="s" s="25">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="O28" t="s" s="25">
         <v>1066</v>
@@ -6509,10 +6530,10 @@
         <v>666</v>
       </c>
       <c r="Q28" t="s" s="25">
-        <v>1478</v>
+        <v>1481</v>
       </c>
       <c r="R28" t="s" s="25">
-        <v>1509</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="29" ht="15.0" customHeight="true">
@@ -6547,7 +6568,7 @@
         <v>1106</v>
       </c>
       <c r="K29" t="s" s="25">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="L29" t="s" s="25">
         <v>1122</v>
@@ -6556,7 +6577,7 @@
         <v>1038</v>
       </c>
       <c r="N29" t="s" s="25">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="O29" t="s" s="25">
         <v>665</v>
@@ -6565,10 +6586,10 @@
         <v>666</v>
       </c>
       <c r="Q29" t="s" s="25">
-        <v>1479</v>
+        <v>1482</v>
       </c>
       <c r="R29" t="s" s="25">
-        <v>1510</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="30" ht="15.0" customHeight="true">
@@ -6730,7 +6751,7 @@
         <v>685</v>
       </c>
       <c r="P32" t="s" s="25">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="Q32" t="s" s="25">
         <v>1021</v>
@@ -6780,7 +6801,7 @@
         <v>899</v>
       </c>
       <c r="N33" t="s" s="25">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="O33" t="s" s="25">
         <v>1114</v>
@@ -7004,7 +7025,7 @@
         <v>1104</v>
       </c>
       <c r="N37" t="s" s="25">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="O37" t="s" s="25">
         <v>664</v>
@@ -7110,10 +7131,10 @@
         <v>1104</v>
       </c>
       <c r="L39" t="s" s="25">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="M39" t="s" s="25">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="N39" t="s" s="25">
         <v>816</v>
@@ -7499,25 +7520,25 @@
         <v>1108</v>
       </c>
       <c r="K46" t="s" s="25">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="L46" t="s" s="25">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="M46" t="s" s="25">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="N46" t="s" s="25">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="O46" t="s" s="25">
         <v>1386</v>
       </c>
       <c r="P46" t="s" s="25">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="Q46" t="s" s="25">
-        <v>1480</v>
+        <v>1483</v>
       </c>
       <c r="R46" t="s" s="25">
         <v>624</v>
@@ -7555,25 +7576,25 @@
         <v>1109</v>
       </c>
       <c r="K47" t="s" s="25">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="L47" t="s" s="25">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="M47" t="s" s="25">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="N47" t="s" s="25">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="O47" t="s" s="25">
         <v>765</v>
       </c>
       <c r="P47" t="s" s="25">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="Q47" t="s" s="25">
-        <v>1481</v>
+        <v>1484</v>
       </c>
       <c r="R47" t="s" s="25">
         <v>624</v>
@@ -7617,16 +7638,16 @@
         <v>753</v>
       </c>
       <c r="M48" t="s" s="25">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="N48" t="s" s="25">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="O48" t="s" s="25">
         <v>1387</v>
       </c>
       <c r="P48" t="s" s="25">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="Q48" t="s" s="25">
         <v>676</v>
@@ -7667,25 +7688,25 @@
         <v>1111</v>
       </c>
       <c r="K49" t="s" s="25">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L49" t="s" s="25">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="M49" t="s" s="25">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="N49" t="s" s="25">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="O49" t="s" s="25">
         <v>1388</v>
       </c>
       <c r="P49" t="s" s="25">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="Q49" t="s" s="25">
-        <v>1482</v>
+        <v>1485</v>
       </c>
       <c r="R49" t="s" s="25">
         <v>624</v>
@@ -7729,7 +7750,7 @@
         <v>742</v>
       </c>
       <c r="M50" t="s" s="25">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="N50" t="s" s="25">
         <v>708</v>
@@ -7779,7 +7800,7 @@
         <v>657</v>
       </c>
       <c r="K51" t="s" s="25">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L51" t="s" s="25">
         <v>1026</v>
@@ -7797,10 +7818,10 @@
         <v>1117</v>
       </c>
       <c r="Q51" t="s" s="25">
-        <v>1483</v>
+        <v>1486</v>
       </c>
       <c r="R51" t="s" s="25">
-        <v>1511</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="52" ht="15.0" customHeight="true">
@@ -7835,16 +7856,16 @@
         <v>705</v>
       </c>
       <c r="K52" t="s" s="25">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="L52" t="s" s="25">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="M52" t="s" s="25">
         <v>759</v>
       </c>
       <c r="N52" t="s" s="25">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="O52" t="s" s="25">
         <v>1390</v>
@@ -7853,10 +7874,10 @@
         <v>898</v>
       </c>
       <c r="Q52" t="s" s="25">
-        <v>1484</v>
+        <v>1487</v>
       </c>
       <c r="R52" t="s" s="25">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="53" ht="15.0" customHeight="true">
@@ -7894,19 +7915,19 @@
         <v>816</v>
       </c>
       <c r="L53" t="s" s="25">
-        <v>1136</v>
+        <v>1014</v>
       </c>
       <c r="M53" t="s" s="25">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="N53" t="s" s="25">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="O53" t="s" s="25">
         <v>717</v>
       </c>
       <c r="P53" t="s" s="25">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="Q53" t="s" s="25">
         <v>751</v>
@@ -7959,13 +7980,13 @@
         <v>692</v>
       </c>
       <c r="O54" t="s" s="25">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P54" t="s" s="25">
         <v>759</v>
       </c>
       <c r="Q54" t="s" s="25">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="R54" t="s" s="25">
         <v>1101</v>
@@ -8003,16 +8024,16 @@
         <v>1094</v>
       </c>
       <c r="K55" t="s" s="25">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="L55" t="s" s="25">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="M55" t="s" s="25">
         <v>1099</v>
       </c>
       <c r="N55" t="s" s="25">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="O55" t="s" s="25">
         <v>946</v>
@@ -8021,7 +8042,7 @@
         <v>1077</v>
       </c>
       <c r="Q55" t="s" s="25">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="R55" t="s" s="25">
         <v>750</v>
@@ -8065,7 +8086,7 @@
         <v>821</v>
       </c>
       <c r="M56" t="s" s="25">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="N56" t="s" s="25">
         <v>1073</v>
@@ -8074,7 +8095,7 @@
         <v>1095</v>
       </c>
       <c r="P56" t="s" s="25">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="Q56" t="s" s="25">
         <v>657</v>
@@ -8124,19 +8145,19 @@
         <v>1041</v>
       </c>
       <c r="N57" t="s" s="25">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="O57" t="s" s="25">
         <v>1391</v>
       </c>
       <c r="P57" t="s" s="25">
-        <v>697</v>
+        <v>1348</v>
       </c>
       <c r="Q57" t="s" s="25">
-        <v>1207</v>
+        <v>751</v>
       </c>
       <c r="R57" t="s" s="25">
-        <v>624</v>
+        <v>751</v>
       </c>
     </row>
     <row r="58" ht="15.0" customHeight="true">
@@ -8186,10 +8207,10 @@
         <v>897</v>
       </c>
       <c r="P58" t="s" s="25">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="Q58" t="s" s="25">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="R58" t="s" s="25">
         <v>624</v>
@@ -8233,7 +8254,7 @@
         <v>624</v>
       </c>
       <c r="M59" t="s" s="25">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="N59" t="s" s="25">
         <v>624</v>
@@ -8354,10 +8375,10 @@
         <v>762</v>
       </c>
       <c r="P61" t="s" s="25">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="Q61" t="s" s="25">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="R61" t="s" s="25">
         <v>624</v>
@@ -8395,7 +8416,7 @@
         <v>1114</v>
       </c>
       <c r="K62" t="s" s="25">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="L62" t="s" s="25">
         <v>643</v>
@@ -8413,7 +8434,7 @@
         <v>899</v>
       </c>
       <c r="Q62" t="s" s="25">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="R62" t="s" s="25">
         <v>645</v>
@@ -8451,16 +8472,16 @@
         <v>1115</v>
       </c>
       <c r="K63" t="s" s="25">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="L63" t="s" s="25">
         <v>877</v>
       </c>
       <c r="M63" t="s" s="25">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="N63" t="s" s="25">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="O63" t="s" s="25">
         <v>1392</v>
@@ -8469,10 +8490,10 @@
         <v>839</v>
       </c>
       <c r="Q63" t="s" s="25">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="R63" t="s" s="25">
-        <v>1484</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="64" ht="15.0" customHeight="true">
@@ -8519,16 +8540,16 @@
         <v>746</v>
       </c>
       <c r="O64" t="s" s="25">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="P64" t="s" s="25">
         <v>669</v>
       </c>
       <c r="Q64" t="s" s="25">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="R64" t="s" s="25">
-        <v>624</v>
+        <v>954</v>
       </c>
     </row>
     <row r="65" ht="15.0" customHeight="true">
@@ -8693,7 +8714,7 @@
         <v>702</v>
       </c>
       <c r="Q67" t="s" s="25">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="R67" t="s" s="25">
         <v>624</v>
@@ -8734,10 +8755,10 @@
         <v>624</v>
       </c>
       <c r="L68" t="s" s="25">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="M68" t="s" s="25">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="N68" t="s" s="25">
         <v>624</v>
@@ -8746,10 +8767,10 @@
         <v>905</v>
       </c>
       <c r="P68" t="s" s="25">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="Q68" t="s" s="25">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="R68" t="s" s="25">
         <v>624</v>
@@ -8790,10 +8811,10 @@
         <v>624</v>
       </c>
       <c r="L69" t="s" s="25">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="M69" t="s" s="25">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="N69" t="s" s="25">
         <v>624</v>
@@ -8805,7 +8826,7 @@
         <v>884</v>
       </c>
       <c r="Q69" t="s" s="25">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="R69" t="s" s="25">
         <v>624</v>
@@ -8846,10 +8867,10 @@
         <v>624</v>
       </c>
       <c r="L70" t="s" s="25">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="M70" t="s" s="25">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="N70" t="s" s="25">
         <v>624</v>
@@ -8858,10 +8879,10 @@
         <v>676</v>
       </c>
       <c r="P70" t="s" s="25">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="Q70" t="s" s="25">
-        <v>1486</v>
+        <v>1489</v>
       </c>
       <c r="R70" t="s" s="25">
         <v>624</v>
@@ -8899,13 +8920,13 @@
         <v>1089</v>
       </c>
       <c r="K71" t="s" s="25">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="L71" t="s" s="25">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="M71" t="s" s="25">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="N71" t="s" s="25">
         <v>920</v>
@@ -8914,13 +8935,13 @@
         <v>1394</v>
       </c>
       <c r="P71" t="s" s="25">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="Q71" t="s" s="25">
-        <v>1487</v>
+        <v>1490</v>
       </c>
       <c r="R71" t="s" s="25">
-        <v>624</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="72" ht="15.0" customHeight="true">
@@ -8958,25 +8979,25 @@
         <v>1092</v>
       </c>
       <c r="L72" t="s" s="25">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="M72" t="s" s="25">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="N72" t="s" s="25">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="O72" t="s" s="25">
         <v>1395</v>
       </c>
       <c r="P72" t="s" s="25">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="Q72" t="s" s="25">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="R72" t="s" s="25">
-        <v>624</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="73" ht="15.0" customHeight="true">
@@ -9014,25 +9035,25 @@
         <v>816</v>
       </c>
       <c r="L73" t="s" s="25">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="M73" t="s" s="25">
         <v>719</v>
       </c>
       <c r="N73" t="s" s="25">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="O73" t="s" s="25">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="P73" t="s" s="25">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="Q73" t="s" s="25">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="R73" t="s" s="25">
-        <v>624</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="74" ht="15.0" customHeight="true">
@@ -9067,7 +9088,7 @@
         <v>989</v>
       </c>
       <c r="K74" t="s" s="25">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="L74" t="s" s="25">
         <v>655</v>
@@ -9088,7 +9109,7 @@
         <v>1101</v>
       </c>
       <c r="R74" t="s" s="25">
-        <v>624</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="75" ht="15.0" customHeight="true">
@@ -9129,7 +9150,7 @@
         <v>624</v>
       </c>
       <c r="M75" t="s" s="25">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="N75" t="s" s="25">
         <v>624</v>
@@ -9185,7 +9206,7 @@
         <v>624</v>
       </c>
       <c r="M76" t="s" s="25">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="N76" t="s" s="25">
         <v>624</v>
@@ -9241,7 +9262,7 @@
         <v>624</v>
       </c>
       <c r="M77" t="s" s="25">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="N77" t="s" s="25">
         <v>624</v>
@@ -9297,7 +9318,7 @@
         <v>624</v>
       </c>
       <c r="M78" t="s" s="25">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="N78" t="s" s="25">
         <v>624</v>
@@ -9353,7 +9374,7 @@
         <v>624</v>
       </c>
       <c r="M79" t="s" s="25">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="N79" t="s" s="25">
         <v>624</v>
@@ -9409,7 +9430,7 @@
         <v>624</v>
       </c>
       <c r="M80" t="s" s="25">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="N80" t="s" s="25">
         <v>624</v>
@@ -9459,10 +9480,10 @@
         <v>885</v>
       </c>
       <c r="K81" t="s" s="25">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="L81" t="s" s="25">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="M81" t="s" s="25">
         <v>1106</v>
@@ -9474,13 +9495,13 @@
         <v>1396</v>
       </c>
       <c r="P81" t="s" s="25">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="Q81" t="s" s="25">
         <v>1048</v>
       </c>
       <c r="R81" t="s" s="25">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="82" ht="15.0" customHeight="true">
@@ -9515,10 +9536,10 @@
         <v>1122</v>
       </c>
       <c r="K82" t="s" s="25">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="L82" t="s" s="25">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="M82" t="s" s="25">
         <v>1128</v>
@@ -9533,10 +9554,10 @@
         <v>905</v>
       </c>
       <c r="Q82" t="s" s="25">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="R82" t="s" s="25">
-        <v>1512</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="83" ht="15.0" customHeight="true">
@@ -9571,7 +9592,7 @@
         <v>1047</v>
       </c>
       <c r="K83" t="s" s="25">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="L83" t="s" s="25">
         <v>947</v>
@@ -9586,10 +9607,10 @@
         <v>1106</v>
       </c>
       <c r="P83" t="s" s="25">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="Q83" t="s" s="25">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="R83" t="s" s="25">
         <v>1039</v>
@@ -9627,16 +9648,16 @@
         <v>1123</v>
       </c>
       <c r="K84" t="s" s="25">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="L84" t="s" s="25">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="M84" t="s" s="25">
         <v>870</v>
       </c>
       <c r="N84" t="s" s="25">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="O84" t="s" s="25">
         <v>1397</v>
@@ -9683,10 +9704,10 @@
         <v>961</v>
       </c>
       <c r="K85" t="s" s="25">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="L85" t="s" s="25">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="M85" t="s" s="25">
         <v>1127</v>
@@ -9698,13 +9719,13 @@
         <v>1398</v>
       </c>
       <c r="P85" t="s" s="25">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="Q85" t="s" s="25">
         <v>1395</v>
       </c>
       <c r="R85" t="s" s="25">
-        <v>1513</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="86" ht="15.0" customHeight="true">
@@ -9739,22 +9760,22 @@
         <v>1124</v>
       </c>
       <c r="K86" t="s" s="25">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L86" t="s" s="25">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="M86" t="s" s="25">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="N86" t="s" s="25">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="O86" t="s" s="25">
         <v>642</v>
       </c>
       <c r="P86" t="s" s="25">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="Q86" t="s" s="25">
         <v>862</v>
@@ -9798,7 +9819,7 @@
         <v>702</v>
       </c>
       <c r="L87" t="s" s="25">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="M87" t="s" s="25">
         <v>755</v>
@@ -9869,10 +9890,10 @@
         <v>755</v>
       </c>
       <c r="Q88" t="s" s="25">
-        <v>644</v>
+        <v>665</v>
       </c>
       <c r="R88" t="s" s="25">
-        <v>624</v>
+        <v>666</v>
       </c>
     </row>
     <row r="89" ht="15.0" customHeight="true">
@@ -9928,7 +9949,7 @@
         <v>666</v>
       </c>
       <c r="R89" t="s" s="25">
-        <v>624</v>
+        <v>666</v>
       </c>
     </row>
     <row r="90" ht="15.0" customHeight="true">
@@ -9963,7 +9984,7 @@
         <v>624</v>
       </c>
       <c r="K90" t="s" s="25">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="L90" t="s" s="25">
         <v>624</v>
@@ -9981,7 +10002,7 @@
         <v>624</v>
       </c>
       <c r="Q90" t="s" s="25">
-        <v>1488</v>
+        <v>1491</v>
       </c>
       <c r="R90" t="s" s="25">
         <v>624</v>
@@ -10075,25 +10096,25 @@
         <v>1127</v>
       </c>
       <c r="K92" t="s" s="25">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="L92" t="s" s="25">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="M92" t="s" s="25">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="N92" t="s" s="25">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="O92" t="s" s="25">
         <v>1400</v>
       </c>
       <c r="P92" t="s" s="25">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="Q92" t="s" s="25">
-        <v>1489</v>
+        <v>1492</v>
       </c>
       <c r="R92" t="s" s="25">
         <v>924</v>
@@ -10134,16 +10155,16 @@
         <v>909</v>
       </c>
       <c r="L93" t="s" s="25">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="M93" t="s" s="25">
         <v>633</v>
       </c>
       <c r="N93" t="s" s="25">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="O93" t="s" s="25">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="P93" t="s" s="25">
         <v>931</v>
@@ -10190,19 +10211,19 @@
         <v>825</v>
       </c>
       <c r="L94" t="s" s="25">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="M94" t="s" s="25">
         <v>624</v>
       </c>
       <c r="N94" t="s" s="25">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="O94" t="s" s="25">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="P94" t="s" s="25">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="Q94" t="s" s="25">
         <v>624</v>
@@ -10258,7 +10279,7 @@
         <v>1401</v>
       </c>
       <c r="P95" t="s" s="25">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="Q95" t="s" s="25">
         <v>624</v>
@@ -10308,19 +10329,19 @@
         <v>624</v>
       </c>
       <c r="N96" t="s" s="25">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="O96" t="s" s="25">
         <v>1093</v>
       </c>
       <c r="P96" t="s" s="25">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="Q96" t="s" s="25">
         <v>624</v>
       </c>
       <c r="R96" t="s" s="25">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="97" ht="15.0" customHeight="true">
@@ -11204,13 +11225,13 @@
         <v>624</v>
       </c>
       <c r="N112" t="s" s="25">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="O112" t="s" s="25">
         <v>624</v>
       </c>
       <c r="P112" t="s" s="25">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="Q112" t="s" s="25">
         <v>624</v>
@@ -12000,7 +12021,7 @@
         <v>737</v>
       </c>
       <c r="R126" t="s" s="25">
-        <v>1506</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="127" ht="15.0" customHeight="true">
@@ -12100,10 +12121,10 @@
         <v>1132</v>
       </c>
       <c r="N128" t="s" s="25">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="O128" t="s" s="25">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="P128" t="s" s="25">
         <v>724</v>
@@ -12162,13 +12183,13 @@
         <v>1135</v>
       </c>
       <c r="P129" t="s" s="25">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="Q129" t="s" s="25">
-        <v>1490</v>
+        <v>1493</v>
       </c>
       <c r="R129" t="s" s="25">
-        <v>1514</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="130" ht="15.0" customHeight="true">
@@ -12206,25 +12227,25 @@
         <v>1045</v>
       </c>
       <c r="L130" t="s" s="25">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="M130" t="s" s="25">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="N130" t="s" s="25">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="O130" t="s" s="25">
         <v>1131</v>
       </c>
       <c r="P130" t="s" s="25">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="Q130" t="s" s="25">
-        <v>1491</v>
+        <v>1494</v>
       </c>
       <c r="R130" t="s" s="25">
-        <v>1515</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="131" ht="15.0" customHeight="true">
@@ -12265,22 +12286,22 @@
         <v>736</v>
       </c>
       <c r="M131" t="s" s="25">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="N131" t="s" s="25">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="O131" t="s" s="25">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="P131" t="s" s="25">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="Q131" t="s" s="25">
-        <v>1492</v>
+        <v>1495</v>
       </c>
       <c r="R131" t="s" s="25">
-        <v>1516</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="132" ht="15.0" customHeight="true">
@@ -12315,13 +12336,13 @@
         <v>959</v>
       </c>
       <c r="K132" t="s" s="25">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="L132" t="s" s="25">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="M132" t="s" s="25">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="N132" t="s" s="25">
         <v>776</v>
@@ -12371,7 +12392,7 @@
         <v>624</v>
       </c>
       <c r="K133" t="s" s="25">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="L133" t="s" s="25">
         <v>624</v>
@@ -12383,7 +12404,7 @@
         <v>624</v>
       </c>
       <c r="O133" t="s" s="25">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="P133" t="s" s="25">
         <v>624</v>
@@ -12539,7 +12560,7 @@
         <v>624</v>
       </c>
       <c r="K136" t="s" s="25">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="L136" t="s" s="25">
         <v>624</v>
@@ -12595,7 +12616,7 @@
         <v>624</v>
       </c>
       <c r="K137" t="s" s="25">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="L137" t="s" s="25">
         <v>624</v>
@@ -12704,31 +12725,31 @@
         <v>624</v>
       </c>
       <c r="J139" t="s" s="25">
-        <v>1136</v>
+        <v>1014</v>
       </c>
       <c r="K139" t="s" s="25">
-        <v>1136</v>
+        <v>1014</v>
       </c>
       <c r="L139" t="s" s="25">
-        <v>1136</v>
+        <v>1014</v>
       </c>
       <c r="M139" t="s" s="25">
-        <v>1136</v>
+        <v>1014</v>
       </c>
       <c r="N139" t="s" s="25">
-        <v>1136</v>
+        <v>1014</v>
       </c>
       <c r="O139" t="s" s="25">
-        <v>1136</v>
+        <v>1014</v>
       </c>
       <c r="P139" t="s" s="25">
-        <v>1136</v>
+        <v>1014</v>
       </c>
       <c r="Q139" t="s" s="25">
-        <v>1136</v>
+        <v>1014</v>
       </c>
       <c r="R139" t="s" s="25">
-        <v>1136</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="140" ht="15.0" customHeight="true">
@@ -12760,13 +12781,13 @@
         <v>1046</v>
       </c>
       <c r="J140" t="s" s="25">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="K140" t="s" s="25">
         <v>624</v>
       </c>
       <c r="L140" t="s" s="25">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="M140" t="s" s="25">
         <v>624</v>
@@ -12778,10 +12799,10 @@
         <v>953</v>
       </c>
       <c r="P140" t="s" s="25">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="Q140" t="s" s="25">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="R140" t="s" s="25">
         <v>953</v>
@@ -12816,28 +12837,28 @@
         <v>1047</v>
       </c>
       <c r="J141" t="s" s="25">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="K141" t="s" s="25">
         <v>624</v>
       </c>
       <c r="L141" t="s" s="25">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="M141" t="s" s="25">
         <v>624</v>
       </c>
       <c r="N141" t="s" s="25">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="O141" t="s" s="25">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="P141" t="s" s="25">
         <v>952</v>
       </c>
       <c r="Q141" t="s" s="25">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="R141" t="s" s="25">
         <v>702</v>
@@ -12890,10 +12911,10 @@
         <v>1125</v>
       </c>
       <c r="P142" t="s" s="25">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="Q142" t="s" s="25">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="R142" t="s" s="25">
         <v>952</v>
@@ -12931,22 +12952,22 @@
         <v>624</v>
       </c>
       <c r="K143" t="s" s="25">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="L143" t="s" s="25">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="M143" t="s" s="25">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="N143" t="s" s="25">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="O143" t="s" s="25">
         <v>1407</v>
       </c>
       <c r="P143" t="s" s="25">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="Q143" t="s" s="25">
         <v>624</v>
@@ -13099,22 +13120,22 @@
         <v>803</v>
       </c>
       <c r="K146" t="s" s="25">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="L146" t="s" s="25">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="M146" t="s" s="25">
         <v>1110</v>
       </c>
       <c r="N146" t="s" s="25">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="O146" t="s" s="25">
         <v>1408</v>
       </c>
       <c r="P146" t="s" s="25">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="Q146" t="s" s="25">
         <v>991</v>
@@ -13161,7 +13182,7 @@
         <v>886</v>
       </c>
       <c r="M147" t="s" s="25">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="N147" t="s" s="25">
         <v>1087</v>
@@ -13170,10 +13191,10 @@
         <v>1409</v>
       </c>
       <c r="P147" t="s" s="25">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="Q147" t="s" s="25">
-        <v>1491</v>
+        <v>1494</v>
       </c>
       <c r="R147" t="s" s="25">
         <v>624</v>
@@ -13220,13 +13241,13 @@
         <v>1025</v>
       </c>
       <c r="N148" t="s" s="25">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="O148" t="s" s="25">
         <v>1410</v>
       </c>
       <c r="P148" t="s" s="25">
-        <v>1136</v>
+        <v>1014</v>
       </c>
       <c r="Q148" t="s" s="25">
         <v>638</v>
@@ -13279,7 +13300,7 @@
         <v>739</v>
       </c>
       <c r="O149" t="s" s="25">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="P149" t="s" s="25">
         <v>1024</v>
@@ -13326,10 +13347,10 @@
         <v>739</v>
       </c>
       <c r="L150" t="s" s="25">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="M150" t="s" s="25">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="N150" t="s" s="25">
         <v>734</v>
@@ -13338,7 +13359,7 @@
         <v>899</v>
       </c>
       <c r="P150" t="s" s="25">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="Q150" t="s" s="25">
         <v>670</v>
@@ -13376,7 +13397,7 @@
         <v>710</v>
       </c>
       <c r="J151" t="s" s="25">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="K151" t="s" s="25">
         <v>942</v>
@@ -13388,16 +13409,16 @@
         <v>943</v>
       </c>
       <c r="N151" t="s" s="25">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="O151" t="s" s="25">
         <v>968</v>
       </c>
       <c r="P151" t="s" s="25">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="Q151" t="s" s="25">
-        <v>624</v>
+        <v>872</v>
       </c>
       <c r="R151" t="s" s="25">
         <v>624</v>
@@ -13453,7 +13474,7 @@
         <v>701</v>
       </c>
       <c r="Q152" t="s" s="25">
-        <v>624</v>
+        <v>854</v>
       </c>
       <c r="R152" t="s" s="25">
         <v>624</v>
@@ -13503,13 +13524,13 @@
         <v>632</v>
       </c>
       <c r="O153" t="s" s="25">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="P153" t="s" s="25">
         <v>740</v>
       </c>
       <c r="Q153" t="s" s="25">
-        <v>624</v>
+        <v>752</v>
       </c>
       <c r="R153" t="s" s="25">
         <v>624</v>
@@ -13544,7 +13565,7 @@
         <v>989</v>
       </c>
       <c r="J154" t="s" s="25">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="K154" t="s" s="25">
         <v>709</v>
@@ -13565,7 +13586,7 @@
         <v>969</v>
       </c>
       <c r="Q154" t="s" s="25">
-        <v>624</v>
+        <v>1264</v>
       </c>
       <c r="R154" t="s" s="25">
         <v>624</v>
@@ -13621,7 +13642,7 @@
         <v>667</v>
       </c>
       <c r="Q155" t="s" s="25">
-        <v>624</v>
+        <v>872</v>
       </c>
       <c r="R155" t="s" s="25">
         <v>624</v>
@@ -13715,10 +13736,10 @@
         <v>750</v>
       </c>
       <c r="K157" t="s" s="25">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="L157" t="s" s="25">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="M157" t="s" s="25">
         <v>688</v>
@@ -13730,7 +13751,7 @@
         <v>838</v>
       </c>
       <c r="P157" t="s" s="25">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="Q157" t="s" s="25">
         <v>697</v>
@@ -13768,16 +13789,16 @@
         <v>1006</v>
       </c>
       <c r="J158" t="s" s="25">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="K158" t="s" s="25">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="L158" t="s" s="25">
         <v>838</v>
       </c>
       <c r="M158" t="s" s="25">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="N158" t="s" s="25">
         <v>740</v>
@@ -13786,7 +13807,7 @@
         <v>689</v>
       </c>
       <c r="P158" t="s" s="25">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="Q158" t="s" s="25">
         <v>705</v>
@@ -13880,7 +13901,7 @@
         <v>1053</v>
       </c>
       <c r="J160" t="s" s="25">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="K160" t="s" s="25">
         <v>782</v>
@@ -13901,7 +13922,7 @@
         <v>782</v>
       </c>
       <c r="Q160" t="s" s="25">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="R160" t="s" s="25">
         <v>624</v>
@@ -14001,7 +14022,7 @@
         <v>949</v>
       </c>
       <c r="M162" t="s" s="25">
-        <v>1014</v>
+        <v>1316</v>
       </c>
       <c r="N162" t="s" s="25">
         <v>866</v>
@@ -14054,7 +14075,7 @@
         <v>1095</v>
       </c>
       <c r="L163" t="s" s="25">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="M163" t="s" s="25">
         <v>849</v>
@@ -14066,13 +14087,13 @@
         <v>768</v>
       </c>
       <c r="P163" t="s" s="25">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="Q163" t="s" s="25">
         <v>768</v>
       </c>
       <c r="R163" t="s" s="25">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="164" ht="15.0" customHeight="true">
@@ -14107,7 +14128,7 @@
         <v>873</v>
       </c>
       <c r="K164" t="s" s="25">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="L164" t="s" s="25">
         <v>907</v>
@@ -14119,13 +14140,13 @@
         <v>1037</v>
       </c>
       <c r="O164" t="s" s="25">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="P164" t="s" s="25">
         <v>663</v>
       </c>
       <c r="Q164" t="s" s="25">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="R164" t="s" s="25">
         <v>663</v>
@@ -14169,22 +14190,22 @@
         <v>918</v>
       </c>
       <c r="M165" t="s" s="25">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="N165" t="s" s="25">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="O165" t="s" s="25">
         <v>918</v>
       </c>
       <c r="P165" t="s" s="25">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="Q165" t="s" s="25">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="R165" t="s" s="25">
-        <v>1517</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="166" ht="15.0" customHeight="true">
@@ -14222,10 +14243,10 @@
         <v>835</v>
       </c>
       <c r="L166" t="s" s="25">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="M166" t="s" s="25">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="N166" t="s" s="25">
         <v>839</v>
@@ -14234,7 +14255,7 @@
         <v>927</v>
       </c>
       <c r="P166" t="s" s="25">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="Q166" t="s" s="25">
         <v>1403</v>
@@ -14272,13 +14293,13 @@
         <v>696</v>
       </c>
       <c r="J167" t="s" s="25">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="K167" t="s" s="25">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="L167" t="s" s="25">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="M167" t="s" s="25">
         <v>694</v>
@@ -14331,22 +14352,22 @@
         <v>672</v>
       </c>
       <c r="K168" t="s" s="25">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="L168" t="s" s="25">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="M168" t="s" s="25">
         <v>769</v>
       </c>
       <c r="N168" t="s" s="25">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="O168" t="s" s="25">
         <v>1034</v>
       </c>
       <c r="P168" t="s" s="25">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="Q168" t="s" s="25">
         <v>816</v>
@@ -14384,7 +14405,7 @@
         <v>1057</v>
       </c>
       <c r="J169" t="s" s="25">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="K169" t="s" s="25">
         <v>800</v>
@@ -14393,22 +14414,22 @@
         <v>995</v>
       </c>
       <c r="M169" t="s" s="25">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="N169" t="s" s="25">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="O169" t="s" s="25">
         <v>1411</v>
       </c>
       <c r="P169" t="s" s="25">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="Q169" t="s" s="25">
-        <v>1493</v>
+        <v>1496</v>
       </c>
       <c r="R169" t="s" s="25">
-        <v>1518</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="170" ht="15.0" customHeight="true">
@@ -14440,7 +14461,7 @@
         <v>933</v>
       </c>
       <c r="J170" t="s" s="25">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="K170" t="s" s="25">
         <v>933</v>
@@ -14458,13 +14479,13 @@
         <v>1412</v>
       </c>
       <c r="P170" t="s" s="25">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="Q170" t="s" s="25">
-        <v>1494</v>
+        <v>1497</v>
       </c>
       <c r="R170" t="s" s="25">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="171" ht="15.0" customHeight="true">
@@ -14496,28 +14517,28 @@
         <v>1058</v>
       </c>
       <c r="J171" t="s" s="25">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="K171" t="s" s="25">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="L171" t="s" s="25">
         <v>700</v>
       </c>
       <c r="M171" t="s" s="25">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="N171" t="s" s="25">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="O171" t="s" s="25">
         <v>1413</v>
       </c>
       <c r="P171" t="s" s="25">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="Q171" t="s" s="25">
-        <v>1495</v>
+        <v>1498</v>
       </c>
       <c r="R171" t="s" s="25">
         <v>978</v>
@@ -14561,7 +14582,7 @@
         <v>1112</v>
       </c>
       <c r="M172" t="s" s="25">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="N172" t="s" s="25">
         <v>1095</v>
@@ -14570,7 +14591,7 @@
         <v>817</v>
       </c>
       <c r="P172" t="s" s="25">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="Q172" t="s" s="25">
         <v>758</v>
@@ -14611,13 +14632,13 @@
         <v>624</v>
       </c>
       <c r="K173" t="s" s="25">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="L173" t="s" s="25">
         <v>889</v>
       </c>
       <c r="M173" t="s" s="25">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="N173" t="s" s="25">
         <v>991</v>
@@ -14629,10 +14650,10 @@
         <v>1126</v>
       </c>
       <c r="Q173" t="s" s="25">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="R173" t="s" s="25">
-        <v>1519</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="174" ht="15.0" customHeight="true">
@@ -14723,7 +14744,7 @@
         <v>624</v>
       </c>
       <c r="K175" t="s" s="25">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="L175" t="s" s="25">
         <v>886</v>
@@ -14738,10 +14759,10 @@
         <v>1414</v>
       </c>
       <c r="P175" t="s" s="25">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="Q175" t="s" s="25">
-        <v>1496</v>
+        <v>1499</v>
       </c>
       <c r="R175" t="s" s="25">
         <v>959</v>
@@ -14788,16 +14809,16 @@
         <v>959</v>
       </c>
       <c r="N176" t="s" s="25">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="O176" t="s" s="25">
         <v>625</v>
       </c>
       <c r="P176" t="s" s="25">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="Q176" t="s" s="25">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="R176" t="s" s="25">
         <v>630</v>
@@ -14912,7 +14933,7 @@
         <v>814</v>
       </c>
       <c r="R178" t="s" s="25">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="179" ht="15.0" customHeight="true">
@@ -15006,13 +15027,13 @@
         <v>899</v>
       </c>
       <c r="L180" t="s" s="25">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="M180" t="s" s="25">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="N180" t="s" s="25">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="O180" t="s" s="25">
         <v>649</v>
@@ -15021,10 +15042,10 @@
         <v>670</v>
       </c>
       <c r="Q180" t="s" s="25">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="R180" t="s" s="25">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="181" ht="15.0" customHeight="true">
@@ -15112,31 +15133,31 @@
         <v>1060</v>
       </c>
       <c r="J182" t="s" s="25">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="K182" t="s" s="25">
         <v>1130</v>
       </c>
       <c r="L182" t="s" s="25">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="M182" t="s" s="25">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="N182" t="s" s="25">
         <v>668</v>
       </c>
       <c r="O182" t="s" s="25">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="P182" t="s" s="25">
         <v>974</v>
       </c>
       <c r="Q182" t="s" s="25">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="R182" t="s" s="25">
-        <v>1520</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="183" ht="15.0" customHeight="true">
@@ -15186,7 +15207,7 @@
         <v>624</v>
       </c>
       <c r="P183" t="s" s="25">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="Q183" t="s" s="25">
         <v>624</v>
@@ -15224,28 +15245,28 @@
         <v>1061</v>
       </c>
       <c r="J184" t="s" s="25">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="K184" t="s" s="25">
         <v>1086</v>
       </c>
       <c r="L184" t="s" s="25">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="M184" t="s" s="25">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="N184" t="s" s="25">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="O184" t="s" s="25">
         <v>1415</v>
       </c>
       <c r="P184" t="s" s="25">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="Q184" t="s" s="25">
-        <v>624</v>
+        <v>1500</v>
       </c>
       <c r="R184" t="s" s="25">
         <v>624</v>
@@ -15286,7 +15307,7 @@
         <v>649</v>
       </c>
       <c r="L185" t="s" s="25">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="M185" t="s" s="25">
         <v>899</v>
@@ -15295,13 +15316,13 @@
         <v>815</v>
       </c>
       <c r="O185" t="s" s="25">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="P185" t="s" s="25">
         <v>806</v>
       </c>
       <c r="Q185" t="s" s="25">
-        <v>624</v>
+        <v>804</v>
       </c>
       <c r="R185" t="s" s="25">
         <v>624</v>
@@ -15351,7 +15372,7 @@
         <v>809</v>
       </c>
       <c r="O186" t="s" s="25">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="P186" t="s" s="25">
         <v>708</v>
@@ -15392,28 +15413,28 @@
         <v>1062</v>
       </c>
       <c r="J187" t="s" s="25">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="K187" t="s" s="25">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="L187" t="s" s="25">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="M187" t="s" s="25">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="N187" t="s" s="25">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="O187" t="s" s="25">
         <v>1416</v>
       </c>
       <c r="P187" t="s" s="25">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="Q187" t="s" s="25">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="R187" t="s" s="25">
         <v>624</v>
@@ -15507,10 +15528,10 @@
         <v>856</v>
       </c>
       <c r="K189" t="s" s="25">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="L189" t="s" s="25">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="M189" t="s" s="25">
         <v>631</v>
@@ -15581,7 +15602,7 @@
         <v>725</v>
       </c>
       <c r="Q190" t="s" s="25">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="R190" t="s" s="25">
         <v>624</v>
@@ -15637,7 +15658,7 @@
         <v>689</v>
       </c>
       <c r="Q191" t="s" s="25">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="R191" t="s" s="25">
         <v>624</v>
@@ -15787,25 +15808,25 @@
         <v>1041</v>
       </c>
       <c r="K194" t="s" s="25">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="L194" t="s" s="25">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="M194" t="s" s="25">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="N194" t="s" s="25">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="O194" t="s" s="25">
         <v>1417</v>
       </c>
       <c r="P194" t="s" s="25">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="Q194" t="s" s="25">
-        <v>1498</v>
+        <v>1502</v>
       </c>
       <c r="R194" t="s" s="25">
         <v>624</v>
@@ -15846,22 +15867,22 @@
         <v>1079</v>
       </c>
       <c r="L195" t="s" s="25">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="M195" t="s" s="25">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="N195" t="s" s="25">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="O195" t="s" s="25">
         <v>1418</v>
       </c>
       <c r="P195" t="s" s="25">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="Q195" t="s" s="25">
-        <v>1499</v>
+        <v>1503</v>
       </c>
       <c r="R195" t="s" s="25">
         <v>624</v>
@@ -16064,28 +16085,28 @@
         <v>1065</v>
       </c>
       <c r="J199" t="s" s="25">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="K199" t="s" s="25">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="L199" t="s" s="25">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="M199" t="s" s="25">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="N199" t="s" s="25">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="O199" t="s" s="25">
         <v>1419</v>
       </c>
       <c r="P199" t="s" s="25">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="Q199" t="s" s="25">
-        <v>1500</v>
+        <v>1504</v>
       </c>
       <c r="R199" t="s" s="25">
         <v>624</v>
@@ -16123,7 +16144,7 @@
         <v>1090</v>
       </c>
       <c r="K200" t="s" s="25">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="L200" t="s" s="25">
         <v>1020</v>
@@ -16141,7 +16162,7 @@
         <v>1035</v>
       </c>
       <c r="Q200" t="s" s="25">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="R200" t="s" s="25">
         <v>624</v>
@@ -16232,16 +16253,16 @@
         <v>1067</v>
       </c>
       <c r="J202" t="s" s="25">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="K202" t="s" s="25">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="L202" t="s" s="25">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="M202" t="s" s="25">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="N202" t="s" s="25">
         <v>1081</v>
@@ -16303,16 +16324,16 @@
         <v>853</v>
       </c>
       <c r="O203" t="s" s="25">
-        <v>1295</v>
+        <v>1420</v>
       </c>
       <c r="P203" t="s" s="25">
         <v>988</v>
       </c>
       <c r="Q203" t="s" s="25">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="R203" t="s" s="25">
-        <v>624</v>
+        <v>649</v>
       </c>
     </row>
     <row r="204" ht="15.0" customHeight="true">
@@ -16368,7 +16389,7 @@
         <v>897</v>
       </c>
       <c r="R204" t="s" s="25">
-        <v>624</v>
+        <v>763</v>
       </c>
     </row>
     <row r="205" ht="15.0" customHeight="true">
@@ -16400,7 +16421,7 @@
         <v>1069</v>
       </c>
       <c r="J205" t="s" s="25">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="K205" t="s" s="25">
         <v>647</v>
@@ -16418,13 +16439,13 @@
         <v>857</v>
       </c>
       <c r="P205" t="s" s="25">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="Q205" t="s" s="25">
         <v>650</v>
       </c>
       <c r="R205" t="s" s="25">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="206" ht="15.0" customHeight="true">
@@ -16456,7 +16477,7 @@
         <v>1070</v>
       </c>
       <c r="J206" t="s" s="25">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="K206" t="s" s="25">
         <v>715</v>
@@ -16530,7 +16551,7 @@
         <v>937</v>
       </c>
       <c r="P207" t="s" s="25">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="Q207" t="s" s="25">
         <v>814</v>
@@ -16574,7 +16595,7 @@
         <v>705</v>
       </c>
       <c r="L208" t="s" s="25">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="M208" t="s" s="25">
         <v>664</v>
@@ -16592,7 +16613,7 @@
         <v>632</v>
       </c>
       <c r="R208" t="s" s="25">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="209" ht="15.0" customHeight="true">
@@ -16627,25 +16648,25 @@
         <v>1135</v>
       </c>
       <c r="K209" t="s" s="25">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="L209" t="s" s="25">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="M209" t="s" s="25">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="N209" t="s" s="25">
         <v>630</v>
       </c>
       <c r="O209" t="s" s="25">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="P209" t="s" s="25">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="Q209" t="s" s="25">
-        <v>1501</v>
+        <v>1505</v>
       </c>
       <c r="R209" t="s" s="25">
         <v>624</v>
@@ -16686,7 +16707,7 @@
         <v>897</v>
       </c>
       <c r="L210" t="s" s="25">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="M210" t="s" s="25">
         <v>685</v>
@@ -16695,13 +16716,13 @@
         <v>659</v>
       </c>
       <c r="O210" t="s" s="25">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="P210" t="s" s="25">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="Q210" t="s" s="25">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="R210" t="s" s="25">
         <v>624</v>
@@ -16748,7 +16769,7 @@
         <v>1090</v>
       </c>
       <c r="N211" t="s" s="25">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="O211" t="s" s="25">
         <v>635</v>
@@ -16792,13 +16813,13 @@
         <v>1072</v>
       </c>
       <c r="J212" t="s" s="25">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="K212" t="s" s="25">
         <v>954</v>
       </c>
       <c r="L212" t="s" s="25">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="M212" t="s" s="25">
         <v>779</v>
@@ -16816,7 +16837,7 @@
         <v>624</v>
       </c>
       <c r="R212" t="s" s="25">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="213" ht="15.0" customHeight="true">
@@ -16963,7 +16984,7 @@
         <v>842</v>
       </c>
       <c r="K215" t="s" s="25">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="L215" t="s" s="25">
         <v>747</v>
@@ -16978,7 +16999,7 @@
         <v>849</v>
       </c>
       <c r="P215" t="s" s="25">
-        <v>1136</v>
+        <v>1014</v>
       </c>
       <c r="Q215" t="s" s="25">
         <v>624</v>
@@ -17034,7 +17055,7 @@
         <v>816</v>
       </c>
       <c r="P216" t="s" s="25">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="Q216" t="s" s="25">
         <v>624</v>
@@ -17152,7 +17173,7 @@
         <v>643</v>
       </c>
       <c r="R218" t="s" s="25">
-        <v>624</v>
+        <v>643</v>
       </c>
     </row>
     <row r="219" ht="15.0" customHeight="true">
@@ -17184,25 +17205,25 @@
         <v>1074</v>
       </c>
       <c r="J219" t="s" s="25">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="K219" t="s" s="25">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L219" t="s" s="25">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="M219" t="s" s="25">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="N219" t="s" s="25">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="O219" t="s" s="25">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="P219" t="s" s="25">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="Q219" t="s" s="25">
         <v>624</v>
@@ -17299,19 +17320,19 @@
         <v>1075</v>
       </c>
       <c r="K221" t="s" s="25">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="L221" t="s" s="25">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="M221" t="s" s="25">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="N221" t="s" s="25">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="O221" t="s" s="25">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="P221" t="s" s="25">
         <v>1407</v>
@@ -17355,13 +17376,13 @@
         <v>855</v>
       </c>
       <c r="K222" t="s" s="25">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="L222" t="s" s="25">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="M222" t="s" s="25">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="N222" t="s" s="25">
         <v>1054</v>
@@ -17408,19 +17429,19 @@
         <v>1076</v>
       </c>
       <c r="J223" t="s" s="25">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="K223" t="s" s="25">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="L223" t="s" s="25">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="M223" t="s" s="25">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="N223" t="s" s="25">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="O223" t="s" s="25">
         <v>1031</v>
@@ -17541,7 +17562,7 @@
         <v>624</v>
       </c>
       <c r="Q225" t="s" s="25">
-        <v>1502</v>
+        <v>1506</v>
       </c>
       <c r="R225" t="s" s="25">
         <v>624</v>
@@ -17691,13 +17712,13 @@
         <v>640</v>
       </c>
       <c r="K228" t="s" s="25">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="L228" t="s" s="25">
         <v>991</v>
       </c>
       <c r="M228" t="s" s="25">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="N228" t="s" s="25">
         <v>789</v>
@@ -17706,7 +17727,7 @@
         <v>789</v>
       </c>
       <c r="P228" t="s" s="25">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="Q228" t="s" s="25">
         <v>854</v>
@@ -17868,13 +17889,13 @@
         <v>1054</v>
       </c>
       <c r="N231" t="s" s="25">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="O231" t="s" s="25">
         <v>838</v>
       </c>
       <c r="P231" t="s" s="25">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="Q231" t="s" s="25">
         <v>854</v>
@@ -17915,25 +17936,25 @@
         <v>1024</v>
       </c>
       <c r="K232" t="s" s="25">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="L232" t="s" s="25">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="M232" t="s" s="25">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="N232" t="s" s="25">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="O232" t="s" s="25">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="P232" t="s" s="25">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="Q232" t="s" s="25">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="R232" t="s" s="25">
         <v>624</v>
@@ -17968,28 +17989,28 @@
         <v>1079</v>
       </c>
       <c r="J233" t="s" s="25">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="K233" t="s" s="25">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="L233" t="s" s="25">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="M233" t="s" s="25">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="N233" t="s" s="25">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="O233" t="s" s="25">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="P233" t="s" s="25">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="Q233" t="s" s="25">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="R233" t="s" s="25">
         <v>624</v>
@@ -18042,7 +18063,7 @@
         <v>730</v>
       </c>
       <c r="P234" t="s" s="25">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="Q234" t="s" s="25">
         <v>624</v>
@@ -18080,25 +18101,25 @@
         <v>1080</v>
       </c>
       <c r="J235" t="s" s="25">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="K235" t="s" s="25">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="L235" t="s" s="25">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="M235" t="s" s="25">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="N235" t="s" s="25">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="O235" t="s" s="25">
         <v>624</v>
       </c>
       <c r="P235" t="s" s="25">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="Q235" t="s" s="25">
         <v>624</v>
@@ -18148,7 +18169,7 @@
         <v>781</v>
       </c>
       <c r="N236" t="s" s="25">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="O236" t="s" s="25">
         <v>624</v>
@@ -18307,7 +18328,7 @@
         <v>685</v>
       </c>
       <c r="K239" t="s" s="25">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="L239" t="s" s="25">
         <v>1100</v>
@@ -18384,7 +18405,7 @@
         <v>643</v>
       </c>
       <c r="R240" t="s" s="25">
-        <v>624</v>
+        <v>636</v>
       </c>
     </row>
     <row r="241" ht="15.0" customHeight="true">
@@ -18440,7 +18461,7 @@
         <v>643</v>
       </c>
       <c r="R241" t="s" s="25">
-        <v>624</v>
+        <v>636</v>
       </c>
     </row>
     <row r="242" ht="15.0" customHeight="true">
@@ -18496,7 +18517,7 @@
         <v>643</v>
       </c>
       <c r="R242" t="s" s="25">
-        <v>624</v>
+        <v>643</v>
       </c>
     </row>
     <row r="243" ht="15.0" customHeight="true">
@@ -18608,7 +18629,7 @@
         <v>643</v>
       </c>
       <c r="R244" t="s" s="25">
-        <v>624</v>
+        <v>643</v>
       </c>
     </row>
     <row r="245" ht="15.0" customHeight="true">
@@ -18652,19 +18673,19 @@
         <v>890</v>
       </c>
       <c r="N245" t="s" s="25">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="O245" t="s" s="25">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="P245" t="s" s="25">
         <v>769</v>
       </c>
       <c r="Q245" t="s" s="25">
-        <v>1503</v>
+        <v>1507</v>
       </c>
       <c r="R245" t="s" s="25">
-        <v>624</v>
+        <v>821</v>
       </c>
     </row>
     <row r="246" ht="15.0" customHeight="true">
@@ -18699,25 +18720,25 @@
         <v>947</v>
       </c>
       <c r="K246" t="s" s="25">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="L246" t="s" s="25">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="M246" t="s" s="25">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="N246" t="s" s="25">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="O246" t="s" s="25">
         <v>998</v>
       </c>
       <c r="P246" t="s" s="25">
-        <v>624</v>
+        <v>1466</v>
       </c>
       <c r="Q246" t="s" s="25">
-        <v>624</v>
+        <v>1508</v>
       </c>
       <c r="R246" t="s" s="25">
         <v>624</v>
@@ -18752,28 +18773,28 @@
         <v>1082</v>
       </c>
       <c r="J247" t="s" s="25">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="K247" t="s" s="25">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="L247" t="s" s="25">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="M247" t="s" s="25">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="N247" t="s" s="25">
         <v>916</v>
       </c>
       <c r="O247" t="s" s="25">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="P247" t="s" s="25">
-        <v>1464</v>
+        <v>1467</v>
       </c>
       <c r="Q247" t="s" s="25">
-        <v>624</v>
+        <v>1509</v>
       </c>
       <c r="R247" t="s" s="25">
         <v>624</v>
@@ -18808,10 +18829,10 @@
         <v>1083</v>
       </c>
       <c r="J248" t="s" s="25">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="K248" t="s" s="25">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="L248" t="s" s="25">
         <v>1036</v>
@@ -18820,7 +18841,7 @@
         <v>1007</v>
       </c>
       <c r="N248" t="s" s="25">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="O248" t="s" s="25">
         <v>1002</v>
@@ -18829,10 +18850,10 @@
         <v>1005</v>
       </c>
       <c r="Q248" t="s" s="25">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="R248" t="s" s="25">
-        <v>1465</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="249" ht="15.0" customHeight="true">
@@ -18867,28 +18888,28 @@
         <v>1071</v>
       </c>
       <c r="K249" t="s" s="25">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="L249" t="s" s="25">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="M249" t="s" s="25">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="N249" t="s" s="25">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="O249" t="s" s="25">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="P249" t="s" s="25">
-        <v>1465</v>
+        <v>1468</v>
       </c>
       <c r="Q249" t="s" s="25">
-        <v>1504</v>
+        <v>1510</v>
       </c>
       <c r="R249" t="s" s="25">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="250" ht="15.0" customHeight="true">
@@ -18920,31 +18941,31 @@
         <v>829</v>
       </c>
       <c r="J250" t="s" s="25">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="K250" t="s" s="25">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="L250" t="s" s="25">
         <v>1033</v>
       </c>
       <c r="M250" t="s" s="25">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="N250" t="s" s="25">
         <v>879</v>
       </c>
       <c r="O250" t="s" s="25">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="P250" t="s" s="25">
         <v>1394</v>
       </c>
       <c r="Q250" t="s" s="25">
-        <v>1505</v>
+        <v>1511</v>
       </c>
       <c r="R250" t="s" s="25">
-        <v>1521</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="251" ht="15.0" customHeight="true">
@@ -18979,25 +19000,25 @@
         <v>828</v>
       </c>
       <c r="K251" t="s" s="25">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="L251" t="s" s="25">
         <v>1086</v>
       </c>
       <c r="M251" t="s" s="25">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="N251" t="s" s="25">
         <v>676</v>
       </c>
       <c r="O251" t="s" s="25">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="P251" t="s" s="25">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="Q251" t="s" s="25">
-        <v>1504</v>
+        <v>1510</v>
       </c>
       <c r="R251" t="s" s="25">
         <v>950</v>
@@ -19032,28 +19053,28 @@
         <v>937</v>
       </c>
       <c r="J252" t="s" s="25">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="K252" t="s" s="25">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="L252" t="s" s="25">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="M252" t="s" s="25">
         <v>785</v>
       </c>
       <c r="N252" t="s" s="25">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="O252" t="s" s="25">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="P252" t="s" s="25">
-        <v>1466</v>
+        <v>1469</v>
       </c>
       <c r="Q252" t="s" s="25">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="R252" t="s" s="25">
         <v>993</v>
@@ -19088,16 +19109,16 @@
         <v>1086</v>
       </c>
       <c r="J253" t="s" s="25">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="K253" t="s" s="25">
         <v>1127</v>
       </c>
       <c r="L253" t="s" s="25">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M253" t="s" s="25">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="N253" t="s" s="25">
         <v>960</v>
@@ -19144,10 +19165,10 @@
         <v>1087</v>
       </c>
       <c r="J254" t="s" s="25">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="K254" t="s" s="25">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="L254" t="s" s="25">
         <v>1084</v>
@@ -19159,16 +19180,16 @@
         <v>1135</v>
       </c>
       <c r="O254" t="s" s="25">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="P254" t="s" s="25">
-        <v>1467</v>
+        <v>1470</v>
       </c>
       <c r="Q254" t="s" s="25">
-        <v>1506</v>
+        <v>1512</v>
       </c>
       <c r="R254" t="s" s="25">
-        <v>1522</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="255" ht="15.0" customHeight="true">
@@ -19200,19 +19221,19 @@
         <v>1088</v>
       </c>
       <c r="J255" t="s" s="25">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="K255" t="s" s="25">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="L255" t="s" s="25">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="M255" t="s" s="25">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="N255" t="s" s="25">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="O255" t="s" s="25">
         <v>1395</v>
@@ -19221,7 +19242,7 @@
         <v>1124</v>
       </c>
       <c r="Q255" t="s" s="25">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="R255" t="s" s="25">
         <v>928</v>
@@ -19256,28 +19277,28 @@
         <v>1089</v>
       </c>
       <c r="J256" t="s" s="25">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="K256" t="s" s="25">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="L256" t="s" s="25">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="M256" t="s" s="25">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="N256" t="s" s="25">
         <v>772</v>
       </c>
       <c r="O256" t="s" s="25">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="P256" t="s" s="25">
-        <v>1468</v>
+        <v>1471</v>
       </c>
       <c r="Q256" t="s" s="25">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="R256" t="s" s="25">
         <v>976</v>
@@ -19312,16 +19333,16 @@
         <v>1090</v>
       </c>
       <c r="J257" t="s" s="25">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="K257" t="s" s="25">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="L257" t="s" s="25">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M257" t="s" s="25">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="N257" t="s" s="25">
         <v>847</v>
@@ -19330,7 +19351,7 @@
         <v>958</v>
       </c>
       <c r="P257" t="s" s="25">
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="Q257" t="s" s="25">
         <v>860</v>
@@ -20096,7 +20117,7 @@
         <v>1017</v>
       </c>
       <c r="J271" t="s" s="25">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="K271" t="s" s="25">
         <v>926</v>
@@ -20105,19 +20126,19 @@
         <v>881</v>
       </c>
       <c r="M271" t="s" s="25">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="N271" t="s" s="25">
         <v>991</v>
       </c>
       <c r="O271" t="s" s="25">
-        <v>911</v>
+        <v>1430</v>
       </c>
       <c r="P271" t="s" s="25">
-        <v>889</v>
+        <v>771</v>
       </c>
       <c r="Q271" t="s" s="25">
-        <v>624</v>
+        <v>1345</v>
       </c>
       <c r="R271" t="s" s="25">
         <v>624</v>
@@ -20155,13 +20176,13 @@
         <v>1007</v>
       </c>
       <c r="K272" t="s" s="25">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="L272" t="s" s="25">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M272" t="s" s="25">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="N272" t="s" s="25">
         <v>662</v>
@@ -20170,10 +20191,10 @@
         <v>661</v>
       </c>
       <c r="P272" t="s" s="25">
-        <v>1470</v>
+        <v>1473</v>
       </c>
       <c r="Q272" t="s" s="25">
-        <v>624</v>
+        <v>1429</v>
       </c>
       <c r="R272" t="s" s="25">
         <v>624</v>
@@ -20208,28 +20229,28 @@
         <v>1092</v>
       </c>
       <c r="J273" t="s" s="25">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="K273" t="s" s="25">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="L273" t="s" s="25">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="M273" t="s" s="25">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="N273" t="s" s="25">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O273" t="s" s="25">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="P273" t="s" s="25">
-        <v>1471</v>
+        <v>1474</v>
       </c>
       <c r="Q273" t="s" s="25">
-        <v>624</v>
+        <v>696</v>
       </c>
       <c r="R273" t="s" s="25">
         <v>624</v>
@@ -20267,7 +20288,7 @@
         <v>704</v>
       </c>
       <c r="K274" t="s" s="25">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="L274" t="s" s="25">
         <v>806</v>
@@ -20279,7 +20300,7 @@
         <v>643</v>
       </c>
       <c r="O274" t="s" s="25">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="P274" t="s" s="25">
         <v>631</v>
@@ -20382,13 +20403,13 @@
         <v>718</v>
       </c>
       <c r="L276" t="s" s="25">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="M276" t="s" s="25">
         <v>1021</v>
       </c>
       <c r="N276" t="s" s="25">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="O276" t="s" s="25">
         <v>663</v>
@@ -20494,22 +20515,22 @@
         <v>877</v>
       </c>
       <c r="L278" t="s" s="25">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="M278" t="s" s="25">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="N278" t="s" s="25">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="O278" t="s" s="25">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="P278" t="s" s="25">
-        <v>1472</v>
+        <v>1475</v>
       </c>
       <c r="Q278" t="s" s="25">
-        <v>1507</v>
+        <v>1513</v>
       </c>
       <c r="R278" t="s" s="25">
         <v>624</v>
@@ -20603,22 +20624,22 @@
         <v>860</v>
       </c>
       <c r="K280" t="s" s="25">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="L280" t="s" s="25">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="M280" t="s" s="25">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="N280" t="s" s="25">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="O280" t="s" s="25">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="P280" t="s" s="25">
-        <v>1473</v>
+        <v>1476</v>
       </c>
       <c r="Q280" t="s" s="25">
         <v>1406</v>
@@ -20659,7 +20680,7 @@
         <v>792</v>
       </c>
       <c r="K281" t="s" s="25">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="L281" t="s" s="25">
         <v>1032</v>
@@ -20733,7 +20754,7 @@
         <v>779</v>
       </c>
       <c r="Q282" t="s" s="25">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="R282" t="s" s="25">
         <v>624</v>
@@ -20771,7 +20792,7 @@
         <v>849</v>
       </c>
       <c r="K283" t="s" s="25">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="L283" t="s" s="25">
         <v>697</v>
@@ -20786,7 +20807,7 @@
         <v>1035</v>
       </c>
       <c r="P283" t="s" s="25">
-        <v>1474</v>
+        <v>1477</v>
       </c>
       <c r="Q283" t="s" s="25">
         <v>753</v>
@@ -20880,19 +20901,19 @@
         <v>1096</v>
       </c>
       <c r="J285" t="s" s="25">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="K285" t="s" s="25">
         <v>874</v>
       </c>
       <c r="L285" t="s" s="25">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="M285" t="s" s="25">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="N285" t="s" s="25">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="O285" t="s" s="25">
         <v>980</v>
@@ -20901,10 +20922,10 @@
         <v>964</v>
       </c>
       <c r="Q285" t="s" s="25">
-        <v>1508</v>
+        <v>1514</v>
       </c>
       <c r="R285" t="s" s="25">
-        <v>1436</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="286" ht="15.0" customHeight="true">
@@ -20951,10 +20972,10 @@
         <v>648</v>
       </c>
       <c r="O286" t="s" s="25">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="P286" t="s" s="25">
-        <v>1475</v>
+        <v>1478</v>
       </c>
       <c r="Q286" t="s" s="25">
         <v>686</v>
@@ -21063,7 +21084,7 @@
         <v>715</v>
       </c>
       <c r="O288" t="s" s="25">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="P288" t="s" s="25">
         <v>1116</v>
@@ -21072,7 +21093,7 @@
         <v>909</v>
       </c>
       <c r="R288" t="s" s="25">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="289" ht="15.0" customHeight="true">
@@ -21160,16 +21181,16 @@
         <v>692</v>
       </c>
       <c r="J290" t="s" s="25">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="K290" t="s" s="25">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="L290" t="s" s="25">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="M290" t="s" s="25">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="N290" t="s" s="25">
         <v>727</v>
@@ -21181,7 +21202,7 @@
         <v>902</v>
       </c>
       <c r="Q290" t="s" s="25">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="R290" t="s" s="25">
         <v>624</v>
@@ -21213,19 +21234,19 @@
         <v>1014</v>
       </c>
       <c r="I291" t="s" s="25">
-        <v>663</v>
+        <v>693</v>
       </c>
       <c r="J291" t="s" s="25">
         <v>663</v>
       </c>
       <c r="K291" t="s" s="25">
-        <v>1136</v>
+        <v>663</v>
       </c>
       <c r="L291" t="s" s="25">
-        <v>663</v>
+        <v>693</v>
       </c>
       <c r="M291" t="s" s="25">
-        <v>1034</v>
+        <v>1073</v>
       </c>
       <c r="N291" t="s" s="25">
         <v>1073</v>
@@ -21234,13 +21255,13 @@
         <v>1072</v>
       </c>
       <c r="P291" t="s" s="25">
-        <v>1136</v>
+        <v>1014</v>
       </c>
       <c r="Q291" t="s" s="25">
-        <v>693</v>
+        <v>1034</v>
       </c>
       <c r="R291" t="s" s="25">
-        <v>624</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="292" ht="15.0" customHeight="true">
@@ -21272,19 +21293,19 @@
         <v>840</v>
       </c>
       <c r="J292" t="s" s="25">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="K292" t="s" s="25">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="L292" t="s" s="25">
-        <v>1295</v>
+        <v>1097</v>
       </c>
       <c r="M292" t="s" s="25">
         <v>647</v>
       </c>
       <c r="N292" t="s" s="25">
-        <v>1317</v>
+        <v>1383</v>
       </c>
       <c r="O292" t="s" s="25">
         <v>650</v>
@@ -21293,10 +21314,10 @@
         <v>670</v>
       </c>
       <c r="Q292" t="s" s="25">
-        <v>1239</v>
+        <v>1051</v>
       </c>
       <c r="R292" t="s" s="25">
-        <v>624</v>
+        <v>636</v>
       </c>
     </row>
     <row r="293" ht="15.0" customHeight="true">
@@ -21520,7 +21541,7 @@
         <v>749</v>
       </c>
       <c r="R296" t="s" s="25">
-        <v>624</v>
+        <v>749</v>
       </c>
     </row>
     <row r="297" ht="15.0" customHeight="true">
@@ -21565,7 +21586,7 @@
     </row>
     <row r="299" ht="15.0" customHeight="true">
       <c r="A299" s="21" t="s">
-        <v>1523</v>
+        <v>1530</v>
       </c>
       <c r="B299" s="21"/>
       <c r="C299" s="21"/>
